--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['23', '90+6']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -881,6 +887,9 @@
   </si>
   <si>
     <t>['12', '17']</t>
+  </si>
+  <si>
+    <t>['8', '41']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1510,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1707,7 +1716,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1913,7 +1922,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2325,7 +2334,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2406,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2737,7 +2746,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2943,7 +2952,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3149,7 +3158,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3639,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3767,7 +3776,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3848,7 +3857,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3973,7 +3982,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4797,7 +4806,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5415,7 +5424,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5493,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5621,7 +5630,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5908,7 +5917,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6111,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6445,7 +6454,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6523,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.43</v>
@@ -7063,7 +7072,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7141,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7269,7 +7278,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7762,7 +7771,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8299,7 +8308,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8505,7 +8514,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8711,7 +8720,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8792,7 +8801,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8917,7 +8926,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9123,7 +9132,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9329,7 +9338,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9535,7 +9544,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9947,7 +9956,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10153,7 +10162,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10231,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -11264,7 +11273,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11389,7 +11398,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11676,7 +11685,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -12294,7 +12303,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12625,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12703,7 +12712,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12831,7 +12840,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12909,7 +12918,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -13449,7 +13458,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13655,7 +13664,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13861,7 +13870,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14354,7 +14363,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14685,7 +14694,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15175,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>0.29</v>
@@ -15303,7 +15312,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15715,7 +15724,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16333,7 +16342,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16411,7 +16420,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16745,7 +16754,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16951,7 +16960,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17029,7 +17038,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.88</v>
@@ -17238,7 +17247,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17363,7 +17372,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17775,7 +17784,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18062,7 +18071,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18599,7 +18608,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19423,7 +19432,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20041,7 +20050,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20740,7 +20749,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -21149,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21277,7 +21286,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22101,7 +22110,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22307,7 +22316,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22385,7 +22394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -23621,10 +23630,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24242,7 +24251,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24779,7 +24788,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24857,10 +24866,10 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24985,7 +24994,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25397,7 +25406,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26299,7 +26308,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -26427,7 +26436,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26633,7 +26642,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26839,7 +26848,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26920,7 +26929,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27744,7 +27753,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28075,7 +28084,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28693,7 +28702,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28977,7 +28986,7 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135">
         <v>1.43</v>
@@ -29105,7 +29114,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29804,7 +29813,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ139">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -29929,7 +29938,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30135,7 +30144,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30213,7 +30222,7 @@
         <v>0.4</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ141">
         <v>0.43</v>
@@ -30959,7 +30968,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31165,7 +31174,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31371,7 +31380,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31577,7 +31586,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31783,7 +31792,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32195,7 +32204,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32607,7 +32616,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32813,7 +32822,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33225,7 +33234,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33303,10 +33312,10 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR156">
         <v>1.43</v>
@@ -33512,7 +33521,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.46</v>
@@ -33715,7 +33724,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33843,7 +33852,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -34049,7 +34058,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34127,7 +34136,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ160">
         <v>1.75</v>
@@ -34542,7 +34551,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34745,7 +34754,7 @@
         <v>0.86</v>
       </c>
       <c r="AP163">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ163">
         <v>0.75</v>
@@ -35079,7 +35088,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35285,7 +35294,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35572,7 +35581,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR167">
         <v>1.4</v>
@@ -35984,7 +35993,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36521,7 +36530,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36727,7 +36736,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37139,7 +37148,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37757,7 +37766,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38169,7 +38178,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38532,6 +38541,624 @@
       </c>
       <c r="BP181">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7478930</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45618.70833333334</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>92</v>
+      </c>
+      <c r="H182" t="s">
+        <v>87</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>219</v>
+      </c>
+      <c r="P182" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q182">
+        <v>3.4</v>
+      </c>
+      <c r="R182">
+        <v>2.3</v>
+      </c>
+      <c r="S182">
+        <v>2.88</v>
+      </c>
+      <c r="T182">
+        <v>1.33</v>
+      </c>
+      <c r="U182">
+        <v>3.25</v>
+      </c>
+      <c r="V182">
+        <v>2.5</v>
+      </c>
+      <c r="W182">
+        <v>1.5</v>
+      </c>
+      <c r="X182">
+        <v>6.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.11</v>
+      </c>
+      <c r="Z182">
+        <v>3.1</v>
+      </c>
+      <c r="AA182">
+        <v>3.5</v>
+      </c>
+      <c r="AB182">
+        <v>2.2</v>
+      </c>
+      <c r="AC182">
+        <v>1.03</v>
+      </c>
+      <c r="AD182">
+        <v>15</v>
+      </c>
+      <c r="AE182">
+        <v>1.22</v>
+      </c>
+      <c r="AF182">
+        <v>4.33</v>
+      </c>
+      <c r="AG182">
+        <v>1.64</v>
+      </c>
+      <c r="AH182">
+        <v>2.18</v>
+      </c>
+      <c r="AI182">
+        <v>1.53</v>
+      </c>
+      <c r="AJ182">
+        <v>2.38</v>
+      </c>
+      <c r="AK182">
+        <v>1.66</v>
+      </c>
+      <c r="AL182">
+        <v>1.25</v>
+      </c>
+      <c r="AM182">
+        <v>1.4</v>
+      </c>
+      <c r="AN182">
+        <v>2</v>
+      </c>
+      <c r="AO182">
+        <v>0.75</v>
+      </c>
+      <c r="AP182">
+        <v>1.88</v>
+      </c>
+      <c r="AQ182">
+        <v>0.78</v>
+      </c>
+      <c r="AR182">
+        <v>1.52</v>
+      </c>
+      <c r="AS182">
+        <v>1.09</v>
+      </c>
+      <c r="AT182">
+        <v>2.61</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>6</v>
+      </c>
+      <c r="AW182">
+        <v>5</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>11</v>
+      </c>
+      <c r="AZ182">
+        <v>13</v>
+      </c>
+      <c r="BA182">
+        <v>2</v>
+      </c>
+      <c r="BB182">
+        <v>8</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>1.9</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>2.07</v>
+      </c>
+      <c r="BG182">
+        <v>1.15</v>
+      </c>
+      <c r="BH182">
+        <v>4.6</v>
+      </c>
+      <c r="BI182">
+        <v>1.28</v>
+      </c>
+      <c r="BJ182">
+        <v>3.3</v>
+      </c>
+      <c r="BK182">
+        <v>1.47</v>
+      </c>
+      <c r="BL182">
+        <v>2.48</v>
+      </c>
+      <c r="BM182">
+        <v>1.74</v>
+      </c>
+      <c r="BN182">
+        <v>1.96</v>
+      </c>
+      <c r="BO182">
+        <v>2.14</v>
+      </c>
+      <c r="BP182">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7478925</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F183">
+        <v>16</v>
+      </c>
+      <c r="G183" t="s">
+        <v>89</v>
+      </c>
+      <c r="H183" t="s">
+        <v>91</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>95</v>
+      </c>
+      <c r="P183" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q183">
+        <v>3.6</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>3.4</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>3.5</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>1.95</v>
+      </c>
+      <c r="AA183">
+        <v>2.43</v>
+      </c>
+      <c r="AB183">
+        <v>5.37</v>
+      </c>
+      <c r="AC183">
+        <v>1.08</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.44</v>
+      </c>
+      <c r="AF183">
+        <v>2.8</v>
+      </c>
+      <c r="AG183">
+        <v>2.1</v>
+      </c>
+      <c r="AH183">
+        <v>1.65</v>
+      </c>
+      <c r="AI183">
+        <v>1.91</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.53</v>
+      </c>
+      <c r="AL183">
+        <v>1.3</v>
+      </c>
+      <c r="AM183">
+        <v>1.44</v>
+      </c>
+      <c r="AN183">
+        <v>1.43</v>
+      </c>
+      <c r="AO183">
+        <v>1.5</v>
+      </c>
+      <c r="AP183">
+        <v>1.25</v>
+      </c>
+      <c r="AQ183">
+        <v>1.67</v>
+      </c>
+      <c r="AR183">
+        <v>1.3</v>
+      </c>
+      <c r="AS183">
+        <v>1.16</v>
+      </c>
+      <c r="AT183">
+        <v>2.46</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>2</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>15</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>11</v>
+      </c>
+      <c r="BD183">
+        <v>2.18</v>
+      </c>
+      <c r="BE183">
+        <v>6.75</v>
+      </c>
+      <c r="BF183">
+        <v>1.8</v>
+      </c>
+      <c r="BG183">
+        <v>1.2</v>
+      </c>
+      <c r="BH183">
+        <v>3.9</v>
+      </c>
+      <c r="BI183">
+        <v>1.36</v>
+      </c>
+      <c r="BJ183">
+        <v>2.8</v>
+      </c>
+      <c r="BK183">
+        <v>1.58</v>
+      </c>
+      <c r="BL183">
+        <v>2.18</v>
+      </c>
+      <c r="BM183">
+        <v>1.95</v>
+      </c>
+      <c r="BN183">
+        <v>1.75</v>
+      </c>
+      <c r="BO183">
+        <v>2.4</v>
+      </c>
+      <c r="BP183">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7478933</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>80</v>
+      </c>
+      <c r="H184" t="s">
+        <v>78</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>220</v>
+      </c>
+      <c r="P184" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q184">
+        <v>2.63</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.4</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
+        <v>2.75</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.08</v>
+      </c>
+      <c r="Z184">
+        <v>3.59</v>
+      </c>
+      <c r="AA184">
+        <v>1.95</v>
+      </c>
+      <c r="AB184">
+        <v>3.15</v>
+      </c>
+      <c r="AC184">
+        <v>1.06</v>
+      </c>
+      <c r="AD184">
+        <v>10</v>
+      </c>
+      <c r="AE184">
+        <v>1.33</v>
+      </c>
+      <c r="AF184">
+        <v>3.4</v>
+      </c>
+      <c r="AG184">
+        <v>1.96</v>
+      </c>
+      <c r="AH184">
+        <v>1.88</v>
+      </c>
+      <c r="AI184">
+        <v>1.73</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.3</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.8</v>
+      </c>
+      <c r="AN184">
+        <v>1.38</v>
+      </c>
+      <c r="AO184">
+        <v>0.43</v>
+      </c>
+      <c r="AP184">
+        <v>1.33</v>
+      </c>
+      <c r="AQ184">
+        <v>0.5</v>
+      </c>
+      <c r="AR184">
+        <v>1.45</v>
+      </c>
+      <c r="AS184">
+        <v>1.08</v>
+      </c>
+      <c r="AT184">
+        <v>2.53</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>18</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>1.5</v>
+      </c>
+      <c r="BE184">
+        <v>7</v>
+      </c>
+      <c r="BF184">
+        <v>2.9</v>
+      </c>
+      <c r="BG184">
+        <v>1.21</v>
+      </c>
+      <c r="BH184">
+        <v>3.7</v>
+      </c>
+      <c r="BI184">
+        <v>1.4</v>
+      </c>
+      <c r="BJ184">
+        <v>2.7</v>
+      </c>
+      <c r="BK184">
+        <v>1.65</v>
+      </c>
+      <c r="BL184">
+        <v>2.08</v>
+      </c>
+      <c r="BM184">
+        <v>2</v>
+      </c>
+      <c r="BN184">
+        <v>1.71</v>
+      </c>
+      <c r="BO184">
+        <v>2.5</v>
+      </c>
+      <c r="BP184">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,7 +676,22 @@
     <t>['23', '90+6']</t>
   </si>
   <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['11', '43']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['24', '72']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -734,9 +749,6 @@
   </si>
   <si>
     <t>['59', '62']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['55', '82']</t>
@@ -890,6 +902,15 @@
   </si>
   <si>
     <t>['8', '41']</t>
+  </si>
+  <si>
+    <t>['13', '34']</t>
+  </si>
+  <si>
+    <t>['20', '41']</t>
+  </si>
+  <si>
+    <t>['37', '42', '45', '49', '80', '83']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1531,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1591,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1716,7 +1737,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1794,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1922,7 +1943,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2000,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ4">
         <v>1.88</v>
@@ -2206,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2334,7 +2355,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2412,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2746,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2952,7 +2973,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3158,7 +3179,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3239,7 +3260,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3776,7 +3797,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3854,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3982,7 +4003,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4060,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>0.29</v>
@@ -4266,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4475,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4806,7 +4827,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5424,7 +5445,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5630,7 +5651,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6123,7 +6144,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6454,7 +6475,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6944,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
         <v>0.25</v>
@@ -7072,7 +7093,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7278,7 +7299,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7565,7 +7586,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7974,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -8308,7 +8329,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8514,7 +8535,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8595,7 +8616,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8720,7 +8741,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8926,7 +8947,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9004,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>0.86</v>
@@ -9132,7 +9153,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9338,7 +9359,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9419,7 +9440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9544,7 +9565,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9622,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9828,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -9956,7 +9977,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10037,7 +10058,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10162,7 +10183,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10446,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10655,7 +10676,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11064,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>0.43</v>
@@ -11398,7 +11419,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11479,7 +11500,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11888,7 +11909,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -12094,7 +12115,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12634,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12715,7 +12736,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12840,7 +12861,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13458,7 +13479,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13664,7 +13685,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13870,7 +13891,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13951,7 +13972,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14157,7 +14178,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14566,7 +14587,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14694,7 +14715,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14978,7 +14999,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>0.25</v>
@@ -15312,7 +15333,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15596,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15724,7 +15745,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15802,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>0.88</v>
@@ -16011,7 +16032,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16214,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>0.86</v>
@@ -16342,7 +16363,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16754,7 +16775,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16960,7 +16981,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17244,7 +17265,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17372,7 +17393,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17453,7 +17474,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17784,7 +17805,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17862,7 +17883,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
         <v>0.43</v>
@@ -18277,7 +18298,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18608,7 +18629,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19304,7 +19325,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>0.86</v>
@@ -19432,7 +19453,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19510,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>0.29</v>
@@ -19719,7 +19740,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ90">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20050,7 +20071,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20128,10 +20149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20334,10 +20355,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20746,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ95">
         <v>0.78</v>
@@ -21286,7 +21307,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21779,7 +21800,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22110,7 +22131,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22188,7 +22209,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22316,7 +22337,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23015,7 +23036,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23218,7 +23239,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23839,7 +23860,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24248,7 +24269,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>0.78</v>
@@ -24454,7 +24475,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -24660,7 +24681,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>1.88</v>
@@ -24788,7 +24809,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24994,7 +25015,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25072,7 +25093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25406,7 +25427,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25896,10 +25917,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26105,7 +26126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ121">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26436,7 +26457,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26514,7 +26535,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26642,7 +26663,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26848,7 +26869,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27338,10 +27359,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27544,7 +27565,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ128">
         <v>0.88</v>
@@ -28084,7 +28105,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28162,10 +28183,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28368,7 +28389,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132">
         <v>0.25</v>
@@ -28577,7 +28598,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28702,7 +28723,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29114,7 +29135,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29192,7 +29213,7 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136">
         <v>0.57</v>
@@ -29810,7 +29831,7 @@
         <v>0.4</v>
       </c>
       <c r="AP139">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139">
         <v>0.5</v>
@@ -29938,7 +29959,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30144,7 +30165,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30431,7 +30452,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.28</v>
@@ -30968,7 +30989,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31049,7 +31070,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31174,7 +31195,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31252,7 +31273,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146">
         <v>1.88</v>
@@ -31380,7 +31401,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31461,7 +31482,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR147">
         <v>1.31</v>
@@ -31586,7 +31607,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31664,7 +31685,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
         <v>0.88</v>
@@ -31792,7 +31813,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31873,7 +31894,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32204,7 +32225,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32616,7 +32637,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32822,7 +32843,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32900,7 +32921,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>1.5</v>
@@ -33106,10 +33127,10 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.73</v>
@@ -33234,7 +33255,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33518,7 +33539,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33852,7 +33873,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -33930,10 +33951,10 @@
         <v>1.17</v>
       </c>
       <c r="AP159">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ159">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34058,7 +34079,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34139,7 +34160,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34342,10 +34363,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.05</v>
@@ -34960,7 +34981,7 @@
         <v>1.67</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
         <v>1.43</v>
@@ -35088,7 +35109,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35294,7 +35315,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35372,10 +35393,10 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.94</v>
@@ -35578,7 +35599,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ167">
         <v>0.5</v>
@@ -35784,10 +35805,10 @@
         <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -35990,7 +36011,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
         <v>1.67</v>
@@ -36530,7 +36551,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36736,7 +36757,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37148,7 +37169,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37766,7 +37787,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38178,7 +38199,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38557,7 +38578,7 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45618.70833333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -38590,7 +38611,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38796,7 +38817,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Q183">
         <v>3.6</v>
@@ -38960,7 +38981,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7478933</v>
+        <v>7478926</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -38972,46 +38993,46 @@
         <v>45619.39583333334</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H184" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O184" t="s">
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="Q184">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R184">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T184">
         <v>1.4</v>
@@ -39020,10 +39041,10 @@
         <v>2.75</v>
       </c>
       <c r="V184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W184">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X184">
         <v>8</v>
@@ -39032,19 +39053,19 @@
         <v>1.08</v>
       </c>
       <c r="Z184">
-        <v>3.59</v>
+        <v>1.8</v>
       </c>
       <c r="AA184">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="AB184">
-        <v>3.15</v>
+        <v>5.73</v>
       </c>
       <c r="AC184">
         <v>1.06</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE184">
         <v>1.33</v>
@@ -39053,10 +39074,10 @@
         <v>3.4</v>
       </c>
       <c r="AG184">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AH184">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AI184">
         <v>1.73</v>
@@ -39065,100 +39086,1542 @@
         <v>2</v>
       </c>
       <c r="AK184">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AL184">
         <v>1.28</v>
       </c>
       <c r="AM184">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AN184">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AO184">
-        <v>0.43</v>
+        <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR184">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="AS184">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AT184">
-        <v>2.53</v>
+        <v>3.23</v>
       </c>
       <c r="AU184">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW184">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY184">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ184">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA184">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BB184">
         <v>2</v>
       </c>
       <c r="BC184">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD184">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BE184">
         <v>7</v>
       </c>
       <c r="BF184">
+        <v>2.15</v>
+      </c>
+      <c r="BG184">
+        <v>1.09</v>
+      </c>
+      <c r="BH184">
+        <v>5.8</v>
+      </c>
+      <c r="BI184">
+        <v>1.19</v>
+      </c>
+      <c r="BJ184">
+        <v>4.1</v>
+      </c>
+      <c r="BK184">
+        <v>1.32</v>
+      </c>
+      <c r="BL184">
+        <v>3.05</v>
+      </c>
+      <c r="BM184">
+        <v>1.5</v>
+      </c>
+      <c r="BN184">
+        <v>2.35</v>
+      </c>
+      <c r="BO184">
+        <v>1.79</v>
+      </c>
+      <c r="BP184">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7478933</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>221</v>
+      </c>
+      <c r="P185" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q185">
+        <v>2.63</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>3.59</v>
+      </c>
+      <c r="AA185">
+        <v>1.95</v>
+      </c>
+      <c r="AB185">
+        <v>3.15</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.33</v>
+      </c>
+      <c r="AF185">
+        <v>3.4</v>
+      </c>
+      <c r="AG185">
+        <v>1.96</v>
+      </c>
+      <c r="AH185">
+        <v>1.88</v>
+      </c>
+      <c r="AI185">
+        <v>1.73</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
+        <v>1.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.8</v>
+      </c>
+      <c r="AN185">
+        <v>1.38</v>
+      </c>
+      <c r="AO185">
+        <v>0.43</v>
+      </c>
+      <c r="AP185">
+        <v>1.33</v>
+      </c>
+      <c r="AQ185">
+        <v>0.5</v>
+      </c>
+      <c r="AR185">
+        <v>1.45</v>
+      </c>
+      <c r="AS185">
+        <v>1.08</v>
+      </c>
+      <c r="AT185">
+        <v>2.53</v>
+      </c>
+      <c r="AU185">
+        <v>4</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>18</v>
+      </c>
+      <c r="AZ185">
+        <v>10</v>
+      </c>
+      <c r="BA185">
+        <v>6</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.5</v>
+      </c>
+      <c r="BE185">
+        <v>7</v>
+      </c>
+      <c r="BF185">
         <v>2.9</v>
       </c>
-      <c r="BG184">
+      <c r="BG185">
         <v>1.21</v>
       </c>
-      <c r="BH184">
+      <c r="BH185">
         <v>3.7</v>
       </c>
-      <c r="BI184">
+      <c r="BI185">
         <v>1.4</v>
       </c>
-      <c r="BJ184">
+      <c r="BJ185">
         <v>2.7</v>
       </c>
-      <c r="BK184">
+      <c r="BK185">
         <v>1.65</v>
       </c>
-      <c r="BL184">
+      <c r="BL185">
         <v>2.08</v>
       </c>
-      <c r="BM184">
-        <v>2</v>
-      </c>
-      <c r="BN184">
+      <c r="BM185">
+        <v>2</v>
+      </c>
+      <c r="BN185">
         <v>1.71</v>
       </c>
-      <c r="BO184">
+      <c r="BO185">
         <v>2.5</v>
       </c>
-      <c r="BP184">
+      <c r="BP185">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7478932</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F186">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>143</v>
+      </c>
+      <c r="P186" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q186">
+        <v>3.2</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>3.4</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>5.65</v>
+      </c>
+      <c r="AA186">
+        <v>5.26</v>
+      </c>
+      <c r="AB186">
+        <v>1.35</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>12</v>
+      </c>
+      <c r="AE186">
+        <v>1.3</v>
+      </c>
+      <c r="AF186">
+        <v>3.6</v>
+      </c>
+      <c r="AG186">
+        <v>2.03</v>
+      </c>
+      <c r="AH186">
+        <v>1.85</v>
+      </c>
+      <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.48</v>
+      </c>
+      <c r="AL186">
+        <v>1.28</v>
+      </c>
+      <c r="AM186">
+        <v>1.53</v>
+      </c>
+      <c r="AN186">
+        <v>0.5</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>1.68</v>
+      </c>
+      <c r="AS186">
+        <v>1.08</v>
+      </c>
+      <c r="AT186">
+        <v>2.76</v>
+      </c>
+      <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>11</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>24</v>
+      </c>
+      <c r="AZ186">
+        <v>10</v>
+      </c>
+      <c r="BA186">
+        <v>10</v>
+      </c>
+      <c r="BB186">
+        <v>4</v>
+      </c>
+      <c r="BC186">
+        <v>14</v>
+      </c>
+      <c r="BD186">
+        <v>1.73</v>
+      </c>
+      <c r="BE186">
+        <v>6.75</v>
+      </c>
+      <c r="BF186">
+        <v>2.32</v>
+      </c>
+      <c r="BG186">
+        <v>1.16</v>
+      </c>
+      <c r="BH186">
+        <v>4.4</v>
+      </c>
+      <c r="BI186">
+        <v>1.29</v>
+      </c>
+      <c r="BJ186">
+        <v>3.15</v>
+      </c>
+      <c r="BK186">
+        <v>1.48</v>
+      </c>
+      <c r="BL186">
+        <v>2.43</v>
+      </c>
+      <c r="BM186">
+        <v>1.77</v>
+      </c>
+      <c r="BN186">
+        <v>1.92</v>
+      </c>
+      <c r="BO186">
+        <v>2.18</v>
+      </c>
+      <c r="BP186">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7478931</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F187">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>222</v>
+      </c>
+      <c r="P187" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>4</v>
+      </c>
+      <c r="T187">
+        <v>1.5</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>3.4</v>
+      </c>
+      <c r="W187">
+        <v>1.3</v>
+      </c>
+      <c r="X187">
+        <v>10</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>3.4</v>
+      </c>
+      <c r="AA187">
+        <v>3.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.89</v>
+      </c>
+      <c r="AC187">
+        <v>1.08</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.42</v>
+      </c>
+      <c r="AF187">
+        <v>2.9</v>
+      </c>
+      <c r="AG187">
+        <v>1.9</v>
+      </c>
+      <c r="AH187">
+        <v>1.8</v>
+      </c>
+      <c r="AI187">
+        <v>1.91</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.68</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>0.63</v>
+      </c>
+      <c r="AP187">
+        <v>1.44</v>
+      </c>
+      <c r="AQ187">
+        <v>0.67</v>
+      </c>
+      <c r="AR187">
+        <v>1.2</v>
+      </c>
+      <c r="AS187">
+        <v>1.04</v>
+      </c>
+      <c r="AT187">
+        <v>2.24</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>6</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>1.64</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.48</v>
+      </c>
+      <c r="BG187">
+        <v>1.15</v>
+      </c>
+      <c r="BH187">
+        <v>4.6</v>
+      </c>
+      <c r="BI187">
+        <v>1.28</v>
+      </c>
+      <c r="BJ187">
+        <v>3.2</v>
+      </c>
+      <c r="BK187">
+        <v>1.48</v>
+      </c>
+      <c r="BL187">
+        <v>2.43</v>
+      </c>
+      <c r="BM187">
+        <v>1.76</v>
+      </c>
+      <c r="BN187">
+        <v>1.93</v>
+      </c>
+      <c r="BO187">
+        <v>2.17</v>
+      </c>
+      <c r="BP187">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7478935</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F188">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>83</v>
+      </c>
+      <c r="H188" t="s">
+        <v>90</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>4</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188" t="s">
+        <v>223</v>
+      </c>
+      <c r="P188" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q188">
+        <v>2.5</v>
+      </c>
+      <c r="R188">
+        <v>2.2</v>
+      </c>
+      <c r="S188">
+        <v>4.5</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.75</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>8</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>1.42</v>
+      </c>
+      <c r="AA188">
+        <v>5.06</v>
+      </c>
+      <c r="AB188">
+        <v>4.75</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>11</v>
+      </c>
+      <c r="AE188">
+        <v>1.32</v>
+      </c>
+      <c r="AF188">
+        <v>3.4</v>
+      </c>
+      <c r="AG188">
+        <v>1.96</v>
+      </c>
+      <c r="AH188">
+        <v>1.88</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.91</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.96</v>
+      </c>
+      <c r="AN188">
+        <v>1.43</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AP188">
+        <v>1.38</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.32</v>
+      </c>
+      <c r="AS188">
+        <v>1.02</v>
+      </c>
+      <c r="AT188">
+        <v>2.34</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>23</v>
+      </c>
+      <c r="AZ188">
+        <v>12</v>
+      </c>
+      <c r="BA188">
+        <v>11</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>13</v>
+      </c>
+      <c r="BD188">
+        <v>1.72</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.33</v>
+      </c>
+      <c r="BG188">
+        <v>1.2</v>
+      </c>
+      <c r="BH188">
+        <v>3.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.36</v>
+      </c>
+      <c r="BJ188">
+        <v>2.8</v>
+      </c>
+      <c r="BK188">
+        <v>1.58</v>
+      </c>
+      <c r="BL188">
+        <v>2.18</v>
+      </c>
+      <c r="BM188">
+        <v>1.94</v>
+      </c>
+      <c r="BN188">
+        <v>1.76</v>
+      </c>
+      <c r="BO188">
+        <v>2.4</v>
+      </c>
+      <c r="BP188">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7478928</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F189">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>93</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>136</v>
+      </c>
+      <c r="P189" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q189">
+        <v>3.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>1.57</v>
+      </c>
+      <c r="U189">
+        <v>2.25</v>
+      </c>
+      <c r="V189">
+        <v>3.75</v>
+      </c>
+      <c r="W189">
+        <v>1.25</v>
+      </c>
+      <c r="X189">
+        <v>11</v>
+      </c>
+      <c r="Y189">
+        <v>1.05</v>
+      </c>
+      <c r="Z189">
+        <v>3.6</v>
+      </c>
+      <c r="AA189">
+        <v>2.02</v>
+      </c>
+      <c r="AB189">
+        <v>2.97</v>
+      </c>
+      <c r="AC189">
+        <v>1.1</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.5</v>
+      </c>
+      <c r="AF189">
+        <v>2.65</v>
+      </c>
+      <c r="AG189">
+        <v>2.35</v>
+      </c>
+      <c r="AH189">
+        <v>1.53</v>
+      </c>
+      <c r="AI189">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189">
+        <v>1.67</v>
+      </c>
+      <c r="AK189">
+        <v>1.38</v>
+      </c>
+      <c r="AL189">
+        <v>1.32</v>
+      </c>
+      <c r="AM189">
+        <v>1.58</v>
+      </c>
+      <c r="AN189">
+        <v>2</v>
+      </c>
+      <c r="AO189">
+        <v>1.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.89</v>
+      </c>
+      <c r="AQ189">
+        <v>1.67</v>
+      </c>
+      <c r="AR189">
+        <v>1.36</v>
+      </c>
+      <c r="AS189">
+        <v>1.24</v>
+      </c>
+      <c r="AT189">
+        <v>2.6</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>7</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>13</v>
+      </c>
+      <c r="AZ189">
+        <v>10</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>12</v>
+      </c>
+      <c r="BD189">
+        <v>2.02</v>
+      </c>
+      <c r="BE189">
+        <v>6.4</v>
+      </c>
+      <c r="BF189">
+        <v>1.96</v>
+      </c>
+      <c r="BG189">
+        <v>1.25</v>
+      </c>
+      <c r="BH189">
+        <v>3.45</v>
+      </c>
+      <c r="BI189">
+        <v>1.44</v>
+      </c>
+      <c r="BJ189">
+        <v>2.55</v>
+      </c>
+      <c r="BK189">
+        <v>1.72</v>
+      </c>
+      <c r="BL189">
+        <v>1.98</v>
+      </c>
+      <c r="BM189">
+        <v>2.12</v>
+      </c>
+      <c r="BN189">
+        <v>1.63</v>
+      </c>
+      <c r="BO189">
+        <v>2.7</v>
+      </c>
+      <c r="BP189">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7478927</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F190">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>224</v>
+      </c>
+      <c r="P190" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q190">
+        <v>2.63</v>
+      </c>
+      <c r="R190">
+        <v>2.2</v>
+      </c>
+      <c r="S190">
+        <v>4</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>2.75</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>4.59</v>
+      </c>
+      <c r="AA190">
+        <v>1.69</v>
+      </c>
+      <c r="AB190">
+        <v>3.32</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>12</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.6</v>
+      </c>
+      <c r="AG190">
+        <v>1.91</v>
+      </c>
+      <c r="AH190">
+        <v>1.93</v>
+      </c>
+      <c r="AI190">
+        <v>1.73</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.3</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.83</v>
+      </c>
+      <c r="AN190">
+        <v>1.38</v>
+      </c>
+      <c r="AO190">
+        <v>1.14</v>
+      </c>
+      <c r="AP190">
+        <v>1.56</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.39</v>
+      </c>
+      <c r="AS190">
+        <v>1.38</v>
+      </c>
+      <c r="AT190">
+        <v>2.77</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>2</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>8</v>
+      </c>
+      <c r="AZ190">
+        <v>15</v>
+      </c>
+      <c r="BA190">
+        <v>9</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>13</v>
+      </c>
+      <c r="BD190">
+        <v>1.32</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>3.55</v>
+      </c>
+      <c r="BG190">
+        <v>1.16</v>
+      </c>
+      <c r="BH190">
+        <v>4.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.28</v>
+      </c>
+      <c r="BJ190">
+        <v>3.2</v>
+      </c>
+      <c r="BK190">
+        <v>1.47</v>
+      </c>
+      <c r="BL190">
+        <v>2.43</v>
+      </c>
+      <c r="BM190">
+        <v>1.75</v>
+      </c>
+      <c r="BN190">
+        <v>1.95</v>
+      </c>
+      <c r="BO190">
+        <v>2.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7478929</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s">
+        <v>79</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>3</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>6</v>
+      </c>
+      <c r="N191">
+        <v>8</v>
+      </c>
+      <c r="O191" t="s">
+        <v>225</v>
+      </c>
+      <c r="P191" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q191">
+        <v>5.5</v>
+      </c>
+      <c r="R191">
+        <v>2.3</v>
+      </c>
+      <c r="S191">
+        <v>2.2</v>
+      </c>
+      <c r="T191">
+        <v>1.36</v>
+      </c>
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191">
+        <v>2.63</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>3.79</v>
+      </c>
+      <c r="AA191">
+        <v>1.9</v>
+      </c>
+      <c r="AB191">
+        <v>3.15</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>13</v>
+      </c>
+      <c r="AE191">
+        <v>1.26</v>
+      </c>
+      <c r="AF191">
+        <v>4</v>
+      </c>
+      <c r="AG191">
+        <v>1.9</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.83</v>
+      </c>
+      <c r="AK191">
+        <v>2.4</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>1.15</v>
+      </c>
+      <c r="AN191">
+        <v>1.88</v>
+      </c>
+      <c r="AO191">
+        <v>1.43</v>
+      </c>
+      <c r="AP191">
+        <v>1.67</v>
+      </c>
+      <c r="AQ191">
+        <v>1.63</v>
+      </c>
+      <c r="AR191">
+        <v>1.01</v>
+      </c>
+      <c r="AS191">
+        <v>1.59</v>
+      </c>
+      <c r="AT191">
+        <v>2.6</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>13</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>12</v>
+      </c>
+      <c r="AZ191">
+        <v>17</v>
+      </c>
+      <c r="BA191">
+        <v>6</v>
+      </c>
+      <c r="BB191">
+        <v>10</v>
+      </c>
+      <c r="BC191">
+        <v>16</v>
+      </c>
+      <c r="BD191">
+        <v>2.9</v>
+      </c>
+      <c r="BE191">
+        <v>6.75</v>
+      </c>
+      <c r="BF191">
+        <v>1.49</v>
+      </c>
+      <c r="BG191">
+        <v>1.26</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.46</v>
+      </c>
+      <c r="BJ191">
+        <v>2.48</v>
+      </c>
+      <c r="BK191">
+        <v>1.75</v>
+      </c>
+      <c r="BL191">
+        <v>1.95</v>
+      </c>
+      <c r="BM191">
+        <v>2.17</v>
+      </c>
+      <c r="BN191">
+        <v>1.6</v>
+      </c>
+      <c r="BO191">
+        <v>2.7</v>
+      </c>
+      <c r="BP191">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,12 +673,6 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['23', '90+6']</t>
-  </si>
-  <si>
-    <t>['22', '80']</t>
-  </si>
-  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -688,10 +682,7 @@
     <t>['11', '43']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>['24', '72']</t>
+    <t>['8', '45+3', '90']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -901,16 +892,10 @@
     <t>['12', '17']</t>
   </si>
   <si>
-    <t>['8', '41']</t>
-  </si>
-  <si>
-    <t>['13', '34']</t>
-  </si>
-  <si>
     <t>['20', '41']</t>
   </si>
   <si>
-    <t>['37', '42', '45', '49', '80', '83']</t>
+    <t>['20', '55', '73', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1516,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1737,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1818,7 +1803,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1943,7 +1928,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2227,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2355,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2433,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2767,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2973,7 +2958,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3179,7 +3164,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3260,7 +3245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3797,7 +3782,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3875,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -4003,7 +3988,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4081,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>0.29</v>
@@ -4290,7 +4275,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4496,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4827,7 +4812,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5317,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0.43</v>
@@ -5445,7 +5430,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5651,7 +5636,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6141,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6475,7 +6460,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6556,7 +6541,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -7093,7 +7078,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7299,7 +7284,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8329,7 +8314,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8535,7 +8520,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8616,7 +8601,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8741,7 +8726,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8819,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8947,7 +8932,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9025,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>0.86</v>
@@ -9153,7 +9138,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9359,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9440,7 +9425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9565,7 +9550,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9643,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9977,7 +9962,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10058,7 +10043,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10183,7 +10168,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10261,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10467,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10676,7 +10661,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11085,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>0.43</v>
@@ -11294,7 +11279,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ49">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11419,7 +11404,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11500,7 +11485,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11909,7 +11894,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -12115,7 +12100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12655,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12733,10 +12718,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12861,7 +12846,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13145,7 +13130,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13479,7 +13464,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13685,7 +13670,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13891,7 +13876,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13972,7 +13957,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14178,7 +14163,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14384,7 +14369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14715,7 +14700,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14796,7 +14781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15333,7 +15318,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15617,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15745,7 +15730,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15823,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.88</v>
@@ -16363,7 +16348,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16441,7 +16426,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16775,7 +16760,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16981,7 +16966,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17265,7 +17250,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17393,7 +17378,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17474,7 +17459,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17805,7 +17790,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17883,7 +17868,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.43</v>
@@ -18298,7 +18283,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18629,7 +18614,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18707,7 +18692,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -19325,7 +19310,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>0.86</v>
@@ -19453,7 +19438,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19531,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>0.29</v>
@@ -19946,7 +19931,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20071,7 +20056,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20152,7 +20137,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20358,7 +20343,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20770,7 +20755,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ95">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -21307,7 +21292,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21388,7 +21373,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21800,7 +21785,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22131,7 +22116,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22209,7 +22194,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22337,7 +22322,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22415,7 +22400,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22827,7 +22812,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23036,7 +23021,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23860,7 +23845,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24269,10 +24254,10 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24681,7 +24666,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>1.88</v>
@@ -24809,7 +24794,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25015,7 +25000,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25427,7 +25412,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25917,7 +25902,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26126,7 +26111,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26457,7 +26442,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26663,7 +26648,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26869,7 +26854,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26950,7 +26935,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27359,7 +27344,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>0.67</v>
@@ -28105,7 +28090,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28183,10 +28168,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28389,7 +28374,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>0.25</v>
@@ -28598,7 +28583,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28723,7 +28708,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29010,7 +28995,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29135,7 +29120,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29213,7 +29198,7 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ136">
         <v>0.57</v>
@@ -29959,7 +29944,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30037,7 +30022,7 @@
         <v>0.6</v>
       </c>
       <c r="AP140">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30165,7 +30150,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30243,7 +30228,7 @@
         <v>0.4</v>
       </c>
       <c r="AP141">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>0.43</v>
@@ -30452,7 +30437,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR142">
         <v>1.28</v>
@@ -30989,7 +30974,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31070,7 +31055,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31195,7 +31180,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31273,7 +31258,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
         <v>1.88</v>
@@ -31401,7 +31386,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31482,7 +31467,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR147">
         <v>1.31</v>
@@ -31607,7 +31592,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31685,7 +31670,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>0.88</v>
@@ -31813,7 +31798,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32225,7 +32210,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32637,7 +32622,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32843,7 +32828,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33130,7 +33115,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR155">
         <v>1.73</v>
@@ -33255,7 +33240,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33336,7 +33321,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ156">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR156">
         <v>1.43</v>
@@ -33539,7 +33524,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33873,7 +33858,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -33954,7 +33939,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ159">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34079,7 +34064,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34160,7 +34145,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ160">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34363,10 +34348,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR161">
         <v>1.05</v>
@@ -34569,10 +34554,10 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34775,7 +34760,7 @@
         <v>0.86</v>
       </c>
       <c r="AP163">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ163">
         <v>0.75</v>
@@ -34981,10 +34966,10 @@
         <v>1.67</v>
       </c>
       <c r="AP164">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35109,7 +35094,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35315,7 +35300,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35393,7 +35378,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -35599,7 +35584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
         <v>0.5</v>
@@ -35808,7 +35793,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -36551,7 +36536,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36757,7 +36742,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37169,7 +37154,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37787,7 +37772,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38199,7 +38184,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38569,7 +38554,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7478930</v>
+        <v>7478925</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38578,196 +38563,196 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45617.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H182" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>95</v>
+      </c>
+      <c r="P182" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q182">
+        <v>3.6</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>3.4</v>
+      </c>
+      <c r="T182">
+        <v>1.5</v>
+      </c>
+      <c r="U182">
+        <v>2.5</v>
+      </c>
+      <c r="V182">
+        <v>3.5</v>
+      </c>
+      <c r="W182">
+        <v>1.29</v>
+      </c>
+      <c r="X182">
+        <v>10</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>1.95</v>
+      </c>
+      <c r="AA182">
+        <v>2.43</v>
+      </c>
+      <c r="AB182">
+        <v>5.37</v>
+      </c>
+      <c r="AC182">
+        <v>1.08</v>
+      </c>
+      <c r="AD182">
+        <v>8.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.44</v>
+      </c>
+      <c r="AF182">
+        <v>2.8</v>
+      </c>
+      <c r="AG182">
+        <v>2.1</v>
+      </c>
+      <c r="AH182">
+        <v>1.65</v>
+      </c>
+      <c r="AI182">
+        <v>1.91</v>
+      </c>
+      <c r="AJ182">
+        <v>1.8</v>
+      </c>
+      <c r="AK182">
+        <v>1.53</v>
+      </c>
+      <c r="AL182">
+        <v>1.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.44</v>
+      </c>
+      <c r="AN182">
+        <v>1.43</v>
+      </c>
+      <c r="AO182">
+        <v>1.5</v>
+      </c>
+      <c r="AP182">
+        <v>1.25</v>
+      </c>
+      <c r="AQ182">
+        <v>1.67</v>
+      </c>
+      <c r="AR182">
+        <v>1.3</v>
+      </c>
+      <c r="AS182">
+        <v>1.16</v>
+      </c>
+      <c r="AT182">
+        <v>2.46</v>
+      </c>
+      <c r="AU182">
         <v>3</v>
-      </c>
-      <c r="L182">
-        <v>2</v>
-      </c>
-      <c r="M182">
-        <v>2</v>
-      </c>
-      <c r="N182">
-        <v>4</v>
-      </c>
-      <c r="O182" t="s">
-        <v>219</v>
-      </c>
-      <c r="P182" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q182">
-        <v>3.4</v>
-      </c>
-      <c r="R182">
-        <v>2.3</v>
-      </c>
-      <c r="S182">
-        <v>2.88</v>
-      </c>
-      <c r="T182">
-        <v>1.33</v>
-      </c>
-      <c r="U182">
-        <v>3.25</v>
-      </c>
-      <c r="V182">
-        <v>2.5</v>
-      </c>
-      <c r="W182">
-        <v>1.5</v>
-      </c>
-      <c r="X182">
-        <v>6.5</v>
-      </c>
-      <c r="Y182">
-        <v>1.11</v>
-      </c>
-      <c r="Z182">
-        <v>3.1</v>
-      </c>
-      <c r="AA182">
-        <v>3.5</v>
-      </c>
-      <c r="AB182">
-        <v>2.2</v>
-      </c>
-      <c r="AC182">
-        <v>1.03</v>
-      </c>
-      <c r="AD182">
-        <v>15</v>
-      </c>
-      <c r="AE182">
-        <v>1.22</v>
-      </c>
-      <c r="AF182">
-        <v>4.33</v>
-      </c>
-      <c r="AG182">
-        <v>1.64</v>
-      </c>
-      <c r="AH182">
-        <v>2.18</v>
-      </c>
-      <c r="AI182">
-        <v>1.53</v>
-      </c>
-      <c r="AJ182">
-        <v>2.38</v>
-      </c>
-      <c r="AK182">
-        <v>1.66</v>
-      </c>
-      <c r="AL182">
-        <v>1.25</v>
-      </c>
-      <c r="AM182">
-        <v>1.4</v>
-      </c>
-      <c r="AN182">
-        <v>2</v>
-      </c>
-      <c r="AO182">
-        <v>0.75</v>
-      </c>
-      <c r="AP182">
-        <v>1.88</v>
-      </c>
-      <c r="AQ182">
-        <v>0.78</v>
-      </c>
-      <c r="AR182">
-        <v>1.52</v>
-      </c>
-      <c r="AS182">
-        <v>1.09</v>
-      </c>
-      <c r="AT182">
-        <v>2.61</v>
-      </c>
-      <c r="AU182">
-        <v>4</v>
       </c>
       <c r="AV182">
         <v>6</v>
       </c>
       <c r="AW182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX182">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY182">
+        <v>8</v>
+      </c>
+      <c r="AZ182">
+        <v>15</v>
+      </c>
+      <c r="BA182">
+        <v>8</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
         <v>11</v>
       </c>
-      <c r="AZ182">
-        <v>13</v>
-      </c>
-      <c r="BA182">
-        <v>2</v>
-      </c>
-      <c r="BB182">
-        <v>8</v>
-      </c>
-      <c r="BC182">
-        <v>10</v>
-      </c>
       <c r="BD182">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="BE182">
         <v>6.75</v>
       </c>
       <c r="BF182">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="BG182">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH182">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI182">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ182">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BK182">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BL182">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="BM182">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BN182">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="BO182">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BP182">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38775,7 +38760,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7478925</v>
+        <v>7478933</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38787,193 +38772,193 @@
         <v>45619.39583333334</v>
       </c>
       <c r="F183">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
       <c r="N183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="Q183">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.4</v>
+      </c>
+      <c r="U183">
+        <v>2.75</v>
+      </c>
+      <c r="V183">
+        <v>2.75</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>8</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>3.59</v>
+      </c>
+      <c r="AA183">
+        <v>1.95</v>
+      </c>
+      <c r="AB183">
+        <v>3.15</v>
+      </c>
+      <c r="AC183">
+        <v>1.06</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.33</v>
+      </c>
+      <c r="AF183">
         <v>3.4</v>
       </c>
-      <c r="T183">
+      <c r="AG183">
+        <v>1.96</v>
+      </c>
+      <c r="AH183">
+        <v>1.88</v>
+      </c>
+      <c r="AI183">
+        <v>1.73</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.3</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.8</v>
+      </c>
+      <c r="AN183">
+        <v>1.38</v>
+      </c>
+      <c r="AO183">
+        <v>0.43</v>
+      </c>
+      <c r="AP183">
+        <v>1.33</v>
+      </c>
+      <c r="AQ183">
+        <v>0.5</v>
+      </c>
+      <c r="AR183">
+        <v>1.45</v>
+      </c>
+      <c r="AS183">
+        <v>1.08</v>
+      </c>
+      <c r="AT183">
+        <v>2.53</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>5</v>
+      </c>
+      <c r="AY183">
+        <v>18</v>
+      </c>
+      <c r="AZ183">
+        <v>10</v>
+      </c>
+      <c r="BA183">
+        <v>6</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>8</v>
+      </c>
+      <c r="BD183">
         <v>1.5</v>
       </c>
-      <c r="U183">
+      <c r="BE183">
+        <v>7</v>
+      </c>
+      <c r="BF183">
+        <v>2.9</v>
+      </c>
+      <c r="BG183">
+        <v>1.21</v>
+      </c>
+      <c r="BH183">
+        <v>3.7</v>
+      </c>
+      <c r="BI183">
+        <v>1.4</v>
+      </c>
+      <c r="BJ183">
+        <v>2.7</v>
+      </c>
+      <c r="BK183">
+        <v>1.65</v>
+      </c>
+      <c r="BL183">
+        <v>2.08</v>
+      </c>
+      <c r="BM183">
+        <v>2</v>
+      </c>
+      <c r="BN183">
+        <v>1.71</v>
+      </c>
+      <c r="BO183">
         <v>2.5</v>
       </c>
-      <c r="V183">
-        <v>3.5</v>
-      </c>
-      <c r="W183">
-        <v>1.29</v>
-      </c>
-      <c r="X183">
-        <v>10</v>
-      </c>
-      <c r="Y183">
-        <v>1.06</v>
-      </c>
-      <c r="Z183">
-        <v>1.95</v>
-      </c>
-      <c r="AA183">
-        <v>2.43</v>
-      </c>
-      <c r="AB183">
-        <v>5.37</v>
-      </c>
-      <c r="AC183">
-        <v>1.08</v>
-      </c>
-      <c r="AD183">
-        <v>8.5</v>
-      </c>
-      <c r="AE183">
-        <v>1.44</v>
-      </c>
-      <c r="AF183">
-        <v>2.8</v>
-      </c>
-      <c r="AG183">
-        <v>2.1</v>
-      </c>
-      <c r="AH183">
-        <v>1.65</v>
-      </c>
-      <c r="AI183">
-        <v>1.91</v>
-      </c>
-      <c r="AJ183">
-        <v>1.8</v>
-      </c>
-      <c r="AK183">
-        <v>1.53</v>
-      </c>
-      <c r="AL183">
-        <v>1.3</v>
-      </c>
-      <c r="AM183">
-        <v>1.44</v>
-      </c>
-      <c r="AN183">
-        <v>1.43</v>
-      </c>
-      <c r="AO183">
-        <v>1.5</v>
-      </c>
-      <c r="AP183">
-        <v>1.25</v>
-      </c>
-      <c r="AQ183">
-        <v>1.67</v>
-      </c>
-      <c r="AR183">
-        <v>1.3</v>
-      </c>
-      <c r="AS183">
-        <v>1.16</v>
-      </c>
-      <c r="AT183">
-        <v>2.46</v>
-      </c>
-      <c r="AU183">
-        <v>3</v>
-      </c>
-      <c r="AV183">
-        <v>6</v>
-      </c>
-      <c r="AW183">
-        <v>2</v>
-      </c>
-      <c r="AX183">
-        <v>4</v>
-      </c>
-      <c r="AY183">
-        <v>8</v>
-      </c>
-      <c r="AZ183">
-        <v>15</v>
-      </c>
-      <c r="BA183">
-        <v>8</v>
-      </c>
-      <c r="BB183">
-        <v>3</v>
-      </c>
-      <c r="BC183">
-        <v>11</v>
-      </c>
-      <c r="BD183">
-        <v>2.18</v>
-      </c>
-      <c r="BE183">
-        <v>6.75</v>
-      </c>
-      <c r="BF183">
-        <v>1.8</v>
-      </c>
-      <c r="BG183">
-        <v>1.2</v>
-      </c>
-      <c r="BH183">
-        <v>3.9</v>
-      </c>
-      <c r="BI183">
-        <v>1.36</v>
-      </c>
-      <c r="BJ183">
-        <v>2.8</v>
-      </c>
-      <c r="BK183">
-        <v>1.58</v>
-      </c>
-      <c r="BL183">
-        <v>2.18</v>
-      </c>
-      <c r="BM183">
-        <v>1.95</v>
-      </c>
-      <c r="BN183">
-        <v>1.75</v>
-      </c>
-      <c r="BO183">
-        <v>2.4</v>
-      </c>
       <c r="BP183">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -38981,7 +38966,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7478926</v>
+        <v>7478932</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -38990,40 +38975,40 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F184">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H184" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O184" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="P184" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39053,25 +39038,25 @@
         <v>1.08</v>
       </c>
       <c r="Z184">
-        <v>1.8</v>
+        <v>5.65</v>
       </c>
       <c r="AA184">
-        <v>2.63</v>
+        <v>5.26</v>
       </c>
       <c r="AB184">
-        <v>5.73</v>
+        <v>1.35</v>
       </c>
       <c r="AC184">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE184">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF184">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG184">
         <v>2.03</v>
@@ -39086,100 +39071,100 @@
         <v>2</v>
       </c>
       <c r="AK184">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AL184">
         <v>1.28</v>
       </c>
       <c r="AM184">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AN184">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="AO184">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ184">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR184">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AS184">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AT184">
-        <v>3.23</v>
+        <v>2.76</v>
       </c>
       <c r="AU184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX184">
         <v>2</v>
       </c>
       <c r="AY184">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ184">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA184">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC184">
         <v>14</v>
       </c>
       <c r="BD184">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="BE184">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF184">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BG184">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="BH184">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="BI184">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BJ184">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BK184">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="BL184">
-        <v>3.05</v>
+        <v>2.43</v>
       </c>
       <c r="BM184">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="BN184">
-        <v>2.35</v>
+        <v>1.92</v>
       </c>
       <c r="BO184">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="BP184">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39187,7 +39172,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7478933</v>
+        <v>7478931</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39196,16 +39181,16 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H185" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -39226,166 +39211,166 @@
         <v>2</v>
       </c>
       <c r="O185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P185" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="Q185">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R185">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S185">
         <v>4</v>
       </c>
       <c r="T185">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V185">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W185">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X185">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y185">
+        <v>1.06</v>
+      </c>
+      <c r="Z185">
+        <v>3.4</v>
+      </c>
+      <c r="AA185">
+        <v>3.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.89</v>
+      </c>
+      <c r="AC185">
         <v>1.08</v>
       </c>
-      <c r="Z185">
-        <v>3.59</v>
-      </c>
-      <c r="AA185">
-        <v>1.95</v>
-      </c>
-      <c r="AB185">
-        <v>3.15</v>
-      </c>
-      <c r="AC185">
-        <v>1.06</v>
-      </c>
       <c r="AD185">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE185">
+        <v>1.42</v>
+      </c>
+      <c r="AF185">
+        <v>2.9</v>
+      </c>
+      <c r="AG185">
+        <v>1.9</v>
+      </c>
+      <c r="AH185">
+        <v>1.8</v>
+      </c>
+      <c r="AI185">
+        <v>1.91</v>
+      </c>
+      <c r="AJ185">
+        <v>1.8</v>
+      </c>
+      <c r="AK185">
         <v>1.33</v>
       </c>
-      <c r="AF185">
-        <v>3.4</v>
-      </c>
-      <c r="AG185">
-        <v>1.96</v>
-      </c>
-      <c r="AH185">
-        <v>1.88</v>
-      </c>
-      <c r="AI185">
-        <v>1.73</v>
-      </c>
-      <c r="AJ185">
-        <v>2</v>
-      </c>
-      <c r="AK185">
+      <c r="AL185">
         <v>1.3</v>
       </c>
-      <c r="AL185">
-        <v>1.28</v>
-      </c>
       <c r="AM185">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AN185">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO185">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ185">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR185">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AS185">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT185">
-        <v>2.53</v>
+        <v>2.24</v>
       </c>
       <c r="AU185">
         <v>4</v>
       </c>
       <c r="AV185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY185">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ185">
+        <v>6</v>
+      </c>
+      <c r="BA185">
+        <v>7</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
         <v>10</v>
       </c>
-      <c r="BA185">
-        <v>6</v>
-      </c>
-      <c r="BB185">
-        <v>2</v>
-      </c>
-      <c r="BC185">
-        <v>8</v>
-      </c>
       <c r="BD185">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="BE185">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF185">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="BG185">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="BH185">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="BI185">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="BJ185">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BK185">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BL185">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BM185">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="BN185">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="BO185">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="BP185">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39393,7 +39378,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7478932</v>
+        <v>7478935</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39408,43 +39393,43 @@
         <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H186" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="P186" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="Q186">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R186">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S186">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T186">
         <v>1.4</v>
@@ -39465,133 +39450,133 @@
         <v>1.08</v>
       </c>
       <c r="Z186">
-        <v>5.65</v>
+        <v>1.42</v>
       </c>
       <c r="AA186">
-        <v>5.26</v>
+        <v>5.06</v>
       </c>
       <c r="AB186">
-        <v>1.35</v>
+        <v>4.75</v>
       </c>
       <c r="AC186">
         <v>1.05</v>
       </c>
       <c r="AD186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE186">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AF186">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AG186">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="AH186">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI186">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ186">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK186">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AL186">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM186">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="AN186">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO186">
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>0.5600000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="AQ186">
         <v>1</v>
       </c>
       <c r="AR186">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AT186">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="AU186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV186">
         <v>6</v>
       </c>
       <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>23</v>
+      </c>
+      <c r="AZ186">
+        <v>12</v>
+      </c>
+      <c r="BA186">
         <v>11</v>
       </c>
-      <c r="AX186">
-        <v>2</v>
-      </c>
-      <c r="AY186">
-        <v>24</v>
-      </c>
-      <c r="AZ186">
-        <v>10</v>
-      </c>
-      <c r="BA186">
-        <v>10</v>
-      </c>
       <c r="BB186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC186">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD186">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BE186">
         <v>6.75</v>
       </c>
       <c r="BF186">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="BG186">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH186">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI186">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BJ186">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BK186">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="BL186">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="BM186">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="BN186">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="BO186">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="BP186">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39599,7 +39584,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7478931</v>
+        <v>7478934</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39608,175 +39593,175 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45619.5</v>
+        <v>45620.5</v>
       </c>
       <c r="F187">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H187" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O187" t="s">
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S187">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T187">
+        <v>1.44</v>
+      </c>
+      <c r="U187">
+        <v>2.63</v>
+      </c>
+      <c r="V187">
+        <v>3.25</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>9</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>4.36</v>
+      </c>
+      <c r="AA187">
+        <v>3.41</v>
+      </c>
+      <c r="AB187">
+        <v>1.73</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>9.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.36</v>
+      </c>
+      <c r="AF187">
+        <v>3.2</v>
+      </c>
+      <c r="AG187">
+        <v>1.98</v>
+      </c>
+      <c r="AH187">
+        <v>1.71</v>
+      </c>
+      <c r="AI187">
+        <v>2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.73</v>
+      </c>
+      <c r="AK187">
+        <v>2.05</v>
+      </c>
+      <c r="AL187">
+        <v>1.26</v>
+      </c>
+      <c r="AM187">
+        <v>1.19</v>
+      </c>
+      <c r="AN187">
+        <v>1.71</v>
+      </c>
+      <c r="AO187">
+        <v>1.43</v>
+      </c>
+      <c r="AP187">
         <v>1.5</v>
       </c>
-      <c r="U187">
-        <v>2.5</v>
-      </c>
-      <c r="V187">
-        <v>3.4</v>
-      </c>
-      <c r="W187">
-        <v>1.3</v>
-      </c>
-      <c r="X187">
-        <v>10</v>
-      </c>
-      <c r="Y187">
-        <v>1.06</v>
-      </c>
-      <c r="Z187">
-        <v>3.4</v>
-      </c>
-      <c r="AA187">
-        <v>3.5</v>
-      </c>
-      <c r="AB187">
-        <v>1.89</v>
-      </c>
-      <c r="AC187">
-        <v>1.08</v>
-      </c>
-      <c r="AD187">
-        <v>8.5</v>
-      </c>
-      <c r="AE187">
+      <c r="AQ187">
+        <v>1.63</v>
+      </c>
+      <c r="AR187">
+        <v>1.35</v>
+      </c>
+      <c r="AS187">
         <v>1.42</v>
       </c>
-      <c r="AF187">
-        <v>2.9</v>
-      </c>
-      <c r="AG187">
-        <v>1.9</v>
-      </c>
-      <c r="AH187">
-        <v>1.8</v>
-      </c>
-      <c r="AI187">
-        <v>1.91</v>
-      </c>
-      <c r="AJ187">
-        <v>1.8</v>
-      </c>
-      <c r="AK187">
-        <v>1.33</v>
-      </c>
-      <c r="AL187">
-        <v>1.3</v>
-      </c>
-      <c r="AM187">
-        <v>1.68</v>
-      </c>
-      <c r="AN187">
-        <v>1.5</v>
-      </c>
-      <c r="AO187">
-        <v>0.63</v>
-      </c>
-      <c r="AP187">
-        <v>1.44</v>
-      </c>
-      <c r="AQ187">
-        <v>0.67</v>
-      </c>
-      <c r="AR187">
-        <v>1.2</v>
-      </c>
-      <c r="AS187">
-        <v>1.04</v>
-      </c>
       <c r="AT187">
-        <v>2.24</v>
+        <v>2.77</v>
       </c>
       <c r="AU187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW187">
         <v>3</v>
       </c>
       <c r="AX187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ187">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA187">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB187">
+        <v>2</v>
+      </c>
+      <c r="BC187">
         <v>3</v>
       </c>
-      <c r="BC187">
-        <v>10</v>
-      </c>
       <c r="BD187">
-        <v>1.64</v>
+        <v>2.3</v>
       </c>
       <c r="BE187">
         <v>6.75</v>
       </c>
       <c r="BF187">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="BG187">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH187">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BI187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ187">
         <v>3.2</v>
@@ -39785,843 +39770,19 @@
         <v>1.48</v>
       </c>
       <c r="BL187">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BM187">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="BN187">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="BO187">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="BP187">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:68">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <v>7478935</v>
-      </c>
-      <c r="C188" t="s">
-        <v>68</v>
-      </c>
-      <c r="D188" t="s">
-        <v>69</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F188">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s">
-        <v>83</v>
-      </c>
-      <c r="H188" t="s">
-        <v>90</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188">
-        <v>2</v>
-      </c>
-      <c r="K188">
-        <v>4</v>
-      </c>
-      <c r="L188">
-        <v>2</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188" t="s">
-        <v>223</v>
-      </c>
-      <c r="P188" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q188">
-        <v>2.5</v>
-      </c>
-      <c r="R188">
-        <v>2.2</v>
-      </c>
-      <c r="S188">
-        <v>4.5</v>
-      </c>
-      <c r="T188">
-        <v>1.4</v>
-      </c>
-      <c r="U188">
-        <v>2.75</v>
-      </c>
-      <c r="V188">
-        <v>3</v>
-      </c>
-      <c r="W188">
-        <v>1.36</v>
-      </c>
-      <c r="X188">
-        <v>8</v>
-      </c>
-      <c r="Y188">
-        <v>1.08</v>
-      </c>
-      <c r="Z188">
-        <v>1.42</v>
-      </c>
-      <c r="AA188">
-        <v>5.06</v>
-      </c>
-      <c r="AB188">
-        <v>4.75</v>
-      </c>
-      <c r="AC188">
-        <v>1.05</v>
-      </c>
-      <c r="AD188">
-        <v>11</v>
-      </c>
-      <c r="AE188">
-        <v>1.32</v>
-      </c>
-      <c r="AF188">
-        <v>3.4</v>
-      </c>
-      <c r="AG188">
-        <v>1.96</v>
-      </c>
-      <c r="AH188">
-        <v>1.88</v>
-      </c>
-      <c r="AI188">
-        <v>1.8</v>
-      </c>
-      <c r="AJ188">
-        <v>1.91</v>
-      </c>
-      <c r="AK188">
-        <v>1.22</v>
-      </c>
-      <c r="AL188">
-        <v>1.25</v>
-      </c>
-      <c r="AM188">
-        <v>1.96</v>
-      </c>
-      <c r="AN188">
-        <v>1.43</v>
-      </c>
-      <c r="AO188">
-        <v>1</v>
-      </c>
-      <c r="AP188">
-        <v>1.38</v>
-      </c>
-      <c r="AQ188">
-        <v>1</v>
-      </c>
-      <c r="AR188">
-        <v>1.32</v>
-      </c>
-      <c r="AS188">
-        <v>1.02</v>
-      </c>
-      <c r="AT188">
-        <v>2.34</v>
-      </c>
-      <c r="AU188">
-        <v>7</v>
-      </c>
-      <c r="AV188">
-        <v>6</v>
-      </c>
-      <c r="AW188">
-        <v>7</v>
-      </c>
-      <c r="AX188">
-        <v>3</v>
-      </c>
-      <c r="AY188">
-        <v>23</v>
-      </c>
-      <c r="AZ188">
-        <v>12</v>
-      </c>
-      <c r="BA188">
-        <v>11</v>
-      </c>
-      <c r="BB188">
-        <v>2</v>
-      </c>
-      <c r="BC188">
-        <v>13</v>
-      </c>
-      <c r="BD188">
-        <v>1.72</v>
-      </c>
-      <c r="BE188">
-        <v>6.75</v>
-      </c>
-      <c r="BF188">
-        <v>2.33</v>
-      </c>
-      <c r="BG188">
-        <v>1.2</v>
-      </c>
-      <c r="BH188">
-        <v>3.9</v>
-      </c>
-      <c r="BI188">
-        <v>1.36</v>
-      </c>
-      <c r="BJ188">
-        <v>2.8</v>
-      </c>
-      <c r="BK188">
-        <v>1.58</v>
-      </c>
-      <c r="BL188">
-        <v>2.18</v>
-      </c>
-      <c r="BM188">
-        <v>1.94</v>
-      </c>
-      <c r="BN188">
-        <v>1.76</v>
-      </c>
-      <c r="BO188">
-        <v>2.4</v>
-      </c>
-      <c r="BP188">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="189" spans="1:68">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <v>7478928</v>
-      </c>
-      <c r="C189" t="s">
-        <v>68</v>
-      </c>
-      <c r="D189" t="s">
-        <v>69</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F189">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s">
-        <v>74</v>
-      </c>
-      <c r="H189" t="s">
-        <v>93</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>1</v>
-      </c>
-      <c r="K189">
-        <v>1</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>1</v>
-      </c>
-      <c r="N189">
-        <v>2</v>
-      </c>
-      <c r="O189" t="s">
-        <v>136</v>
-      </c>
-      <c r="P189" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q189">
-        <v>3.25</v>
-      </c>
-      <c r="R189">
-        <v>1.95</v>
-      </c>
-      <c r="S189">
-        <v>4</v>
-      </c>
-      <c r="T189">
-        <v>1.57</v>
-      </c>
-      <c r="U189">
-        <v>2.25</v>
-      </c>
-      <c r="V189">
-        <v>3.75</v>
-      </c>
-      <c r="W189">
-        <v>1.25</v>
-      </c>
-      <c r="X189">
-        <v>11</v>
-      </c>
-      <c r="Y189">
-        <v>1.05</v>
-      </c>
-      <c r="Z189">
-        <v>3.6</v>
-      </c>
-      <c r="AA189">
-        <v>2.02</v>
-      </c>
-      <c r="AB189">
-        <v>2.97</v>
-      </c>
-      <c r="AC189">
-        <v>1.1</v>
-      </c>
-      <c r="AD189">
-        <v>7.5</v>
-      </c>
-      <c r="AE189">
-        <v>1.5</v>
-      </c>
-      <c r="AF189">
-        <v>2.65</v>
-      </c>
-      <c r="AG189">
-        <v>2.35</v>
-      </c>
-      <c r="AH189">
-        <v>1.53</v>
-      </c>
-      <c r="AI189">
-        <v>2.1</v>
-      </c>
-      <c r="AJ189">
-        <v>1.67</v>
-      </c>
-      <c r="AK189">
-        <v>1.38</v>
-      </c>
-      <c r="AL189">
-        <v>1.32</v>
-      </c>
-      <c r="AM189">
-        <v>1.58</v>
-      </c>
-      <c r="AN189">
-        <v>2</v>
-      </c>
-      <c r="AO189">
-        <v>1.75</v>
-      </c>
-      <c r="AP189">
-        <v>1.89</v>
-      </c>
-      <c r="AQ189">
-        <v>1.67</v>
-      </c>
-      <c r="AR189">
-        <v>1.36</v>
-      </c>
-      <c r="AS189">
-        <v>1.24</v>
-      </c>
-      <c r="AT189">
-        <v>2.6</v>
-      </c>
-      <c r="AU189">
-        <v>6</v>
-      </c>
-      <c r="AV189">
-        <v>7</v>
-      </c>
-      <c r="AW189">
-        <v>5</v>
-      </c>
-      <c r="AX189">
-        <v>0</v>
-      </c>
-      <c r="AY189">
-        <v>13</v>
-      </c>
-      <c r="AZ189">
-        <v>10</v>
-      </c>
-      <c r="BA189">
-        <v>10</v>
-      </c>
-      <c r="BB189">
-        <v>2</v>
-      </c>
-      <c r="BC189">
-        <v>12</v>
-      </c>
-      <c r="BD189">
-        <v>2.02</v>
-      </c>
-      <c r="BE189">
-        <v>6.4</v>
-      </c>
-      <c r="BF189">
-        <v>1.96</v>
-      </c>
-      <c r="BG189">
-        <v>1.25</v>
-      </c>
-      <c r="BH189">
-        <v>3.45</v>
-      </c>
-      <c r="BI189">
-        <v>1.44</v>
-      </c>
-      <c r="BJ189">
-        <v>2.55</v>
-      </c>
-      <c r="BK189">
-        <v>1.72</v>
-      </c>
-      <c r="BL189">
-        <v>1.98</v>
-      </c>
-      <c r="BM189">
-        <v>2.12</v>
-      </c>
-      <c r="BN189">
-        <v>1.63</v>
-      </c>
-      <c r="BO189">
-        <v>2.7</v>
-      </c>
-      <c r="BP189">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:68">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <v>7478927</v>
-      </c>
-      <c r="C190" t="s">
-        <v>68</v>
-      </c>
-      <c r="D190" t="s">
-        <v>69</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F190">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s">
-        <v>81</v>
-      </c>
-      <c r="H190" t="s">
-        <v>77</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="O190" t="s">
-        <v>224</v>
-      </c>
-      <c r="P190" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q190">
-        <v>2.63</v>
-      </c>
-      <c r="R190">
-        <v>2.2</v>
-      </c>
-      <c r="S190">
-        <v>4</v>
-      </c>
-      <c r="T190">
-        <v>1.4</v>
-      </c>
-      <c r="U190">
-        <v>2.75</v>
-      </c>
-      <c r="V190">
-        <v>2.75</v>
-      </c>
-      <c r="W190">
-        <v>1.4</v>
-      </c>
-      <c r="X190">
-        <v>8</v>
-      </c>
-      <c r="Y190">
-        <v>1.08</v>
-      </c>
-      <c r="Z190">
-        <v>4.59</v>
-      </c>
-      <c r="AA190">
-        <v>1.69</v>
-      </c>
-      <c r="AB190">
-        <v>3.32</v>
-      </c>
-      <c r="AC190">
-        <v>1.05</v>
-      </c>
-      <c r="AD190">
-        <v>12</v>
-      </c>
-      <c r="AE190">
-        <v>1.3</v>
-      </c>
-      <c r="AF190">
-        <v>3.6</v>
-      </c>
-      <c r="AG190">
-        <v>1.91</v>
-      </c>
-      <c r="AH190">
-        <v>1.93</v>
-      </c>
-      <c r="AI190">
-        <v>1.73</v>
-      </c>
-      <c r="AJ190">
-        <v>2</v>
-      </c>
-      <c r="AK190">
-        <v>1.3</v>
-      </c>
-      <c r="AL190">
-        <v>1.25</v>
-      </c>
-      <c r="AM190">
-        <v>1.83</v>
-      </c>
-      <c r="AN190">
-        <v>1.38</v>
-      </c>
-      <c r="AO190">
-        <v>1.14</v>
-      </c>
-      <c r="AP190">
-        <v>1.56</v>
-      </c>
-      <c r="AQ190">
-        <v>1</v>
-      </c>
-      <c r="AR190">
-        <v>1.39</v>
-      </c>
-      <c r="AS190">
-        <v>1.38</v>
-      </c>
-      <c r="AT190">
-        <v>2.77</v>
-      </c>
-      <c r="AU190">
-        <v>3</v>
-      </c>
-      <c r="AV190">
-        <v>3</v>
-      </c>
-      <c r="AW190">
-        <v>2</v>
-      </c>
-      <c r="AX190">
-        <v>7</v>
-      </c>
-      <c r="AY190">
-        <v>8</v>
-      </c>
-      <c r="AZ190">
-        <v>15</v>
-      </c>
-      <c r="BA190">
-        <v>9</v>
-      </c>
-      <c r="BB190">
-        <v>4</v>
-      </c>
-      <c r="BC190">
-        <v>13</v>
-      </c>
-      <c r="BD190">
-        <v>1.32</v>
-      </c>
-      <c r="BE190">
-        <v>8</v>
-      </c>
-      <c r="BF190">
-        <v>3.55</v>
-      </c>
-      <c r="BG190">
-        <v>1.16</v>
-      </c>
-      <c r="BH190">
-        <v>4.4</v>
-      </c>
-      <c r="BI190">
-        <v>1.28</v>
-      </c>
-      <c r="BJ190">
-        <v>3.2</v>
-      </c>
-      <c r="BK190">
-        <v>1.47</v>
-      </c>
-      <c r="BL190">
-        <v>2.43</v>
-      </c>
-      <c r="BM190">
-        <v>1.75</v>
-      </c>
-      <c r="BN190">
-        <v>1.95</v>
-      </c>
-      <c r="BO190">
-        <v>2.15</v>
-      </c>
-      <c r="BP190">
         <v>1.61</v>
-      </c>
-    </row>
-    <row r="191" spans="1:68">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191">
-        <v>7478929</v>
-      </c>
-      <c r="C191" t="s">
-        <v>68</v>
-      </c>
-      <c r="D191" t="s">
-        <v>69</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191" t="s">
-        <v>73</v>
-      </c>
-      <c r="H191" t="s">
-        <v>79</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <v>3</v>
-      </c>
-      <c r="K191">
-        <v>4</v>
-      </c>
-      <c r="L191">
-        <v>2</v>
-      </c>
-      <c r="M191">
-        <v>6</v>
-      </c>
-      <c r="N191">
-        <v>8</v>
-      </c>
-      <c r="O191" t="s">
-        <v>225</v>
-      </c>
-      <c r="P191" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q191">
-        <v>5.5</v>
-      </c>
-      <c r="R191">
-        <v>2.3</v>
-      </c>
-      <c r="S191">
-        <v>2.2</v>
-      </c>
-      <c r="T191">
-        <v>1.36</v>
-      </c>
-      <c r="U191">
-        <v>3</v>
-      </c>
-      <c r="V191">
-        <v>2.63</v>
-      </c>
-      <c r="W191">
-        <v>1.44</v>
-      </c>
-      <c r="X191">
-        <v>7</v>
-      </c>
-      <c r="Y191">
-        <v>1.1</v>
-      </c>
-      <c r="Z191">
-        <v>3.79</v>
-      </c>
-      <c r="AA191">
-        <v>1.9</v>
-      </c>
-      <c r="AB191">
-        <v>3.15</v>
-      </c>
-      <c r="AC191">
-        <v>1.04</v>
-      </c>
-      <c r="AD191">
-        <v>13</v>
-      </c>
-      <c r="AE191">
-        <v>1.26</v>
-      </c>
-      <c r="AF191">
-        <v>4</v>
-      </c>
-      <c r="AG191">
-        <v>1.9</v>
-      </c>
-      <c r="AH191">
-        <v>1.8</v>
-      </c>
-      <c r="AI191">
-        <v>1.83</v>
-      </c>
-      <c r="AJ191">
-        <v>1.83</v>
-      </c>
-      <c r="AK191">
-        <v>2.4</v>
-      </c>
-      <c r="AL191">
-        <v>1.2</v>
-      </c>
-      <c r="AM191">
-        <v>1.15</v>
-      </c>
-      <c r="AN191">
-        <v>1.88</v>
-      </c>
-      <c r="AO191">
-        <v>1.43</v>
-      </c>
-      <c r="AP191">
-        <v>1.67</v>
-      </c>
-      <c r="AQ191">
-        <v>1.63</v>
-      </c>
-      <c r="AR191">
-        <v>1.01</v>
-      </c>
-      <c r="AS191">
-        <v>1.59</v>
-      </c>
-      <c r="AT191">
-        <v>2.6</v>
-      </c>
-      <c r="AU191">
-        <v>8</v>
-      </c>
-      <c r="AV191">
-        <v>13</v>
-      </c>
-      <c r="AW191">
-        <v>4</v>
-      </c>
-      <c r="AX191">
-        <v>4</v>
-      </c>
-      <c r="AY191">
-        <v>12</v>
-      </c>
-      <c r="AZ191">
-        <v>17</v>
-      </c>
-      <c r="BA191">
-        <v>6</v>
-      </c>
-      <c r="BB191">
-        <v>10</v>
-      </c>
-      <c r="BC191">
-        <v>16</v>
-      </c>
-      <c r="BD191">
-        <v>2.9</v>
-      </c>
-      <c r="BE191">
-        <v>6.75</v>
-      </c>
-      <c r="BF191">
-        <v>1.49</v>
-      </c>
-      <c r="BG191">
-        <v>1.26</v>
-      </c>
-      <c r="BH191">
-        <v>3.4</v>
-      </c>
-      <c r="BI191">
-        <v>1.46</v>
-      </c>
-      <c r="BJ191">
-        <v>2.48</v>
-      </c>
-      <c r="BK191">
-        <v>1.75</v>
-      </c>
-      <c r="BL191">
-        <v>1.95</v>
-      </c>
-      <c r="BM191">
-        <v>2.17</v>
-      </c>
-      <c r="BN191">
-        <v>1.6</v>
-      </c>
-      <c r="BO191">
-        <v>2.7</v>
-      </c>
-      <c r="BP191">
-        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,16 +673,31 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['23', '90+6']</t>
   </si>
   <si>
     <t>['23']</t>
   </si>
   <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['11', '43']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['24', '72']</t>
+  </si>
+  <si>
     <t>['8', '45+3', '90']</t>
+  </si>
+  <si>
+    <t>['10', '26', '58']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -892,10 +907,22 @@
     <t>['12', '17']</t>
   </si>
   <si>
+    <t>['8', '41']</t>
+  </si>
+  <si>
+    <t>['13', '34']</t>
+  </si>
+  <si>
     <t>['20', '41']</t>
   </si>
   <si>
+    <t>['37', '42', '45', '49', '80', '83']</t>
+  </si>
+  <si>
     <t>['20', '55', '73', '90+1']</t>
+  </si>
+  <si>
+    <t>['37', '81']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1543,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1722,7 +1749,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1803,7 +1830,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1928,7 +1955,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2212,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2340,7 +2367,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2418,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2624,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
         <v>0.88</v>
@@ -2752,7 +2779,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2958,7 +2985,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3036,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3164,7 +3191,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3245,7 +3272,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3782,7 +3809,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3860,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3988,7 +4015,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4066,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4481,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4812,7 +4839,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4890,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -5096,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5305,7 +5332,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5430,7 +5457,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5636,7 +5663,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6126,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6335,7 +6362,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6460,7 +6487,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6744,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7078,7 +7105,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7284,7 +7311,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7568,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -8189,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8314,7 +8341,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8392,7 +8419,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1.88</v>
@@ -8520,7 +8547,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8601,7 +8628,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8726,7 +8753,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8932,7 +8959,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9010,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>0.86</v>
@@ -9344,7 +9371,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9425,7 +9452,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9550,7 +9577,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9628,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9962,7 +9989,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10043,7 +10070,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10168,7 +10195,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10246,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10452,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10661,7 +10688,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -10867,7 +10894,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -11070,10 +11097,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11276,10 +11303,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11404,7 +11431,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11482,10 +11509,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11894,7 +11921,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -12100,7 +12127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12512,7 +12539,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12640,7 +12667,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12718,10 +12745,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12846,7 +12873,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13339,7 +13366,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13464,7 +13491,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13545,7 +13572,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13670,7 +13697,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13876,7 +13903,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13954,10 +13981,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14163,7 +14190,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14369,7 +14396,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14700,7 +14727,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15193,7 +15220,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15318,7 +15345,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15602,10 +15629,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15730,7 +15757,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15808,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>0.88</v>
@@ -16014,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16348,7 +16375,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16426,7 +16453,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16760,7 +16787,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16966,7 +16993,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17250,7 +17277,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17378,7 +17405,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17456,10 +17483,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17790,7 +17817,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17868,10 +17895,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18074,7 +18101,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -18283,7 +18310,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18614,7 +18641,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18695,7 +18722,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -19310,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>0.86</v>
@@ -19438,7 +19465,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19516,10 +19543,10 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -20056,7 +20083,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20137,7 +20164,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20343,7 +20370,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20546,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -20755,7 +20782,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -20958,7 +20985,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
         <v>0.75</v>
@@ -21167,7 +21194,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21292,7 +21319,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21579,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -21785,7 +21812,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -21991,7 +22018,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22116,7 +22143,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22194,10 +22221,10 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22322,7 +22349,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22400,7 +22427,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22606,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ104">
         <v>0.57</v>
@@ -23018,10 +23045,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23845,7 +23872,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24254,10 +24281,10 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24666,7 +24693,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>1.88</v>
@@ -24794,7 +24821,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25000,7 +25027,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25284,7 +25311,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25412,7 +25439,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25493,7 +25520,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -25902,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26108,10 +26135,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ121">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26442,7 +26469,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26648,7 +26675,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26726,10 +26753,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -26854,7 +26881,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26935,7 +26962,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27344,7 +27371,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>0.67</v>
@@ -27756,7 +27783,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ129">
         <v>1.67</v>
@@ -28090,7 +28117,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28168,10 +28195,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28374,7 +28401,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132">
         <v>0.25</v>
@@ -28583,7 +28610,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28708,7 +28735,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28789,7 +28816,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29120,7 +29147,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29198,7 +29225,7 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136">
         <v>0.57</v>
@@ -29404,7 +29431,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ137">
         <v>0.86</v>
@@ -29613,7 +29640,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ138">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29944,7 +29971,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30150,7 +30177,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30228,10 +30255,10 @@
         <v>0.4</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ141">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30437,7 +30464,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.28</v>
@@ -30640,7 +30667,7 @@
         <v>0.8</v>
       </c>
       <c r="AP143">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30974,7 +31001,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31055,7 +31082,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31180,7 +31207,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31258,7 +31285,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146">
         <v>1.88</v>
@@ -31386,7 +31413,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31467,7 +31494,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR147">
         <v>1.31</v>
@@ -31592,7 +31619,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31670,7 +31697,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
         <v>0.88</v>
@@ -31798,7 +31825,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31876,7 +31903,7 @@
         <v>0.33</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -32210,7 +32237,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32288,7 +32315,7 @@
         <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ151">
         <v>0.75</v>
@@ -32622,7 +32649,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32828,7 +32855,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32909,7 +32936,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.21</v>
@@ -33115,7 +33142,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.73</v>
@@ -33240,7 +33267,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33321,7 +33348,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR156">
         <v>1.43</v>
@@ -33524,7 +33551,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33858,7 +33885,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -33939,7 +33966,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ159">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34064,7 +34091,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34145,7 +34172,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34348,10 +34375,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.05</v>
@@ -34557,7 +34584,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34760,7 +34787,7 @@
         <v>0.86</v>
       </c>
       <c r="AP163">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ163">
         <v>0.75</v>
@@ -34966,7 +34993,7 @@
         <v>1.67</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
         <v>1.63</v>
@@ -35094,7 +35121,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35300,7 +35327,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35378,7 +35405,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -35584,7 +35611,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ167">
         <v>0.5</v>
@@ -35793,7 +35820,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -36202,10 +36229,10 @@
         <v>0.33</v>
       </c>
       <c r="AP170">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ170">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36536,7 +36563,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36614,7 +36641,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -36742,7 +36769,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37154,7 +37181,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37441,7 +37468,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ176">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR176">
         <v>1.24</v>
@@ -37647,7 +37674,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR177">
         <v>1.46</v>
@@ -37772,7 +37799,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38056,10 +38083,10 @@
         <v>1.17</v>
       </c>
       <c r="AP179">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
         <v>1.59</v>
@@ -38184,7 +38211,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38262,7 +38289,7 @@
         <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ180">
         <v>1.88</v>
@@ -38554,7 +38581,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7478925</v>
+        <v>7478930</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38563,196 +38590,196 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.70833333334</v>
       </c>
       <c r="F182">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H182" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O182" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="Q182">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S182">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T182">
+        <v>1.33</v>
+      </c>
+      <c r="U182">
+        <v>3.25</v>
+      </c>
+      <c r="V182">
+        <v>2.5</v>
+      </c>
+      <c r="W182">
         <v>1.5</v>
       </c>
-      <c r="U182">
-        <v>2.5</v>
-      </c>
-      <c r="V182">
+      <c r="X182">
+        <v>6.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.11</v>
+      </c>
+      <c r="Z182">
+        <v>3.1</v>
+      </c>
+      <c r="AA182">
         <v>3.5</v>
       </c>
-      <c r="W182">
-        <v>1.29</v>
-      </c>
-      <c r="X182">
-        <v>10</v>
-      </c>
-      <c r="Y182">
-        <v>1.06</v>
-      </c>
-      <c r="Z182">
-        <v>1.95</v>
-      </c>
-      <c r="AA182">
-        <v>2.43</v>
-      </c>
       <c r="AB182">
-        <v>5.37</v>
+        <v>2.2</v>
       </c>
       <c r="AC182">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD182">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AE182">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AF182">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="AG182">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AH182">
-        <v>1.65</v>
+        <v>2.18</v>
       </c>
       <c r="AI182">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="AJ182">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AK182">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AL182">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM182">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AN182">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO182">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP182">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>1.67</v>
+        <v>0.78</v>
       </c>
       <c r="AR182">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AS182">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AT182">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="AU182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV182">
         <v>6</v>
       </c>
       <c r="AW182">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX182">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY182">
+        <v>11</v>
+      </c>
+      <c r="AZ182">
+        <v>13</v>
+      </c>
+      <c r="BA182">
+        <v>2</v>
+      </c>
+      <c r="BB182">
         <v>8</v>
       </c>
-      <c r="AZ182">
-        <v>15</v>
-      </c>
-      <c r="BA182">
-        <v>8</v>
-      </c>
-      <c r="BB182">
-        <v>3</v>
-      </c>
       <c r="BC182">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD182">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="BE182">
         <v>6.75</v>
       </c>
       <c r="BF182">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="BG182">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH182">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI182">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ182">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BK182">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BL182">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="BM182">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BN182">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="BO182">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="BP182">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38760,7 +38787,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7478933</v>
+        <v>7478925</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38769,196 +38796,196 @@
         <v>69</v>
       </c>
       <c r="E183" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H183" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="Q183">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="R183">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S183">
+        <v>3.4</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>3.5</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>1.95</v>
+      </c>
+      <c r="AA183">
+        <v>2.43</v>
+      </c>
+      <c r="AB183">
+        <v>5.37</v>
+      </c>
+      <c r="AC183">
+        <v>1.08</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.44</v>
+      </c>
+      <c r="AF183">
+        <v>2.8</v>
+      </c>
+      <c r="AG183">
+        <v>2.1</v>
+      </c>
+      <c r="AH183">
+        <v>1.65</v>
+      </c>
+      <c r="AI183">
+        <v>1.91</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.53</v>
+      </c>
+      <c r="AL183">
+        <v>1.3</v>
+      </c>
+      <c r="AM183">
+        <v>1.44</v>
+      </c>
+      <c r="AN183">
+        <v>1.43</v>
+      </c>
+      <c r="AO183">
+        <v>1.5</v>
+      </c>
+      <c r="AP183">
+        <v>1.25</v>
+      </c>
+      <c r="AQ183">
+        <v>1.67</v>
+      </c>
+      <c r="AR183">
+        <v>1.3</v>
+      </c>
+      <c r="AS183">
+        <v>1.16</v>
+      </c>
+      <c r="AT183">
+        <v>2.46</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>2</v>
+      </c>
+      <c r="AX183">
         <v>4</v>
       </c>
-      <c r="T183">
-        <v>1.4</v>
-      </c>
-      <c r="U183">
-        <v>2.75</v>
-      </c>
-      <c r="V183">
-        <v>2.75</v>
-      </c>
-      <c r="W183">
-        <v>1.4</v>
-      </c>
-      <c r="X183">
+      <c r="AY183">
         <v>8</v>
       </c>
-      <c r="Y183">
-        <v>1.08</v>
-      </c>
-      <c r="Z183">
-        <v>3.59</v>
-      </c>
-      <c r="AA183">
+      <c r="AZ183">
+        <v>15</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>11</v>
+      </c>
+      <c r="BD183">
+        <v>2.18</v>
+      </c>
+      <c r="BE183">
+        <v>6.75</v>
+      </c>
+      <c r="BF183">
+        <v>1.8</v>
+      </c>
+      <c r="BG183">
+        <v>1.2</v>
+      </c>
+      <c r="BH183">
+        <v>3.9</v>
+      </c>
+      <c r="BI183">
+        <v>1.36</v>
+      </c>
+      <c r="BJ183">
+        <v>2.8</v>
+      </c>
+      <c r="BK183">
+        <v>1.58</v>
+      </c>
+      <c r="BL183">
+        <v>2.18</v>
+      </c>
+      <c r="BM183">
         <v>1.95</v>
       </c>
-      <c r="AB183">
-        <v>3.15</v>
-      </c>
-      <c r="AC183">
-        <v>1.06</v>
-      </c>
-      <c r="AD183">
-        <v>10</v>
-      </c>
-      <c r="AE183">
-        <v>1.33</v>
-      </c>
-      <c r="AF183">
-        <v>3.4</v>
-      </c>
-      <c r="AG183">
-        <v>1.96</v>
-      </c>
-      <c r="AH183">
-        <v>1.88</v>
-      </c>
-      <c r="AI183">
-        <v>1.73</v>
-      </c>
-      <c r="AJ183">
-        <v>2</v>
-      </c>
-      <c r="AK183">
-        <v>1.3</v>
-      </c>
-      <c r="AL183">
-        <v>1.28</v>
-      </c>
-      <c r="AM183">
-        <v>1.8</v>
-      </c>
-      <c r="AN183">
-        <v>1.38</v>
-      </c>
-      <c r="AO183">
-        <v>0.43</v>
-      </c>
-      <c r="AP183">
-        <v>1.33</v>
-      </c>
-      <c r="AQ183">
-        <v>0.5</v>
-      </c>
-      <c r="AR183">
-        <v>1.45</v>
-      </c>
-      <c r="AS183">
-        <v>1.08</v>
-      </c>
-      <c r="AT183">
-        <v>2.53</v>
-      </c>
-      <c r="AU183">
-        <v>4</v>
-      </c>
-      <c r="AV183">
-        <v>5</v>
-      </c>
-      <c r="AW183">
-        <v>5</v>
-      </c>
-      <c r="AX183">
-        <v>5</v>
-      </c>
-      <c r="AY183">
-        <v>18</v>
-      </c>
-      <c r="AZ183">
-        <v>10</v>
-      </c>
-      <c r="BA183">
-        <v>6</v>
-      </c>
-      <c r="BB183">
-        <v>2</v>
-      </c>
-      <c r="BC183">
-        <v>8</v>
-      </c>
-      <c r="BD183">
-        <v>1.5</v>
-      </c>
-      <c r="BE183">
-        <v>7</v>
-      </c>
-      <c r="BF183">
-        <v>2.9</v>
-      </c>
-      <c r="BG183">
-        <v>1.21</v>
-      </c>
-      <c r="BH183">
-        <v>3.7</v>
-      </c>
-      <c r="BI183">
-        <v>1.4</v>
-      </c>
-      <c r="BJ183">
-        <v>2.7</v>
-      </c>
-      <c r="BK183">
-        <v>1.65</v>
-      </c>
-      <c r="BL183">
-        <v>2.08</v>
-      </c>
-      <c r="BM183">
-        <v>2</v>
-      </c>
       <c r="BN183">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="BO183">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP183">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -38966,7 +38993,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7478932</v>
+        <v>7478931</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -38975,25 +39002,25 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F184">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H184" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>1</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L184">
         <v>1</v>
@@ -39005,148 +39032,148 @@
         <v>2</v>
       </c>
       <c r="O184" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="Q184">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R184">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
         <v>3.4</v>
       </c>
-      <c r="T184">
-        <v>1.4</v>
-      </c>
-      <c r="U184">
-        <v>2.75</v>
-      </c>
-      <c r="V184">
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>3.4</v>
+      </c>
+      <c r="AA184">
+        <v>3.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.89</v>
+      </c>
+      <c r="AC184">
+        <v>1.08</v>
+      </c>
+      <c r="AD184">
+        <v>8.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.42</v>
+      </c>
+      <c r="AF184">
+        <v>2.9</v>
+      </c>
+      <c r="AG184">
+        <v>1.9</v>
+      </c>
+      <c r="AH184">
+        <v>1.8</v>
+      </c>
+      <c r="AI184">
+        <v>1.91</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.33</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.68</v>
+      </c>
+      <c r="AN184">
+        <v>1.5</v>
+      </c>
+      <c r="AO184">
+        <v>0.63</v>
+      </c>
+      <c r="AP184">
+        <v>1.44</v>
+      </c>
+      <c r="AQ184">
+        <v>0.67</v>
+      </c>
+      <c r="AR184">
+        <v>1.2</v>
+      </c>
+      <c r="AS184">
+        <v>1.04</v>
+      </c>
+      <c r="AT184">
+        <v>2.24</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>2</v>
+      </c>
+      <c r="AW184">
         <v>3</v>
       </c>
-      <c r="W184">
-        <v>1.36</v>
-      </c>
-      <c r="X184">
-        <v>8</v>
-      </c>
-      <c r="Y184">
-        <v>1.08</v>
-      </c>
-      <c r="Z184">
-        <v>5.65</v>
-      </c>
-      <c r="AA184">
-        <v>5.26</v>
-      </c>
-      <c r="AB184">
-        <v>1.35</v>
-      </c>
-      <c r="AC184">
-        <v>1.05</v>
-      </c>
-      <c r="AD184">
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
         <v>12</v>
       </c>
-      <c r="AE184">
-        <v>1.3</v>
-      </c>
-      <c r="AF184">
-        <v>3.6</v>
-      </c>
-      <c r="AG184">
-        <v>2.03</v>
-      </c>
-      <c r="AH184">
-        <v>1.85</v>
-      </c>
-      <c r="AI184">
-        <v>1.73</v>
-      </c>
-      <c r="AJ184">
-        <v>2</v>
-      </c>
-      <c r="AK184">
-        <v>1.48</v>
-      </c>
-      <c r="AL184">
-        <v>1.28</v>
-      </c>
-      <c r="AM184">
-        <v>1.53</v>
-      </c>
-      <c r="AN184">
-        <v>0.5</v>
-      </c>
-      <c r="AO184">
-        <v>1</v>
-      </c>
-      <c r="AP184">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ184">
-        <v>1</v>
-      </c>
-      <c r="AR184">
-        <v>1.68</v>
-      </c>
-      <c r="AS184">
-        <v>1.08</v>
-      </c>
-      <c r="AT184">
-        <v>2.76</v>
-      </c>
-      <c r="AU184">
+      <c r="AZ184">
         <v>6</v>
       </c>
-      <c r="AV184">
-        <v>6</v>
-      </c>
-      <c r="AW184">
-        <v>11</v>
-      </c>
-      <c r="AX184">
-        <v>2</v>
-      </c>
-      <c r="AY184">
-        <v>24</v>
-      </c>
-      <c r="AZ184">
+      <c r="BA184">
+        <v>7</v>
+      </c>
+      <c r="BB184">
+        <v>3</v>
+      </c>
+      <c r="BC184">
         <v>10</v>
       </c>
-      <c r="BA184">
-        <v>10</v>
-      </c>
-      <c r="BB184">
-        <v>4</v>
-      </c>
-      <c r="BC184">
-        <v>14</v>
-      </c>
       <c r="BD184">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BE184">
         <v>6.75</v>
       </c>
       <c r="BF184">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BG184">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH184">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BI184">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ184">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BK184">
         <v>1.48</v>
@@ -39155,16 +39182,16 @@
         <v>2.43</v>
       </c>
       <c r="BM184">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="BN184">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="BO184">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BP184">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39172,7 +39199,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7478931</v>
+        <v>7478926</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39181,196 +39208,196 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F185">
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H185" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O185" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="Q185">
+        <v>3.2</v>
+      </c>
+      <c r="R185">
+        <v>2.1</v>
+      </c>
+      <c r="S185">
+        <v>3.4</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
         <v>3</v>
       </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>4</v>
-      </c>
-      <c r="T185">
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.8</v>
+      </c>
+      <c r="AA185">
+        <v>2.63</v>
+      </c>
+      <c r="AB185">
+        <v>5.73</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>11</v>
+      </c>
+      <c r="AE185">
+        <v>1.33</v>
+      </c>
+      <c r="AF185">
+        <v>3.4</v>
+      </c>
+      <c r="AG185">
+        <v>2.03</v>
+      </c>
+      <c r="AH185">
+        <v>1.85</v>
+      </c>
+      <c r="AI185">
+        <v>1.73</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.45</v>
+      </c>
+      <c r="AL185">
+        <v>1.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.55</v>
+      </c>
+      <c r="AN185">
+        <v>1.29</v>
+      </c>
+      <c r="AO185">
+        <v>1.75</v>
+      </c>
+      <c r="AP185">
+        <v>1.25</v>
+      </c>
+      <c r="AQ185">
+        <v>1.67</v>
+      </c>
+      <c r="AR185">
+        <v>1.86</v>
+      </c>
+      <c r="AS185">
+        <v>1.37</v>
+      </c>
+      <c r="AT185">
+        <v>3.23</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>3</v>
+      </c>
+      <c r="AW185">
+        <v>14</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>21</v>
+      </c>
+      <c r="AZ185">
+        <v>8</v>
+      </c>
+      <c r="BA185">
+        <v>12</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
+        <v>14</v>
+      </c>
+      <c r="BD185">
+        <v>1.81</v>
+      </c>
+      <c r="BE185">
+        <v>7</v>
+      </c>
+      <c r="BF185">
+        <v>2.15</v>
+      </c>
+      <c r="BG185">
+        <v>1.09</v>
+      </c>
+      <c r="BH185">
+        <v>5.8</v>
+      </c>
+      <c r="BI185">
+        <v>1.19</v>
+      </c>
+      <c r="BJ185">
+        <v>4.1</v>
+      </c>
+      <c r="BK185">
+        <v>1.32</v>
+      </c>
+      <c r="BL185">
+        <v>3.05</v>
+      </c>
+      <c r="BM185">
         <v>1.5</v>
       </c>
-      <c r="U185">
-        <v>2.5</v>
-      </c>
-      <c r="V185">
-        <v>3.4</v>
-      </c>
-      <c r="W185">
-        <v>1.3</v>
-      </c>
-      <c r="X185">
-        <v>10</v>
-      </c>
-      <c r="Y185">
-        <v>1.06</v>
-      </c>
-      <c r="Z185">
-        <v>3.4</v>
-      </c>
-      <c r="AA185">
-        <v>3.5</v>
-      </c>
-      <c r="AB185">
-        <v>1.89</v>
-      </c>
-      <c r="AC185">
-        <v>1.08</v>
-      </c>
-      <c r="AD185">
-        <v>8.5</v>
-      </c>
-      <c r="AE185">
-        <v>1.42</v>
-      </c>
-      <c r="AF185">
-        <v>2.9</v>
-      </c>
-      <c r="AG185">
+      <c r="BN185">
+        <v>2.35</v>
+      </c>
+      <c r="BO185">
+        <v>1.79</v>
+      </c>
+      <c r="BP185">
         <v>1.9</v>
-      </c>
-      <c r="AH185">
-        <v>1.8</v>
-      </c>
-      <c r="AI185">
-        <v>1.91</v>
-      </c>
-      <c r="AJ185">
-        <v>1.8</v>
-      </c>
-      <c r="AK185">
-        <v>1.33</v>
-      </c>
-      <c r="AL185">
-        <v>1.3</v>
-      </c>
-      <c r="AM185">
-        <v>1.68</v>
-      </c>
-      <c r="AN185">
-        <v>1.5</v>
-      </c>
-      <c r="AO185">
-        <v>0.63</v>
-      </c>
-      <c r="AP185">
-        <v>1.44</v>
-      </c>
-      <c r="AQ185">
-        <v>0.67</v>
-      </c>
-      <c r="AR185">
-        <v>1.2</v>
-      </c>
-      <c r="AS185">
-        <v>1.04</v>
-      </c>
-      <c r="AT185">
-        <v>2.24</v>
-      </c>
-      <c r="AU185">
-        <v>4</v>
-      </c>
-      <c r="AV185">
-        <v>2</v>
-      </c>
-      <c r="AW185">
-        <v>3</v>
-      </c>
-      <c r="AX185">
-        <v>2</v>
-      </c>
-      <c r="AY185">
-        <v>12</v>
-      </c>
-      <c r="AZ185">
-        <v>6</v>
-      </c>
-      <c r="BA185">
-        <v>7</v>
-      </c>
-      <c r="BB185">
-        <v>3</v>
-      </c>
-      <c r="BC185">
-        <v>10</v>
-      </c>
-      <c r="BD185">
-        <v>1.64</v>
-      </c>
-      <c r="BE185">
-        <v>6.75</v>
-      </c>
-      <c r="BF185">
-        <v>2.48</v>
-      </c>
-      <c r="BG185">
-        <v>1.15</v>
-      </c>
-      <c r="BH185">
-        <v>4.6</v>
-      </c>
-      <c r="BI185">
-        <v>1.28</v>
-      </c>
-      <c r="BJ185">
-        <v>3.2</v>
-      </c>
-      <c r="BK185">
-        <v>1.48</v>
-      </c>
-      <c r="BL185">
-        <v>2.43</v>
-      </c>
-      <c r="BM185">
-        <v>1.76</v>
-      </c>
-      <c r="BN185">
-        <v>1.93</v>
-      </c>
-      <c r="BO185">
-        <v>2.17</v>
-      </c>
-      <c r="BP185">
-        <v>1.6</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39378,7 +39405,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7478935</v>
+        <v>7478933</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39387,49 +39414,49 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F186">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H186" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O186" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="Q186">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R186">
         <v>2.2</v>
       </c>
       <c r="S186">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T186">
         <v>1.4</v>
@@ -39438,10 +39465,10 @@
         <v>2.75</v>
       </c>
       <c r="V186">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W186">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X186">
         <v>8</v>
@@ -39450,22 +39477,22 @@
         <v>1.08</v>
       </c>
       <c r="Z186">
-        <v>1.42</v>
+        <v>3.59</v>
       </c>
       <c r="AA186">
-        <v>5.06</v>
+        <v>1.95</v>
       </c>
       <c r="AB186">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="AC186">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD186">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE186">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AF186">
         <v>3.4</v>
@@ -39477,106 +39504,106 @@
         <v>1.88</v>
       </c>
       <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.3</v>
+      </c>
+      <c r="AL186">
+        <v>1.28</v>
+      </c>
+      <c r="AM186">
         <v>1.8</v>
       </c>
-      <c r="AJ186">
-        <v>1.91</v>
-      </c>
-      <c r="AK186">
-        <v>1.22</v>
-      </c>
-      <c r="AL186">
-        <v>1.25</v>
-      </c>
-      <c r="AM186">
-        <v>1.96</v>
-      </c>
       <c r="AN186">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AP186">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR186">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS186">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>2.34</v>
+        <v>2.53</v>
       </c>
       <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>18</v>
+      </c>
+      <c r="AZ186">
+        <v>10</v>
+      </c>
+      <c r="BA186">
+        <v>6</v>
+      </c>
+      <c r="BB186">
+        <v>2</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>1.5</v>
+      </c>
+      <c r="BE186">
         <v>7</v>
       </c>
-      <c r="AV186">
-        <v>6</v>
-      </c>
-      <c r="AW186">
-        <v>7</v>
-      </c>
-      <c r="AX186">
-        <v>3</v>
-      </c>
-      <c r="AY186">
-        <v>23</v>
-      </c>
-      <c r="AZ186">
-        <v>12</v>
-      </c>
-      <c r="BA186">
-        <v>11</v>
-      </c>
-      <c r="BB186">
-        <v>2</v>
-      </c>
-      <c r="BC186">
-        <v>13</v>
-      </c>
-      <c r="BD186">
-        <v>1.72</v>
-      </c>
-      <c r="BE186">
-        <v>6.75</v>
-      </c>
       <c r="BF186">
-        <v>2.33</v>
+        <v>2.9</v>
       </c>
       <c r="BG186">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH186">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BI186">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BJ186">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BK186">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BL186">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BM186">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="BN186">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="BO186">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BP186">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39584,7 +39611,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7478934</v>
+        <v>7478932</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39593,166 +39620,166 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45620.5</v>
+        <v>45619.5</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N187">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O187" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="P187" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="Q187">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R187">
         <v>2.1</v>
       </c>
       <c r="S187">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T187">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U187">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V187">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W187">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y187">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z187">
-        <v>4.36</v>
+        <v>5.65</v>
       </c>
       <c r="AA187">
-        <v>3.41</v>
+        <v>5.26</v>
       </c>
       <c r="AB187">
+        <v>1.35</v>
+      </c>
+      <c r="AC187">
+        <v>1.05</v>
+      </c>
+      <c r="AD187">
+        <v>12</v>
+      </c>
+      <c r="AE187">
+        <v>1.3</v>
+      </c>
+      <c r="AF187">
+        <v>3.6</v>
+      </c>
+      <c r="AG187">
+        <v>2.03</v>
+      </c>
+      <c r="AH187">
+        <v>1.85</v>
+      </c>
+      <c r="AI187">
         <v>1.73</v>
       </c>
-      <c r="AC187">
-        <v>1.07</v>
-      </c>
-      <c r="AD187">
-        <v>9.5</v>
-      </c>
-      <c r="AE187">
-        <v>1.36</v>
-      </c>
-      <c r="AF187">
-        <v>3.2</v>
-      </c>
-      <c r="AG187">
-        <v>1.98</v>
-      </c>
-      <c r="AH187">
-        <v>1.71</v>
-      </c>
-      <c r="AI187">
-        <v>2</v>
-      </c>
       <c r="AJ187">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK187">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="AL187">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM187">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="AN187">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AO187">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ187">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR187">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AS187">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AT187">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU187">
         <v>6</v>
       </c>
       <c r="AV187">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW187">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY187">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>10</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
         <v>14</v>
       </c>
-      <c r="BA187">
-        <v>1</v>
-      </c>
-      <c r="BB187">
-        <v>2</v>
-      </c>
-      <c r="BC187">
-        <v>3</v>
-      </c>
       <c r="BD187">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="BE187">
         <v>6.75</v>
       </c>
       <c r="BF187">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="BG187">
         <v>1.16</v>
@@ -39764,25 +39791,1879 @@
         <v>1.29</v>
       </c>
       <c r="BJ187">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BK187">
         <v>1.48</v>
       </c>
       <c r="BL187">
+        <v>2.43</v>
+      </c>
+      <c r="BM187">
+        <v>1.77</v>
+      </c>
+      <c r="BN187">
+        <v>1.92</v>
+      </c>
+      <c r="BO187">
+        <v>2.18</v>
+      </c>
+      <c r="BP187">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7478935</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F188">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>83</v>
+      </c>
+      <c r="H188" t="s">
+        <v>90</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>4</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188" t="s">
+        <v>223</v>
+      </c>
+      <c r="P188" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q188">
+        <v>2.5</v>
+      </c>
+      <c r="R188">
+        <v>2.2</v>
+      </c>
+      <c r="S188">
+        <v>4.5</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.75</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>8</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>1.42</v>
+      </c>
+      <c r="AA188">
+        <v>5.06</v>
+      </c>
+      <c r="AB188">
+        <v>4.75</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>11</v>
+      </c>
+      <c r="AE188">
+        <v>1.32</v>
+      </c>
+      <c r="AF188">
+        <v>3.4</v>
+      </c>
+      <c r="AG188">
+        <v>1.96</v>
+      </c>
+      <c r="AH188">
+        <v>1.88</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.91</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.96</v>
+      </c>
+      <c r="AN188">
+        <v>1.43</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AP188">
+        <v>1.38</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.32</v>
+      </c>
+      <c r="AS188">
+        <v>1.02</v>
+      </c>
+      <c r="AT188">
+        <v>2.34</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>23</v>
+      </c>
+      <c r="AZ188">
+        <v>12</v>
+      </c>
+      <c r="BA188">
+        <v>11</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>13</v>
+      </c>
+      <c r="BD188">
+        <v>1.72</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.33</v>
+      </c>
+      <c r="BG188">
+        <v>1.2</v>
+      </c>
+      <c r="BH188">
+        <v>3.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.36</v>
+      </c>
+      <c r="BJ188">
+        <v>2.8</v>
+      </c>
+      <c r="BK188">
+        <v>1.58</v>
+      </c>
+      <c r="BL188">
+        <v>2.18</v>
+      </c>
+      <c r="BM188">
+        <v>1.94</v>
+      </c>
+      <c r="BN188">
+        <v>1.76</v>
+      </c>
+      <c r="BO188">
+        <v>2.4</v>
+      </c>
+      <c r="BP188">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7478928</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>93</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>136</v>
+      </c>
+      <c r="P189" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q189">
+        <v>3.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>1.57</v>
+      </c>
+      <c r="U189">
+        <v>2.25</v>
+      </c>
+      <c r="V189">
+        <v>3.75</v>
+      </c>
+      <c r="W189">
+        <v>1.25</v>
+      </c>
+      <c r="X189">
+        <v>11</v>
+      </c>
+      <c r="Y189">
+        <v>1.05</v>
+      </c>
+      <c r="Z189">
+        <v>3.6</v>
+      </c>
+      <c r="AA189">
+        <v>2.02</v>
+      </c>
+      <c r="AB189">
+        <v>2.97</v>
+      </c>
+      <c r="AC189">
+        <v>1.1</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.5</v>
+      </c>
+      <c r="AF189">
+        <v>2.65</v>
+      </c>
+      <c r="AG189">
+        <v>2.35</v>
+      </c>
+      <c r="AH189">
+        <v>1.53</v>
+      </c>
+      <c r="AI189">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189">
+        <v>1.67</v>
+      </c>
+      <c r="AK189">
+        <v>1.38</v>
+      </c>
+      <c r="AL189">
+        <v>1.32</v>
+      </c>
+      <c r="AM189">
+        <v>1.58</v>
+      </c>
+      <c r="AN189">
+        <v>2</v>
+      </c>
+      <c r="AO189">
+        <v>1.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.89</v>
+      </c>
+      <c r="AQ189">
+        <v>1.67</v>
+      </c>
+      <c r="AR189">
+        <v>1.36</v>
+      </c>
+      <c r="AS189">
+        <v>1.24</v>
+      </c>
+      <c r="AT189">
+        <v>2.6</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>7</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>11</v>
+      </c>
+      <c r="AZ189">
+        <v>10</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>12</v>
+      </c>
+      <c r="BD189">
+        <v>2.02</v>
+      </c>
+      <c r="BE189">
+        <v>6.4</v>
+      </c>
+      <c r="BF189">
+        <v>1.96</v>
+      </c>
+      <c r="BG189">
+        <v>1.25</v>
+      </c>
+      <c r="BH189">
+        <v>3.45</v>
+      </c>
+      <c r="BI189">
+        <v>1.44</v>
+      </c>
+      <c r="BJ189">
+        <v>2.55</v>
+      </c>
+      <c r="BK189">
+        <v>1.72</v>
+      </c>
+      <c r="BL189">
+        <v>1.98</v>
+      </c>
+      <c r="BM189">
+        <v>2.12</v>
+      </c>
+      <c r="BN189">
+        <v>1.63</v>
+      </c>
+      <c r="BO189">
+        <v>2.7</v>
+      </c>
+      <c r="BP189">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7478927</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F190">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>224</v>
+      </c>
+      <c r="P190" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q190">
+        <v>2.63</v>
+      </c>
+      <c r="R190">
+        <v>2.2</v>
+      </c>
+      <c r="S190">
+        <v>4</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>2.75</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>4.59</v>
+      </c>
+      <c r="AA190">
+        <v>1.69</v>
+      </c>
+      <c r="AB190">
+        <v>3.32</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>12</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.6</v>
+      </c>
+      <c r="AG190">
+        <v>1.91</v>
+      </c>
+      <c r="AH190">
+        <v>1.93</v>
+      </c>
+      <c r="AI190">
+        <v>1.73</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.3</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.83</v>
+      </c>
+      <c r="AN190">
+        <v>1.38</v>
+      </c>
+      <c r="AO190">
+        <v>1.14</v>
+      </c>
+      <c r="AP190">
+        <v>1.56</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.39</v>
+      </c>
+      <c r="AS190">
+        <v>1.38</v>
+      </c>
+      <c r="AT190">
+        <v>2.77</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>7</v>
+      </c>
+      <c r="AX190">
+        <v>10</v>
+      </c>
+      <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>9</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>13</v>
+      </c>
+      <c r="BD190">
+        <v>1.32</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>3.55</v>
+      </c>
+      <c r="BG190">
+        <v>1.16</v>
+      </c>
+      <c r="BH190">
+        <v>4.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.28</v>
+      </c>
+      <c r="BJ190">
+        <v>3.2</v>
+      </c>
+      <c r="BK190">
+        <v>1.47</v>
+      </c>
+      <c r="BL190">
+        <v>2.43</v>
+      </c>
+      <c r="BM190">
+        <v>1.75</v>
+      </c>
+      <c r="BN190">
+        <v>1.95</v>
+      </c>
+      <c r="BO190">
+        <v>2.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7478929</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s">
+        <v>79</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>3</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>6</v>
+      </c>
+      <c r="N191">
+        <v>8</v>
+      </c>
+      <c r="O191" t="s">
+        <v>225</v>
+      </c>
+      <c r="P191" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q191">
+        <v>5.5</v>
+      </c>
+      <c r="R191">
+        <v>2.3</v>
+      </c>
+      <c r="S191">
+        <v>2.2</v>
+      </c>
+      <c r="T191">
+        <v>1.36</v>
+      </c>
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191">
+        <v>2.63</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>3.79</v>
+      </c>
+      <c r="AA191">
+        <v>1.9</v>
+      </c>
+      <c r="AB191">
+        <v>3.15</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>13</v>
+      </c>
+      <c r="AE191">
+        <v>1.26</v>
+      </c>
+      <c r="AF191">
+        <v>4</v>
+      </c>
+      <c r="AG191">
+        <v>1.9</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.83</v>
+      </c>
+      <c r="AK191">
+        <v>2.4</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>1.15</v>
+      </c>
+      <c r="AN191">
+        <v>1.88</v>
+      </c>
+      <c r="AO191">
+        <v>1.43</v>
+      </c>
+      <c r="AP191">
+        <v>1.67</v>
+      </c>
+      <c r="AQ191">
+        <v>1.63</v>
+      </c>
+      <c r="AR191">
+        <v>1.01</v>
+      </c>
+      <c r="AS191">
+        <v>1.59</v>
+      </c>
+      <c r="AT191">
+        <v>2.6</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>12</v>
+      </c>
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
+        <v>5</v>
+      </c>
+      <c r="AY191">
+        <v>13</v>
+      </c>
+      <c r="AZ191">
+        <v>17</v>
+      </c>
+      <c r="BA191">
+        <v>6</v>
+      </c>
+      <c r="BB191">
+        <v>9</v>
+      </c>
+      <c r="BC191">
+        <v>15</v>
+      </c>
+      <c r="BD191">
+        <v>2.9</v>
+      </c>
+      <c r="BE191">
+        <v>6.75</v>
+      </c>
+      <c r="BF191">
+        <v>1.49</v>
+      </c>
+      <c r="BG191">
+        <v>1.26</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.46</v>
+      </c>
+      <c r="BJ191">
+        <v>2.48</v>
+      </c>
+      <c r="BK191">
+        <v>1.75</v>
+      </c>
+      <c r="BL191">
+        <v>1.95</v>
+      </c>
+      <c r="BM191">
+        <v>2.17</v>
+      </c>
+      <c r="BN191">
+        <v>1.6</v>
+      </c>
+      <c r="BO191">
+        <v>2.7</v>
+      </c>
+      <c r="BP191">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7478934</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>88</v>
+      </c>
+      <c r="H192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
+        <v>7</v>
+      </c>
+      <c r="O192" t="s">
+        <v>226</v>
+      </c>
+      <c r="P192" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q192">
+        <v>5</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>2.5</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>4.36</v>
+      </c>
+      <c r="AA192">
+        <v>3.41</v>
+      </c>
+      <c r="AB192">
+        <v>1.73</v>
+      </c>
+      <c r="AC192">
+        <v>1.07</v>
+      </c>
+      <c r="AD192">
+        <v>9.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.36</v>
+      </c>
+      <c r="AF192">
+        <v>3.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.98</v>
+      </c>
+      <c r="AH192">
+        <v>1.71</v>
+      </c>
+      <c r="AI192">
+        <v>2</v>
+      </c>
+      <c r="AJ192">
+        <v>1.73</v>
+      </c>
+      <c r="AK192">
+        <v>2.05</v>
+      </c>
+      <c r="AL192">
+        <v>1.26</v>
+      </c>
+      <c r="AM192">
+        <v>1.19</v>
+      </c>
+      <c r="AN192">
+        <v>1.71</v>
+      </c>
+      <c r="AO192">
+        <v>1.43</v>
+      </c>
+      <c r="AP192">
+        <v>1.5</v>
+      </c>
+      <c r="AQ192">
+        <v>1.63</v>
+      </c>
+      <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
+        <v>1.42</v>
+      </c>
+      <c r="AT192">
+        <v>2.77</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>3</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>11</v>
+      </c>
+      <c r="AZ192">
+        <v>14</v>
+      </c>
+      <c r="BA192">
+        <v>1</v>
+      </c>
+      <c r="BB192">
+        <v>2</v>
+      </c>
+      <c r="BC192">
+        <v>3</v>
+      </c>
+      <c r="BD192">
+        <v>2.3</v>
+      </c>
+      <c r="BE192">
+        <v>6.75</v>
+      </c>
+      <c r="BF192">
+        <v>1.74</v>
+      </c>
+      <c r="BG192">
+        <v>1.16</v>
+      </c>
+      <c r="BH192">
+        <v>4.4</v>
+      </c>
+      <c r="BI192">
+        <v>1.29</v>
+      </c>
+      <c r="BJ192">
+        <v>3.2</v>
+      </c>
+      <c r="BK192">
+        <v>1.48</v>
+      </c>
+      <c r="BL192">
         <v>2.45</v>
       </c>
-      <c r="BM187">
+      <c r="BM192">
         <v>1.74</v>
       </c>
-      <c r="BN187">
+      <c r="BN192">
         <v>1.96</v>
       </c>
-      <c r="BO187">
+      <c r="BO192">
         <v>2.15</v>
       </c>
-      <c r="BP187">
+      <c r="BP192">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7478941</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F193">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>75</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>95</v>
+      </c>
+      <c r="P193" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>4.5</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
+        <v>3.25</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>2.2</v>
+      </c>
+      <c r="AA193">
+        <v>3.3</v>
+      </c>
+      <c r="AB193">
+        <v>3.25</v>
+      </c>
+      <c r="AC193">
+        <v>1.07</v>
+      </c>
+      <c r="AD193">
+        <v>9.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.4</v>
+      </c>
+      <c r="AF193">
+        <v>3</v>
+      </c>
+      <c r="AG193">
+        <v>2.05</v>
+      </c>
+      <c r="AH193">
+        <v>1.65</v>
+      </c>
+      <c r="AI193">
+        <v>1.91</v>
+      </c>
+      <c r="AJ193">
+        <v>1.8</v>
+      </c>
+      <c r="AK193">
+        <v>1.33</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.7</v>
+      </c>
+      <c r="AN193">
+        <v>1.5</v>
+      </c>
+      <c r="AO193">
+        <v>0.43</v>
+      </c>
+      <c r="AP193">
+        <v>1.44</v>
+      </c>
+      <c r="AQ193">
+        <v>0.5</v>
+      </c>
+      <c r="AR193">
+        <v>1.32</v>
+      </c>
+      <c r="AS193">
+        <v>1.03</v>
+      </c>
+      <c r="AT193">
+        <v>2.35</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>2</v>
+      </c>
+      <c r="AY193">
+        <v>13</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>8</v>
+      </c>
+      <c r="BB193">
+        <v>10</v>
+      </c>
+      <c r="BC193">
+        <v>18</v>
+      </c>
+      <c r="BD193">
+        <v>1.57</v>
+      </c>
+      <c r="BE193">
+        <v>6.75</v>
+      </c>
+      <c r="BF193">
+        <v>2.65</v>
+      </c>
+      <c r="BG193">
+        <v>1.27</v>
+      </c>
+      <c r="BH193">
+        <v>3.48</v>
+      </c>
+      <c r="BI193">
+        <v>1.52</v>
+      </c>
+      <c r="BJ193">
+        <v>2.47</v>
+      </c>
+      <c r="BK193">
+        <v>1.88</v>
+      </c>
+      <c r="BL193">
+        <v>1.92</v>
+      </c>
+      <c r="BM193">
+        <v>2.38</v>
+      </c>
+      <c r="BN193">
+        <v>1.57</v>
+      </c>
+      <c r="BO193">
+        <v>3.18</v>
+      </c>
+      <c r="BP193">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7478940</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F194">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>227</v>
+      </c>
+      <c r="P194" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q194">
+        <v>2.05</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>6.5</v>
+      </c>
+      <c r="T194">
+        <v>1.36</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.75</v>
+      </c>
+      <c r="W194">
+        <v>1.4</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.08</v>
+      </c>
+      <c r="Z194">
+        <v>1.49</v>
+      </c>
+      <c r="AA194">
+        <v>4.4</v>
+      </c>
+      <c r="AB194">
+        <v>6.5</v>
+      </c>
+      <c r="AC194">
+        <v>1.03</v>
+      </c>
+      <c r="AD194">
+        <v>13</v>
+      </c>
+      <c r="AE194">
+        <v>1.26</v>
+      </c>
+      <c r="AF194">
+        <v>4</v>
+      </c>
+      <c r="AG194">
+        <v>1.77</v>
+      </c>
+      <c r="AH194">
+        <v>1.93</v>
+      </c>
+      <c r="AI194">
+        <v>2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.73</v>
+      </c>
+      <c r="AK194">
+        <v>1.11</v>
+      </c>
+      <c r="AL194">
+        <v>1.17</v>
+      </c>
+      <c r="AM194">
+        <v>2.7</v>
+      </c>
+      <c r="AN194">
+        <v>2.71</v>
+      </c>
+      <c r="AO194">
+        <v>0.29</v>
+      </c>
+      <c r="AP194">
+        <v>2.75</v>
+      </c>
+      <c r="AQ194">
+        <v>0.25</v>
+      </c>
+      <c r="AR194">
+        <v>1.46</v>
+      </c>
+      <c r="AS194">
+        <v>1.11</v>
+      </c>
+      <c r="AT194">
+        <v>2.57</v>
+      </c>
+      <c r="AU194">
+        <v>9</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>4</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>10</v>
+      </c>
+      <c r="BA194">
+        <v>7</v>
+      </c>
+      <c r="BB194">
+        <v>7</v>
+      </c>
+      <c r="BC194">
+        <v>14</v>
+      </c>
+      <c r="BD194">
+        <v>1.24</v>
+      </c>
+      <c r="BE194">
+        <v>8.5</v>
+      </c>
+      <c r="BF194">
+        <v>4.35</v>
+      </c>
+      <c r="BG194">
+        <v>1.09</v>
+      </c>
+      <c r="BH194">
+        <v>5.76</v>
+      </c>
+      <c r="BI194">
+        <v>1.24</v>
+      </c>
+      <c r="BJ194">
+        <v>3.69</v>
+      </c>
+      <c r="BK194">
+        <v>1.46</v>
+      </c>
+      <c r="BL194">
+        <v>2.63</v>
+      </c>
+      <c r="BM194">
+        <v>1.77</v>
+      </c>
+      <c r="BN194">
+        <v>2.05</v>
+      </c>
+      <c r="BO194">
+        <v>2.19</v>
+      </c>
+      <c r="BP194">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7478943</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F195">
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" t="s">
+        <v>89</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>148</v>
+      </c>
+      <c r="P195" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q195">
+        <v>3.1</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>3.5</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>2.3</v>
+      </c>
+      <c r="AA195">
+        <v>3.4</v>
+      </c>
+      <c r="AB195">
+        <v>3</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.32</v>
+      </c>
+      <c r="AF195">
+        <v>3.4</v>
+      </c>
+      <c r="AG195">
+        <v>1.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.83</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.38</v>
+      </c>
+      <c r="AL195">
+        <v>1.28</v>
+      </c>
+      <c r="AM195">
+        <v>1.63</v>
+      </c>
+      <c r="AN195">
+        <v>2.71</v>
+      </c>
+      <c r="AO195">
+        <v>1.5</v>
+      </c>
+      <c r="AP195">
+        <v>2.75</v>
+      </c>
+      <c r="AQ195">
+        <v>1.33</v>
+      </c>
+      <c r="AR195">
+        <v>1.53</v>
+      </c>
+      <c r="AS195">
+        <v>1.34</v>
+      </c>
+      <c r="AT195">
+        <v>2.87</v>
+      </c>
+      <c r="AU195">
+        <v>2</v>
+      </c>
+      <c r="AV195">
+        <v>6</v>
+      </c>
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>5</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>15</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>9</v>
+      </c>
+      <c r="BD195">
+        <v>1.76</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>2.23</v>
+      </c>
+      <c r="BG195">
+        <v>1.22</v>
+      </c>
+      <c r="BH195">
+        <v>3.82</v>
+      </c>
+      <c r="BI195">
+        <v>1.45</v>
+      </c>
+      <c r="BJ195">
+        <v>2.66</v>
+      </c>
+      <c r="BK195">
+        <v>1.78</v>
+      </c>
+      <c r="BL195">
+        <v>2.04</v>
+      </c>
+      <c r="BM195">
+        <v>2.22</v>
+      </c>
+      <c r="BN195">
+        <v>1.65</v>
+      </c>
+      <c r="BO195">
+        <v>2.92</v>
+      </c>
+      <c r="BP195">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7478937</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F196">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
+        <v>77</v>
+      </c>
+      <c r="H196" t="s">
+        <v>80</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>95</v>
+      </c>
+      <c r="P196" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q196">
+        <v>3</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>3.6</v>
+      </c>
+      <c r="T196">
+        <v>1.4</v>
+      </c>
+      <c r="U196">
+        <v>2.75</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>8</v>
+      </c>
+      <c r="Y196">
+        <v>1.08</v>
+      </c>
+      <c r="Z196">
+        <v>2.35</v>
+      </c>
+      <c r="AA196">
+        <v>3.4</v>
+      </c>
+      <c r="AB196">
+        <v>2.95</v>
+      </c>
+      <c r="AC196">
+        <v>1.06</v>
+      </c>
+      <c r="AD196">
+        <v>8.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.33</v>
+      </c>
+      <c r="AF196">
+        <v>3.25</v>
+      </c>
+      <c r="AG196">
+        <v>1.93</v>
+      </c>
+      <c r="AH196">
+        <v>1.77</v>
+      </c>
+      <c r="AI196">
+        <v>1.73</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>1.38</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>1.57</v>
+      </c>
+      <c r="AN196">
+        <v>0.88</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>0.78</v>
+      </c>
+      <c r="AQ196">
+        <v>1.25</v>
+      </c>
+      <c r="AR196">
+        <v>1.31</v>
+      </c>
+      <c r="AS196">
+        <v>1.03</v>
+      </c>
+      <c r="AT196">
+        <v>2.34</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>11</v>
+      </c>
+      <c r="AZ196">
+        <v>18</v>
+      </c>
+      <c r="BA196">
+        <v>4</v>
+      </c>
+      <c r="BB196">
+        <v>6</v>
+      </c>
+      <c r="BC196">
+        <v>10</v>
+      </c>
+      <c r="BD196">
+        <v>1.9</v>
+      </c>
+      <c r="BE196">
+        <v>6.75</v>
+      </c>
+      <c r="BF196">
+        <v>2.07</v>
+      </c>
+      <c r="BG196">
+        <v>1.12</v>
+      </c>
+      <c r="BH196">
+        <v>5.21</v>
+      </c>
+      <c r="BI196">
+        <v>1.28</v>
+      </c>
+      <c r="BJ196">
+        <v>3.4</v>
+      </c>
+      <c r="BK196">
+        <v>1.52</v>
+      </c>
+      <c r="BL196">
+        <v>2.47</v>
+      </c>
+      <c r="BM196">
+        <v>1.85</v>
+      </c>
+      <c r="BN196">
+        <v>1.95</v>
+      </c>
+      <c r="BO196">
+        <v>2.32</v>
+      </c>
+      <c r="BP196">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,13 +676,13 @@
     <t>['23', '90+6']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['22', '80']</t>
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
   <si>
     <t>['11', '43']</t>
@@ -698,6 +698,18 @@
   </si>
   <si>
     <t>['10', '26', '58']</t>
+  </si>
+  <si>
+    <t>['47', '80']</t>
+  </si>
+  <si>
+    <t>['2', '17', '51', '72', '80', '82']</t>
+  </si>
+  <si>
+    <t>['10', '45+1', '81']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -923,6 +935,9 @@
   </si>
   <si>
     <t>['37', '81']</t>
+  </si>
+  <si>
+    <t>['40', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1558,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1749,7 +1764,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1955,7 +1970,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2036,7 +2051,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ4">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2367,7 +2382,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2654,7 +2669,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2779,7 +2794,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2857,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2985,7 +3000,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3191,7 +3206,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3269,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -3475,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3684,7 +3699,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3809,7 +3824,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4015,7 +4030,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4505,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1.63</v>
@@ -4714,7 +4729,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4839,7 +4854,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4920,7 +4935,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5457,7 +5472,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5663,7 +5678,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5741,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5947,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -6359,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6487,7 +6502,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6980,7 +6995,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7105,7 +7120,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7186,7 +7201,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7311,7 +7326,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7389,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7801,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -8010,7 +8025,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8341,7 +8356,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8422,7 +8437,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8547,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8625,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8753,7 +8768,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8959,7 +8974,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9040,7 +9055,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -9165,7 +9180,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9243,10 +9258,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9371,7 +9386,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9449,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9577,7 +9592,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9864,7 +9879,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9989,7 +10004,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10195,7 +10210,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10685,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10891,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11431,7 +11446,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11715,7 +11730,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11924,7 +11939,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12333,7 +12348,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12542,7 +12557,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12667,7 +12682,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12873,7 +12888,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12954,7 +12969,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -13491,7 +13506,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13569,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13697,7 +13712,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13778,7 +13793,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13903,7 +13918,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14187,7 +14202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>1.63</v>
@@ -14393,7 +14408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64">
         <v>0.78</v>
@@ -14727,7 +14742,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14805,7 +14820,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -15014,7 +15029,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15345,7 +15360,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15423,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15757,7 +15772,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15838,7 +15853,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -16250,7 +16265,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16375,7 +16390,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16456,7 +16471,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16662,7 +16677,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.35</v>
@@ -16787,7 +16802,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16865,7 +16880,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16993,7 +17008,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17074,7 +17089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17405,7 +17420,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17689,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17817,7 +17832,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18513,10 +18528,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18641,7 +18656,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18925,10 +18940,10 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19131,7 +19146,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19340,7 +19355,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19465,7 +19480,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19749,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -19955,7 +19970,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -20083,7 +20098,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20576,7 +20591,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21319,7 +21334,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21397,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ98">
         <v>1.63</v>
@@ -21809,7 +21824,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22015,7 +22030,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22143,7 +22158,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22349,7 +22364,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22430,7 +22445,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22636,7 +22651,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23457,10 +23472,10 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23869,7 +23884,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -24075,10 +24090,10 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24490,7 +24505,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24696,7 +24711,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ114">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -24821,7 +24836,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25027,7 +25042,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25439,7 +25454,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25517,7 +25532,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -25726,7 +25741,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -26344,7 +26359,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26469,7 +26484,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26675,7 +26690,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26881,7 +26896,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26959,7 +26974,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125">
         <v>0.78</v>
@@ -27165,7 +27180,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27580,7 +27595,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -27992,7 +28007,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28117,7 +28132,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28404,7 +28419,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ132">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28607,7 +28622,7 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ133">
         <v>1.67</v>
@@ -28735,7 +28750,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29147,7 +29162,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29228,7 +29243,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ136">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -29434,7 +29449,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29637,7 +29652,7 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ138">
         <v>0.25</v>
@@ -29971,7 +29986,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30177,7 +30192,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30461,7 +30476,7 @@
         <v>1.4</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30873,10 +30888,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31001,7 +31016,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31079,7 +31094,7 @@
         <v>1.2</v>
       </c>
       <c r="AP145">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31207,7 +31222,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31288,7 +31303,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ146">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31413,7 +31428,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31619,7 +31634,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31700,7 +31715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31825,7 +31840,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32109,7 +32124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32237,7 +32252,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32521,10 +32536,10 @@
         <v>0.17</v>
       </c>
       <c r="AP152">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ152">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR152">
         <v>1.82</v>
@@ -32649,7 +32664,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32727,10 +32742,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.84</v>
@@ -32855,7 +32870,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33267,7 +33282,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33885,7 +33900,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -34091,7 +34106,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -35121,7 +35136,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35327,7 +35342,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36435,10 +36450,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36563,7 +36578,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36769,7 +36784,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36847,10 +36862,10 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -37053,10 +37068,10 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ174">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37181,7 +37196,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37259,10 +37274,10 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ175">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37671,7 +37686,7 @@
         <v>1.29</v>
       </c>
       <c r="AP177">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ177">
         <v>1.33</v>
@@ -37799,7 +37814,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37877,10 +37892,10 @@
         <v>0.14</v>
       </c>
       <c r="AP178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38211,7 +38226,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38292,7 +38307,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ180">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38495,10 +38510,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38623,7 +38638,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38796,7 +38811,7 @@
         <v>69</v>
       </c>
       <c r="E183" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F183">
         <v>16</v>
@@ -38829,7 +38844,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q183">
         <v>3.6</v>
@@ -38925,16 +38940,16 @@
         <v>3</v>
       </c>
       <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
         <v>6</v>
       </c>
-      <c r="AW183">
-        <v>2</v>
-      </c>
       <c r="AX183">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ183">
         <v>15</v>
@@ -38993,7 +39008,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7478931</v>
+        <v>7478926</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39002,196 +39017,196 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F184">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O184" t="s">
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="Q184">
+        <v>3.2</v>
+      </c>
+      <c r="R184">
+        <v>2.1</v>
+      </c>
+      <c r="S184">
+        <v>3.4</v>
+      </c>
+      <c r="T184">
+        <v>1.4</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
         <v>3</v>
       </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>4</v>
-      </c>
-      <c r="T184">
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.08</v>
+      </c>
+      <c r="Z184">
+        <v>1.8</v>
+      </c>
+      <c r="AA184">
+        <v>2.63</v>
+      </c>
+      <c r="AB184">
+        <v>5.73</v>
+      </c>
+      <c r="AC184">
+        <v>1.06</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.33</v>
+      </c>
+      <c r="AF184">
+        <v>3.4</v>
+      </c>
+      <c r="AG184">
+        <v>2.03</v>
+      </c>
+      <c r="AH184">
+        <v>1.85</v>
+      </c>
+      <c r="AI184">
+        <v>1.73</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.45</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.55</v>
+      </c>
+      <c r="AN184">
+        <v>1.29</v>
+      </c>
+      <c r="AO184">
+        <v>1.75</v>
+      </c>
+      <c r="AP184">
+        <v>1.25</v>
+      </c>
+      <c r="AQ184">
+        <v>1.67</v>
+      </c>
+      <c r="AR184">
+        <v>1.86</v>
+      </c>
+      <c r="AS184">
+        <v>1.37</v>
+      </c>
+      <c r="AT184">
+        <v>3.23</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>14</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>21</v>
+      </c>
+      <c r="AZ184">
+        <v>8</v>
+      </c>
+      <c r="BA184">
+        <v>12</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>14</v>
+      </c>
+      <c r="BD184">
+        <v>1.81</v>
+      </c>
+      <c r="BE184">
+        <v>7</v>
+      </c>
+      <c r="BF184">
+        <v>2.15</v>
+      </c>
+      <c r="BG184">
+        <v>1.09</v>
+      </c>
+      <c r="BH184">
+        <v>5.8</v>
+      </c>
+      <c r="BI184">
+        <v>1.19</v>
+      </c>
+      <c r="BJ184">
+        <v>4.1</v>
+      </c>
+      <c r="BK184">
+        <v>1.32</v>
+      </c>
+      <c r="BL184">
+        <v>3.05</v>
+      </c>
+      <c r="BM184">
         <v>1.5</v>
       </c>
-      <c r="U184">
-        <v>2.5</v>
-      </c>
-      <c r="V184">
-        <v>3.4</v>
-      </c>
-      <c r="W184">
-        <v>1.3</v>
-      </c>
-      <c r="X184">
-        <v>10</v>
-      </c>
-      <c r="Y184">
-        <v>1.06</v>
-      </c>
-      <c r="Z184">
-        <v>3.4</v>
-      </c>
-      <c r="AA184">
-        <v>3.5</v>
-      </c>
-      <c r="AB184">
-        <v>1.89</v>
-      </c>
-      <c r="AC184">
-        <v>1.08</v>
-      </c>
-      <c r="AD184">
-        <v>8.5</v>
-      </c>
-      <c r="AE184">
-        <v>1.42</v>
-      </c>
-      <c r="AF184">
-        <v>2.9</v>
-      </c>
-      <c r="AG184">
+      <c r="BN184">
+        <v>2.35</v>
+      </c>
+      <c r="BO184">
+        <v>1.79</v>
+      </c>
+      <c r="BP184">
         <v>1.9</v>
-      </c>
-      <c r="AH184">
-        <v>1.8</v>
-      </c>
-      <c r="AI184">
-        <v>1.91</v>
-      </c>
-      <c r="AJ184">
-        <v>1.8</v>
-      </c>
-      <c r="AK184">
-        <v>1.33</v>
-      </c>
-      <c r="AL184">
-        <v>1.3</v>
-      </c>
-      <c r="AM184">
-        <v>1.68</v>
-      </c>
-      <c r="AN184">
-        <v>1.5</v>
-      </c>
-      <c r="AO184">
-        <v>0.63</v>
-      </c>
-      <c r="AP184">
-        <v>1.44</v>
-      </c>
-      <c r="AQ184">
-        <v>0.67</v>
-      </c>
-      <c r="AR184">
-        <v>1.2</v>
-      </c>
-      <c r="AS184">
-        <v>1.04</v>
-      </c>
-      <c r="AT184">
-        <v>2.24</v>
-      </c>
-      <c r="AU184">
-        <v>4</v>
-      </c>
-      <c r="AV184">
-        <v>2</v>
-      </c>
-      <c r="AW184">
-        <v>3</v>
-      </c>
-      <c r="AX184">
-        <v>2</v>
-      </c>
-      <c r="AY184">
-        <v>12</v>
-      </c>
-      <c r="AZ184">
-        <v>6</v>
-      </c>
-      <c r="BA184">
-        <v>7</v>
-      </c>
-      <c r="BB184">
-        <v>3</v>
-      </c>
-      <c r="BC184">
-        <v>10</v>
-      </c>
-      <c r="BD184">
-        <v>1.64</v>
-      </c>
-      <c r="BE184">
-        <v>6.75</v>
-      </c>
-      <c r="BF184">
-        <v>2.48</v>
-      </c>
-      <c r="BG184">
-        <v>1.15</v>
-      </c>
-      <c r="BH184">
-        <v>4.6</v>
-      </c>
-      <c r="BI184">
-        <v>1.28</v>
-      </c>
-      <c r="BJ184">
-        <v>3.2</v>
-      </c>
-      <c r="BK184">
-        <v>1.48</v>
-      </c>
-      <c r="BL184">
-        <v>2.43</v>
-      </c>
-      <c r="BM184">
-        <v>1.76</v>
-      </c>
-      <c r="BN184">
-        <v>1.93</v>
-      </c>
-      <c r="BO184">
-        <v>2.17</v>
-      </c>
-      <c r="BP184">
-        <v>1.6</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39199,7 +39214,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7478926</v>
+        <v>7478933</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39211,46 +39226,46 @@
         <v>45619.39583333334</v>
       </c>
       <c r="F185">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H185" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O185" t="s">
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="Q185">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="R185">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T185">
         <v>1.4</v>
@@ -39259,10 +39274,10 @@
         <v>2.75</v>
       </c>
       <c r="V185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W185">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X185">
         <v>8</v>
@@ -39271,19 +39286,19 @@
         <v>1.08</v>
       </c>
       <c r="Z185">
-        <v>1.8</v>
+        <v>3.59</v>
       </c>
       <c r="AA185">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="AB185">
-        <v>5.73</v>
+        <v>3.15</v>
       </c>
       <c r="AC185">
         <v>1.06</v>
       </c>
       <c r="AD185">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE185">
         <v>1.33</v>
@@ -39292,10 +39307,10 @@
         <v>3.4</v>
       </c>
       <c r="AG185">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="AH185">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI185">
         <v>1.73</v>
@@ -39304,100 +39319,100 @@
         <v>2</v>
       </c>
       <c r="AK185">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AL185">
         <v>1.28</v>
       </c>
       <c r="AM185">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO185">
-        <v>1.75</v>
+        <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR185">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="AS185">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AT185">
-        <v>3.23</v>
+        <v>2.53</v>
       </c>
       <c r="AU185">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW185">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AX185">
         <v>5</v>
       </c>
       <c r="AY185">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ185">
+        <v>10</v>
+      </c>
+      <c r="BA185">
+        <v>6</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
         <v>8</v>
       </c>
-      <c r="BA185">
-        <v>12</v>
-      </c>
-      <c r="BB185">
-        <v>2</v>
-      </c>
-      <c r="BC185">
-        <v>14</v>
-      </c>
       <c r="BD185">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="BE185">
         <v>7</v>
       </c>
       <c r="BF185">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="BG185">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="BH185">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="BI185">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="BJ185">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="BK185">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="BL185">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="BM185">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BN185">
-        <v>2.35</v>
+        <v>1.71</v>
       </c>
       <c r="BO185">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="BP185">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39405,7 +39420,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7478933</v>
+        <v>7478932</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39414,25 +39429,25 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H186" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>1</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L186">
         <v>1</v>
@@ -39444,19 +39459,19 @@
         <v>2</v>
       </c>
       <c r="O186" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="P186" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q186">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R186">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T186">
         <v>1.4</v>
@@ -39465,10 +39480,10 @@
         <v>2.75</v>
       </c>
       <c r="V186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W186">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X186">
         <v>8</v>
@@ -39477,31 +39492,31 @@
         <v>1.08</v>
       </c>
       <c r="Z186">
-        <v>3.59</v>
+        <v>5.65</v>
       </c>
       <c r="AA186">
-        <v>1.95</v>
+        <v>5.26</v>
       </c>
       <c r="AB186">
-        <v>3.15</v>
+        <v>1.35</v>
       </c>
       <c r="AC186">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD186">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE186">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF186">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG186">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AH186">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AI186">
         <v>1.73</v>
@@ -39510,100 +39525,100 @@
         <v>2</v>
       </c>
       <c r="AK186">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AL186">
         <v>1.28</v>
       </c>
       <c r="AM186">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AN186">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AO186">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR186">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AS186">
         <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>2.53</v>
+        <v>2.76</v>
       </c>
       <c r="AU186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW186">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY186">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ186">
         <v>10</v>
       </c>
       <c r="BA186">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC186">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD186">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BE186">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF186">
-        <v>2.9</v>
+        <v>2.32</v>
       </c>
       <c r="BG186">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH186">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="BI186">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BJ186">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BK186">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BL186">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BM186">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="BN186">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="BO186">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="BP186">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39611,7 +39626,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7478932</v>
+        <v>7478931</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39626,19 +39641,19 @@
         <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H187" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -39650,148 +39665,148 @@
         <v>2</v>
       </c>
       <c r="O187" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="Q187">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S187">
+        <v>4</v>
+      </c>
+      <c r="T187">
+        <v>1.5</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
         <v>3.4</v>
       </c>
-      <c r="T187">
-        <v>1.4</v>
-      </c>
-      <c r="U187">
-        <v>2.75</v>
-      </c>
-      <c r="V187">
+      <c r="W187">
+        <v>1.3</v>
+      </c>
+      <c r="X187">
+        <v>10</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>3.4</v>
+      </c>
+      <c r="AA187">
+        <v>3.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.89</v>
+      </c>
+      <c r="AC187">
+        <v>1.08</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.42</v>
+      </c>
+      <c r="AF187">
+        <v>2.9</v>
+      </c>
+      <c r="AG187">
+        <v>1.9</v>
+      </c>
+      <c r="AH187">
+        <v>1.8</v>
+      </c>
+      <c r="AI187">
+        <v>1.91</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.68</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>0.63</v>
+      </c>
+      <c r="AP187">
+        <v>1.44</v>
+      </c>
+      <c r="AQ187">
+        <v>0.67</v>
+      </c>
+      <c r="AR187">
+        <v>1.2</v>
+      </c>
+      <c r="AS187">
+        <v>1.04</v>
+      </c>
+      <c r="AT187">
+        <v>2.24</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>4</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>6</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
         <v>3</v>
       </c>
-      <c r="W187">
-        <v>1.36</v>
-      </c>
-      <c r="X187">
-        <v>8</v>
-      </c>
-      <c r="Y187">
-        <v>1.08</v>
-      </c>
-      <c r="Z187">
-        <v>5.65</v>
-      </c>
-      <c r="AA187">
-        <v>5.26</v>
-      </c>
-      <c r="AB187">
-        <v>1.35</v>
-      </c>
-      <c r="AC187">
-        <v>1.05</v>
-      </c>
-      <c r="AD187">
-        <v>12</v>
-      </c>
-      <c r="AE187">
-        <v>1.3</v>
-      </c>
-      <c r="AF187">
-        <v>3.6</v>
-      </c>
-      <c r="AG187">
-        <v>2.03</v>
-      </c>
-      <c r="AH187">
-        <v>1.85</v>
-      </c>
-      <c r="AI187">
-        <v>1.73</v>
-      </c>
-      <c r="AJ187">
-        <v>2</v>
-      </c>
-      <c r="AK187">
-        <v>1.48</v>
-      </c>
-      <c r="AL187">
-        <v>1.28</v>
-      </c>
-      <c r="AM187">
-        <v>1.53</v>
-      </c>
-      <c r="AN187">
-        <v>0.5</v>
-      </c>
-      <c r="AO187">
-        <v>1</v>
-      </c>
-      <c r="AP187">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ187">
-        <v>1</v>
-      </c>
-      <c r="AR187">
-        <v>1.68</v>
-      </c>
-      <c r="AS187">
-        <v>1.08</v>
-      </c>
-      <c r="AT187">
-        <v>2.76</v>
-      </c>
-      <c r="AU187">
-        <v>6</v>
-      </c>
-      <c r="AV187">
-        <v>6</v>
-      </c>
-      <c r="AW187">
-        <v>11</v>
-      </c>
-      <c r="AX187">
-        <v>2</v>
-      </c>
-      <c r="AY187">
-        <v>24</v>
-      </c>
-      <c r="AZ187">
+      <c r="BC187">
         <v>10</v>
       </c>
-      <c r="BA187">
-        <v>10</v>
-      </c>
-      <c r="BB187">
-        <v>4</v>
-      </c>
-      <c r="BC187">
-        <v>14</v>
-      </c>
       <c r="BD187">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="BE187">
         <v>6.75</v>
       </c>
       <c r="BF187">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BG187">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH187">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BI187">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ187">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BK187">
         <v>1.48</v>
@@ -39800,16 +39815,16 @@
         <v>2.43</v>
       </c>
       <c r="BM187">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="BN187">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="BO187">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BP187">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39859,7 +39874,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40477,7 +40492,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -40650,10 +40665,10 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45619.875</v>
+        <v>45620.5</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G192" t="s">
         <v>88</v>
@@ -40683,7 +40698,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -40782,13 +40797,13 @@
         <v>5</v>
       </c>
       <c r="AW192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX192">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ192">
         <v>14</v>
@@ -40856,7 +40871,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45622.69791666666</v>
+        <v>45621.875</v>
       </c>
       <c r="F193">
         <v>17</v>
@@ -41465,7 +41480,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7478937</v>
+        <v>7478936</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41480,190 +41495,1632 @@
         <v>17</v>
       </c>
       <c r="G196" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H196" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <v>2</v>
       </c>
       <c r="O196" t="s">
+        <v>228</v>
+      </c>
+      <c r="P196" t="s">
         <v>95</v>
       </c>
-      <c r="P196" t="s">
-        <v>302</v>
-      </c>
       <c r="Q196">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R196">
         <v>2.1</v>
       </c>
       <c r="S196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T196">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U196">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V196">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W196">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y196">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z196">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AA196">
         <v>3.4</v>
       </c>
       <c r="AB196">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AC196">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD196">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE196">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF196">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AG196">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AH196">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AI196">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ196">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK196">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AL196">
         <v>1.28</v>
       </c>
       <c r="AM196">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AN196">
+        <v>2.14</v>
+      </c>
+      <c r="AO196">
         <v>0.88</v>
       </c>
-      <c r="AO196">
-        <v>1</v>
-      </c>
       <c r="AP196">
+        <v>2.25</v>
+      </c>
+      <c r="AQ196">
         <v>0.78</v>
       </c>
-      <c r="AQ196">
-        <v>1.25</v>
-      </c>
       <c r="AR196">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AS196">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AT196">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="AU196">
         <v>4</v>
       </c>
       <c r="AV196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW196">
+        <v>3</v>
+      </c>
+      <c r="AX196">
+        <v>2</v>
+      </c>
+      <c r="AY196">
+        <v>13</v>
+      </c>
+      <c r="AZ196">
+        <v>4</v>
+      </c>
+      <c r="BA196">
         <v>6</v>
       </c>
-      <c r="AX196">
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
         <v>8</v>
       </c>
-      <c r="AY196">
-        <v>11</v>
-      </c>
-      <c r="AZ196">
-        <v>18</v>
-      </c>
-      <c r="BA196">
-        <v>4</v>
-      </c>
-      <c r="BB196">
-        <v>6</v>
-      </c>
-      <c r="BC196">
-        <v>10</v>
-      </c>
       <c r="BD196">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BE196">
         <v>6.75</v>
       </c>
       <c r="BF196">
+        <v>2.33</v>
+      </c>
+      <c r="BG196">
+        <v>1.13</v>
+      </c>
+      <c r="BH196">
+        <v>4.88</v>
+      </c>
+      <c r="BI196">
+        <v>1.31</v>
+      </c>
+      <c r="BJ196">
+        <v>3.22</v>
+      </c>
+      <c r="BK196">
+        <v>1.57</v>
+      </c>
+      <c r="BL196">
+        <v>2.37</v>
+      </c>
+      <c r="BM196">
+        <v>1.92</v>
+      </c>
+      <c r="BN196">
+        <v>1.88</v>
+      </c>
+      <c r="BO196">
+        <v>2.42</v>
+      </c>
+      <c r="BP196">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7478939</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F197">
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
+        <v>90</v>
+      </c>
+      <c r="H197" t="s">
+        <v>92</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>6</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>7</v>
+      </c>
+      <c r="O197" t="s">
+        <v>229</v>
+      </c>
+      <c r="P197" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q197">
+        <v>2.05</v>
+      </c>
+      <c r="R197">
+        <v>2.38</v>
+      </c>
+      <c r="S197">
+        <v>5.5</v>
+      </c>
+      <c r="T197">
+        <v>1.33</v>
+      </c>
+      <c r="U197">
+        <v>3.25</v>
+      </c>
+      <c r="V197">
+        <v>2.63</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>6.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.11</v>
+      </c>
+      <c r="Z197">
+        <v>1.53</v>
+      </c>
+      <c r="AA197">
+        <v>4.6</v>
+      </c>
+      <c r="AB197">
+        <v>5.25</v>
+      </c>
+      <c r="AC197">
+        <v>1.02</v>
+      </c>
+      <c r="AD197">
+        <v>19</v>
+      </c>
+      <c r="AE197">
+        <v>1.18</v>
+      </c>
+      <c r="AF197">
+        <v>5</v>
+      </c>
+      <c r="AG197">
+        <v>1.53</v>
+      </c>
+      <c r="AH197">
+        <v>2.3</v>
+      </c>
+      <c r="AI197">
+        <v>1.8</v>
+      </c>
+      <c r="AJ197">
+        <v>1.91</v>
+      </c>
+      <c r="AK197">
+        <v>1.14</v>
+      </c>
+      <c r="AL197">
+        <v>1.17</v>
+      </c>
+      <c r="AM197">
+        <v>2.6</v>
+      </c>
+      <c r="AN197">
+        <v>1.43</v>
+      </c>
+      <c r="AO197">
+        <v>0.25</v>
+      </c>
+      <c r="AP197">
+        <v>1.63</v>
+      </c>
+      <c r="AQ197">
+        <v>0.22</v>
+      </c>
+      <c r="AR197">
+        <v>1.39</v>
+      </c>
+      <c r="AS197">
+        <v>0.68</v>
+      </c>
+      <c r="AT197">
         <v>2.07</v>
       </c>
-      <c r="BG196">
+      <c r="AU197">
+        <v>11</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>6</v>
+      </c>
+      <c r="AX197">
+        <v>6</v>
+      </c>
+      <c r="AY197">
+        <v>21</v>
+      </c>
+      <c r="AZ197">
+        <v>14</v>
+      </c>
+      <c r="BA197">
+        <v>8</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>12</v>
+      </c>
+      <c r="BD197">
+        <v>1.25</v>
+      </c>
+      <c r="BE197">
+        <v>8.5</v>
+      </c>
+      <c r="BF197">
+        <v>4.1</v>
+      </c>
+      <c r="BG197">
         <v>1.12</v>
       </c>
-      <c r="BH196">
+      <c r="BH197">
         <v>5.21</v>
       </c>
-      <c r="BI196">
+      <c r="BI197">
         <v>1.28</v>
       </c>
-      <c r="BJ196">
+      <c r="BJ197">
         <v>3.4</v>
       </c>
-      <c r="BK196">
+      <c r="BK197">
         <v>1.52</v>
       </c>
-      <c r="BL196">
+      <c r="BL197">
         <v>2.47</v>
       </c>
-      <c r="BM196">
+      <c r="BM197">
         <v>1.85</v>
       </c>
-      <c r="BN196">
+      <c r="BN197">
         <v>1.95</v>
       </c>
-      <c r="BO196">
+      <c r="BO197">
         <v>2.32</v>
       </c>
-      <c r="BP196">
+      <c r="BP197">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7478937</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F198">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>77</v>
+      </c>
+      <c r="H198" t="s">
+        <v>80</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>95</v>
+      </c>
+      <c r="P198" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q198">
+        <v>3</v>
+      </c>
+      <c r="R198">
+        <v>2.1</v>
+      </c>
+      <c r="S198">
+        <v>3.6</v>
+      </c>
+      <c r="T198">
+        <v>1.4</v>
+      </c>
+      <c r="U198">
+        <v>2.75</v>
+      </c>
+      <c r="V198">
+        <v>3</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>2.35</v>
+      </c>
+      <c r="AA198">
+        <v>3.4</v>
+      </c>
+      <c r="AB198">
+        <v>2.95</v>
+      </c>
+      <c r="AC198">
+        <v>1.06</v>
+      </c>
+      <c r="AD198">
+        <v>8.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.33</v>
+      </c>
+      <c r="AF198">
+        <v>3.25</v>
+      </c>
+      <c r="AG198">
+        <v>1.93</v>
+      </c>
+      <c r="AH198">
+        <v>1.77</v>
+      </c>
+      <c r="AI198">
+        <v>1.73</v>
+      </c>
+      <c r="AJ198">
+        <v>2</v>
+      </c>
+      <c r="AK198">
+        <v>1.38</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.57</v>
+      </c>
+      <c r="AN198">
+        <v>0.88</v>
+      </c>
+      <c r="AO198">
+        <v>1</v>
+      </c>
+      <c r="AP198">
+        <v>0.78</v>
+      </c>
+      <c r="AQ198">
+        <v>1.25</v>
+      </c>
+      <c r="AR198">
+        <v>1.31</v>
+      </c>
+      <c r="AS198">
+        <v>1.03</v>
+      </c>
+      <c r="AT198">
+        <v>2.34</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>5</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>8</v>
+      </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
+      <c r="AZ198">
+        <v>18</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.9</v>
+      </c>
+      <c r="BE198">
+        <v>6.75</v>
+      </c>
+      <c r="BF198">
+        <v>2.07</v>
+      </c>
+      <c r="BG198">
+        <v>1.12</v>
+      </c>
+      <c r="BH198">
+        <v>5.21</v>
+      </c>
+      <c r="BI198">
+        <v>1.28</v>
+      </c>
+      <c r="BJ198">
+        <v>3.4</v>
+      </c>
+      <c r="BK198">
+        <v>1.52</v>
+      </c>
+      <c r="BL198">
+        <v>2.47</v>
+      </c>
+      <c r="BM198">
+        <v>1.85</v>
+      </c>
+      <c r="BN198">
+        <v>1.95</v>
+      </c>
+      <c r="BO198">
+        <v>2.32</v>
+      </c>
+      <c r="BP198">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7478942</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45622.70833333334</v>
+      </c>
+      <c r="F199">
+        <v>17</v>
+      </c>
+      <c r="G199" t="s">
+        <v>93</v>
+      </c>
+      <c r="H199" t="s">
+        <v>83</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>95</v>
+      </c>
+      <c r="P199" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>2.05</v>
+      </c>
+      <c r="S199">
+        <v>4</v>
+      </c>
+      <c r="T199">
+        <v>1.44</v>
+      </c>
+      <c r="U199">
+        <v>2.63</v>
+      </c>
+      <c r="V199">
+        <v>3.25</v>
+      </c>
+      <c r="W199">
+        <v>1.33</v>
+      </c>
+      <c r="X199">
+        <v>10</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>2.3</v>
+      </c>
+      <c r="AA199">
+        <v>3.25</v>
+      </c>
+      <c r="AB199">
+        <v>3.1</v>
+      </c>
+      <c r="AC199">
+        <v>1.08</v>
+      </c>
+      <c r="AD199">
+        <v>9</v>
+      </c>
+      <c r="AE199">
+        <v>1.42</v>
+      </c>
+      <c r="AF199">
+        <v>2.9</v>
+      </c>
+      <c r="AG199">
+        <v>2.15</v>
+      </c>
+      <c r="AH199">
+        <v>1.6</v>
+      </c>
+      <c r="AI199">
+        <v>1.83</v>
+      </c>
+      <c r="AJ199">
+        <v>1.83</v>
+      </c>
+      <c r="AK199">
+        <v>1.36</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.65</v>
+      </c>
+      <c r="AN199">
+        <v>2.43</v>
+      </c>
+      <c r="AO199">
+        <v>1.88</v>
+      </c>
+      <c r="AP199">
+        <v>2.25</v>
+      </c>
+      <c r="AQ199">
+        <v>1.78</v>
+      </c>
+      <c r="AR199">
+        <v>1.33</v>
+      </c>
+      <c r="AS199">
+        <v>1.14</v>
+      </c>
+      <c r="AT199">
+        <v>2.47</v>
+      </c>
+      <c r="AU199">
+        <v>3</v>
+      </c>
+      <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="AW199">
+        <v>16</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
+        <v>30</v>
+      </c>
+      <c r="AZ199">
+        <v>3</v>
+      </c>
+      <c r="BA199">
+        <v>13</v>
+      </c>
+      <c r="BB199">
+        <v>2</v>
+      </c>
+      <c r="BC199">
+        <v>15</v>
+      </c>
+      <c r="BD199">
+        <v>1.74</v>
+      </c>
+      <c r="BE199">
+        <v>6.75</v>
+      </c>
+      <c r="BF199">
+        <v>2.3</v>
+      </c>
+      <c r="BG199">
+        <v>1.22</v>
+      </c>
+      <c r="BH199">
+        <v>3.88</v>
+      </c>
+      <c r="BI199">
+        <v>1.44</v>
+      </c>
+      <c r="BJ199">
+        <v>2.69</v>
+      </c>
+      <c r="BK199">
+        <v>1.76</v>
+      </c>
+      <c r="BL199">
+        <v>2.06</v>
+      </c>
+      <c r="BM199">
+        <v>2.2</v>
+      </c>
+      <c r="BN199">
+        <v>1.67</v>
+      </c>
+      <c r="BO199">
+        <v>2.87</v>
+      </c>
+      <c r="BP199">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7478938</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45623.69791666666</v>
+      </c>
+      <c r="F200">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s">
+        <v>81</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>230</v>
+      </c>
+      <c r="P200" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q200">
+        <v>2</v>
+      </c>
+      <c r="R200">
+        <v>2.25</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>1.42</v>
+      </c>
+      <c r="AA200">
+        <v>4.51</v>
+      </c>
+      <c r="AB200">
+        <v>6.98</v>
+      </c>
+      <c r="AC200">
+        <v>1.05</v>
+      </c>
+      <c r="AD200">
+        <v>11</v>
+      </c>
+      <c r="AE200">
+        <v>1.33</v>
+      </c>
+      <c r="AF200">
+        <v>3.4</v>
+      </c>
+      <c r="AG200">
+        <v>1.93</v>
+      </c>
+      <c r="AH200">
+        <v>1.75</v>
+      </c>
+      <c r="AI200">
+        <v>2.1</v>
+      </c>
+      <c r="AJ200">
+        <v>1.67</v>
+      </c>
+      <c r="AK200">
+        <v>1.09</v>
+      </c>
+      <c r="AL200">
+        <v>1.19</v>
+      </c>
+      <c r="AM200">
+        <v>2.75</v>
+      </c>
+      <c r="AN200">
+        <v>2.38</v>
+      </c>
+      <c r="AO200">
+        <v>0.57</v>
+      </c>
+      <c r="AP200">
+        <v>2.44</v>
+      </c>
+      <c r="AQ200">
+        <v>0.5</v>
+      </c>
+      <c r="AR200">
+        <v>1.86</v>
+      </c>
+      <c r="AS200">
+        <v>1.2</v>
+      </c>
+      <c r="AT200">
+        <v>3.06</v>
+      </c>
+      <c r="AU200">
+        <v>12</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>2</v>
+      </c>
+      <c r="AX200">
+        <v>2</v>
+      </c>
+      <c r="AY200">
+        <v>21</v>
+      </c>
+      <c r="AZ200">
+        <v>8</v>
+      </c>
+      <c r="BA200">
+        <v>9</v>
+      </c>
+      <c r="BB200">
+        <v>1</v>
+      </c>
+      <c r="BC200">
+        <v>10</v>
+      </c>
+      <c r="BD200">
+        <v>1.4</v>
+      </c>
+      <c r="BE200">
+        <v>7</v>
+      </c>
+      <c r="BF200">
+        <v>3.3</v>
+      </c>
+      <c r="BG200">
+        <v>1.13</v>
+      </c>
+      <c r="BH200">
+        <v>4.88</v>
+      </c>
+      <c r="BI200">
+        <v>1.31</v>
+      </c>
+      <c r="BJ200">
+        <v>3.22</v>
+      </c>
+      <c r="BK200">
+        <v>1.57</v>
+      </c>
+      <c r="BL200">
+        <v>2.37</v>
+      </c>
+      <c r="BM200">
+        <v>1.92</v>
+      </c>
+      <c r="BN200">
+        <v>1.88</v>
+      </c>
+      <c r="BO200">
+        <v>2.42</v>
+      </c>
+      <c r="BP200">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7478944</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45623.69791666666</v>
+      </c>
+      <c r="F201">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>95</v>
+      </c>
+      <c r="P201" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q201">
+        <v>2.6</v>
+      </c>
+      <c r="R201">
+        <v>2.1</v>
+      </c>
+      <c r="S201">
+        <v>4.75</v>
+      </c>
+      <c r="T201">
+        <v>1.44</v>
+      </c>
+      <c r="U201">
+        <v>2.63</v>
+      </c>
+      <c r="V201">
+        <v>3.25</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>10</v>
+      </c>
+      <c r="Y201">
+        <v>1.06</v>
+      </c>
+      <c r="Z201">
+        <v>2.04</v>
+      </c>
+      <c r="AA201">
+        <v>3.3</v>
+      </c>
+      <c r="AB201">
+        <v>3.71</v>
+      </c>
+      <c r="AC201">
+        <v>1.07</v>
+      </c>
+      <c r="AD201">
+        <v>10</v>
+      </c>
+      <c r="AE201">
+        <v>1.38</v>
+      </c>
+      <c r="AF201">
+        <v>3.1</v>
+      </c>
+      <c r="AG201">
+        <v>2.05</v>
+      </c>
+      <c r="AH201">
+        <v>1.66</v>
+      </c>
+      <c r="AI201">
+        <v>1.91</v>
+      </c>
+      <c r="AJ201">
+        <v>1.8</v>
+      </c>
+      <c r="AK201">
+        <v>1.26</v>
+      </c>
+      <c r="AL201">
+        <v>1.26</v>
+      </c>
+      <c r="AM201">
+        <v>1.87</v>
+      </c>
+      <c r="AN201">
+        <v>1.5</v>
+      </c>
+      <c r="AO201">
+        <v>0.86</v>
+      </c>
+      <c r="AP201">
+        <v>1.33</v>
+      </c>
+      <c r="AQ201">
+        <v>1.13</v>
+      </c>
+      <c r="AR201">
+        <v>1.58</v>
+      </c>
+      <c r="AS201">
+        <v>0.79</v>
+      </c>
+      <c r="AT201">
+        <v>2.37</v>
+      </c>
+      <c r="AU201">
+        <v>9</v>
+      </c>
+      <c r="AV201">
+        <v>6</v>
+      </c>
+      <c r="AW201">
+        <v>5</v>
+      </c>
+      <c r="AX201">
+        <v>3</v>
+      </c>
+      <c r="AY201">
+        <v>26</v>
+      </c>
+      <c r="AZ201">
+        <v>11</v>
+      </c>
+      <c r="BA201">
+        <v>14</v>
+      </c>
+      <c r="BB201">
+        <v>4</v>
+      </c>
+      <c r="BC201">
+        <v>18</v>
+      </c>
+      <c r="BD201">
+        <v>1.49</v>
+      </c>
+      <c r="BE201">
+        <v>7</v>
+      </c>
+      <c r="BF201">
+        <v>2.9</v>
+      </c>
+      <c r="BG201">
+        <v>1.18</v>
+      </c>
+      <c r="BH201">
+        <v>4.24</v>
+      </c>
+      <c r="BI201">
+        <v>1.38</v>
+      </c>
+      <c r="BJ201">
+        <v>2.88</v>
+      </c>
+      <c r="BK201">
+        <v>1.68</v>
+      </c>
+      <c r="BL201">
+        <v>2.17</v>
+      </c>
+      <c r="BM201">
+        <v>2.08</v>
+      </c>
+      <c r="BN201">
+        <v>1.75</v>
+      </c>
+      <c r="BO201">
+        <v>2.67</v>
+      </c>
+      <c r="BP201">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7478946</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45623.69791666666</v>
+      </c>
+      <c r="F202">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>79</v>
+      </c>
+      <c r="H202" t="s">
+        <v>70</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>95</v>
+      </c>
+      <c r="P202" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q202">
+        <v>2.1</v>
+      </c>
+      <c r="R202">
+        <v>2.3</v>
+      </c>
+      <c r="S202">
+        <v>6</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
+      <c r="V202">
+        <v>2.63</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>7</v>
+      </c>
+      <c r="Y202">
+        <v>1.1</v>
+      </c>
+      <c r="Z202">
+        <v>1.52</v>
+      </c>
+      <c r="AA202">
+        <v>4.05</v>
+      </c>
+      <c r="AB202">
+        <v>6.18</v>
+      </c>
+      <c r="AC202">
+        <v>1.04</v>
+      </c>
+      <c r="AD202">
+        <v>13</v>
+      </c>
+      <c r="AE202">
+        <v>1.28</v>
+      </c>
+      <c r="AF202">
+        <v>3.75</v>
+      </c>
+      <c r="AG202">
+        <v>1.98</v>
+      </c>
+      <c r="AH202">
+        <v>1.83</v>
+      </c>
+      <c r="AI202">
+        <v>1.83</v>
+      </c>
+      <c r="AJ202">
+        <v>1.83</v>
+      </c>
+      <c r="AK202">
+        <v>1.12</v>
+      </c>
+      <c r="AL202">
+        <v>1.19</v>
+      </c>
+      <c r="AM202">
+        <v>2.6</v>
+      </c>
+      <c r="AN202">
+        <v>1.75</v>
+      </c>
+      <c r="AO202">
+        <v>0.86</v>
+      </c>
+      <c r="AP202">
+        <v>1.56</v>
+      </c>
+      <c r="AQ202">
+        <v>1.13</v>
+      </c>
+      <c r="AR202">
+        <v>1.65</v>
+      </c>
+      <c r="AS202">
+        <v>1.06</v>
+      </c>
+      <c r="AT202">
+        <v>2.71</v>
+      </c>
+      <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>3</v>
+      </c>
+      <c r="AW202">
+        <v>5</v>
+      </c>
+      <c r="AX202">
+        <v>3</v>
+      </c>
+      <c r="AY202">
+        <v>11</v>
+      </c>
+      <c r="AZ202">
+        <v>8</v>
+      </c>
+      <c r="BA202">
+        <v>5</v>
+      </c>
+      <c r="BB202">
+        <v>3</v>
+      </c>
+      <c r="BC202">
+        <v>8</v>
+      </c>
+      <c r="BD202">
+        <v>1.2</v>
+      </c>
+      <c r="BE202">
+        <v>9</v>
+      </c>
+      <c r="BF202">
+        <v>4.8</v>
+      </c>
+      <c r="BG202">
+        <v>1.13</v>
+      </c>
+      <c r="BH202">
+        <v>4.99</v>
+      </c>
+      <c r="BI202">
+        <v>1.3</v>
+      </c>
+      <c r="BJ202">
+        <v>3.28</v>
+      </c>
+      <c r="BK202">
+        <v>1.55</v>
+      </c>
+      <c r="BL202">
+        <v>2.4</v>
+      </c>
+      <c r="BM202">
+        <v>1.9</v>
+      </c>
+      <c r="BN202">
+        <v>1.9</v>
+      </c>
+      <c r="BO202">
+        <v>2.38</v>
+      </c>
+      <c r="BP202">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7478945</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45623.70833333334</v>
+      </c>
+      <c r="F203">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>84</v>
+      </c>
+      <c r="H203" t="s">
+        <v>88</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>231</v>
+      </c>
+      <c r="P203" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q203">
+        <v>3.2</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>3.75</v>
+      </c>
+      <c r="T203">
+        <v>1.5</v>
+      </c>
+      <c r="U203">
+        <v>2.5</v>
+      </c>
+      <c r="V203">
+        <v>3.4</v>
+      </c>
+      <c r="W203">
+        <v>1.3</v>
+      </c>
+      <c r="X203">
+        <v>10</v>
+      </c>
+      <c r="Y203">
+        <v>1.06</v>
+      </c>
+      <c r="Z203">
+        <v>2.44</v>
+      </c>
+      <c r="AA203">
+        <v>3.15</v>
+      </c>
+      <c r="AB203">
+        <v>3</v>
+      </c>
+      <c r="AC203">
+        <v>1.07</v>
+      </c>
+      <c r="AD203">
+        <v>9</v>
+      </c>
+      <c r="AE203">
+        <v>1.42</v>
+      </c>
+      <c r="AF203">
+        <v>2.9</v>
+      </c>
+      <c r="AG203">
+        <v>2.15</v>
+      </c>
+      <c r="AH203">
+        <v>1.61</v>
+      </c>
+      <c r="AI203">
+        <v>1.91</v>
+      </c>
+      <c r="AJ203">
+        <v>1.8</v>
+      </c>
+      <c r="AK203">
+        <v>1.42</v>
+      </c>
+      <c r="AL203">
+        <v>1.28</v>
+      </c>
+      <c r="AM203">
+        <v>1.58</v>
+      </c>
+      <c r="AN203">
+        <v>2</v>
+      </c>
+      <c r="AO203">
+        <v>0.88</v>
+      </c>
+      <c r="AP203">
+        <v>1.75</v>
+      </c>
+      <c r="AQ203">
+        <v>1.11</v>
+      </c>
+      <c r="AR203">
+        <v>1.33</v>
+      </c>
+      <c r="AS203">
+        <v>1.04</v>
+      </c>
+      <c r="AT203">
+        <v>2.37</v>
+      </c>
+      <c r="AU203">
+        <v>8</v>
+      </c>
+      <c r="AV203">
+        <v>3</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>19</v>
+      </c>
+      <c r="AZ203">
+        <v>4</v>
+      </c>
+      <c r="BA203">
+        <v>6</v>
+      </c>
+      <c r="BB203">
+        <v>2</v>
+      </c>
+      <c r="BC203">
+        <v>8</v>
+      </c>
+      <c r="BD203">
+        <v>1.92</v>
+      </c>
+      <c r="BE203">
+        <v>6.75</v>
+      </c>
+      <c r="BF203">
+        <v>2.05</v>
+      </c>
+      <c r="BG203">
+        <v>1.1</v>
+      </c>
+      <c r="BH203">
+        <v>5.45</v>
+      </c>
+      <c r="BI203">
+        <v>1.26</v>
+      </c>
+      <c r="BJ203">
+        <v>3.52</v>
+      </c>
+      <c r="BK203">
+        <v>1.5</v>
+      </c>
+      <c r="BL203">
+        <v>2.54</v>
+      </c>
+      <c r="BM203">
+        <v>1.8</v>
+      </c>
+      <c r="BN203">
+        <v>2</v>
+      </c>
+      <c r="BO203">
+        <v>2.26</v>
+      </c>
+      <c r="BP203">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -40871,7 +40871,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45621.875</v>
+        <v>45622.69791666666</v>
       </c>
       <c r="F193">
         <v>17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,24 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['24', '41', '79']</t>
+  </si>
+  <si>
+    <t>['45+2', '53']</t>
+  </si>
+  <si>
+    <t>['7', '88']</t>
+  </si>
+  <si>
+    <t>['57', '62', '70', '90']</t>
+  </si>
+  <si>
+    <t>['25', '33', '81', '86']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -776,9 +794,6 @@
   </si>
   <si>
     <t>['31', '51', '56']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['15', '66']</t>
@@ -938,6 +953,18 @@
   </si>
   <si>
     <t>['40', '90+1']</t>
+  </si>
+  <si>
+    <t>['25', '45']</t>
+  </si>
+  <si>
+    <t>['52', '78']</t>
+  </si>
+  <si>
+    <t>['4', '48']</t>
+  </si>
+  <si>
+    <t>['20', '48']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP203"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1585,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1636,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1764,7 +1791,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1842,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1970,7 +1997,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2051,7 +2078,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ4">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2382,7 +2409,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2666,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>0.78</v>
@@ -2794,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2875,7 +2902,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3000,7 +3027,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3206,7 +3233,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3287,7 +3314,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3490,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3699,7 +3726,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3824,7 +3851,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3905,7 +3932,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4030,7 +4057,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4108,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -4317,7 +4344,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4729,7 +4756,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4854,7 +4881,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4932,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ18">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5138,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5344,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5472,7 +5499,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5550,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5678,7 +5705,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5756,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5965,7 +5992,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6171,7 +6198,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6502,7 +6529,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6583,7 +6610,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6995,7 +7022,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7120,7 +7147,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7198,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7326,7 +7353,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7404,10 +7431,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7610,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7819,7 +7846,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8022,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8228,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
         <v>0.25</v>
@@ -8356,7 +8383,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8434,10 +8461,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8562,7 +8589,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8640,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8768,7 +8795,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8846,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8974,7 +9001,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9055,7 +9082,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -9386,7 +9413,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9592,7 +9619,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9670,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -10004,7 +10031,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10085,7 +10112,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10210,7 +10237,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10703,7 +10730,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11112,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11318,7 +11345,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ49">
         <v>0.78</v>
@@ -11446,7 +11473,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11733,7 +11760,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11939,7 +11966,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12142,7 +12169,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12351,7 +12378,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12554,7 +12581,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ55">
         <v>0.78</v>
@@ -12682,7 +12709,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12763,7 +12790,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12888,7 +12915,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12969,7 +12996,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -13172,7 +13199,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13378,7 +13405,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13506,7 +13533,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13584,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13712,7 +13739,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13793,7 +13820,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13918,7 +13945,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13996,10 +14023,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14408,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ64">
         <v>0.78</v>
@@ -14742,7 +14769,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14823,7 +14850,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15029,7 +15056,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15232,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15360,7 +15387,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15441,7 +15468,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15772,7 +15799,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15850,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16056,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16262,7 +16289,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>1.13</v>
@@ -16390,7 +16417,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16471,7 +16498,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16674,10 +16701,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.35</v>
@@ -16802,7 +16829,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17008,7 +17035,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17089,7 +17116,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17292,10 +17319,10 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17420,7 +17447,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17498,10 +17525,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17704,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17832,7 +17859,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18119,7 +18146,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18656,7 +18683,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18734,7 +18761,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18943,7 +18970,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ86">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19352,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>1.13</v>
@@ -19480,7 +19507,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19970,10 +19997,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20098,7 +20125,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20179,7 +20206,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20588,7 +20615,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ94">
         <v>1.11</v>
@@ -20794,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>0.78</v>
@@ -21000,10 +21027,10 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21206,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>1.25</v>
@@ -21334,7 +21361,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21415,7 +21442,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21824,10 +21851,10 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22158,7 +22185,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22236,7 +22263,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22364,7 +22391,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22648,10 +22675,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22854,7 +22881,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23060,7 +23087,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ106">
         <v>1.63</v>
@@ -23475,7 +23502,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23678,10 +23705,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24093,7 +24120,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24502,7 +24529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>0.78</v>
@@ -24708,10 +24735,10 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -24836,7 +24863,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24917,7 +24944,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25042,7 +25069,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25123,7 +25150,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25326,7 +25353,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25454,7 +25481,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25532,7 +25559,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -25738,7 +25765,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ119">
         <v>1.11</v>
@@ -26153,7 +26180,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26484,7 +26511,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26562,7 +26589,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26690,7 +26717,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26768,7 +26795,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ124">
         <v>1.33</v>
@@ -26896,7 +26923,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27183,7 +27210,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -27386,7 +27413,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127">
         <v>0.67</v>
@@ -27801,7 +27828,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28004,10 +28031,10 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28132,7 +28159,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28213,7 +28240,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28419,7 +28446,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ132">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28622,7 +28649,7 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ133">
         <v>1.67</v>
@@ -28750,7 +28777,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29034,10 +29061,10 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ135">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29162,7 +29189,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29240,10 +29267,10 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ136">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -29446,7 +29473,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ137">
         <v>1.13</v>
@@ -29861,7 +29888,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -29986,7 +30013,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30064,7 +30091,7 @@
         <v>0.6</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30192,7 +30219,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30479,7 +30506,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR142">
         <v>1.28</v>
@@ -30682,7 +30709,7 @@
         <v>0.8</v>
       </c>
       <c r="AP143">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30891,7 +30918,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31016,7 +31043,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31094,7 +31121,7 @@
         <v>1.2</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31222,7 +31249,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31303,7 +31330,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ146">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31428,7 +31455,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31506,7 +31533,7 @@
         <v>1.33</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147">
         <v>1.67</v>
@@ -31634,7 +31661,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31712,7 +31739,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ148">
         <v>1.11</v>
@@ -31840,7 +31867,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31918,7 +31945,7 @@
         <v>0.33</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -32252,7 +32279,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32333,7 +32360,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32539,7 +32566,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ152">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR152">
         <v>1.82</v>
@@ -32664,7 +32691,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32742,7 +32769,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ153">
         <v>0.78</v>
@@ -32870,7 +32897,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32948,7 +32975,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ154">
         <v>1.33</v>
@@ -33157,7 +33184,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.73</v>
@@ -33282,7 +33309,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33569,7 +33596,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR157">
         <v>1.46</v>
@@ -33900,7 +33927,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -34106,7 +34133,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34184,7 +34211,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ160">
         <v>1.67</v>
@@ -34390,10 +34417,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
         <v>1.05</v>
@@ -34596,7 +34623,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ162">
         <v>0.78</v>
@@ -34805,7 +34832,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ163">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR163">
         <v>1.59</v>
@@ -35011,7 +35038,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ164">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35136,7 +35163,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35214,7 +35241,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35342,7 +35369,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35420,7 +35447,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -35629,7 +35656,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ167">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR167">
         <v>1.4</v>
@@ -35832,10 +35859,10 @@
         <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -36041,7 +36068,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36244,7 +36271,7 @@
         <v>0.33</v>
       </c>
       <c r="AP170">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ170">
         <v>0.25</v>
@@ -36450,10 +36477,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36578,7 +36605,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36656,7 +36683,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -36784,7 +36811,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37071,7 +37098,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ174">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37196,7 +37223,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37686,7 +37713,7 @@
         <v>1.29</v>
       </c>
       <c r="AP177">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
         <v>1.33</v>
@@ -37814,7 +37841,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37895,7 +37922,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38098,7 +38125,7 @@
         <v>1.17</v>
       </c>
       <c r="AP179">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ179">
         <v>1.25</v>
@@ -38226,7 +38253,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38307,7 +38334,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ180">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38638,7 +38665,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38922,10 +38949,10 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ183">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39050,7 +39077,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39128,7 +39155,7 @@
         <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ184">
         <v>1.67</v>
@@ -39337,7 +39364,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR185">
         <v>1.45</v>
@@ -39746,7 +39773,7 @@
         <v>0.63</v>
       </c>
       <c r="AP187">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ187">
         <v>0.67</v>
@@ -39874,7 +39901,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40161,7 +40188,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ189">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.36</v>
@@ -40367,7 +40394,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
         <v>1.39</v>
@@ -40492,7 +40519,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -40570,7 +40597,7 @@
         <v>1.43</v>
       </c>
       <c r="AP191">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191">
         <v>1.63</v>
@@ -40698,7 +40725,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -40776,10 +40803,10 @@
         <v>1.43</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ192">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -40982,7 +41009,7 @@
         <v>0.43</v>
       </c>
       <c r="AP193">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ193">
         <v>0.5</v>
@@ -41188,7 +41215,7 @@
         <v>0.29</v>
       </c>
       <c r="AP194">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ194">
         <v>0.25</v>
@@ -41394,7 +41421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -41806,10 +41833,10 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ197">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR197">
         <v>1.39</v>
@@ -41934,7 +41961,7 @@
         <v>95</v>
       </c>
       <c r="P198" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42221,7 +42248,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ199">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42427,7 +42454,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ200">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR200">
         <v>1.86</v>
@@ -42552,7 +42579,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42633,7 +42660,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ201">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR201">
         <v>1.58</v>
@@ -42836,7 +42863,7 @@
         <v>0.86</v>
       </c>
       <c r="AP202">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -43121,6 +43148,2272 @@
       </c>
       <c r="BP203">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7478956</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45625.70833333334</v>
+      </c>
+      <c r="F204">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
+        <v>86</v>
+      </c>
+      <c r="H204" t="s">
+        <v>93</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>232</v>
+      </c>
+      <c r="P204" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q204">
+        <v>2.75</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>4.5</v>
+      </c>
+      <c r="T204">
+        <v>1.5</v>
+      </c>
+      <c r="U204">
+        <v>2.5</v>
+      </c>
+      <c r="V204">
+        <v>3.4</v>
+      </c>
+      <c r="W204">
+        <v>1.3</v>
+      </c>
+      <c r="X204">
+        <v>10</v>
+      </c>
+      <c r="Y204">
+        <v>1.06</v>
+      </c>
+      <c r="Z204">
+        <v>2.01</v>
+      </c>
+      <c r="AA204">
+        <v>3.65</v>
+      </c>
+      <c r="AB204">
+        <v>3.55</v>
+      </c>
+      <c r="AC204">
+        <v>1.07</v>
+      </c>
+      <c r="AD204">
+        <v>10</v>
+      </c>
+      <c r="AE204">
+        <v>1.4</v>
+      </c>
+      <c r="AF204">
+        <v>2.95</v>
+      </c>
+      <c r="AG204">
+        <v>2.1</v>
+      </c>
+      <c r="AH204">
+        <v>1.65</v>
+      </c>
+      <c r="AI204">
+        <v>2</v>
+      </c>
+      <c r="AJ204">
+        <v>1.73</v>
+      </c>
+      <c r="AK204">
+        <v>1.28</v>
+      </c>
+      <c r="AL204">
+        <v>1.25</v>
+      </c>
+      <c r="AM204">
+        <v>1.85</v>
+      </c>
+      <c r="AN204">
+        <v>2.75</v>
+      </c>
+      <c r="AO204">
+        <v>1.67</v>
+      </c>
+      <c r="AP204">
+        <v>2.78</v>
+      </c>
+      <c r="AQ204">
+        <v>1.5</v>
+      </c>
+      <c r="AR204">
+        <v>1.53</v>
+      </c>
+      <c r="AS204">
+        <v>1.25</v>
+      </c>
+      <c r="AT204">
+        <v>2.78</v>
+      </c>
+      <c r="AU204">
+        <v>5</v>
+      </c>
+      <c r="AV204">
+        <v>3</v>
+      </c>
+      <c r="AW204">
+        <v>4</v>
+      </c>
+      <c r="AX204">
+        <v>6</v>
+      </c>
+      <c r="AY204">
+        <v>15</v>
+      </c>
+      <c r="AZ204">
+        <v>17</v>
+      </c>
+      <c r="BA204">
+        <v>8</v>
+      </c>
+      <c r="BB204">
+        <v>8</v>
+      </c>
+      <c r="BC204">
+        <v>16</v>
+      </c>
+      <c r="BD204">
+        <v>1.77</v>
+      </c>
+      <c r="BE204">
+        <v>6.75</v>
+      </c>
+      <c r="BF204">
+        <v>2.23</v>
+      </c>
+      <c r="BG204">
+        <v>1.15</v>
+      </c>
+      <c r="BH204">
+        <v>4.58</v>
+      </c>
+      <c r="BI204">
+        <v>1.34</v>
+      </c>
+      <c r="BJ204">
+        <v>3.06</v>
+      </c>
+      <c r="BK204">
+        <v>1.62</v>
+      </c>
+      <c r="BL204">
+        <v>2.28</v>
+      </c>
+      <c r="BM204">
+        <v>2</v>
+      </c>
+      <c r="BN204">
+        <v>1.8</v>
+      </c>
+      <c r="BO204">
+        <v>2.52</v>
+      </c>
+      <c r="BP204">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7478954</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F205">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>181</v>
+      </c>
+      <c r="P205" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q205">
+        <v>3.6</v>
+      </c>
+      <c r="R205">
+        <v>2.2</v>
+      </c>
+      <c r="S205">
+        <v>3</v>
+      </c>
+      <c r="T205">
+        <v>1.4</v>
+      </c>
+      <c r="U205">
+        <v>2.75</v>
+      </c>
+      <c r="V205">
+        <v>2.75</v>
+      </c>
+      <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>8</v>
+      </c>
+      <c r="Y205">
+        <v>1.08</v>
+      </c>
+      <c r="Z205">
+        <v>3.31</v>
+      </c>
+      <c r="AA205">
+        <v>5.4</v>
+      </c>
+      <c r="AB205">
+        <v>1.61</v>
+      </c>
+      <c r="AC205">
+        <v>1.05</v>
+      </c>
+      <c r="AD205">
+        <v>12</v>
+      </c>
+      <c r="AE205">
+        <v>1.3</v>
+      </c>
+      <c r="AF205">
+        <v>3.6</v>
+      </c>
+      <c r="AG205">
+        <v>1.73</v>
+      </c>
+      <c r="AH205">
+        <v>1.95</v>
+      </c>
+      <c r="AI205">
+        <v>1.73</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>1.65</v>
+      </c>
+      <c r="AL205">
+        <v>1.26</v>
+      </c>
+      <c r="AM205">
+        <v>1.4</v>
+      </c>
+      <c r="AN205">
+        <v>1.67</v>
+      </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
+      <c r="AP205">
+        <v>1.6</v>
+      </c>
+      <c r="AQ205">
+        <v>1</v>
+      </c>
+      <c r="AR205">
+        <v>1.07</v>
+      </c>
+      <c r="AS205">
+        <v>1.21</v>
+      </c>
+      <c r="AT205">
+        <v>2.28</v>
+      </c>
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>2</v>
+      </c>
+      <c r="AX205">
+        <v>1</v>
+      </c>
+      <c r="AY205">
+        <v>9</v>
+      </c>
+      <c r="AZ205">
+        <v>12</v>
+      </c>
+      <c r="BA205">
+        <v>2</v>
+      </c>
+      <c r="BB205">
+        <v>11</v>
+      </c>
+      <c r="BC205">
+        <v>13</v>
+      </c>
+      <c r="BD205">
+        <v>2.43</v>
+      </c>
+      <c r="BE205">
+        <v>6.5</v>
+      </c>
+      <c r="BF205">
+        <v>1.68</v>
+      </c>
+      <c r="BG205">
+        <v>1.18</v>
+      </c>
+      <c r="BH205">
+        <v>4.24</v>
+      </c>
+      <c r="BI205">
+        <v>1.38</v>
+      </c>
+      <c r="BJ205">
+        <v>2.88</v>
+      </c>
+      <c r="BK205">
+        <v>1.68</v>
+      </c>
+      <c r="BL205">
+        <v>2.17</v>
+      </c>
+      <c r="BM205">
+        <v>2.08</v>
+      </c>
+      <c r="BN205">
+        <v>1.75</v>
+      </c>
+      <c r="BO205">
+        <v>2.67</v>
+      </c>
+      <c r="BP205">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7478959</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F206">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>87</v>
+      </c>
+      <c r="H206" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>95</v>
+      </c>
+      <c r="P206" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q206">
+        <v>2.4</v>
+      </c>
+      <c r="R206">
+        <v>2.2</v>
+      </c>
+      <c r="S206">
+        <v>4.75</v>
+      </c>
+      <c r="T206">
+        <v>1.4</v>
+      </c>
+      <c r="U206">
+        <v>2.75</v>
+      </c>
+      <c r="V206">
+        <v>3</v>
+      </c>
+      <c r="W206">
+        <v>1.36</v>
+      </c>
+      <c r="X206">
+        <v>8</v>
+      </c>
+      <c r="Y206">
+        <v>1.08</v>
+      </c>
+      <c r="Z206">
+        <v>1.85</v>
+      </c>
+      <c r="AA206">
+        <v>5.39</v>
+      </c>
+      <c r="AB206">
+        <v>2.61</v>
+      </c>
+      <c r="AC206">
+        <v>1.05</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.35</v>
+      </c>
+      <c r="AF206">
+        <v>3.25</v>
+      </c>
+      <c r="AG206">
+        <v>1.93</v>
+      </c>
+      <c r="AH206">
+        <v>1.77</v>
+      </c>
+      <c r="AI206">
+        <v>1.83</v>
+      </c>
+      <c r="AJ206">
+        <v>1.83</v>
+      </c>
+      <c r="AK206">
+        <v>1.22</v>
+      </c>
+      <c r="AL206">
+        <v>1.24</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
+        <v>2.75</v>
+      </c>
+      <c r="AO206">
+        <v>1.13</v>
+      </c>
+      <c r="AP206">
+        <v>2.56</v>
+      </c>
+      <c r="AQ206">
+        <v>1.11</v>
+      </c>
+      <c r="AR206">
+        <v>1.43</v>
+      </c>
+      <c r="AS206">
+        <v>0.84</v>
+      </c>
+      <c r="AT206">
+        <v>2.27</v>
+      </c>
+      <c r="AU206">
+        <v>7</v>
+      </c>
+      <c r="AV206">
+        <v>2</v>
+      </c>
+      <c r="AW206">
+        <v>5</v>
+      </c>
+      <c r="AX206">
+        <v>8</v>
+      </c>
+      <c r="AY206">
+        <v>18</v>
+      </c>
+      <c r="AZ206">
+        <v>17</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206">
+        <v>5</v>
+      </c>
+      <c r="BC206">
+        <v>12</v>
+      </c>
+      <c r="BD206">
+        <v>1.57</v>
+      </c>
+      <c r="BE206">
+        <v>7</v>
+      </c>
+      <c r="BF206">
+        <v>2.63</v>
+      </c>
+      <c r="BG206">
+        <v>1.11</v>
+      </c>
+      <c r="BH206">
+        <v>5.33</v>
+      </c>
+      <c r="BI206">
+        <v>1.27</v>
+      </c>
+      <c r="BJ206">
+        <v>3.46</v>
+      </c>
+      <c r="BK206">
+        <v>1.51</v>
+      </c>
+      <c r="BL206">
+        <v>2.5</v>
+      </c>
+      <c r="BM206">
+        <v>1.82</v>
+      </c>
+      <c r="BN206">
+        <v>1.98</v>
+      </c>
+      <c r="BO206">
+        <v>2.29</v>
+      </c>
+      <c r="BP206">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7478952</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F207">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>79</v>
+      </c>
+      <c r="H207" t="s">
+        <v>77</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>233</v>
+      </c>
+      <c r="P207" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q207">
+        <v>2.05</v>
+      </c>
+      <c r="R207">
+        <v>2.38</v>
+      </c>
+      <c r="S207">
+        <v>5.5</v>
+      </c>
+      <c r="T207">
+        <v>1.33</v>
+      </c>
+      <c r="U207">
+        <v>3.25</v>
+      </c>
+      <c r="V207">
+        <v>2.5</v>
+      </c>
+      <c r="W207">
+        <v>1.5</v>
+      </c>
+      <c r="X207">
+        <v>6.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.11</v>
+      </c>
+      <c r="Z207">
+        <v>1.47</v>
+      </c>
+      <c r="AA207">
+        <v>6.22</v>
+      </c>
+      <c r="AB207">
+        <v>3.71</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>10</v>
+      </c>
+      <c r="AE207">
+        <v>1.25</v>
+      </c>
+      <c r="AF207">
+        <v>3.95</v>
+      </c>
+      <c r="AG207">
+        <v>1.68</v>
+      </c>
+      <c r="AH207">
+        <v>2.05</v>
+      </c>
+      <c r="AI207">
+        <v>1.8</v>
+      </c>
+      <c r="AJ207">
+        <v>1.91</v>
+      </c>
+      <c r="AK207">
+        <v>1.12</v>
+      </c>
+      <c r="AL207">
+        <v>1.17</v>
+      </c>
+      <c r="AM207">
+        <v>2.45</v>
+      </c>
+      <c r="AN207">
+        <v>1.56</v>
+      </c>
+      <c r="AO207">
+        <v>1</v>
+      </c>
+      <c r="AP207">
+        <v>1.7</v>
+      </c>
+      <c r="AQ207">
+        <v>0.89</v>
+      </c>
+      <c r="AR207">
+        <v>1.61</v>
+      </c>
+      <c r="AS207">
+        <v>1.4</v>
+      </c>
+      <c r="AT207">
+        <v>3.01</v>
+      </c>
+      <c r="AU207">
+        <v>10</v>
+      </c>
+      <c r="AV207">
+        <v>4</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>3</v>
+      </c>
+      <c r="AY207">
+        <v>22</v>
+      </c>
+      <c r="AZ207">
+        <v>11</v>
+      </c>
+      <c r="BA207">
+        <v>7</v>
+      </c>
+      <c r="BB207">
+        <v>6</v>
+      </c>
+      <c r="BC207">
+        <v>13</v>
+      </c>
+      <c r="BD207">
+        <v>1.5</v>
+      </c>
+      <c r="BE207">
+        <v>7</v>
+      </c>
+      <c r="BF207">
+        <v>2.8</v>
+      </c>
+      <c r="BG207">
+        <v>1.15</v>
+      </c>
+      <c r="BH207">
+        <v>4.58</v>
+      </c>
+      <c r="BI207">
+        <v>1.34</v>
+      </c>
+      <c r="BJ207">
+        <v>3.06</v>
+      </c>
+      <c r="BK207">
+        <v>1.62</v>
+      </c>
+      <c r="BL207">
+        <v>2.28</v>
+      </c>
+      <c r="BM207">
+        <v>2</v>
+      </c>
+      <c r="BN207">
+        <v>1.8</v>
+      </c>
+      <c r="BO207">
+        <v>2.52</v>
+      </c>
+      <c r="BP207">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7478948</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45626.4375</v>
+      </c>
+      <c r="F208">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>76</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>123</v>
+      </c>
+      <c r="P208" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q208">
+        <v>4.75</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>2.38</v>
+      </c>
+      <c r="T208">
+        <v>1.36</v>
+      </c>
+      <c r="U208">
+        <v>3</v>
+      </c>
+      <c r="V208">
+        <v>2.75</v>
+      </c>
+      <c r="W208">
+        <v>1.4</v>
+      </c>
+      <c r="X208">
+        <v>7</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>4.2</v>
+      </c>
+      <c r="AA208">
+        <v>3.9</v>
+      </c>
+      <c r="AB208">
+        <v>1.77</v>
+      </c>
+      <c r="AC208">
+        <v>1.04</v>
+      </c>
+      <c r="AD208">
+        <v>13</v>
+      </c>
+      <c r="AE208">
+        <v>1.26</v>
+      </c>
+      <c r="AF208">
+        <v>4</v>
+      </c>
+      <c r="AG208">
+        <v>1.75</v>
+      </c>
+      <c r="AH208">
+        <v>1.93</v>
+      </c>
+      <c r="AI208">
+        <v>1.8</v>
+      </c>
+      <c r="AJ208">
+        <v>1.91</v>
+      </c>
+      <c r="AK208">
+        <v>2.1</v>
+      </c>
+      <c r="AL208">
+        <v>1.22</v>
+      </c>
+      <c r="AM208">
+        <v>1.22</v>
+      </c>
+      <c r="AN208">
+        <v>2</v>
+      </c>
+      <c r="AO208">
+        <v>1.63</v>
+      </c>
+      <c r="AP208">
+        <v>2.11</v>
+      </c>
+      <c r="AQ208">
+        <v>1.44</v>
+      </c>
+      <c r="AR208">
+        <v>1.36</v>
+      </c>
+      <c r="AS208">
+        <v>1.43</v>
+      </c>
+      <c r="AT208">
+        <v>2.79</v>
+      </c>
+      <c r="AU208">
+        <v>3</v>
+      </c>
+      <c r="AV208">
+        <v>6</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>4</v>
+      </c>
+      <c r="AY208">
+        <v>12</v>
+      </c>
+      <c r="AZ208">
+        <v>14</v>
+      </c>
+      <c r="BA208">
+        <v>3</v>
+      </c>
+      <c r="BB208">
+        <v>9</v>
+      </c>
+      <c r="BC208">
+        <v>12</v>
+      </c>
+      <c r="BD208">
+        <v>2.65</v>
+      </c>
+      <c r="BE208">
+        <v>6.75</v>
+      </c>
+      <c r="BF208">
+        <v>1.56</v>
+      </c>
+      <c r="BG208">
+        <v>1.12</v>
+      </c>
+      <c r="BH208">
+        <v>5.21</v>
+      </c>
+      <c r="BI208">
+        <v>1.28</v>
+      </c>
+      <c r="BJ208">
+        <v>3.4</v>
+      </c>
+      <c r="BK208">
+        <v>1.52</v>
+      </c>
+      <c r="BL208">
+        <v>2.47</v>
+      </c>
+      <c r="BM208">
+        <v>1.85</v>
+      </c>
+      <c r="BN208">
+        <v>1.95</v>
+      </c>
+      <c r="BO208">
+        <v>2.32</v>
+      </c>
+      <c r="BP208">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7478958</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F209">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>88</v>
+      </c>
+      <c r="H209" t="s">
+        <v>85</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>234</v>
+      </c>
+      <c r="P209" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q209">
+        <v>2.4</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>5.5</v>
+      </c>
+      <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
+        <v>2.63</v>
+      </c>
+      <c r="V209">
+        <v>3.25</v>
+      </c>
+      <c r="W209">
+        <v>1.33</v>
+      </c>
+      <c r="X209">
+        <v>10</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>1.75</v>
+      </c>
+      <c r="AA209">
+        <v>3.6</v>
+      </c>
+      <c r="AB209">
+        <v>4.8</v>
+      </c>
+      <c r="AC209">
+        <v>1.07</v>
+      </c>
+      <c r="AD209">
+        <v>10</v>
+      </c>
+      <c r="AE209">
+        <v>1.4</v>
+      </c>
+      <c r="AF209">
+        <v>3</v>
+      </c>
+      <c r="AG209">
+        <v>2.1</v>
+      </c>
+      <c r="AH209">
+        <v>1.65</v>
+      </c>
+      <c r="AI209">
+        <v>2.1</v>
+      </c>
+      <c r="AJ209">
+        <v>1.67</v>
+      </c>
+      <c r="AK209">
+        <v>1.18</v>
+      </c>
+      <c r="AL209">
+        <v>1.22</v>
+      </c>
+      <c r="AM209">
+        <v>2.15</v>
+      </c>
+      <c r="AN209">
+        <v>1.5</v>
+      </c>
+      <c r="AO209">
+        <v>0.75</v>
+      </c>
+      <c r="AP209">
+        <v>1.44</v>
+      </c>
+      <c r="AQ209">
+        <v>0.78</v>
+      </c>
+      <c r="AR209">
+        <v>1.34</v>
+      </c>
+      <c r="AS209">
+        <v>1</v>
+      </c>
+      <c r="AT209">
+        <v>2.34</v>
+      </c>
+      <c r="AU209">
+        <v>7</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>10</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>24</v>
+      </c>
+      <c r="AZ209">
+        <v>7</v>
+      </c>
+      <c r="BA209">
+        <v>9</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
+      </c>
+      <c r="BC209">
+        <v>10</v>
+      </c>
+      <c r="BD209">
+        <v>1.54</v>
+      </c>
+      <c r="BE209">
+        <v>6.75</v>
+      </c>
+      <c r="BF209">
+        <v>2.7</v>
+      </c>
+      <c r="BG209">
+        <v>1.2</v>
+      </c>
+      <c r="BH209">
+        <v>3.9</v>
+      </c>
+      <c r="BI209">
+        <v>1.36</v>
+      </c>
+      <c r="BJ209">
+        <v>2.8</v>
+      </c>
+      <c r="BK209">
+        <v>1.6</v>
+      </c>
+      <c r="BL209">
+        <v>2.17</v>
+      </c>
+      <c r="BM209">
+        <v>1.95</v>
+      </c>
+      <c r="BN209">
+        <v>1.75</v>
+      </c>
+      <c r="BO209">
+        <v>2.4</v>
+      </c>
+      <c r="BP209">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7478957</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>91</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>95</v>
+      </c>
+      <c r="P210" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q210">
+        <v>3.75</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>3.2</v>
+      </c>
+      <c r="T210">
+        <v>1.5</v>
+      </c>
+      <c r="U210">
+        <v>2.5</v>
+      </c>
+      <c r="V210">
+        <v>3.4</v>
+      </c>
+      <c r="W210">
+        <v>1.3</v>
+      </c>
+      <c r="X210">
+        <v>10</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.87</v>
+      </c>
+      <c r="AA210">
+        <v>3.25</v>
+      </c>
+      <c r="AB210">
+        <v>2.45</v>
+      </c>
+      <c r="AC210">
+        <v>1.07</v>
+      </c>
+      <c r="AD210">
+        <v>10</v>
+      </c>
+      <c r="AE210">
+        <v>1.38</v>
+      </c>
+      <c r="AF210">
+        <v>3.1</v>
+      </c>
+      <c r="AG210">
+        <v>2.1</v>
+      </c>
+      <c r="AH210">
+        <v>1.63</v>
+      </c>
+      <c r="AI210">
+        <v>1.91</v>
+      </c>
+      <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.7</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.33</v>
+      </c>
+      <c r="AN210">
+        <v>1.44</v>
+      </c>
+      <c r="AO210">
+        <v>1.67</v>
+      </c>
+      <c r="AP210">
+        <v>1.3</v>
+      </c>
+      <c r="AQ210">
+        <v>1.8</v>
+      </c>
+      <c r="AR210">
+        <v>1.26</v>
+      </c>
+      <c r="AS210">
+        <v>1.2</v>
+      </c>
+      <c r="AT210">
+        <v>2.46</v>
+      </c>
+      <c r="AU210">
+        <v>6</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>5</v>
+      </c>
+      <c r="AX210">
+        <v>11</v>
+      </c>
+      <c r="AY210">
+        <v>15</v>
+      </c>
+      <c r="AZ210">
+        <v>17</v>
+      </c>
+      <c r="BA210">
+        <v>6</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>10</v>
+      </c>
+      <c r="BD210">
+        <v>2.17</v>
+      </c>
+      <c r="BE210">
+        <v>6.75</v>
+      </c>
+      <c r="BF210">
+        <v>1.79</v>
+      </c>
+      <c r="BG210">
+        <v>1.15</v>
+      </c>
+      <c r="BH210">
+        <v>4.6</v>
+      </c>
+      <c r="BI210">
+        <v>1.27</v>
+      </c>
+      <c r="BJ210">
+        <v>3.3</v>
+      </c>
+      <c r="BK210">
+        <v>1.46</v>
+      </c>
+      <c r="BL210">
+        <v>2.5</v>
+      </c>
+      <c r="BM210">
+        <v>1.72</v>
+      </c>
+      <c r="BN210">
+        <v>1.98</v>
+      </c>
+      <c r="BO210">
+        <v>2.08</v>
+      </c>
+      <c r="BP210">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7478955</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F211">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s">
+        <v>83</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>104</v>
+      </c>
+      <c r="P211" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q211">
+        <v>4</v>
+      </c>
+      <c r="R211">
+        <v>2.05</v>
+      </c>
+      <c r="S211">
+        <v>2.88</v>
+      </c>
+      <c r="T211">
+        <v>1.5</v>
+      </c>
+      <c r="U211">
+        <v>2.5</v>
+      </c>
+      <c r="V211">
+        <v>3.4</v>
+      </c>
+      <c r="W211">
+        <v>1.3</v>
+      </c>
+      <c r="X211">
+        <v>10</v>
+      </c>
+      <c r="Y211">
+        <v>1.06</v>
+      </c>
+      <c r="Z211">
+        <v>3.2</v>
+      </c>
+      <c r="AA211">
+        <v>3.3</v>
+      </c>
+      <c r="AB211">
+        <v>2.25</v>
+      </c>
+      <c r="AC211">
+        <v>1.06</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.4</v>
+      </c>
+      <c r="AF211">
+        <v>2.95</v>
+      </c>
+      <c r="AG211">
+        <v>2.1</v>
+      </c>
+      <c r="AH211">
+        <v>1.63</v>
+      </c>
+      <c r="AI211">
+        <v>1.91</v>
+      </c>
+      <c r="AJ211">
+        <v>1.8</v>
+      </c>
+      <c r="AK211">
+        <v>1.75</v>
+      </c>
+      <c r="AL211">
+        <v>1.25</v>
+      </c>
+      <c r="AM211">
+        <v>1.35</v>
+      </c>
+      <c r="AN211">
+        <v>1.44</v>
+      </c>
+      <c r="AO211">
+        <v>1.78</v>
+      </c>
+      <c r="AP211">
+        <v>1.4</v>
+      </c>
+      <c r="AQ211">
+        <v>1.7</v>
+      </c>
+      <c r="AR211">
+        <v>1.21</v>
+      </c>
+      <c r="AS211">
+        <v>1.06</v>
+      </c>
+      <c r="AT211">
+        <v>2.27</v>
+      </c>
+      <c r="AU211">
+        <v>7</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>5</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>14</v>
+      </c>
+      <c r="AZ211">
+        <v>9</v>
+      </c>
+      <c r="BA211">
+        <v>7</v>
+      </c>
+      <c r="BB211">
+        <v>4</v>
+      </c>
+      <c r="BC211">
+        <v>11</v>
+      </c>
+      <c r="BD211">
+        <v>2.7</v>
+      </c>
+      <c r="BE211">
+        <v>7.65</v>
+      </c>
+      <c r="BF211">
+        <v>1.83</v>
+      </c>
+      <c r="BG211">
+        <v>1.17</v>
+      </c>
+      <c r="BH211">
+        <v>4.39</v>
+      </c>
+      <c r="BI211">
+        <v>1.36</v>
+      </c>
+      <c r="BJ211">
+        <v>2.97</v>
+      </c>
+      <c r="BK211">
+        <v>1.65</v>
+      </c>
+      <c r="BL211">
+        <v>2.22</v>
+      </c>
+      <c r="BM211">
+        <v>2.04</v>
+      </c>
+      <c r="BN211">
+        <v>1.78</v>
+      </c>
+      <c r="BO211">
+        <v>2.6</v>
+      </c>
+      <c r="BP211">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7478950</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F212">
+        <v>18</v>
+      </c>
+      <c r="G212" t="s">
+        <v>82</v>
+      </c>
+      <c r="H212" t="s">
+        <v>78</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>235</v>
+      </c>
+      <c r="P212" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q212">
+        <v>2.38</v>
+      </c>
+      <c r="R212">
+        <v>2.2</v>
+      </c>
+      <c r="S212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>1.4</v>
+      </c>
+      <c r="U212">
+        <v>2.75</v>
+      </c>
+      <c r="V212">
+        <v>3</v>
+      </c>
+      <c r="W212">
+        <v>1.36</v>
+      </c>
+      <c r="X212">
+        <v>8</v>
+      </c>
+      <c r="Y212">
+        <v>1.08</v>
+      </c>
+      <c r="Z212">
+        <v>1.75</v>
+      </c>
+      <c r="AA212">
+        <v>3.7</v>
+      </c>
+      <c r="AB212">
+        <v>4.5</v>
+      </c>
+      <c r="AC212">
+        <v>1.05</v>
+      </c>
+      <c r="AD212">
+        <v>11</v>
+      </c>
+      <c r="AE212">
+        <v>1.33</v>
+      </c>
+      <c r="AF212">
+        <v>3.3</v>
+      </c>
+      <c r="AG212">
+        <v>1.93</v>
+      </c>
+      <c r="AH212">
+        <v>1.77</v>
+      </c>
+      <c r="AI212">
+        <v>1.83</v>
+      </c>
+      <c r="AJ212">
+        <v>1.83</v>
+      </c>
+      <c r="AK212">
+        <v>1.2</v>
+      </c>
+      <c r="AL212">
+        <v>1.22</v>
+      </c>
+      <c r="AM212">
+        <v>2.15</v>
+      </c>
+      <c r="AN212">
+        <v>1.25</v>
+      </c>
+      <c r="AO212">
+        <v>0.5</v>
+      </c>
+      <c r="AP212">
+        <v>1.22</v>
+      </c>
+      <c r="AQ212">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR212">
+        <v>1.94</v>
+      </c>
+      <c r="AS212">
+        <v>1.09</v>
+      </c>
+      <c r="AT212">
+        <v>3.03</v>
+      </c>
+      <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>5</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>5</v>
+      </c>
+      <c r="AY212">
+        <v>12</v>
+      </c>
+      <c r="AZ212">
+        <v>11</v>
+      </c>
+      <c r="BA212">
+        <v>5</v>
+      </c>
+      <c r="BB212">
+        <v>1</v>
+      </c>
+      <c r="BC212">
+        <v>6</v>
+      </c>
+      <c r="BD212">
+        <v>1.63</v>
+      </c>
+      <c r="BE212">
+        <v>7</v>
+      </c>
+      <c r="BF212">
+        <v>2.48</v>
+      </c>
+      <c r="BG212">
+        <v>1.15</v>
+      </c>
+      <c r="BH212">
+        <v>4.6</v>
+      </c>
+      <c r="BI212">
+        <v>1.27</v>
+      </c>
+      <c r="BJ212">
+        <v>3.3</v>
+      </c>
+      <c r="BK212">
+        <v>1.47</v>
+      </c>
+      <c r="BL212">
+        <v>2.48</v>
+      </c>
+      <c r="BM212">
+        <v>1.85</v>
+      </c>
+      <c r="BN212">
+        <v>1.85</v>
+      </c>
+      <c r="BO212">
+        <v>2.12</v>
+      </c>
+      <c r="BP212">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7478949</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F213">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>89</v>
+      </c>
+      <c r="H213" t="s">
+        <v>92</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>236</v>
+      </c>
+      <c r="P213" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q213">
+        <v>2.1</v>
+      </c>
+      <c r="R213">
+        <v>2.3</v>
+      </c>
+      <c r="S213">
+        <v>6</v>
+      </c>
+      <c r="T213">
+        <v>1.36</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>7</v>
+      </c>
+      <c r="Y213">
+        <v>1.1</v>
+      </c>
+      <c r="Z213">
+        <v>1.68</v>
+      </c>
+      <c r="AA213">
+        <v>4</v>
+      </c>
+      <c r="AB213">
+        <v>4.75</v>
+      </c>
+      <c r="AC213">
+        <v>1.04</v>
+      </c>
+      <c r="AD213">
+        <v>13</v>
+      </c>
+      <c r="AE213">
+        <v>1.26</v>
+      </c>
+      <c r="AF213">
+        <v>4</v>
+      </c>
+      <c r="AG213">
+        <v>1.75</v>
+      </c>
+      <c r="AH213">
+        <v>1.93</v>
+      </c>
+      <c r="AI213">
+        <v>1.83</v>
+      </c>
+      <c r="AJ213">
+        <v>1.83</v>
+      </c>
+      <c r="AK213">
+        <v>1.14</v>
+      </c>
+      <c r="AL213">
+        <v>1.2</v>
+      </c>
+      <c r="AM213">
+        <v>2.45</v>
+      </c>
+      <c r="AN213">
+        <v>1.25</v>
+      </c>
+      <c r="AO213">
+        <v>0.22</v>
+      </c>
+      <c r="AP213">
+        <v>1.44</v>
+      </c>
+      <c r="AQ213">
+        <v>0.2</v>
+      </c>
+      <c r="AR213">
+        <v>1.27</v>
+      </c>
+      <c r="AS213">
+        <v>0.74</v>
+      </c>
+      <c r="AT213">
+        <v>2.01</v>
+      </c>
+      <c r="AU213">
+        <v>13</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>6</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>26</v>
+      </c>
+      <c r="AZ213">
+        <v>5</v>
+      </c>
+      <c r="BA213">
+        <v>5</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>7</v>
+      </c>
+      <c r="BD213">
+        <v>1.25</v>
+      </c>
+      <c r="BE213">
+        <v>8</v>
+      </c>
+      <c r="BF213">
+        <v>4.1</v>
+      </c>
+      <c r="BG213">
+        <v>1.1</v>
+      </c>
+      <c r="BH213">
+        <v>5.65</v>
+      </c>
+      <c r="BI213">
+        <v>1.25</v>
+      </c>
+      <c r="BJ213">
+        <v>3.63</v>
+      </c>
+      <c r="BK213">
+        <v>1.47</v>
+      </c>
+      <c r="BL213">
+        <v>2.6</v>
+      </c>
+      <c r="BM213">
+        <v>1.79</v>
+      </c>
+      <c r="BN213">
+        <v>2.02</v>
+      </c>
+      <c r="BO213">
+        <v>2.21</v>
+      </c>
+      <c r="BP213">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7478953</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F214">
+        <v>18</v>
+      </c>
+      <c r="G214" t="s">
+        <v>90</v>
+      </c>
+      <c r="H214" t="s">
+        <v>81</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>4</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>6</v>
+      </c>
+      <c r="O214" t="s">
+        <v>237</v>
+      </c>
+      <c r="P214" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q214">
+        <v>3.1</v>
+      </c>
+      <c r="R214">
+        <v>2.1</v>
+      </c>
+      <c r="S214">
+        <v>3.5</v>
+      </c>
+      <c r="T214">
+        <v>1.4</v>
+      </c>
+      <c r="U214">
+        <v>2.75</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>1.36</v>
+      </c>
+      <c r="X214">
+        <v>8</v>
+      </c>
+      <c r="Y214">
+        <v>1.08</v>
+      </c>
+      <c r="Z214">
+        <v>2.45</v>
+      </c>
+      <c r="AA214">
+        <v>3.4</v>
+      </c>
+      <c r="AB214">
+        <v>2.85</v>
+      </c>
+      <c r="AC214">
+        <v>1.05</v>
+      </c>
+      <c r="AD214">
+        <v>11</v>
+      </c>
+      <c r="AE214">
+        <v>1.33</v>
+      </c>
+      <c r="AF214">
+        <v>3.4</v>
+      </c>
+      <c r="AG214">
+        <v>1.93</v>
+      </c>
+      <c r="AH214">
+        <v>1.77</v>
+      </c>
+      <c r="AI214">
+        <v>1.73</v>
+      </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <v>1.4</v>
+      </c>
+      <c r="AL214">
+        <v>1.28</v>
+      </c>
+      <c r="AM214">
+        <v>1.6</v>
+      </c>
+      <c r="AN214">
+        <v>1.63</v>
+      </c>
+      <c r="AO214">
+        <v>0.5</v>
+      </c>
+      <c r="AP214">
+        <v>1.78</v>
+      </c>
+      <c r="AQ214">
+        <v>0.44</v>
+      </c>
+      <c r="AR214">
+        <v>1.48</v>
+      </c>
+      <c r="AS214">
+        <v>1.16</v>
+      </c>
+      <c r="AT214">
+        <v>2.64</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>4</v>
+      </c>
+      <c r="AX214">
+        <v>5</v>
+      </c>
+      <c r="AY214">
+        <v>17</v>
+      </c>
+      <c r="AZ214">
+        <v>13</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>11</v>
+      </c>
+      <c r="BD214">
+        <v>2.4</v>
+      </c>
+      <c r="BE214">
+        <v>6.75</v>
+      </c>
+      <c r="BF214">
+        <v>1.67</v>
+      </c>
+      <c r="BG214">
+        <v>1.14</v>
+      </c>
+      <c r="BH214">
+        <v>4.78</v>
+      </c>
+      <c r="BI214">
+        <v>1.32</v>
+      </c>
+      <c r="BJ214">
+        <v>3.17</v>
+      </c>
+      <c r="BK214">
+        <v>1.59</v>
+      </c>
+      <c r="BL214">
+        <v>2.34</v>
+      </c>
+      <c r="BM214">
+        <v>1.95</v>
+      </c>
+      <c r="BN214">
+        <v>1.85</v>
+      </c>
+      <c r="BO214">
+        <v>2.45</v>
+      </c>
+      <c r="BP214">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -43914,13 +43914,13 @@
         <v>4</v>
       </c>
       <c r="AW207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX207">
         <v>3</v>
       </c>
       <c r="AY207">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ207">
         <v>11</v>
@@ -44944,13 +44944,13 @@
         <v>5</v>
       </c>
       <c r="AW212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX212">
         <v>5</v>
       </c>
       <c r="AY212">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ212">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -955,16 +955,19 @@
     <t>['40', '90+1']</t>
   </si>
   <si>
-    <t>['25', '45']</t>
+    <t>['52', '78']</t>
   </si>
   <si>
-    <t>['52', '78']</t>
+    <t>['25', '45']</t>
   </si>
   <si>
     <t>['4', '48']</t>
   </si>
   <si>
     <t>['20', '48']</t>
+  </si>
+  <si>
+    <t>['64', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4547,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>1.63</v>
@@ -6404,7 +6407,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -10524,7 +10527,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -12375,7 +12378,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -15674,7 +15677,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -16907,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -21236,7 +21239,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -22266,7 +22269,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -23499,7 +23502,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
         <v>1.11</v>
@@ -28858,7 +28861,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -30503,7 +30506,7 @@
         <v>1.4</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>0.89</v>
@@ -37919,7 +37922,7 @@
         <v>0.14</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
         <v>0.2</v>
@@ -38128,7 +38131,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.59</v>
@@ -42042,7 +42045,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ198">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR198">
         <v>1.31</v>
@@ -43069,7 +43072,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ203">
         <v>1.11</v>
@@ -43361,7 +43364,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>7478954</v>
+        <v>7478957</v>
       </c>
       <c r="C205" t="s">
         <v>68</v>
@@ -43370,196 +43373,196 @@
         <v>69</v>
       </c>
       <c r="E205" s="2">
-        <v>45626.39583333334</v>
+        <v>45625.875</v>
       </c>
       <c r="F205">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H205" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N205">
         <v>2</v>
       </c>
       <c r="O205" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="Q205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R205">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T205">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V205">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W205">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X205">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y205">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z205">
-        <v>3.31</v>
+        <v>2.87</v>
       </c>
       <c r="AA205">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB205">
-        <v>1.61</v>
+        <v>2.45</v>
       </c>
       <c r="AC205">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD205">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE205">
+        <v>1.38</v>
+      </c>
+      <c r="AF205">
+        <v>3.1</v>
+      </c>
+      <c r="AG205">
+        <v>2.1</v>
+      </c>
+      <c r="AH205">
+        <v>1.63</v>
+      </c>
+      <c r="AI205">
+        <v>1.91</v>
+      </c>
+      <c r="AJ205">
+        <v>1.8</v>
+      </c>
+      <c r="AK205">
+        <v>1.7</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.33</v>
+      </c>
+      <c r="AN205">
+        <v>1.44</v>
+      </c>
+      <c r="AO205">
+        <v>1.67</v>
+      </c>
+      <c r="AP205">
         <v>1.3</v>
       </c>
-      <c r="AF205">
-        <v>3.6</v>
-      </c>
-      <c r="AG205">
-        <v>1.73</v>
-      </c>
-      <c r="AH205">
-        <v>1.95</v>
-      </c>
-      <c r="AI205">
-        <v>1.73</v>
-      </c>
-      <c r="AJ205">
-        <v>2</v>
-      </c>
-      <c r="AK205">
+      <c r="AQ205">
+        <v>1.8</v>
+      </c>
+      <c r="AR205">
+        <v>1.26</v>
+      </c>
+      <c r="AS205">
+        <v>1.2</v>
+      </c>
+      <c r="AT205">
+        <v>2.46</v>
+      </c>
+      <c r="AU205">
+        <v>6</v>
+      </c>
+      <c r="AV205">
+        <v>5</v>
+      </c>
+      <c r="AW205">
+        <v>5</v>
+      </c>
+      <c r="AX205">
+        <v>11</v>
+      </c>
+      <c r="AY205">
+        <v>15</v>
+      </c>
+      <c r="AZ205">
+        <v>17</v>
+      </c>
+      <c r="BA205">
+        <v>6</v>
+      </c>
+      <c r="BB205">
+        <v>4</v>
+      </c>
+      <c r="BC205">
+        <v>10</v>
+      </c>
+      <c r="BD205">
+        <v>2.17</v>
+      </c>
+      <c r="BE205">
+        <v>6.75</v>
+      </c>
+      <c r="BF205">
+        <v>1.79</v>
+      </c>
+      <c r="BG205">
+        <v>1.15</v>
+      </c>
+      <c r="BH205">
+        <v>4.6</v>
+      </c>
+      <c r="BI205">
+        <v>1.27</v>
+      </c>
+      <c r="BJ205">
+        <v>3.3</v>
+      </c>
+      <c r="BK205">
+        <v>1.46</v>
+      </c>
+      <c r="BL205">
+        <v>2.5</v>
+      </c>
+      <c r="BM205">
+        <v>1.72</v>
+      </c>
+      <c r="BN205">
+        <v>1.98</v>
+      </c>
+      <c r="BO205">
+        <v>2.08</v>
+      </c>
+      <c r="BP205">
         <v>1.65</v>
-      </c>
-      <c r="AL205">
-        <v>1.26</v>
-      </c>
-      <c r="AM205">
-        <v>1.4</v>
-      </c>
-      <c r="AN205">
-        <v>1.67</v>
-      </c>
-      <c r="AO205">
-        <v>1</v>
-      </c>
-      <c r="AP205">
-        <v>1.6</v>
-      </c>
-      <c r="AQ205">
-        <v>1</v>
-      </c>
-      <c r="AR205">
-        <v>1.07</v>
-      </c>
-      <c r="AS205">
-        <v>1.21</v>
-      </c>
-      <c r="AT205">
-        <v>2.28</v>
-      </c>
-      <c r="AU205">
-        <v>4</v>
-      </c>
-      <c r="AV205">
-        <v>4</v>
-      </c>
-      <c r="AW205">
-        <v>2</v>
-      </c>
-      <c r="AX205">
-        <v>1</v>
-      </c>
-      <c r="AY205">
-        <v>9</v>
-      </c>
-      <c r="AZ205">
-        <v>12</v>
-      </c>
-      <c r="BA205">
-        <v>2</v>
-      </c>
-      <c r="BB205">
-        <v>11</v>
-      </c>
-      <c r="BC205">
-        <v>13</v>
-      </c>
-      <c r="BD205">
-        <v>2.43</v>
-      </c>
-      <c r="BE205">
-        <v>6.5</v>
-      </c>
-      <c r="BF205">
-        <v>1.68</v>
-      </c>
-      <c r="BG205">
-        <v>1.18</v>
-      </c>
-      <c r="BH205">
-        <v>4.24</v>
-      </c>
-      <c r="BI205">
-        <v>1.38</v>
-      </c>
-      <c r="BJ205">
-        <v>2.88</v>
-      </c>
-      <c r="BK205">
-        <v>1.68</v>
-      </c>
-      <c r="BL205">
-        <v>2.17</v>
-      </c>
-      <c r="BM205">
-        <v>2.08</v>
-      </c>
-      <c r="BN205">
-        <v>1.75</v>
-      </c>
-      <c r="BO205">
-        <v>2.67</v>
-      </c>
-      <c r="BP205">
-        <v>1.45</v>
       </c>
     </row>
     <row r="206" spans="1:68">
@@ -43567,7 +43570,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7478959</v>
+        <v>7478954</v>
       </c>
       <c r="C206" t="s">
         <v>68</v>
@@ -43582,43 +43585,43 @@
         <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H206" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O206" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="P206" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="Q206">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R206">
         <v>2.2</v>
       </c>
       <c r="S206">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="T206">
         <v>1.4</v>
@@ -43627,10 +43630,10 @@
         <v>2.75</v>
       </c>
       <c r="V206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W206">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X206">
         <v>8</v>
@@ -43639,133 +43642,133 @@
         <v>1.08</v>
       </c>
       <c r="Z206">
-        <v>1.85</v>
+        <v>3.31</v>
       </c>
       <c r="AA206">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="AB206">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="AC206">
         <v>1.05</v>
       </c>
       <c r="AD206">
+        <v>12</v>
+      </c>
+      <c r="AE206">
+        <v>1.3</v>
+      </c>
+      <c r="AF206">
+        <v>3.6</v>
+      </c>
+      <c r="AG206">
+        <v>1.73</v>
+      </c>
+      <c r="AH206">
+        <v>1.95</v>
+      </c>
+      <c r="AI206">
+        <v>1.73</v>
+      </c>
+      <c r="AJ206">
+        <v>2</v>
+      </c>
+      <c r="AK206">
+        <v>1.65</v>
+      </c>
+      <c r="AL206">
+        <v>1.26</v>
+      </c>
+      <c r="AM206">
+        <v>1.4</v>
+      </c>
+      <c r="AN206">
+        <v>1.67</v>
+      </c>
+      <c r="AO206">
+        <v>1</v>
+      </c>
+      <c r="AP206">
+        <v>1.6</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>1.07</v>
+      </c>
+      <c r="AS206">
+        <v>1.21</v>
+      </c>
+      <c r="AT206">
+        <v>2.28</v>
+      </c>
+      <c r="AU206">
+        <v>4</v>
+      </c>
+      <c r="AV206">
+        <v>4</v>
+      </c>
+      <c r="AW206">
+        <v>2</v>
+      </c>
+      <c r="AX206">
+        <v>1</v>
+      </c>
+      <c r="AY206">
+        <v>9</v>
+      </c>
+      <c r="AZ206">
+        <v>12</v>
+      </c>
+      <c r="BA206">
+        <v>2</v>
+      </c>
+      <c r="BB206">
         <v>11</v>
       </c>
-      <c r="AE206">
-        <v>1.35</v>
-      </c>
-      <c r="AF206">
-        <v>3.25</v>
-      </c>
-      <c r="AG206">
-        <v>1.93</v>
-      </c>
-      <c r="AH206">
-        <v>1.77</v>
-      </c>
-      <c r="AI206">
-        <v>1.83</v>
-      </c>
-      <c r="AJ206">
-        <v>1.83</v>
-      </c>
-      <c r="AK206">
-        <v>1.22</v>
-      </c>
-      <c r="AL206">
-        <v>1.24</v>
-      </c>
-      <c r="AM206">
-        <v>2</v>
-      </c>
-      <c r="AN206">
-        <v>2.75</v>
-      </c>
-      <c r="AO206">
-        <v>1.13</v>
-      </c>
-      <c r="AP206">
-        <v>2.56</v>
-      </c>
-      <c r="AQ206">
-        <v>1.11</v>
-      </c>
-      <c r="AR206">
-        <v>1.43</v>
-      </c>
-      <c r="AS206">
-        <v>0.84</v>
-      </c>
-      <c r="AT206">
-        <v>2.27</v>
-      </c>
-      <c r="AU206">
-        <v>7</v>
-      </c>
-      <c r="AV206">
-        <v>2</v>
-      </c>
-      <c r="AW206">
-        <v>5</v>
-      </c>
-      <c r="AX206">
-        <v>8</v>
-      </c>
-      <c r="AY206">
-        <v>18</v>
-      </c>
-      <c r="AZ206">
-        <v>17</v>
-      </c>
-      <c r="BA206">
-        <v>7</v>
-      </c>
-      <c r="BB206">
-        <v>5</v>
-      </c>
       <c r="BC206">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD206">
-        <v>1.57</v>
+        <v>2.43</v>
       </c>
       <c r="BE206">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF206">
-        <v>2.63</v>
+        <v>1.68</v>
       </c>
       <c r="BG206">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BH206">
-        <v>5.33</v>
+        <v>4.24</v>
       </c>
       <c r="BI206">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="BJ206">
-        <v>3.46</v>
+        <v>2.88</v>
       </c>
       <c r="BK206">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="BL206">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="BM206">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="BN206">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="BO206">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="BP206">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -43773,7 +43776,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7478952</v>
+        <v>7478959</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43788,190 +43791,190 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H207" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207" t="s">
+        <v>95</v>
+      </c>
+      <c r="P207" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q207">
+        <v>2.4</v>
+      </c>
+      <c r="R207">
+        <v>2.2</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.4</v>
+      </c>
+      <c r="U207">
+        <v>2.75</v>
+      </c>
+      <c r="V207">
         <v>3</v>
       </c>
-      <c r="M207">
-        <v>1</v>
-      </c>
-      <c r="N207">
-        <v>4</v>
-      </c>
-      <c r="O207" t="s">
-        <v>233</v>
-      </c>
-      <c r="P207" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q207">
-        <v>2.05</v>
-      </c>
-      <c r="R207">
-        <v>2.38</v>
-      </c>
-      <c r="S207">
-        <v>5.5</v>
-      </c>
-      <c r="T207">
-        <v>1.33</v>
-      </c>
-      <c r="U207">
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>8</v>
+      </c>
+      <c r="Y207">
+        <v>1.08</v>
+      </c>
+      <c r="Z207">
+        <v>1.85</v>
+      </c>
+      <c r="AA207">
+        <v>5.39</v>
+      </c>
+      <c r="AB207">
+        <v>2.61</v>
+      </c>
+      <c r="AC207">
+        <v>1.05</v>
+      </c>
+      <c r="AD207">
+        <v>11</v>
+      </c>
+      <c r="AE207">
+        <v>1.35</v>
+      </c>
+      <c r="AF207">
         <v>3.25</v>
       </c>
-      <c r="V207">
-        <v>2.5</v>
-      </c>
-      <c r="W207">
-        <v>1.5</v>
-      </c>
-      <c r="X207">
-        <v>6.5</v>
-      </c>
-      <c r="Y207">
+      <c r="AG207">
+        <v>1.93</v>
+      </c>
+      <c r="AH207">
+        <v>1.77</v>
+      </c>
+      <c r="AI207">
+        <v>1.83</v>
+      </c>
+      <c r="AJ207">
+        <v>1.83</v>
+      </c>
+      <c r="AK207">
+        <v>1.22</v>
+      </c>
+      <c r="AL207">
+        <v>1.24</v>
+      </c>
+      <c r="AM207">
+        <v>2</v>
+      </c>
+      <c r="AN207">
+        <v>2.75</v>
+      </c>
+      <c r="AO207">
+        <v>1.13</v>
+      </c>
+      <c r="AP207">
+        <v>2.56</v>
+      </c>
+      <c r="AQ207">
         <v>1.11</v>
       </c>
-      <c r="Z207">
-        <v>1.47</v>
-      </c>
-      <c r="AA207">
-        <v>6.22</v>
-      </c>
-      <c r="AB207">
-        <v>3.71</v>
-      </c>
-      <c r="AC207">
-        <v>1.04</v>
-      </c>
-      <c r="AD207">
-        <v>10</v>
-      </c>
-      <c r="AE207">
-        <v>1.25</v>
-      </c>
-      <c r="AF207">
-        <v>3.95</v>
-      </c>
-      <c r="AG207">
-        <v>1.68</v>
-      </c>
-      <c r="AH207">
-        <v>2.05</v>
-      </c>
-      <c r="AI207">
-        <v>1.8</v>
-      </c>
-      <c r="AJ207">
-        <v>1.91</v>
-      </c>
-      <c r="AK207">
-        <v>1.12</v>
-      </c>
-      <c r="AL207">
-        <v>1.17</v>
-      </c>
-      <c r="AM207">
-        <v>2.45</v>
-      </c>
-      <c r="AN207">
-        <v>1.56</v>
-      </c>
-      <c r="AO207">
-        <v>1</v>
-      </c>
-      <c r="AP207">
-        <v>1.7</v>
-      </c>
-      <c r="AQ207">
-        <v>0.89</v>
-      </c>
       <c r="AR207">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AS207">
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="AT207">
-        <v>3.01</v>
+        <v>2.27</v>
       </c>
       <c r="AU207">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW207">
         <v>5</v>
       </c>
       <c r="AX207">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY207">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ207">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA207">
         <v>7</v>
       </c>
       <c r="BB207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC207">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD207">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BE207">
         <v>7</v>
       </c>
       <c r="BF207">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="BG207">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="BH207">
-        <v>4.58</v>
+        <v>5.33</v>
       </c>
       <c r="BI207">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BJ207">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="BK207">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="BL207">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="BM207">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BN207">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="BO207">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="BP207">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -43979,7 +43982,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7478948</v>
+        <v>7478952</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -43988,94 +43991,94 @@
         <v>69</v>
       </c>
       <c r="E208" s="2">
-        <v>45626.4375</v>
+        <v>45626.39583333334</v>
       </c>
       <c r="F208">
         <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H208" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O208" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="Q208">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="R208">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S208">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="T208">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U208">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W208">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y208">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z208">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="AA208">
-        <v>3.9</v>
+        <v>6.22</v>
       </c>
       <c r="AB208">
-        <v>1.77</v>
+        <v>3.71</v>
       </c>
       <c r="AC208">
         <v>1.04</v>
       </c>
       <c r="AD208">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE208">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AF208">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AG208">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AH208">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AI208">
         <v>1.8</v>
@@ -44084,100 +44087,100 @@
         <v>1.91</v>
       </c>
       <c r="AK208">
-        <v>2.1</v>
+        <v>1.12</v>
       </c>
       <c r="AL208">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM208">
-        <v>1.22</v>
+        <v>2.45</v>
       </c>
       <c r="AN208">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO208">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="AQ208">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AR208">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AS208">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT208">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="AU208">
+        <v>10</v>
+      </c>
+      <c r="AV208">
+        <v>4</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
         <v>3</v>
       </c>
-      <c r="AV208">
+      <c r="AY208">
+        <v>23</v>
+      </c>
+      <c r="AZ208">
+        <v>11</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
         <v>6</v>
       </c>
-      <c r="AW208">
-        <v>6</v>
-      </c>
-      <c r="AX208">
-        <v>4</v>
-      </c>
-      <c r="AY208">
-        <v>12</v>
-      </c>
-      <c r="AZ208">
-        <v>14</v>
-      </c>
-      <c r="BA208">
-        <v>3</v>
-      </c>
-      <c r="BB208">
-        <v>9</v>
-      </c>
       <c r="BC208">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD208">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="BE208">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF208">
-        <v>1.56</v>
+        <v>2.8</v>
       </c>
       <c r="BG208">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="BH208">
-        <v>5.21</v>
+        <v>4.58</v>
       </c>
       <c r="BI208">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BJ208">
-        <v>3.4</v>
+        <v>3.06</v>
       </c>
       <c r="BK208">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="BL208">
-        <v>2.47</v>
+        <v>2.28</v>
       </c>
       <c r="BM208">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BN208">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BO208">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="BP208">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44185,7 +44188,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7478958</v>
+        <v>7478948</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44194,196 +44197,196 @@
         <v>69</v>
       </c>
       <c r="E209" s="2">
-        <v>45626.5</v>
+        <v>45626.4375</v>
       </c>
       <c r="F209">
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H209" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>123</v>
+      </c>
+      <c r="P209" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q209">
+        <v>4.75</v>
+      </c>
+      <c r="R209">
+        <v>2.25</v>
+      </c>
+      <c r="S209">
+        <v>2.38</v>
+      </c>
+      <c r="T209">
+        <v>1.36</v>
+      </c>
+      <c r="U209">
         <v>3</v>
       </c>
-      <c r="L209">
-        <v>2</v>
-      </c>
-      <c r="M209">
-        <v>2</v>
-      </c>
-      <c r="N209">
+      <c r="V209">
+        <v>2.75</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>7</v>
+      </c>
+      <c r="Y209">
+        <v>1.1</v>
+      </c>
+      <c r="Z209">
+        <v>4.2</v>
+      </c>
+      <c r="AA209">
+        <v>3.9</v>
+      </c>
+      <c r="AB209">
+        <v>1.77</v>
+      </c>
+      <c r="AC209">
+        <v>1.04</v>
+      </c>
+      <c r="AD209">
+        <v>13</v>
+      </c>
+      <c r="AE209">
+        <v>1.26</v>
+      </c>
+      <c r="AF209">
         <v>4</v>
       </c>
-      <c r="O209" t="s">
-        <v>234</v>
-      </c>
-      <c r="P209" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q209">
-        <v>2.4</v>
-      </c>
-      <c r="R209">
+      <c r="AG209">
+        <v>1.75</v>
+      </c>
+      <c r="AH209">
+        <v>1.93</v>
+      </c>
+      <c r="AI209">
+        <v>1.8</v>
+      </c>
+      <c r="AJ209">
+        <v>1.91</v>
+      </c>
+      <c r="AK209">
         <v>2.1</v>
-      </c>
-      <c r="S209">
-        <v>5.5</v>
-      </c>
-      <c r="T209">
-        <v>1.44</v>
-      </c>
-      <c r="U209">
-        <v>2.63</v>
-      </c>
-      <c r="V209">
-        <v>3.25</v>
-      </c>
-      <c r="W209">
-        <v>1.33</v>
-      </c>
-      <c r="X209">
-        <v>10</v>
-      </c>
-      <c r="Y209">
-        <v>1.06</v>
-      </c>
-      <c r="Z209">
-        <v>1.75</v>
-      </c>
-      <c r="AA209">
-        <v>3.6</v>
-      </c>
-      <c r="AB209">
-        <v>4.8</v>
-      </c>
-      <c r="AC209">
-        <v>1.07</v>
-      </c>
-      <c r="AD209">
-        <v>10</v>
-      </c>
-      <c r="AE209">
-        <v>1.4</v>
-      </c>
-      <c r="AF209">
-        <v>3</v>
-      </c>
-      <c r="AG209">
-        <v>2.1</v>
-      </c>
-      <c r="AH209">
-        <v>1.65</v>
-      </c>
-      <c r="AI209">
-        <v>2.1</v>
-      </c>
-      <c r="AJ209">
-        <v>1.67</v>
-      </c>
-      <c r="AK209">
-        <v>1.18</v>
       </c>
       <c r="AL209">
         <v>1.22</v>
       </c>
       <c r="AM209">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="AN209">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO209">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AP209">
+        <v>2.11</v>
+      </c>
+      <c r="AQ209">
         <v>1.44</v>
       </c>
-      <c r="AQ209">
-        <v>0.78</v>
-      </c>
       <c r="AR209">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS209">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AT209">
-        <v>2.34</v>
+        <v>2.79</v>
       </c>
       <c r="AU209">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW209">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY209">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AZ209">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA209">
+        <v>3</v>
+      </c>
+      <c r="BB209">
         <v>9</v>
       </c>
-      <c r="BB209">
-        <v>1</v>
-      </c>
       <c r="BC209">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD209">
-        <v>1.54</v>
+        <v>2.65</v>
       </c>
       <c r="BE209">
         <v>6.75</v>
       </c>
       <c r="BF209">
-        <v>2.7</v>
+        <v>1.56</v>
       </c>
       <c r="BG209">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="BH209">
-        <v>3.9</v>
+        <v>5.21</v>
       </c>
       <c r="BI209">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ209">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BK209">
+        <v>1.52</v>
+      </c>
+      <c r="BL209">
+        <v>2.47</v>
+      </c>
+      <c r="BM209">
+        <v>1.85</v>
+      </c>
+      <c r="BN209">
+        <v>1.95</v>
+      </c>
+      <c r="BO209">
+        <v>2.32</v>
+      </c>
+      <c r="BP209">
         <v>1.6</v>
-      </c>
-      <c r="BL209">
-        <v>2.17</v>
-      </c>
-      <c r="BM209">
-        <v>1.95</v>
-      </c>
-      <c r="BN209">
-        <v>1.75</v>
-      </c>
-      <c r="BO209">
-        <v>2.4</v>
-      </c>
-      <c r="BP209">
-        <v>1.49</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44391,7 +44394,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7478957</v>
+        <v>7478958</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44403,58 +44406,58 @@
         <v>45626.5</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H210" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M210">
         <v>2</v>
       </c>
       <c r="N210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O210" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="P210" t="s">
         <v>314</v>
       </c>
       <c r="Q210">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R210">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="T210">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U210">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V210">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W210">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X210">
         <v>10</v>
@@ -44463,13 +44466,13 @@
         <v>1.06</v>
       </c>
       <c r="Z210">
-        <v>2.87</v>
+        <v>1.75</v>
       </c>
       <c r="AA210">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AB210">
-        <v>2.45</v>
+        <v>4.8</v>
       </c>
       <c r="AC210">
         <v>1.07</v>
@@ -44478,118 +44481,118 @@
         <v>10</v>
       </c>
       <c r="AE210">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF210">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG210">
         <v>2.1</v>
       </c>
       <c r="AH210">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AI210">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ210">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK210">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="AL210">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM210">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="AN210">
+        <v>1.5</v>
+      </c>
+      <c r="AO210">
+        <v>0.75</v>
+      </c>
+      <c r="AP210">
         <v>1.44</v>
       </c>
-      <c r="AO210">
-        <v>1.67</v>
-      </c>
-      <c r="AP210">
-        <v>1.3</v>
-      </c>
       <c r="AQ210">
-        <v>1.8</v>
+        <v>0.78</v>
       </c>
       <c r="AR210">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AS210">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT210">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="AU210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV210">
         <v>5</v>
       </c>
       <c r="AW210">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX210">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AY210">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ210">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BA210">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC210">
         <v>10</v>
       </c>
       <c r="BD210">
-        <v>2.17</v>
+        <v>1.54</v>
       </c>
       <c r="BE210">
         <v>6.75</v>
       </c>
       <c r="BF210">
-        <v>1.79</v>
+        <v>2.7</v>
       </c>
       <c r="BG210">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH210">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI210">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="BJ210">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BK210">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="BL210">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="BM210">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="BN210">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="BO210">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="BP210">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -45414,6 +45417,212 @@
       </c>
       <c r="BP214">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7478951</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F215">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>84</v>
+      </c>
+      <c r="H215" t="s">
+        <v>80</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>178</v>
+      </c>
+      <c r="P215" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q215">
+        <v>3.2</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>3.6</v>
+      </c>
+      <c r="T215">
+        <v>1.44</v>
+      </c>
+      <c r="U215">
+        <v>2.63</v>
+      </c>
+      <c r="V215">
+        <v>3.25</v>
+      </c>
+      <c r="W215">
+        <v>1.33</v>
+      </c>
+      <c r="X215">
+        <v>9</v>
+      </c>
+      <c r="Y215">
+        <v>1.07</v>
+      </c>
+      <c r="Z215">
+        <v>2.35</v>
+      </c>
+      <c r="AA215">
+        <v>3.14</v>
+      </c>
+      <c r="AB215">
+        <v>3.16</v>
+      </c>
+      <c r="AC215">
+        <v>1.06</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.38</v>
+      </c>
+      <c r="AF215">
+        <v>3.1</v>
+      </c>
+      <c r="AG215">
+        <v>2</v>
+      </c>
+      <c r="AH215">
+        <v>1.73</v>
+      </c>
+      <c r="AI215">
+        <v>1.83</v>
+      </c>
+      <c r="AJ215">
+        <v>1.83</v>
+      </c>
+      <c r="AK215">
+        <v>1.44</v>
+      </c>
+      <c r="AL215">
+        <v>1.26</v>
+      </c>
+      <c r="AM215">
+        <v>1.6</v>
+      </c>
+      <c r="AN215">
+        <v>1.75</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>1.56</v>
+      </c>
+      <c r="AQ215">
+        <v>1.44</v>
+      </c>
+      <c r="AR215">
+        <v>1.4</v>
+      </c>
+      <c r="AS215">
+        <v>1.09</v>
+      </c>
+      <c r="AT215">
+        <v>2.49</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>14</v>
+      </c>
+      <c r="AZ215">
+        <v>11</v>
+      </c>
+      <c r="BA215">
+        <v>7</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>12</v>
+      </c>
+      <c r="BD215">
+        <v>2.24</v>
+      </c>
+      <c r="BE215">
+        <v>7.7</v>
+      </c>
+      <c r="BF215">
+        <v>2.1</v>
+      </c>
+      <c r="BG215">
+        <v>1.11</v>
+      </c>
+      <c r="BH215">
+        <v>5.24</v>
+      </c>
+      <c r="BI215">
+        <v>1.28</v>
+      </c>
+      <c r="BJ215">
+        <v>3.42</v>
+      </c>
+      <c r="BK215">
+        <v>1.52</v>
+      </c>
+      <c r="BL215">
+        <v>2.48</v>
+      </c>
+      <c r="BM215">
+        <v>1.85</v>
+      </c>
+      <c r="BN215">
+        <v>1.95</v>
+      </c>
+      <c r="BO215">
+        <v>2.31</v>
+      </c>
+      <c r="BP215">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -955,10 +955,10 @@
     <t>['40', '90+1']</t>
   </si>
   <si>
-    <t>['52', '78']</t>
+    <t>['25', '45']</t>
   </si>
   <si>
-    <t>['25', '45']</t>
+    <t>['52', '78']</t>
   </si>
   <si>
     <t>['4', '48']</t>
@@ -43364,7 +43364,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>7478957</v>
+        <v>7478954</v>
       </c>
       <c r="C205" t="s">
         <v>68</v>
@@ -43373,196 +43373,196 @@
         <v>69</v>
       </c>
       <c r="E205" s="2">
-        <v>45625.875</v>
+        <v>45626.39583333334</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G205" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H205" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N205">
         <v>2</v>
       </c>
       <c r="O205" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="Q205">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S205">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T205">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V205">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>8</v>
+      </c>
+      <c r="Y205">
+        <v>1.08</v>
+      </c>
+      <c r="Z205">
+        <v>3.31</v>
+      </c>
+      <c r="AA205">
+        <v>5.4</v>
+      </c>
+      <c r="AB205">
+        <v>1.61</v>
+      </c>
+      <c r="AC205">
+        <v>1.05</v>
+      </c>
+      <c r="AD205">
+        <v>12</v>
+      </c>
+      <c r="AE205">
         <v>1.3</v>
       </c>
-      <c r="X205">
-        <v>10</v>
-      </c>
-      <c r="Y205">
-        <v>1.06</v>
-      </c>
-      <c r="Z205">
-        <v>2.87</v>
-      </c>
-      <c r="AA205">
-        <v>3.25</v>
-      </c>
-      <c r="AB205">
-        <v>2.45</v>
-      </c>
-      <c r="AC205">
+      <c r="AF205">
+        <v>3.6</v>
+      </c>
+      <c r="AG205">
+        <v>1.73</v>
+      </c>
+      <c r="AH205">
+        <v>1.95</v>
+      </c>
+      <c r="AI205">
+        <v>1.73</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>1.65</v>
+      </c>
+      <c r="AL205">
+        <v>1.26</v>
+      </c>
+      <c r="AM205">
+        <v>1.4</v>
+      </c>
+      <c r="AN205">
+        <v>1.67</v>
+      </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
+      <c r="AP205">
+        <v>1.6</v>
+      </c>
+      <c r="AQ205">
+        <v>1</v>
+      </c>
+      <c r="AR205">
         <v>1.07</v>
       </c>
-      <c r="AD205">
-        <v>10</v>
-      </c>
-      <c r="AE205">
+      <c r="AS205">
+        <v>1.21</v>
+      </c>
+      <c r="AT205">
+        <v>2.28</v>
+      </c>
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>2</v>
+      </c>
+      <c r="AX205">
+        <v>1</v>
+      </c>
+      <c r="AY205">
+        <v>9</v>
+      </c>
+      <c r="AZ205">
+        <v>12</v>
+      </c>
+      <c r="BA205">
+        <v>2</v>
+      </c>
+      <c r="BB205">
+        <v>11</v>
+      </c>
+      <c r="BC205">
+        <v>13</v>
+      </c>
+      <c r="BD205">
+        <v>2.43</v>
+      </c>
+      <c r="BE205">
+        <v>6.5</v>
+      </c>
+      <c r="BF205">
+        <v>1.68</v>
+      </c>
+      <c r="BG205">
+        <v>1.18</v>
+      </c>
+      <c r="BH205">
+        <v>4.24</v>
+      </c>
+      <c r="BI205">
         <v>1.38</v>
       </c>
-      <c r="AF205">
-        <v>3.1</v>
-      </c>
-      <c r="AG205">
-        <v>2.1</v>
-      </c>
-      <c r="AH205">
-        <v>1.63</v>
-      </c>
-      <c r="AI205">
-        <v>1.91</v>
-      </c>
-      <c r="AJ205">
-        <v>1.8</v>
-      </c>
-      <c r="AK205">
-        <v>1.7</v>
-      </c>
-      <c r="AL205">
-        <v>1.28</v>
-      </c>
-      <c r="AM205">
-        <v>1.33</v>
-      </c>
-      <c r="AN205">
-        <v>1.44</v>
-      </c>
-      <c r="AO205">
-        <v>1.67</v>
-      </c>
-      <c r="AP205">
-        <v>1.3</v>
-      </c>
-      <c r="AQ205">
-        <v>1.8</v>
-      </c>
-      <c r="AR205">
-        <v>1.26</v>
-      </c>
-      <c r="AS205">
-        <v>1.2</v>
-      </c>
-      <c r="AT205">
-        <v>2.46</v>
-      </c>
-      <c r="AU205">
-        <v>6</v>
-      </c>
-      <c r="AV205">
-        <v>5</v>
-      </c>
-      <c r="AW205">
-        <v>5</v>
-      </c>
-      <c r="AX205">
-        <v>11</v>
-      </c>
-      <c r="AY205">
-        <v>15</v>
-      </c>
-      <c r="AZ205">
-        <v>17</v>
-      </c>
-      <c r="BA205">
-        <v>6</v>
-      </c>
-      <c r="BB205">
-        <v>4</v>
-      </c>
-      <c r="BC205">
-        <v>10</v>
-      </c>
-      <c r="BD205">
+      <c r="BJ205">
+        <v>2.88</v>
+      </c>
+      <c r="BK205">
+        <v>1.68</v>
+      </c>
+      <c r="BL205">
         <v>2.17</v>
       </c>
-      <c r="BE205">
-        <v>6.75</v>
-      </c>
-      <c r="BF205">
-        <v>1.79</v>
-      </c>
-      <c r="BG205">
-        <v>1.15</v>
-      </c>
-      <c r="BH205">
-        <v>4.6</v>
-      </c>
-      <c r="BI205">
-        <v>1.27</v>
-      </c>
-      <c r="BJ205">
-        <v>3.3</v>
-      </c>
-      <c r="BK205">
-        <v>1.46</v>
-      </c>
-      <c r="BL205">
-        <v>2.5</v>
-      </c>
       <c r="BM205">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="BN205">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="BO205">
-        <v>2.08</v>
+        <v>2.67</v>
       </c>
       <c r="BP205">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="206" spans="1:68">
@@ -43570,7 +43570,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7478954</v>
+        <v>7478959</v>
       </c>
       <c r="C206" t="s">
         <v>68</v>
@@ -43585,43 +43585,43 @@
         <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H206" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O206" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="Q206">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R206">
         <v>2.2</v>
       </c>
       <c r="S206">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="T206">
         <v>1.4</v>
@@ -43630,10 +43630,10 @@
         <v>2.75</v>
       </c>
       <c r="V206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W206">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X206">
         <v>8</v>
@@ -43642,133 +43642,133 @@
         <v>1.08</v>
       </c>
       <c r="Z206">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="AA206">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="AB206">
-        <v>1.61</v>
+        <v>2.61</v>
       </c>
       <c r="AC206">
         <v>1.05</v>
       </c>
       <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.35</v>
+      </c>
+      <c r="AF206">
+        <v>3.25</v>
+      </c>
+      <c r="AG206">
+        <v>1.93</v>
+      </c>
+      <c r="AH206">
+        <v>1.77</v>
+      </c>
+      <c r="AI206">
+        <v>1.83</v>
+      </c>
+      <c r="AJ206">
+        <v>1.83</v>
+      </c>
+      <c r="AK206">
+        <v>1.22</v>
+      </c>
+      <c r="AL206">
+        <v>1.24</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
+        <v>2.75</v>
+      </c>
+      <c r="AO206">
+        <v>1.13</v>
+      </c>
+      <c r="AP206">
+        <v>2.56</v>
+      </c>
+      <c r="AQ206">
+        <v>1.11</v>
+      </c>
+      <c r="AR206">
+        <v>1.43</v>
+      </c>
+      <c r="AS206">
+        <v>0.84</v>
+      </c>
+      <c r="AT206">
+        <v>2.27</v>
+      </c>
+      <c r="AU206">
+        <v>7</v>
+      </c>
+      <c r="AV206">
+        <v>2</v>
+      </c>
+      <c r="AW206">
+        <v>5</v>
+      </c>
+      <c r="AX206">
+        <v>8</v>
+      </c>
+      <c r="AY206">
+        <v>18</v>
+      </c>
+      <c r="AZ206">
+        <v>17</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206">
+        <v>5</v>
+      </c>
+      <c r="BC206">
         <v>12</v>
       </c>
-      <c r="AE206">
-        <v>1.3</v>
-      </c>
-      <c r="AF206">
-        <v>3.6</v>
-      </c>
-      <c r="AG206">
-        <v>1.73</v>
-      </c>
-      <c r="AH206">
-        <v>1.95</v>
-      </c>
-      <c r="AI206">
-        <v>1.73</v>
-      </c>
-      <c r="AJ206">
-        <v>2</v>
-      </c>
-      <c r="AK206">
-        <v>1.65</v>
-      </c>
-      <c r="AL206">
-        <v>1.26</v>
-      </c>
-      <c r="AM206">
-        <v>1.4</v>
-      </c>
-      <c r="AN206">
-        <v>1.67</v>
-      </c>
-      <c r="AO206">
-        <v>1</v>
-      </c>
-      <c r="AP206">
-        <v>1.6</v>
-      </c>
-      <c r="AQ206">
-        <v>1</v>
-      </c>
-      <c r="AR206">
-        <v>1.07</v>
-      </c>
-      <c r="AS206">
-        <v>1.21</v>
-      </c>
-      <c r="AT206">
-        <v>2.28</v>
-      </c>
-      <c r="AU206">
-        <v>4</v>
-      </c>
-      <c r="AV206">
-        <v>4</v>
-      </c>
-      <c r="AW206">
-        <v>2</v>
-      </c>
-      <c r="AX206">
-        <v>1</v>
-      </c>
-      <c r="AY206">
-        <v>9</v>
-      </c>
-      <c r="AZ206">
-        <v>12</v>
-      </c>
-      <c r="BA206">
-        <v>2</v>
-      </c>
-      <c r="BB206">
-        <v>11</v>
-      </c>
-      <c r="BC206">
-        <v>13</v>
-      </c>
       <c r="BD206">
-        <v>2.43</v>
+        <v>1.57</v>
       </c>
       <c r="BE206">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF206">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
       <c r="BG206">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BH206">
-        <v>4.24</v>
+        <v>5.33</v>
       </c>
       <c r="BI206">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="BJ206">
-        <v>2.88</v>
+        <v>3.46</v>
       </c>
       <c r="BK206">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="BL206">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="BM206">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="BN206">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BO206">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="BP206">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -43776,7 +43776,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7478959</v>
+        <v>7478952</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43791,190 +43791,190 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H207" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O207" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="Q207">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="R207">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S207">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="T207">
+        <v>1.33</v>
+      </c>
+      <c r="U207">
+        <v>3.25</v>
+      </c>
+      <c r="V207">
+        <v>2.5</v>
+      </c>
+      <c r="W207">
+        <v>1.5</v>
+      </c>
+      <c r="X207">
+        <v>6.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.11</v>
+      </c>
+      <c r="Z207">
+        <v>1.47</v>
+      </c>
+      <c r="AA207">
+        <v>6.22</v>
+      </c>
+      <c r="AB207">
+        <v>3.71</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>10</v>
+      </c>
+      <c r="AE207">
+        <v>1.25</v>
+      </c>
+      <c r="AF207">
+        <v>3.95</v>
+      </c>
+      <c r="AG207">
+        <v>1.68</v>
+      </c>
+      <c r="AH207">
+        <v>2.05</v>
+      </c>
+      <c r="AI207">
+        <v>1.8</v>
+      </c>
+      <c r="AJ207">
+        <v>1.91</v>
+      </c>
+      <c r="AK207">
+        <v>1.12</v>
+      </c>
+      <c r="AL207">
+        <v>1.17</v>
+      </c>
+      <c r="AM207">
+        <v>2.45</v>
+      </c>
+      <c r="AN207">
+        <v>1.56</v>
+      </c>
+      <c r="AO207">
+        <v>1</v>
+      </c>
+      <c r="AP207">
+        <v>1.7</v>
+      </c>
+      <c r="AQ207">
+        <v>0.89</v>
+      </c>
+      <c r="AR207">
+        <v>1.61</v>
+      </c>
+      <c r="AS207">
         <v>1.4</v>
       </c>
-      <c r="U207">
-        <v>2.75</v>
-      </c>
-      <c r="V207">
-        <v>3</v>
-      </c>
-      <c r="W207">
-        <v>1.36</v>
-      </c>
-      <c r="X207">
-        <v>8</v>
-      </c>
-      <c r="Y207">
-        <v>1.08</v>
-      </c>
-      <c r="Z207">
-        <v>1.85</v>
-      </c>
-      <c r="AA207">
-        <v>5.39</v>
-      </c>
-      <c r="AB207">
-        <v>2.61</v>
-      </c>
-      <c r="AC207">
-        <v>1.05</v>
-      </c>
-      <c r="AD207">
-        <v>11</v>
-      </c>
-      <c r="AE207">
-        <v>1.35</v>
-      </c>
-      <c r="AF207">
-        <v>3.25</v>
-      </c>
-      <c r="AG207">
-        <v>1.93</v>
-      </c>
-      <c r="AH207">
-        <v>1.77</v>
-      </c>
-      <c r="AI207">
-        <v>1.83</v>
-      </c>
-      <c r="AJ207">
-        <v>1.83</v>
-      </c>
-      <c r="AK207">
-        <v>1.22</v>
-      </c>
-      <c r="AL207">
-        <v>1.24</v>
-      </c>
-      <c r="AM207">
-        <v>2</v>
-      </c>
-      <c r="AN207">
-        <v>2.75</v>
-      </c>
-      <c r="AO207">
-        <v>1.13</v>
-      </c>
-      <c r="AP207">
-        <v>2.56</v>
-      </c>
-      <c r="AQ207">
-        <v>1.11</v>
-      </c>
-      <c r="AR207">
-        <v>1.43</v>
-      </c>
-      <c r="AS207">
-        <v>0.84</v>
-      </c>
       <c r="AT207">
-        <v>2.27</v>
+        <v>3.01</v>
       </c>
       <c r="AU207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW207">
         <v>5</v>
       </c>
       <c r="AX207">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY207">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ207">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA207">
         <v>7</v>
       </c>
       <c r="BB207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC207">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD207">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BE207">
         <v>7</v>
       </c>
       <c r="BF207">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BG207">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="BH207">
-        <v>5.33</v>
+        <v>4.58</v>
       </c>
       <c r="BI207">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BJ207">
-        <v>3.46</v>
+        <v>3.06</v>
       </c>
       <c r="BK207">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="BL207">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="BM207">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BN207">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BO207">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="BP207">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -43982,7 +43982,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7478952</v>
+        <v>7478948</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -43991,94 +43991,94 @@
         <v>69</v>
       </c>
       <c r="E208" s="2">
-        <v>45626.39583333334</v>
+        <v>45626.4375</v>
       </c>
       <c r="F208">
         <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H208" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>123</v>
+      </c>
+      <c r="P208" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q208">
+        <v>4.75</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>2.38</v>
+      </c>
+      <c r="T208">
+        <v>1.36</v>
+      </c>
+      <c r="U208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>1</v>
-      </c>
-      <c r="N208">
-        <v>4</v>
-      </c>
-      <c r="O208" t="s">
-        <v>233</v>
-      </c>
-      <c r="P208" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q208">
-        <v>2.05</v>
-      </c>
-      <c r="R208">
-        <v>2.38</v>
-      </c>
-      <c r="S208">
-        <v>5.5</v>
-      </c>
-      <c r="T208">
-        <v>1.33</v>
-      </c>
-      <c r="U208">
-        <v>3.25</v>
-      </c>
       <c r="V208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X208">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y208">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z208">
-        <v>1.47</v>
+        <v>4.2</v>
       </c>
       <c r="AA208">
-        <v>6.22</v>
+        <v>3.9</v>
       </c>
       <c r="AB208">
-        <v>3.71</v>
+        <v>1.77</v>
       </c>
       <c r="AC208">
         <v>1.04</v>
       </c>
       <c r="AD208">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE208">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AF208">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AG208">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AH208">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AI208">
         <v>1.8</v>
@@ -44087,100 +44087,100 @@
         <v>1.91</v>
       </c>
       <c r="AK208">
+        <v>2.1</v>
+      </c>
+      <c r="AL208">
+        <v>1.22</v>
+      </c>
+      <c r="AM208">
+        <v>1.22</v>
+      </c>
+      <c r="AN208">
+        <v>2</v>
+      </c>
+      <c r="AO208">
+        <v>1.63</v>
+      </c>
+      <c r="AP208">
+        <v>2.11</v>
+      </c>
+      <c r="AQ208">
+        <v>1.44</v>
+      </c>
+      <c r="AR208">
+        <v>1.36</v>
+      </c>
+      <c r="AS208">
+        <v>1.43</v>
+      </c>
+      <c r="AT208">
+        <v>2.79</v>
+      </c>
+      <c r="AU208">
+        <v>3</v>
+      </c>
+      <c r="AV208">
+        <v>6</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>4</v>
+      </c>
+      <c r="AY208">
+        <v>12</v>
+      </c>
+      <c r="AZ208">
+        <v>14</v>
+      </c>
+      <c r="BA208">
+        <v>3</v>
+      </c>
+      <c r="BB208">
+        <v>9</v>
+      </c>
+      <c r="BC208">
+        <v>12</v>
+      </c>
+      <c r="BD208">
+        <v>2.65</v>
+      </c>
+      <c r="BE208">
+        <v>6.75</v>
+      </c>
+      <c r="BF208">
+        <v>1.56</v>
+      </c>
+      <c r="BG208">
         <v>1.12</v>
       </c>
-      <c r="AL208">
-        <v>1.17</v>
-      </c>
-      <c r="AM208">
-        <v>2.45</v>
-      </c>
-      <c r="AN208">
-        <v>1.56</v>
-      </c>
-      <c r="AO208">
-        <v>1</v>
-      </c>
-      <c r="AP208">
-        <v>1.7</v>
-      </c>
-      <c r="AQ208">
-        <v>0.89</v>
-      </c>
-      <c r="AR208">
-        <v>1.61</v>
-      </c>
-      <c r="AS208">
-        <v>1.4</v>
-      </c>
-      <c r="AT208">
-        <v>3.01</v>
-      </c>
-      <c r="AU208">
-        <v>10</v>
-      </c>
-      <c r="AV208">
-        <v>4</v>
-      </c>
-      <c r="AW208">
-        <v>5</v>
-      </c>
-      <c r="AX208">
-        <v>3</v>
-      </c>
-      <c r="AY208">
-        <v>23</v>
-      </c>
-      <c r="AZ208">
-        <v>11</v>
-      </c>
-      <c r="BA208">
-        <v>7</v>
-      </c>
-      <c r="BB208">
-        <v>6</v>
-      </c>
-      <c r="BC208">
-        <v>13</v>
-      </c>
-      <c r="BD208">
-        <v>1.5</v>
-      </c>
-      <c r="BE208">
-        <v>7</v>
-      </c>
-      <c r="BF208">
-        <v>2.8</v>
-      </c>
-      <c r="BG208">
-        <v>1.15</v>
-      </c>
       <c r="BH208">
-        <v>4.58</v>
+        <v>5.21</v>
       </c>
       <c r="BI208">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BJ208">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="BK208">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="BL208">
-        <v>2.28</v>
+        <v>2.47</v>
       </c>
       <c r="BM208">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BN208">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BO208">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="BP208">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44188,7 +44188,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7478948</v>
+        <v>7478958</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44197,196 +44197,196 @@
         <v>69</v>
       </c>
       <c r="E209" s="2">
-        <v>45626.4375</v>
+        <v>45626.5</v>
       </c>
       <c r="F209">
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H209" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O209" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="Q209">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="R209">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="T209">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U209">
+        <v>2.63</v>
+      </c>
+      <c r="V209">
+        <v>3.25</v>
+      </c>
+      <c r="W209">
+        <v>1.33</v>
+      </c>
+      <c r="X209">
+        <v>10</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>1.75</v>
+      </c>
+      <c r="AA209">
+        <v>3.6</v>
+      </c>
+      <c r="AB209">
+        <v>4.8</v>
+      </c>
+      <c r="AC209">
+        <v>1.07</v>
+      </c>
+      <c r="AD209">
+        <v>10</v>
+      </c>
+      <c r="AE209">
+        <v>1.4</v>
+      </c>
+      <c r="AF209">
         <v>3</v>
       </c>
-      <c r="V209">
-        <v>2.75</v>
-      </c>
-      <c r="W209">
-        <v>1.4</v>
-      </c>
-      <c r="X209">
-        <v>7</v>
-      </c>
-      <c r="Y209">
-        <v>1.1</v>
-      </c>
-      <c r="Z209">
-        <v>4.2</v>
-      </c>
-      <c r="AA209">
-        <v>3.9</v>
-      </c>
-      <c r="AB209">
-        <v>1.77</v>
-      </c>
-      <c r="AC209">
-        <v>1.04</v>
-      </c>
-      <c r="AD209">
-        <v>13</v>
-      </c>
-      <c r="AE209">
-        <v>1.26</v>
-      </c>
-      <c r="AF209">
-        <v>4</v>
-      </c>
       <c r="AG209">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH209">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AI209">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AJ209">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AK209">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="AL209">
         <v>1.22</v>
       </c>
       <c r="AM209">
-        <v>1.22</v>
+        <v>2.15</v>
       </c>
       <c r="AN209">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO209">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AP209">
-        <v>2.11</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>1.44</v>
+        <v>0.78</v>
       </c>
       <c r="AR209">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS209">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AT209">
-        <v>2.79</v>
+        <v>2.34</v>
       </c>
       <c r="AU209">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW209">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY209">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AZ209">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BA209">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB209">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BC209">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD209">
-        <v>2.65</v>
+        <v>1.54</v>
       </c>
       <c r="BE209">
         <v>6.75</v>
       </c>
       <c r="BF209">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="BG209">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="BH209">
-        <v>5.21</v>
+        <v>3.9</v>
       </c>
       <c r="BI209">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ209">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BK209">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BL209">
-        <v>2.47</v>
+        <v>2.17</v>
       </c>
       <c r="BM209">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BN209">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BO209">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BP209">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44394,7 +44394,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7478958</v>
+        <v>7478957</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44409,55 +44409,55 @@
         <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H210" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M210">
         <v>2</v>
       </c>
       <c r="N210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O210" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="P210" t="s">
         <v>314</v>
       </c>
       <c r="Q210">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="T210">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U210">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V210">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W210">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X210">
         <v>10</v>
@@ -44466,13 +44466,13 @@
         <v>1.06</v>
       </c>
       <c r="Z210">
-        <v>1.75</v>
+        <v>2.87</v>
       </c>
       <c r="AA210">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB210">
-        <v>4.8</v>
+        <v>2.45</v>
       </c>
       <c r="AC210">
         <v>1.07</v>
@@ -44481,118 +44481,118 @@
         <v>10</v>
       </c>
       <c r="AE210">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF210">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG210">
         <v>2.1</v>
       </c>
       <c r="AH210">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AI210">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.7</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.33</v>
+      </c>
+      <c r="AN210">
+        <v>1.44</v>
+      </c>
+      <c r="AO210">
         <v>1.67</v>
       </c>
-      <c r="AK210">
-        <v>1.18</v>
-      </c>
-      <c r="AL210">
-        <v>1.22</v>
-      </c>
-      <c r="AM210">
-        <v>2.15</v>
-      </c>
-      <c r="AN210">
-        <v>1.5</v>
-      </c>
-      <c r="AO210">
-        <v>0.75</v>
-      </c>
       <c r="AP210">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ210">
-        <v>0.78</v>
+        <v>1.8</v>
       </c>
       <c r="AR210">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AS210">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT210">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="AU210">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV210">
         <v>5</v>
       </c>
       <c r="AW210">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX210">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY210">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AZ210">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BA210">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC210">
         <v>10</v>
       </c>
       <c r="BD210">
-        <v>1.54</v>
+        <v>2.17</v>
       </c>
       <c r="BE210">
         <v>6.75</v>
       </c>
       <c r="BF210">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="BG210">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH210">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI210">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="BJ210">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BK210">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="BL210">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="BM210">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="BN210">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BO210">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="BP210">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="211" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['45+2', '53']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1329,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1591,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1794,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2000,7 +2003,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2412,7 +2415,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2824,7 +2827,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3030,7 +3033,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3236,7 +3239,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3854,7 +3857,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4060,7 +4063,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4553,7 +4556,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4884,7 +4887,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5502,7 +5505,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5708,7 +5711,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5992,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23">
         <v>0.5600000000000001</v>
@@ -6532,7 +6535,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7150,7 +7153,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7356,7 +7359,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8386,7 +8389,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8592,7 +8595,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8798,7 +8801,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9004,7 +9007,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9288,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>1.13</v>
@@ -9416,7 +9419,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9497,7 +9500,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9622,7 +9625,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10034,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11476,7 +11479,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12712,7 +12715,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12918,7 +12921,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13536,7 +13539,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13742,7 +13745,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13948,7 +13951,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14235,7 +14238,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14772,7 +14775,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15390,7 +15393,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15468,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>0.78</v>
@@ -15802,7 +15805,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16420,7 +16423,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16832,7 +16835,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17038,7 +17041,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17450,7 +17453,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17862,7 +17865,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18686,7 +18689,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18970,7 +18973,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
         <v>0.2</v>
@@ -19510,7 +19513,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20128,7 +20131,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20415,7 +20418,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -21364,7 +21367,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22060,7 +22063,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22188,7 +22191,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22394,7 +22397,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23093,7 +23096,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -24866,7 +24869,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25072,7 +25075,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25484,7 +25487,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26514,7 +26517,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26720,7 +26723,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26926,7 +26929,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -28162,7 +28165,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28780,7 +28783,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29192,7 +29195,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -30016,7 +30019,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30222,7 +30225,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30506,7 +30509,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -31046,7 +31049,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31127,7 +31130,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31252,7 +31255,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31458,7 +31461,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31664,7 +31667,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31870,7 +31873,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32076,7 +32079,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32282,7 +32285,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32488,7 +32491,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32900,7 +32903,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33724,7 +33727,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34136,7 +34139,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34217,7 +34220,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ160">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR160">
         <v>1.74</v>
@@ -34960,7 +34963,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35372,7 +35375,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36402,7 +36405,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36608,7 +36611,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37020,7 +37023,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37638,7 +37641,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38256,7 +38259,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38540,7 +38543,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
         <v>1.11</v>
@@ -38668,7 +38671,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39080,7 +39083,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39492,7 +39495,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -40110,7 +40113,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40191,7 +40194,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ189">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR189">
         <v>1.01</v>
@@ -40728,7 +40731,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41012,7 +41015,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ193">
         <v>0.78</v>
@@ -41140,7 +41143,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42582,7 +42585,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43612,7 +43615,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44436,7 +44439,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44848,7 +44851,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45054,7 +45057,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45260,7 +45263,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45466,7 +45469,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45623,6 +45626,212 @@
       </c>
       <c r="BP215">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7478960</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="F216">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s">
+        <v>91</v>
+      </c>
+      <c r="H216" t="s">
+        <v>79</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>238</v>
+      </c>
+      <c r="P216" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q216">
+        <v>3</v>
+      </c>
+      <c r="R216">
+        <v>2.05</v>
+      </c>
+      <c r="S216">
+        <v>3.75</v>
+      </c>
+      <c r="T216">
+        <v>1.44</v>
+      </c>
+      <c r="U216">
+        <v>2.63</v>
+      </c>
+      <c r="V216">
+        <v>3.25</v>
+      </c>
+      <c r="W216">
+        <v>1.33</v>
+      </c>
+      <c r="X216">
+        <v>9</v>
+      </c>
+      <c r="Y216">
+        <v>1.07</v>
+      </c>
+      <c r="Z216">
+        <v>2.71</v>
+      </c>
+      <c r="AA216">
+        <v>3.15</v>
+      </c>
+      <c r="AB216">
+        <v>2.71</v>
+      </c>
+      <c r="AC216">
+        <v>1.06</v>
+      </c>
+      <c r="AD216">
+        <v>8.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.35</v>
+      </c>
+      <c r="AF216">
+        <v>3.1</v>
+      </c>
+      <c r="AG216">
+        <v>2.4</v>
+      </c>
+      <c r="AH216">
+        <v>1.57</v>
+      </c>
+      <c r="AI216">
+        <v>1.83</v>
+      </c>
+      <c r="AJ216">
+        <v>1.83</v>
+      </c>
+      <c r="AK216">
+        <v>1.38</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.6</v>
+      </c>
+      <c r="AN216">
+        <v>2.25</v>
+      </c>
+      <c r="AO216">
+        <v>1.63</v>
+      </c>
+      <c r="AP216">
+        <v>2.11</v>
+      </c>
+      <c r="AQ216">
+        <v>1.56</v>
+      </c>
+      <c r="AR216">
+        <v>1.41</v>
+      </c>
+      <c r="AS216">
+        <v>1.67</v>
+      </c>
+      <c r="AT216">
+        <v>3.08</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>6</v>
+      </c>
+      <c r="AW216">
+        <v>3</v>
+      </c>
+      <c r="AX216">
+        <v>2</v>
+      </c>
+      <c r="AY216">
+        <v>16</v>
+      </c>
+      <c r="AZ216">
+        <v>11</v>
+      </c>
+      <c r="BA216">
+        <v>11</v>
+      </c>
+      <c r="BB216">
+        <v>3</v>
+      </c>
+      <c r="BC216">
+        <v>14</v>
+      </c>
+      <c r="BD216">
+        <v>1.88</v>
+      </c>
+      <c r="BE216">
+        <v>7.55</v>
+      </c>
+      <c r="BF216">
+        <v>2.59</v>
+      </c>
+      <c r="BG216">
+        <v>1.21</v>
+      </c>
+      <c r="BH216">
+        <v>3.97</v>
+      </c>
+      <c r="BI216">
+        <v>1.43</v>
+      </c>
+      <c r="BJ216">
+        <v>2.74</v>
+      </c>
+      <c r="BK216">
+        <v>1.74</v>
+      </c>
+      <c r="BL216">
+        <v>2.09</v>
+      </c>
+      <c r="BM216">
+        <v>2.17</v>
+      </c>
+      <c r="BN216">
+        <v>1.69</v>
+      </c>
+      <c r="BO216">
+        <v>2.82</v>
+      </c>
+      <c r="BP216">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,24 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['39', '44']</t>
+  </si>
+  <si>
+    <t>['7', '86']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['20', '62', '71']</t>
+  </si>
+  <si>
+    <t>['22', '45+4', '49']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -770,9 +788,6 @@
   </si>
   <si>
     <t>['24', '48']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['2', '25']</t>
@@ -971,6 +986,15 @@
   </si>
   <si>
     <t>['64', '90+4']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1615,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1672,7 +1696,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1797,7 +1821,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2003,7 +2027,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2081,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ4">
         <v>1.7</v>
@@ -2290,7 +2314,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2415,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2493,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2702,7 +2726,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ7">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,7 +2851,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2905,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0.78</v>
@@ -3033,7 +3057,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3111,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3239,7 +3263,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3526,7 +3550,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3729,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3857,7 +3881,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3935,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -4063,7 +4087,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4759,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
         <v>0.44</v>
@@ -4887,7 +4911,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5174,7 +5198,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5380,7 +5404,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5505,7 +5529,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5711,7 +5735,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5792,7 +5816,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6407,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6535,7 +6559,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6613,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ26">
         <v>1.44</v>
@@ -6819,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7025,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -7153,7 +7177,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7234,7 +7258,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7359,7 +7383,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7646,7 +7670,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7849,7 +7873,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -8389,7 +8413,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8595,7 +8619,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8801,7 +8825,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9007,7 +9031,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9085,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.11</v>
@@ -9294,7 +9318,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9419,7 +9443,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9625,7 +9649,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9706,7 +9730,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9912,7 +9936,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -10037,7 +10061,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10115,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10324,7 +10348,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10527,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10733,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>0.89</v>
@@ -10942,7 +10966,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -11148,7 +11172,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11479,7 +11503,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11557,7 +11581,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ50">
         <v>1.67</v>
@@ -11763,7 +11787,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.8</v>
@@ -11969,7 +11993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12178,7 +12202,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12590,7 +12614,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ55">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12715,7 +12739,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12921,7 +12945,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12999,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -13208,7 +13232,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13414,7 +13438,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13539,7 +13563,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13620,7 +13644,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13745,7 +13769,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13823,7 +13847,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>1.7</v>
@@ -13951,7 +13975,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14235,7 +14259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14647,7 +14671,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14775,7 +14799,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15393,7 +15417,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15677,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.44</v>
@@ -15805,7 +15829,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15886,7 +15910,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ71">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -16092,7 +16116,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16298,7 +16322,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16423,7 +16447,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16835,7 +16859,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16916,7 +16940,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -17041,7 +17065,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17119,7 +17143,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
         <v>1.7</v>
@@ -17453,7 +17477,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17740,7 +17764,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17865,7 +17889,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17943,10 +17967,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18149,7 +18173,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ82">
         <v>0.5600000000000001</v>
@@ -18355,7 +18379,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
         <v>1.67</v>
@@ -18561,10 +18585,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18689,7 +18713,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18770,7 +18794,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -19388,7 +19412,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19513,7 +19537,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19591,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>0.25</v>
@@ -19797,10 +19821,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20131,7 +20155,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20209,7 +20233,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ92">
         <v>0.89</v>
@@ -20624,7 +20648,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21367,7 +21391,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21445,7 +21469,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
         <v>1.44</v>
@@ -21651,7 +21675,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
         <v>0.25</v>
@@ -22066,7 +22090,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22191,7 +22215,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22397,7 +22421,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22478,7 +22502,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22890,7 +22914,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR105">
         <v>1.25</v>
@@ -23917,7 +23941,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -24329,7 +24353,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.78</v>
@@ -24538,7 +24562,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24869,7 +24893,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24947,7 +24971,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ115">
         <v>1.8</v>
@@ -25075,7 +25099,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25153,7 +25177,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ116">
         <v>0.78</v>
@@ -25362,7 +25386,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25487,7 +25511,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25568,7 +25592,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -25774,7 +25798,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ119">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25977,10 +26001,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26183,7 +26207,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ121">
         <v>1.5</v>
@@ -26389,10 +26413,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26517,7 +26541,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26598,7 +26622,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26723,7 +26747,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26804,7 +26828,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -26929,7 +26953,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27007,7 +27031,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ125">
         <v>0.78</v>
@@ -27422,7 +27446,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ127">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27625,10 +27649,10 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ128">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -27831,7 +27855,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -28165,7 +28189,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28243,7 +28267,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28449,7 +28473,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ132">
         <v>0.2</v>
@@ -28783,7 +28807,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28861,7 +28885,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ134">
         <v>1.44</v>
@@ -29195,7 +29219,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29482,7 +29506,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29685,7 +29709,7 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138">
         <v>0.25</v>
@@ -30019,7 +30043,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30225,7 +30249,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30306,7 +30330,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30924,7 +30948,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR144">
         <v>1.59</v>
@@ -31049,7 +31073,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31255,7 +31279,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31333,7 +31357,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>1.7</v>
@@ -31461,7 +31485,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31542,7 +31566,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31667,7 +31691,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31748,7 +31772,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ148">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31873,7 +31897,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32079,7 +32103,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32157,7 +32181,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ150">
         <v>0.78</v>
@@ -32285,7 +32309,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32366,7 +32390,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.84</v>
@@ -32491,7 +32515,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32572,7 +32596,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR152">
         <v>1.21</v>
@@ -32775,7 +32799,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -32903,7 +32927,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -32981,7 +33005,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -33190,7 +33214,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR155">
         <v>1.54</v>
@@ -33393,7 +33417,7 @@
         <v>0.17</v>
       </c>
       <c r="AP156">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ156">
         <v>0.2</v>
@@ -33599,7 +33623,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ157">
         <v>1.8</v>
@@ -33727,7 +33751,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34139,7 +34163,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34217,7 +34241,7 @@
         <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ160">
         <v>1.56</v>
@@ -34423,10 +34447,10 @@
         <v>1.14</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR161">
         <v>1.46</v>
@@ -34963,7 +34987,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35044,7 +35068,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR164">
         <v>1.94</v>
@@ -35247,7 +35271,7 @@
         <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ165">
         <v>1.44</v>
@@ -35375,7 +35399,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35456,7 +35480,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
         <v>1.23</v>
@@ -35659,7 +35683,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
         <v>0.5600000000000001</v>
@@ -36405,7 +36429,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36486,7 +36510,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.5</v>
@@ -36611,7 +36635,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37023,7 +37047,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37101,10 +37125,10 @@
         <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ174">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.34</v>
@@ -37307,10 +37331,10 @@
         <v>0.5</v>
       </c>
       <c r="AP175">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ175">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR175">
         <v>1.24</v>
@@ -37513,7 +37537,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ176">
         <v>1.11</v>
@@ -37641,7 +37665,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37928,7 +37952,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ178">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR178">
         <v>1.46</v>
@@ -38259,7 +38283,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38337,7 +38361,7 @@
         <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ180">
         <v>1.7</v>
@@ -38546,7 +38570,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38671,7 +38695,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39083,7 +39107,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39367,7 +39391,7 @@
         <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ185">
         <v>0.5600000000000001</v>
@@ -39495,7 +39519,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39576,7 +39600,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR186">
         <v>1.32</v>
@@ -39779,7 +39803,7 @@
         <v>1.14</v>
       </c>
       <c r="AP187">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>0.89</v>
@@ -39985,7 +40009,7 @@
         <v>1.75</v>
       </c>
       <c r="AP188">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ188">
         <v>1.5</v>
@@ -40113,7 +40137,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40400,7 +40424,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR190">
         <v>1.2</v>
@@ -40603,10 +40627,10 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR191">
         <v>1.68</v>
@@ -40731,7 +40755,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41018,7 +41042,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ193">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.46</v>
@@ -41143,7 +41167,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41221,7 +41245,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ194">
         <v>1.44</v>
@@ -41842,7 +41866,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ197">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR197">
         <v>1.32</v>
@@ -42048,7 +42072,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR198">
         <v>1.53</v>
@@ -42251,7 +42275,7 @@
         <v>1.88</v>
       </c>
       <c r="AP199">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ199">
         <v>1.7</v>
@@ -42457,7 +42481,7 @@
         <v>0.57</v>
       </c>
       <c r="AP200">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ200">
         <v>0.44</v>
@@ -42585,7 +42609,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42872,7 +42896,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ202">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43078,7 +43102,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ203">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR203">
         <v>1.33</v>
@@ -43615,7 +43639,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44439,7 +44463,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44851,7 +44875,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45057,7 +45081,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45263,7 +45287,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45469,7 +45493,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45642,7 +45666,7 @@
         <v>69</v>
       </c>
       <c r="E216" s="2">
-        <v>45632.70833333334</v>
+        <v>45631.875</v>
       </c>
       <c r="F216">
         <v>19</v>
@@ -45832,6 +45856,1654 @@
       </c>
       <c r="BP216">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7478969</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>80</v>
+      </c>
+      <c r="H217" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>239</v>
+      </c>
+      <c r="P217" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q217">
+        <v>2.6</v>
+      </c>
+      <c r="R217">
+        <v>2.05</v>
+      </c>
+      <c r="S217">
+        <v>4.75</v>
+      </c>
+      <c r="T217">
+        <v>1.44</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3.25</v>
+      </c>
+      <c r="W217">
+        <v>1.33</v>
+      </c>
+      <c r="X217">
+        <v>10</v>
+      </c>
+      <c r="Y217">
+        <v>1.06</v>
+      </c>
+      <c r="Z217">
+        <v>1.85</v>
+      </c>
+      <c r="AA217">
+        <v>3.4</v>
+      </c>
+      <c r="AB217">
+        <v>4.2</v>
+      </c>
+      <c r="AC217">
+        <v>1.07</v>
+      </c>
+      <c r="AD217">
+        <v>8</v>
+      </c>
+      <c r="AE217">
+        <v>1.38</v>
+      </c>
+      <c r="AF217">
+        <v>3</v>
+      </c>
+      <c r="AG217">
+        <v>2.15</v>
+      </c>
+      <c r="AH217">
+        <v>1.62</v>
+      </c>
+      <c r="AI217">
+        <v>1.91</v>
+      </c>
+      <c r="AJ217">
+        <v>1.8</v>
+      </c>
+      <c r="AK217">
+        <v>1.22</v>
+      </c>
+      <c r="AL217">
+        <v>1.25</v>
+      </c>
+      <c r="AM217">
+        <v>1.85</v>
+      </c>
+      <c r="AN217">
+        <v>1.33</v>
+      </c>
+      <c r="AO217">
+        <v>0.5</v>
+      </c>
+      <c r="AP217">
+        <v>1.3</v>
+      </c>
+      <c r="AQ217">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR217">
+        <v>1.44</v>
+      </c>
+      <c r="AS217">
+        <v>1.01</v>
+      </c>
+      <c r="AT217">
+        <v>2.45</v>
+      </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
+      <c r="AV217">
+        <v>8</v>
+      </c>
+      <c r="AW217">
+        <v>6</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>14</v>
+      </c>
+      <c r="AZ217">
+        <v>15</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>3</v>
+      </c>
+      <c r="BC217">
+        <v>9</v>
+      </c>
+      <c r="BD217">
+        <v>1.53</v>
+      </c>
+      <c r="BE217">
+        <v>6.75</v>
+      </c>
+      <c r="BF217">
+        <v>2.8</v>
+      </c>
+      <c r="BG217">
+        <v>1.22</v>
+      </c>
+      <c r="BH217">
+        <v>3.88</v>
+      </c>
+      <c r="BI217">
+        <v>1.44</v>
+      </c>
+      <c r="BJ217">
+        <v>2.69</v>
+      </c>
+      <c r="BK217">
+        <v>1.76</v>
+      </c>
+      <c r="BL217">
+        <v>2.06</v>
+      </c>
+      <c r="BM217">
+        <v>2.2</v>
+      </c>
+      <c r="BN217">
+        <v>1.67</v>
+      </c>
+      <c r="BO217">
+        <v>2.87</v>
+      </c>
+      <c r="BP217">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7478963</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F218">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>84</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>240</v>
+      </c>
+      <c r="P218" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q218">
+        <v>1.83</v>
+      </c>
+      <c r="R218">
+        <v>2.38</v>
+      </c>
+      <c r="S218">
+        <v>8.5</v>
+      </c>
+      <c r="T218">
+        <v>1.36</v>
+      </c>
+      <c r="U218">
+        <v>3</v>
+      </c>
+      <c r="V218">
+        <v>2.75</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>7</v>
+      </c>
+      <c r="Y218">
+        <v>1.1</v>
+      </c>
+      <c r="Z218">
+        <v>1.33</v>
+      </c>
+      <c r="AA218">
+        <v>4.6</v>
+      </c>
+      <c r="AB218">
+        <v>8.5</v>
+      </c>
+      <c r="AC218">
+        <v>1.04</v>
+      </c>
+      <c r="AD218">
+        <v>10</v>
+      </c>
+      <c r="AE218">
+        <v>1.28</v>
+      </c>
+      <c r="AF218">
+        <v>3.65</v>
+      </c>
+      <c r="AG218">
+        <v>1.85</v>
+      </c>
+      <c r="AH218">
+        <v>1.85</v>
+      </c>
+      <c r="AI218">
+        <v>2.25</v>
+      </c>
+      <c r="AJ218">
+        <v>1.57</v>
+      </c>
+      <c r="AK218">
+        <v>1.06</v>
+      </c>
+      <c r="AL218">
+        <v>1.13</v>
+      </c>
+      <c r="AM218">
+        <v>3.1</v>
+      </c>
+      <c r="AN218">
+        <v>2.44</v>
+      </c>
+      <c r="AO218">
+        <v>0.67</v>
+      </c>
+      <c r="AP218">
+        <v>2.5</v>
+      </c>
+      <c r="AQ218">
+        <v>0.6</v>
+      </c>
+      <c r="AR218">
+        <v>1.92</v>
+      </c>
+      <c r="AS218">
+        <v>1.01</v>
+      </c>
+      <c r="AT218">
+        <v>2.93</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>2</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>1</v>
+      </c>
+      <c r="AY218">
+        <v>19</v>
+      </c>
+      <c r="AZ218">
+        <v>4</v>
+      </c>
+      <c r="BA218">
+        <v>10</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>12</v>
+      </c>
+      <c r="BD218">
+        <v>1.24</v>
+      </c>
+      <c r="BE218">
+        <v>8.5</v>
+      </c>
+      <c r="BF218">
+        <v>4.35</v>
+      </c>
+      <c r="BG218">
+        <v>1.13</v>
+      </c>
+      <c r="BH218">
+        <v>4.88</v>
+      </c>
+      <c r="BI218">
+        <v>1.31</v>
+      </c>
+      <c r="BJ218">
+        <v>3.22</v>
+      </c>
+      <c r="BK218">
+        <v>1.57</v>
+      </c>
+      <c r="BL218">
+        <v>2.37</v>
+      </c>
+      <c r="BM218">
+        <v>1.92</v>
+      </c>
+      <c r="BN218">
+        <v>1.88</v>
+      </c>
+      <c r="BO218">
+        <v>2.42</v>
+      </c>
+      <c r="BP218">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7478970</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>93</v>
+      </c>
+      <c r="H219" t="s">
+        <v>75</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>241</v>
+      </c>
+      <c r="P219" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q219">
+        <v>2.38</v>
+      </c>
+      <c r="R219">
+        <v>2.2</v>
+      </c>
+      <c r="S219">
+        <v>5</v>
+      </c>
+      <c r="T219">
+        <v>1.4</v>
+      </c>
+      <c r="U219">
+        <v>2.75</v>
+      </c>
+      <c r="V219">
+        <v>3</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>8</v>
+      </c>
+      <c r="Y219">
+        <v>1.08</v>
+      </c>
+      <c r="Z219">
+        <v>1.8</v>
+      </c>
+      <c r="AA219">
+        <v>3.4</v>
+      </c>
+      <c r="AB219">
+        <v>4.6</v>
+      </c>
+      <c r="AC219">
+        <v>1.06</v>
+      </c>
+      <c r="AD219">
+        <v>8.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.33</v>
+      </c>
+      <c r="AF219">
+        <v>3.3</v>
+      </c>
+      <c r="AG219">
+        <v>1.81</v>
+      </c>
+      <c r="AH219">
+        <v>1.89</v>
+      </c>
+      <c r="AI219">
+        <v>1.83</v>
+      </c>
+      <c r="AJ219">
+        <v>1.83</v>
+      </c>
+      <c r="AK219">
+        <v>1.18</v>
+      </c>
+      <c r="AL219">
+        <v>1.22</v>
+      </c>
+      <c r="AM219">
+        <v>2</v>
+      </c>
+      <c r="AN219">
+        <v>2.25</v>
+      </c>
+      <c r="AO219">
+        <v>1</v>
+      </c>
+      <c r="AP219">
+        <v>2.33</v>
+      </c>
+      <c r="AQ219">
+        <v>0.89</v>
+      </c>
+      <c r="AR219">
+        <v>1.4</v>
+      </c>
+      <c r="AS219">
+        <v>1.09</v>
+      </c>
+      <c r="AT219">
+        <v>2.49</v>
+      </c>
+      <c r="AU219">
+        <v>11</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>7</v>
+      </c>
+      <c r="AX219">
+        <v>4</v>
+      </c>
+      <c r="AY219">
+        <v>25</v>
+      </c>
+      <c r="AZ219">
+        <v>11</v>
+      </c>
+      <c r="BA219">
+        <v>9</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>13</v>
+      </c>
+      <c r="BD219">
+        <v>1.68</v>
+      </c>
+      <c r="BE219">
+        <v>6.75</v>
+      </c>
+      <c r="BF219">
+        <v>2.4</v>
+      </c>
+      <c r="BG219">
+        <v>1.17</v>
+      </c>
+      <c r="BH219">
+        <v>4.39</v>
+      </c>
+      <c r="BI219">
+        <v>1.36</v>
+      </c>
+      <c r="BJ219">
+        <v>2.97</v>
+      </c>
+      <c r="BK219">
+        <v>1.65</v>
+      </c>
+      <c r="BL219">
+        <v>2.22</v>
+      </c>
+      <c r="BM219">
+        <v>2.04</v>
+      </c>
+      <c r="BN219">
+        <v>1.78</v>
+      </c>
+      <c r="BO219">
+        <v>2.6</v>
+      </c>
+      <c r="BP219">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7478964</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s">
+        <v>81</v>
+      </c>
+      <c r="H220" t="s">
+        <v>88</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>242</v>
+      </c>
+      <c r="P220" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q220">
+        <v>2.88</v>
+      </c>
+      <c r="R220">
+        <v>2.1</v>
+      </c>
+      <c r="S220">
+        <v>3.75</v>
+      </c>
+      <c r="T220">
+        <v>1.4</v>
+      </c>
+      <c r="U220">
+        <v>2.75</v>
+      </c>
+      <c r="V220">
+        <v>3</v>
+      </c>
+      <c r="W220">
+        <v>1.36</v>
+      </c>
+      <c r="X220">
+        <v>9</v>
+      </c>
+      <c r="Y220">
+        <v>1.07</v>
+      </c>
+      <c r="Z220">
+        <v>2.15</v>
+      </c>
+      <c r="AA220">
+        <v>3.3</v>
+      </c>
+      <c r="AB220">
+        <v>3.3</v>
+      </c>
+      <c r="AC220">
+        <v>1.06</v>
+      </c>
+      <c r="AD220">
+        <v>8.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.33</v>
+      </c>
+      <c r="AF220">
+        <v>3.25</v>
+      </c>
+      <c r="AG220">
+        <v>1.97</v>
+      </c>
+      <c r="AH220">
+        <v>1.78</v>
+      </c>
+      <c r="AI220">
+        <v>1.8</v>
+      </c>
+      <c r="AJ220">
+        <v>1.91</v>
+      </c>
+      <c r="AK220">
+        <v>1.33</v>
+      </c>
+      <c r="AL220">
+        <v>1.28</v>
+      </c>
+      <c r="AM220">
+        <v>1.65</v>
+      </c>
+      <c r="AN220">
+        <v>1.56</v>
+      </c>
+      <c r="AO220">
+        <v>1.11</v>
+      </c>
+      <c r="AP220">
+        <v>1.5</v>
+      </c>
+      <c r="AQ220">
+        <v>1.1</v>
+      </c>
+      <c r="AR220">
+        <v>1.39</v>
+      </c>
+      <c r="AS220">
+        <v>0.98</v>
+      </c>
+      <c r="AT220">
+        <v>2.37</v>
+      </c>
+      <c r="AU220">
+        <v>3</v>
+      </c>
+      <c r="AV220">
+        <v>11</v>
+      </c>
+      <c r="AW220">
+        <v>3</v>
+      </c>
+      <c r="AX220">
+        <v>5</v>
+      </c>
+      <c r="AY220">
+        <v>9</v>
+      </c>
+      <c r="AZ220">
+        <v>21</v>
+      </c>
+      <c r="BA220">
+        <v>5</v>
+      </c>
+      <c r="BB220">
+        <v>8</v>
+      </c>
+      <c r="BC220">
+        <v>13</v>
+      </c>
+      <c r="BD220">
+        <v>1.34</v>
+      </c>
+      <c r="BE220">
+        <v>7.5</v>
+      </c>
+      <c r="BF220">
+        <v>3.45</v>
+      </c>
+      <c r="BG220">
+        <v>1.11</v>
+      </c>
+      <c r="BH220">
+        <v>5.33</v>
+      </c>
+      <c r="BI220">
+        <v>1.27</v>
+      </c>
+      <c r="BJ220">
+        <v>3.46</v>
+      </c>
+      <c r="BK220">
+        <v>1.51</v>
+      </c>
+      <c r="BL220">
+        <v>2.5</v>
+      </c>
+      <c r="BM220">
+        <v>1.82</v>
+      </c>
+      <c r="BN220">
+        <v>1.98</v>
+      </c>
+      <c r="BO220">
+        <v>2.29</v>
+      </c>
+      <c r="BP220">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7478965</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F221">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" t="s">
+        <v>82</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>95</v>
+      </c>
+      <c r="P221" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q221">
+        <v>3.25</v>
+      </c>
+      <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>3.75</v>
+      </c>
+      <c r="T221">
+        <v>1.53</v>
+      </c>
+      <c r="U221">
+        <v>2.38</v>
+      </c>
+      <c r="V221">
+        <v>3.5</v>
+      </c>
+      <c r="W221">
+        <v>1.29</v>
+      </c>
+      <c r="X221">
+        <v>11</v>
+      </c>
+      <c r="Y221">
+        <v>1.05</v>
+      </c>
+      <c r="Z221">
+        <v>2.4</v>
+      </c>
+      <c r="AA221">
+        <v>3.3</v>
+      </c>
+      <c r="AB221">
+        <v>2.8</v>
+      </c>
+      <c r="AC221">
+        <v>1.09</v>
+      </c>
+      <c r="AD221">
+        <v>7</v>
+      </c>
+      <c r="AE221">
+        <v>1.44</v>
+      </c>
+      <c r="AF221">
+        <v>2.7</v>
+      </c>
+      <c r="AG221">
+        <v>2.36</v>
+      </c>
+      <c r="AH221">
+        <v>1.55</v>
+      </c>
+      <c r="AI221">
+        <v>2</v>
+      </c>
+      <c r="AJ221">
+        <v>1.73</v>
+      </c>
+      <c r="AK221">
+        <v>1.38</v>
+      </c>
+      <c r="AL221">
+        <v>1.3</v>
+      </c>
+      <c r="AM221">
+        <v>1.5</v>
+      </c>
+      <c r="AN221">
+        <v>1.89</v>
+      </c>
+      <c r="AO221">
+        <v>0.78</v>
+      </c>
+      <c r="AP221">
+        <v>1.7</v>
+      </c>
+      <c r="AQ221">
+        <v>1</v>
+      </c>
+      <c r="AR221">
+        <v>1.38</v>
+      </c>
+      <c r="AS221">
+        <v>1.02</v>
+      </c>
+      <c r="AT221">
+        <v>2.4</v>
+      </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>6</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>11</v>
+      </c>
+      <c r="AZ221">
+        <v>16</v>
+      </c>
+      <c r="BA221">
+        <v>7</v>
+      </c>
+      <c r="BB221">
+        <v>8</v>
+      </c>
+      <c r="BC221">
+        <v>15</v>
+      </c>
+      <c r="BD221">
+        <v>2.02</v>
+      </c>
+      <c r="BE221">
+        <v>6.75</v>
+      </c>
+      <c r="BF221">
+        <v>1.94</v>
+      </c>
+      <c r="BG221">
+        <v>1.1</v>
+      </c>
+      <c r="BH221">
+        <v>5.65</v>
+      </c>
+      <c r="BI221">
+        <v>1.25</v>
+      </c>
+      <c r="BJ221">
+        <v>3.63</v>
+      </c>
+      <c r="BK221">
+        <v>1.47</v>
+      </c>
+      <c r="BL221">
+        <v>2.6</v>
+      </c>
+      <c r="BM221">
+        <v>1.79</v>
+      </c>
+      <c r="BN221">
+        <v>2.02</v>
+      </c>
+      <c r="BO221">
+        <v>2.21</v>
+      </c>
+      <c r="BP221">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7478967</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F222">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
+        <v>85</v>
+      </c>
+      <c r="H222" t="s">
+        <v>89</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>243</v>
+      </c>
+      <c r="P222" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q222">
+        <v>3.75</v>
+      </c>
+      <c r="R222">
+        <v>2.1</v>
+      </c>
+      <c r="S222">
+        <v>2.88</v>
+      </c>
+      <c r="T222">
+        <v>1.4</v>
+      </c>
+      <c r="U222">
+        <v>2.75</v>
+      </c>
+      <c r="V222">
+        <v>3</v>
+      </c>
+      <c r="W222">
+        <v>1.36</v>
+      </c>
+      <c r="X222">
+        <v>8</v>
+      </c>
+      <c r="Y222">
+        <v>1.08</v>
+      </c>
+      <c r="Z222">
+        <v>2.7</v>
+      </c>
+      <c r="AA222">
+        <v>3.3</v>
+      </c>
+      <c r="AB222">
+        <v>2.55</v>
+      </c>
+      <c r="AC222">
+        <v>1.06</v>
+      </c>
+      <c r="AD222">
+        <v>8.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.3</v>
+      </c>
+      <c r="AF222">
+        <v>3.4</v>
+      </c>
+      <c r="AG222">
+        <v>1.85</v>
+      </c>
+      <c r="AH222">
+        <v>1.89</v>
+      </c>
+      <c r="AI222">
+        <v>1.73</v>
+      </c>
+      <c r="AJ222">
+        <v>2</v>
+      </c>
+      <c r="AK222">
+        <v>1.6</v>
+      </c>
+      <c r="AL222">
+        <v>1.25</v>
+      </c>
+      <c r="AM222">
+        <v>1.36</v>
+      </c>
+      <c r="AN222">
+        <v>0.86</v>
+      </c>
+      <c r="AO222">
+        <v>1.33</v>
+      </c>
+      <c r="AP222">
+        <v>1.13</v>
+      </c>
+      <c r="AQ222">
+        <v>1.2</v>
+      </c>
+      <c r="AR222">
+        <v>1.32</v>
+      </c>
+      <c r="AS222">
+        <v>1.35</v>
+      </c>
+      <c r="AT222">
+        <v>2.67</v>
+      </c>
+      <c r="AU222">
+        <v>9</v>
+      </c>
+      <c r="AV222">
+        <v>3</v>
+      </c>
+      <c r="AW222">
+        <v>2</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>14</v>
+      </c>
+      <c r="AZ222">
+        <v>12</v>
+      </c>
+      <c r="BA222">
+        <v>6</v>
+      </c>
+      <c r="BB222">
+        <v>7</v>
+      </c>
+      <c r="BC222">
+        <v>13</v>
+      </c>
+      <c r="BD222">
+        <v>2.48</v>
+      </c>
+      <c r="BE222">
+        <v>6.75</v>
+      </c>
+      <c r="BF222">
+        <v>1.65</v>
+      </c>
+      <c r="BG222">
+        <v>1.13</v>
+      </c>
+      <c r="BH222">
+        <v>4.99</v>
+      </c>
+      <c r="BI222">
+        <v>1.3</v>
+      </c>
+      <c r="BJ222">
+        <v>3.28</v>
+      </c>
+      <c r="BK222">
+        <v>1.55</v>
+      </c>
+      <c r="BL222">
+        <v>2.4</v>
+      </c>
+      <c r="BM222">
+        <v>1.9</v>
+      </c>
+      <c r="BN222">
+        <v>1.9</v>
+      </c>
+      <c r="BO222">
+        <v>2.38</v>
+      </c>
+      <c r="BP222">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7478968</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>90</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>244</v>
+      </c>
+      <c r="P223" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q223">
+        <v>3.5</v>
+      </c>
+      <c r="R223">
+        <v>2.2</v>
+      </c>
+      <c r="S223">
+        <v>3</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>2.75</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>8</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>2.63</v>
+      </c>
+      <c r="AA223">
+        <v>3.3</v>
+      </c>
+      <c r="AB223">
+        <v>2.63</v>
+      </c>
+      <c r="AC223">
+        <v>1.06</v>
+      </c>
+      <c r="AD223">
+        <v>8.5</v>
+      </c>
+      <c r="AE223">
+        <v>1.3</v>
+      </c>
+      <c r="AF223">
+        <v>3.45</v>
+      </c>
+      <c r="AG223">
+        <v>1.85</v>
+      </c>
+      <c r="AH223">
+        <v>1.89</v>
+      </c>
+      <c r="AI223">
+        <v>1.67</v>
+      </c>
+      <c r="AJ223">
+        <v>2.1</v>
+      </c>
+      <c r="AK223">
+        <v>1.57</v>
+      </c>
+      <c r="AL223">
+        <v>1.28</v>
+      </c>
+      <c r="AM223">
+        <v>1.38</v>
+      </c>
+      <c r="AN223">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO223">
+        <v>1</v>
+      </c>
+      <c r="AP223">
+        <v>0.8</v>
+      </c>
+      <c r="AQ223">
+        <v>0.9</v>
+      </c>
+      <c r="AR223">
+        <v>1.71</v>
+      </c>
+      <c r="AS223">
+        <v>1.04</v>
+      </c>
+      <c r="AT223">
+        <v>2.75</v>
+      </c>
+      <c r="AU223">
+        <v>6</v>
+      </c>
+      <c r="AV223">
+        <v>2</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>10</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>2</v>
+      </c>
+      <c r="BB223">
+        <v>9</v>
+      </c>
+      <c r="BC223">
+        <v>11</v>
+      </c>
+      <c r="BD223">
+        <v>1.73</v>
+      </c>
+      <c r="BE223">
+        <v>6.75</v>
+      </c>
+      <c r="BF223">
+        <v>2.32</v>
+      </c>
+      <c r="BG223">
+        <v>1.13</v>
+      </c>
+      <c r="BH223">
+        <v>4.99</v>
+      </c>
+      <c r="BI223">
+        <v>1.3</v>
+      </c>
+      <c r="BJ223">
+        <v>3.28</v>
+      </c>
+      <c r="BK223">
+        <v>1.55</v>
+      </c>
+      <c r="BL223">
+        <v>2.4</v>
+      </c>
+      <c r="BM223">
+        <v>1.9</v>
+      </c>
+      <c r="BN223">
+        <v>1.9</v>
+      </c>
+      <c r="BO223">
+        <v>2.38</v>
+      </c>
+      <c r="BP223">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7478962</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F224">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>77</v>
+      </c>
+      <c r="H224" t="s">
+        <v>70</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>95</v>
+      </c>
+      <c r="P224" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q224">
+        <v>3.25</v>
+      </c>
+      <c r="R224">
+        <v>2.1</v>
+      </c>
+      <c r="S224">
+        <v>3.25</v>
+      </c>
+      <c r="T224">
+        <v>1.4</v>
+      </c>
+      <c r="U224">
+        <v>2.75</v>
+      </c>
+      <c r="V224">
+        <v>3</v>
+      </c>
+      <c r="W224">
+        <v>1.36</v>
+      </c>
+      <c r="X224">
+        <v>8</v>
+      </c>
+      <c r="Y224">
+        <v>1.08</v>
+      </c>
+      <c r="Z224">
+        <v>2.45</v>
+      </c>
+      <c r="AA224">
+        <v>3.3</v>
+      </c>
+      <c r="AB224">
+        <v>2.88</v>
+      </c>
+      <c r="AC224">
+        <v>1.05</v>
+      </c>
+      <c r="AD224">
+        <v>11</v>
+      </c>
+      <c r="AE224">
+        <v>1.32</v>
+      </c>
+      <c r="AF224">
+        <v>3.4</v>
+      </c>
+      <c r="AG224">
+        <v>1.9</v>
+      </c>
+      <c r="AH224">
+        <v>1.84</v>
+      </c>
+      <c r="AI224">
+        <v>1.73</v>
+      </c>
+      <c r="AJ224">
+        <v>2</v>
+      </c>
+      <c r="AK224">
+        <v>1.5</v>
+      </c>
+      <c r="AL224">
+        <v>1.28</v>
+      </c>
+      <c r="AM224">
+        <v>1.52</v>
+      </c>
+      <c r="AN224">
+        <v>0.78</v>
+      </c>
+      <c r="AO224">
+        <v>1.13</v>
+      </c>
+      <c r="AP224">
+        <v>0.7</v>
+      </c>
+      <c r="AQ224">
+        <v>1.33</v>
+      </c>
+      <c r="AR224">
+        <v>1.32</v>
+      </c>
+      <c r="AS224">
+        <v>1.03</v>
+      </c>
+      <c r="AT224">
+        <v>2.35</v>
+      </c>
+      <c r="AU224">
+        <v>7</v>
+      </c>
+      <c r="AV224">
+        <v>2</v>
+      </c>
+      <c r="AW224">
+        <v>4</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>15</v>
+      </c>
+      <c r="AZ224">
+        <v>6</v>
+      </c>
+      <c r="BA224">
+        <v>9</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>11</v>
+      </c>
+      <c r="BD224">
+        <v>1.49</v>
+      </c>
+      <c r="BE224">
+        <v>7</v>
+      </c>
+      <c r="BF224">
+        <v>2.9</v>
+      </c>
+      <c r="BG224">
+        <v>1.14</v>
+      </c>
+      <c r="BH224">
+        <v>4.78</v>
+      </c>
+      <c r="BI224">
+        <v>1.32</v>
+      </c>
+      <c r="BJ224">
+        <v>3.17</v>
+      </c>
+      <c r="BK224">
+        <v>1.59</v>
+      </c>
+      <c r="BL224">
+        <v>2.34</v>
+      </c>
+      <c r="BM224">
+        <v>1.95</v>
+      </c>
+      <c r="BN224">
+        <v>1.85</v>
+      </c>
+      <c r="BO224">
+        <v>2.45</v>
+      </c>
+      <c r="BP224">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,13 +742,16 @@
     <t>['7', '86']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['20', '62', '71']</t>
   </si>
   <si>
     <t>['22', '45+4', '49']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['24', '62']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -991,10 +994,13 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
-    <t>['20']</t>
+    <t>['35', '37']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1821,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1902,7 +1908,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2027,7 +2033,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2439,7 +2445,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2851,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3057,7 +3063,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3263,7 +3269,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3881,7 +3887,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4087,7 +4093,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4371,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4911,7 +4917,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5529,7 +5535,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5735,7 +5741,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6559,7 +6565,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7383,7 +7389,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8413,7 +8419,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8619,7 +8625,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8700,7 +8706,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8825,7 +8831,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9031,7 +9037,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9443,7 +9449,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9649,7 +9655,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9933,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1.1</v>
@@ -10061,7 +10067,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11503,7 +11509,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11584,7 +11590,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -12739,7 +12745,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12945,7 +12951,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13563,7 +13569,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13769,7 +13775,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13975,7 +13981,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14799,7 +14805,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15083,7 +15089,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>0.2</v>
@@ -15417,7 +15423,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15829,7 +15835,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16447,7 +16453,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16859,7 +16865,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17065,7 +17071,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17477,7 +17483,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17889,7 +17895,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18382,7 +18388,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -19537,7 +19543,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20155,7 +20161,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20439,7 +20445,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>1.56</v>
@@ -21391,7 +21397,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22215,7 +22221,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22421,7 +22427,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23323,7 +23329,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23944,7 +23950,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24893,7 +24899,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25099,7 +25105,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25511,7 +25517,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26541,7 +26547,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26747,7 +26753,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26953,7 +26959,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -28189,7 +28195,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28682,7 +28688,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ133">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28807,7 +28813,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29219,7 +29225,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29915,7 +29921,7 @@
         <v>0.4</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>0.5600000000000001</v>
@@ -30043,7 +30049,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30249,7 +30255,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -31073,7 +31079,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31279,7 +31285,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31485,7 +31491,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31691,7 +31697,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31897,7 +31903,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31978,7 +31984,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ149">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32103,7 +32109,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32309,7 +32315,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32515,7 +32521,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32927,7 +32933,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33751,7 +33757,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33832,7 +33838,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34163,7 +34169,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34987,7 +34993,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35399,7 +35405,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36095,7 +36101,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ169">
         <v>1.8</v>
@@ -36429,7 +36435,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36635,7 +36641,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37047,7 +37053,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37665,7 +37671,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38283,7 +38289,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38695,7 +38701,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39107,7 +39113,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39188,7 +39194,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ184">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -39519,7 +39525,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39597,7 +39603,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ186">
         <v>0.9</v>
@@ -40137,7 +40143,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40755,7 +40761,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41167,7 +41173,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42609,7 +42615,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43639,7 +43645,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44463,7 +44469,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44875,7 +44881,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45081,7 +45087,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45287,7 +45293,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45493,7 +45499,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45666,7 +45672,7 @@
         <v>69</v>
       </c>
       <c r="E216" s="2">
-        <v>45631.875</v>
+        <v>45632.70833333334</v>
       </c>
       <c r="F216">
         <v>19</v>
@@ -46317,7 +46323,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46416,16 +46422,16 @@
         <v>4</v>
       </c>
       <c r="AW219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY219">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ219">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA219">
         <v>9</v>
@@ -46481,7 +46487,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7478964</v>
+        <v>7478965</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46496,190 +46502,190 @@
         <v>19</v>
       </c>
       <c r="G220" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H220" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
       <c r="K220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
         <v>1</v>
       </c>
       <c r="N220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O220" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="Q220">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
         <v>3.75</v>
       </c>
       <c r="T220">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U220">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="V220">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W220">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X220">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y220">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z220">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AA220">
         <v>3.3</v>
       </c>
       <c r="AB220">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AC220">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD220">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE220">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AF220">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AG220">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="AH220">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AI220">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ220">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AK220">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AL220">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM220">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AN220">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AO220">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ220">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR220">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AS220">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AT220">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV220">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AW220">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX220">
         <v>5</v>
       </c>
       <c r="AY220">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ220">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA220">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB220">
         <v>8</v>
       </c>
       <c r="BC220">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD220">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="BE220">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF220">
-        <v>3.45</v>
+        <v>1.94</v>
       </c>
       <c r="BG220">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BH220">
-        <v>5.33</v>
+        <v>5.65</v>
       </c>
       <c r="BI220">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BJ220">
-        <v>3.46</v>
+        <v>3.63</v>
       </c>
       <c r="BK220">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="BL220">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BM220">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="BN220">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BO220">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="BP220">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -46687,7 +46693,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7478965</v>
+        <v>7478967</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46702,190 +46708,190 @@
         <v>19</v>
       </c>
       <c r="G221" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
       <c r="K221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O221" t="s">
+        <v>242</v>
+      </c>
+      <c r="P221" t="s">
         <v>95</v>
       </c>
-      <c r="P221" t="s">
-        <v>187</v>
-      </c>
       <c r="Q221">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R221">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S221">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T221">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U221">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V221">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W221">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="X221">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y221">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z221">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AA221">
         <v>3.3</v>
       </c>
       <c r="AB221">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AC221">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AD221">
+        <v>8.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.3</v>
+      </c>
+      <c r="AF221">
+        <v>3.4</v>
+      </c>
+      <c r="AG221">
+        <v>1.85</v>
+      </c>
+      <c r="AH221">
+        <v>1.89</v>
+      </c>
+      <c r="AI221">
+        <v>1.73</v>
+      </c>
+      <c r="AJ221">
+        <v>2</v>
+      </c>
+      <c r="AK221">
+        <v>1.6</v>
+      </c>
+      <c r="AL221">
+        <v>1.25</v>
+      </c>
+      <c r="AM221">
+        <v>1.36</v>
+      </c>
+      <c r="AN221">
+        <v>0.86</v>
+      </c>
+      <c r="AO221">
+        <v>1.33</v>
+      </c>
+      <c r="AP221">
+        <v>1.13</v>
+      </c>
+      <c r="AQ221">
+        <v>1.2</v>
+      </c>
+      <c r="AR221">
+        <v>1.32</v>
+      </c>
+      <c r="AS221">
+        <v>1.35</v>
+      </c>
+      <c r="AT221">
+        <v>2.67</v>
+      </c>
+      <c r="AU221">
+        <v>9</v>
+      </c>
+      <c r="AV221">
+        <v>3</v>
+      </c>
+      <c r="AW221">
+        <v>2</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>14</v>
+      </c>
+      <c r="AZ221">
+        <v>12</v>
+      </c>
+      <c r="BA221">
+        <v>6</v>
+      </c>
+      <c r="BB221">
         <v>7</v>
       </c>
-      <c r="AE221">
-        <v>1.44</v>
-      </c>
-      <c r="AF221">
-        <v>2.7</v>
-      </c>
-      <c r="AG221">
-        <v>2.36</v>
-      </c>
-      <c r="AH221">
-        <v>1.55</v>
-      </c>
-      <c r="AI221">
-        <v>2</v>
-      </c>
-      <c r="AJ221">
-        <v>1.73</v>
-      </c>
-      <c r="AK221">
-        <v>1.38</v>
-      </c>
-      <c r="AL221">
-        <v>1.3</v>
-      </c>
-      <c r="AM221">
-        <v>1.5</v>
-      </c>
-      <c r="AN221">
-        <v>1.89</v>
-      </c>
-      <c r="AO221">
-        <v>0.78</v>
-      </c>
-      <c r="AP221">
-        <v>1.7</v>
-      </c>
-      <c r="AQ221">
-        <v>1</v>
-      </c>
-      <c r="AR221">
-        <v>1.38</v>
-      </c>
-      <c r="AS221">
-        <v>1.02</v>
-      </c>
-      <c r="AT221">
-        <v>2.4</v>
-      </c>
-      <c r="AU221">
-        <v>0</v>
-      </c>
-      <c r="AV221">
-        <v>4</v>
-      </c>
-      <c r="AW221">
-        <v>6</v>
-      </c>
-      <c r="AX221">
-        <v>5</v>
-      </c>
-      <c r="AY221">
-        <v>11</v>
-      </c>
-      <c r="AZ221">
-        <v>16</v>
-      </c>
-      <c r="BA221">
-        <v>7</v>
-      </c>
-      <c r="BB221">
-        <v>8</v>
-      </c>
       <c r="BC221">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD221">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="BE221">
         <v>6.75</v>
       </c>
       <c r="BF221">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="BG221">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="BH221">
-        <v>5.65</v>
+        <v>4.99</v>
       </c>
       <c r="BI221">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BJ221">
-        <v>3.63</v>
+        <v>3.28</v>
       </c>
       <c r="BK221">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BL221">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BM221">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="BN221">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BO221">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="BP221">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="222" spans="1:68">
@@ -46893,7 +46899,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7478967</v>
+        <v>7478968</v>
       </c>
       <c r="C222" t="s">
         <v>68</v>
@@ -46908,19 +46914,19 @@
         <v>19</v>
       </c>
       <c r="G222" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H222" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222">
         <v>0</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L222">
         <v>3</v>
@@ -46938,13 +46944,13 @@
         <v>95</v>
       </c>
       <c r="Q222">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R222">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S222">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T222">
         <v>1.4</v>
@@ -46953,10 +46959,10 @@
         <v>2.75</v>
       </c>
       <c r="V222">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W222">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X222">
         <v>8</v>
@@ -46965,13 +46971,13 @@
         <v>1.08</v>
       </c>
       <c r="Z222">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AA222">
         <v>3.3</v>
       </c>
       <c r="AB222">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AC222">
         <v>1.06</v>
@@ -46983,7 +46989,7 @@
         <v>1.3</v>
       </c>
       <c r="AF222">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AG222">
         <v>1.85</v>
@@ -46992,76 +46998,76 @@
         <v>1.89</v>
       </c>
       <c r="AI222">
+        <v>1.67</v>
+      </c>
+      <c r="AJ222">
+        <v>2.1</v>
+      </c>
+      <c r="AK222">
+        <v>1.57</v>
+      </c>
+      <c r="AL222">
+        <v>1.28</v>
+      </c>
+      <c r="AM222">
+        <v>1.38</v>
+      </c>
+      <c r="AN222">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO222">
+        <v>1</v>
+      </c>
+      <c r="AP222">
+        <v>0.8</v>
+      </c>
+      <c r="AQ222">
+        <v>0.9</v>
+      </c>
+      <c r="AR222">
+        <v>1.71</v>
+      </c>
+      <c r="AS222">
+        <v>1.04</v>
+      </c>
+      <c r="AT222">
+        <v>2.75</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>2</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>1</v>
+      </c>
+      <c r="AY222">
+        <v>10</v>
+      </c>
+      <c r="AZ222">
+        <v>6</v>
+      </c>
+      <c r="BA222">
+        <v>2</v>
+      </c>
+      <c r="BB222">
+        <v>9</v>
+      </c>
+      <c r="BC222">
+        <v>11</v>
+      </c>
+      <c r="BD222">
         <v>1.73</v>
-      </c>
-      <c r="AJ222">
-        <v>2</v>
-      </c>
-      <c r="AK222">
-        <v>1.6</v>
-      </c>
-      <c r="AL222">
-        <v>1.25</v>
-      </c>
-      <c r="AM222">
-        <v>1.36</v>
-      </c>
-      <c r="AN222">
-        <v>0.86</v>
-      </c>
-      <c r="AO222">
-        <v>1.33</v>
-      </c>
-      <c r="AP222">
-        <v>1.13</v>
-      </c>
-      <c r="AQ222">
-        <v>1.2</v>
-      </c>
-      <c r="AR222">
-        <v>1.32</v>
-      </c>
-      <c r="AS222">
-        <v>1.35</v>
-      </c>
-      <c r="AT222">
-        <v>2.67</v>
-      </c>
-      <c r="AU222">
-        <v>9</v>
-      </c>
-      <c r="AV222">
-        <v>3</v>
-      </c>
-      <c r="AW222">
-        <v>2</v>
-      </c>
-      <c r="AX222">
-        <v>4</v>
-      </c>
-      <c r="AY222">
-        <v>14</v>
-      </c>
-      <c r="AZ222">
-        <v>12</v>
-      </c>
-      <c r="BA222">
-        <v>6</v>
-      </c>
-      <c r="BB222">
-        <v>7</v>
-      </c>
-      <c r="BC222">
-        <v>13</v>
-      </c>
-      <c r="BD222">
-        <v>2.48</v>
       </c>
       <c r="BE222">
         <v>6.75</v>
       </c>
       <c r="BF222">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="BG222">
         <v>1.13</v>
@@ -47099,7 +47105,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7478968</v>
+        <v>7478962</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47111,46 +47117,46 @@
         <v>45633.5</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G223" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H223" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="Q223">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R223">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S223">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T223">
         <v>1.4</v>
@@ -47159,10 +47165,10 @@
         <v>2.75</v>
       </c>
       <c r="V223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W223">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X223">
         <v>8</v>
@@ -47171,70 +47177,70 @@
         <v>1.08</v>
       </c>
       <c r="Z223">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="AA223">
         <v>3.3</v>
       </c>
       <c r="AB223">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AC223">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD223">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE223">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AF223">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AG223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH223">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AI223">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ223">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK223">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AL223">
         <v>1.28</v>
       </c>
       <c r="AM223">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AN223">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AO223">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP223">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AQ223">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="AR223">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="AS223">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AT223">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="AU223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV223">
         <v>2</v>
@@ -47243,61 +47249,61 @@
         <v>4</v>
       </c>
       <c r="AX223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY223">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ223">
         <v>6</v>
       </c>
       <c r="BA223">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB223">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC223">
         <v>11</v>
       </c>
       <c r="BD223">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="BE223">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF223">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="BG223">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH223">
-        <v>4.99</v>
+        <v>4.78</v>
       </c>
       <c r="BI223">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BJ223">
-        <v>3.28</v>
+        <v>3.17</v>
       </c>
       <c r="BK223">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BL223">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="BM223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BO223">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BP223">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="224" spans="1:68">
@@ -47305,7 +47311,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>7478962</v>
+        <v>7478964</v>
       </c>
       <c r="C224" t="s">
         <v>68</v>
@@ -47314,49 +47320,49 @@
         <v>69</v>
       </c>
       <c r="E224" s="2">
-        <v>45633.5</v>
+        <v>45633.51041666666</v>
       </c>
       <c r="F224">
         <v>19</v>
       </c>
       <c r="G224" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H224" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224">
         <v>1</v>
       </c>
       <c r="L224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224">
         <v>1</v>
       </c>
       <c r="N224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O224" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q224">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R224">
         <v>2.1</v>
       </c>
       <c r="S224">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T224">
         <v>1.4</v>
@@ -47371,139 +47377,345 @@
         <v>1.36</v>
       </c>
       <c r="X224">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y224">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z224">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="AA224">
         <v>3.3</v>
       </c>
       <c r="AB224">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="AC224">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD224">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE224">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AF224">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AG224">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AH224">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AI224">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ224">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK224">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AL224">
         <v>1.28</v>
       </c>
       <c r="AM224">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AN224">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="AO224">
+        <v>1.11</v>
+      </c>
+      <c r="AP224">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224">
+        <v>1.1</v>
+      </c>
+      <c r="AR224">
+        <v>1.39</v>
+      </c>
+      <c r="AS224">
+        <v>0.98</v>
+      </c>
+      <c r="AT224">
+        <v>2.37</v>
+      </c>
+      <c r="AU224">
+        <v>3</v>
+      </c>
+      <c r="AV224">
+        <v>11</v>
+      </c>
+      <c r="AW224">
+        <v>3</v>
+      </c>
+      <c r="AX224">
+        <v>5</v>
+      </c>
+      <c r="AY224">
+        <v>9</v>
+      </c>
+      <c r="AZ224">
+        <v>21</v>
+      </c>
+      <c r="BA224">
+        <v>5</v>
+      </c>
+      <c r="BB224">
+        <v>8</v>
+      </c>
+      <c r="BC224">
+        <v>13</v>
+      </c>
+      <c r="BD224">
+        <v>1.34</v>
+      </c>
+      <c r="BE224">
+        <v>7.5</v>
+      </c>
+      <c r="BF224">
+        <v>3.45</v>
+      </c>
+      <c r="BG224">
+        <v>1.11</v>
+      </c>
+      <c r="BH224">
+        <v>5.33</v>
+      </c>
+      <c r="BI224">
+        <v>1.27</v>
+      </c>
+      <c r="BJ224">
+        <v>3.46</v>
+      </c>
+      <c r="BK224">
+        <v>1.51</v>
+      </c>
+      <c r="BL224">
+        <v>2.5</v>
+      </c>
+      <c r="BM224">
+        <v>1.82</v>
+      </c>
+      <c r="BN224">
+        <v>1.98</v>
+      </c>
+      <c r="BO224">
+        <v>2.29</v>
+      </c>
+      <c r="BP224">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7478971</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45634.5</v>
+      </c>
+      <c r="F225">
+        <v>19</v>
+      </c>
+      <c r="G225" t="s">
+        <v>83</v>
+      </c>
+      <c r="H225" t="s">
+        <v>86</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>245</v>
+      </c>
+      <c r="P225" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q225">
+        <v>3.2</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>3.6</v>
+      </c>
+      <c r="T225">
+        <v>1.5</v>
+      </c>
+      <c r="U225">
+        <v>2.5</v>
+      </c>
+      <c r="V225">
+        <v>3.4</v>
+      </c>
+      <c r="W225">
+        <v>1.3</v>
+      </c>
+      <c r="X225">
+        <v>10</v>
+      </c>
+      <c r="Y225">
+        <v>1.06</v>
+      </c>
+      <c r="Z225">
+        <v>2.45</v>
+      </c>
+      <c r="AA225">
+        <v>3.4</v>
+      </c>
+      <c r="AB225">
+        <v>2.75</v>
+      </c>
+      <c r="AC225">
+        <v>1.01</v>
+      </c>
+      <c r="AD225">
+        <v>8.1</v>
+      </c>
+      <c r="AE225">
+        <v>1.33</v>
+      </c>
+      <c r="AF225">
+        <v>2.77</v>
+      </c>
+      <c r="AG225">
+        <v>2.2</v>
+      </c>
+      <c r="AH225">
+        <v>1.67</v>
+      </c>
+      <c r="AI225">
+        <v>1.91</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.41</v>
+      </c>
+      <c r="AL225">
+        <v>1.34</v>
+      </c>
+      <c r="AM225">
+        <v>1.55</v>
+      </c>
+      <c r="AN225">
+        <v>1.38</v>
+      </c>
+      <c r="AO225">
+        <v>1.67</v>
+      </c>
+      <c r="AP225">
+        <v>1.33</v>
+      </c>
+      <c r="AQ225">
+        <v>1.6</v>
+      </c>
+      <c r="AR225">
+        <v>1.38</v>
+      </c>
+      <c r="AS225">
+        <v>1.3</v>
+      </c>
+      <c r="AT225">
+        <v>2.68</v>
+      </c>
+      <c r="AU225">
+        <v>5</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>5</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>12</v>
+      </c>
+      <c r="AZ225">
+        <v>13</v>
+      </c>
+      <c r="BA225">
+        <v>6</v>
+      </c>
+      <c r="BB225">
+        <v>5</v>
+      </c>
+      <c r="BC225">
+        <v>11</v>
+      </c>
+      <c r="BD225">
+        <v>1.82</v>
+      </c>
+      <c r="BE225">
+        <v>7</v>
+      </c>
+      <c r="BF225">
+        <v>2.15</v>
+      </c>
+      <c r="BG225">
         <v>1.13</v>
       </c>
-      <c r="AP224">
-        <v>0.7</v>
-      </c>
-      <c r="AQ224">
-        <v>1.33</v>
-      </c>
-      <c r="AR224">
-        <v>1.32</v>
-      </c>
-      <c r="AS224">
-        <v>1.03</v>
-      </c>
-      <c r="AT224">
-        <v>2.35</v>
-      </c>
-      <c r="AU224">
-        <v>7</v>
-      </c>
-      <c r="AV224">
-        <v>2</v>
-      </c>
-      <c r="AW224">
-        <v>4</v>
-      </c>
-      <c r="AX224">
-        <v>2</v>
-      </c>
-      <c r="AY224">
-        <v>15</v>
-      </c>
-      <c r="AZ224">
-        <v>6</v>
-      </c>
-      <c r="BA224">
-        <v>9</v>
-      </c>
-      <c r="BB224">
-        <v>2</v>
-      </c>
-      <c r="BC224">
-        <v>11</v>
-      </c>
-      <c r="BD224">
-        <v>1.49</v>
-      </c>
-      <c r="BE224">
-        <v>7</v>
-      </c>
-      <c r="BF224">
-        <v>2.9</v>
-      </c>
-      <c r="BG224">
-        <v>1.14</v>
-      </c>
-      <c r="BH224">
-        <v>4.78</v>
-      </c>
-      <c r="BI224">
-        <v>1.32</v>
-      </c>
-      <c r="BJ224">
-        <v>3.17</v>
-      </c>
-      <c r="BK224">
-        <v>1.59</v>
-      </c>
-      <c r="BL224">
-        <v>2.34</v>
-      </c>
-      <c r="BM224">
-        <v>1.95</v>
-      </c>
-      <c r="BN224">
-        <v>1.85</v>
-      </c>
-      <c r="BO224">
-        <v>2.45</v>
-      </c>
-      <c r="BP224">
-        <v>1.53</v>
+      <c r="BH225">
+        <v>4.9</v>
+      </c>
+      <c r="BI225">
+        <v>1.24</v>
+      </c>
+      <c r="BJ225">
+        <v>3.55</v>
+      </c>
+      <c r="BK225">
+        <v>1.41</v>
+      </c>
+      <c r="BL225">
+        <v>2.65</v>
+      </c>
+      <c r="BM225">
+        <v>1.66</v>
+      </c>
+      <c r="BN225">
+        <v>2.07</v>
+      </c>
+      <c r="BO225">
+        <v>2</v>
+      </c>
+      <c r="BP225">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,15 @@
     <t>['24', '62']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['24', '90']</t>
+  </si>
+  <si>
+    <t>['14', '74', '90+2']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -800,9 +809,6 @@
   </si>
   <si>
     <t>['31']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['59', '62']</t>
@@ -1001,6 +1007,9 @@
   </si>
   <si>
     <t>['35', '37']</t>
+  </si>
+  <si>
+    <t>['44', '60']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1702,7 +1711,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,7 +1836,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2033,7 +2042,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2320,7 +2329,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2445,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2857,7 +2866,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2935,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ8">
         <v>0.78</v>
@@ -3063,7 +3072,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3144,7 +3153,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3269,7 +3278,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3556,7 +3565,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ11">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3759,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3887,7 +3896,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3965,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -4093,7 +4102,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4586,7 +4595,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4789,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>0.44</v>
@@ -4917,7 +4926,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5204,7 +5213,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5535,7 +5544,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5741,7 +5750,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5822,7 +5831,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6025,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.5600000000000001</v>
@@ -6231,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.89</v>
@@ -6437,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6565,7 +6574,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6643,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
         <v>1.44</v>
@@ -7389,7 +7398,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7676,7 +7685,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7879,7 +7888,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -8419,7 +8428,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8625,7 +8634,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8831,7 +8840,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9037,7 +9046,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9115,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ38">
         <v>1.11</v>
@@ -9321,10 +9330,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9449,7 +9458,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9530,7 +9539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9655,7 +9664,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9736,7 +9745,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9942,7 +9951,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -10067,7 +10076,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10145,7 +10154,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10351,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10763,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ46">
         <v>0.89</v>
@@ -10972,7 +10981,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -11509,7 +11518,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11793,7 +11802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ51">
         <v>1.8</v>
@@ -12208,7 +12217,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12745,7 +12754,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12823,7 +12832,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12951,7 +12960,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13029,7 +13038,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -13238,7 +13247,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13444,7 +13453,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13569,7 +13578,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13775,7 +13784,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13853,7 +13862,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
         <v>1.7</v>
@@ -13981,7 +13990,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14265,10 +14274,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14805,7 +14814,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15423,7 +15432,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15501,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.78</v>
@@ -15707,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ70">
         <v>1.44</v>
@@ -15835,7 +15844,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15916,7 +15925,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ71">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -16122,7 +16131,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ72">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16328,7 +16337,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16453,7 +16462,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16531,7 +16540,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0.44</v>
@@ -16865,7 +16874,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16946,7 +16955,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -17071,7 +17080,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17149,7 +17158,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ77">
         <v>1.7</v>
@@ -17483,7 +17492,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17770,7 +17779,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17895,7 +17904,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18385,7 +18394,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>1.6</v>
@@ -18591,7 +18600,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18800,7 +18809,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -19003,7 +19012,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.2</v>
@@ -19418,7 +19427,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19543,7 +19552,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19621,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>0.25</v>
@@ -19827,10 +19836,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20161,7 +20170,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20448,7 +20457,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20654,7 +20663,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21397,7 +21406,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21475,7 +21484,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ98">
         <v>1.44</v>
@@ -21681,7 +21690,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ99">
         <v>0.25</v>
@@ -22093,7 +22102,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.5600000000000001</v>
@@ -22221,7 +22230,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22427,7 +22436,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22505,10 +22514,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22920,7 +22929,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR105">
         <v>1.25</v>
@@ -23126,7 +23135,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ106">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23947,7 +23956,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -24359,7 +24368,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
         <v>0.78</v>
@@ -24899,7 +24908,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24977,7 +24986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
         <v>1.8</v>
@@ -25105,7 +25114,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25392,7 +25401,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25517,7 +25526,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25598,7 +25607,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ118">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -25804,7 +25813,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ119">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -26010,7 +26019,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ120">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26419,10 +26428,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26547,7 +26556,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26628,7 +26637,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26753,7 +26762,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26834,7 +26843,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ124">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -26959,7 +26968,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27037,7 +27046,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ125">
         <v>0.78</v>
@@ -27452,7 +27461,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -28195,7 +28204,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28273,7 +28282,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28813,7 +28822,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28891,7 +28900,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ134">
         <v>1.44</v>
@@ -29225,7 +29234,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29512,7 +29521,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29715,7 +29724,7 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ138">
         <v>0.25</v>
@@ -30049,7 +30058,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30255,7 +30264,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30333,7 +30342,7 @@
         <v>0.4</v>
       </c>
       <c r="AP141">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
         <v>0.5600000000000001</v>
@@ -30539,7 +30548,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -30954,7 +30963,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ144">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR144">
         <v>1.59</v>
@@ -31079,7 +31088,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31160,7 +31169,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31285,7 +31294,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31363,7 +31372,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146">
         <v>1.7</v>
@@ -31491,7 +31500,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31572,7 +31581,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ147">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31697,7 +31706,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31778,7 +31787,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ148">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31903,7 +31912,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32109,7 +32118,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32315,7 +32324,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32521,7 +32530,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32602,7 +32611,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR152">
         <v>1.21</v>
@@ -32933,7 +32942,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33011,7 +33020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -33220,7 +33229,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR155">
         <v>1.54</v>
@@ -33423,7 +33432,7 @@
         <v>0.17</v>
       </c>
       <c r="AP156">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ156">
         <v>0.2</v>
@@ -33757,7 +33766,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34169,7 +34178,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34250,7 +34259,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ160">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR160">
         <v>1.74</v>
@@ -34453,10 +34462,10 @@
         <v>1.14</v>
       </c>
       <c r="AP161">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR161">
         <v>1.46</v>
@@ -34865,7 +34874,7 @@
         <v>0.86</v>
       </c>
       <c r="AP163">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163">
         <v>0.78</v>
@@ -34993,7 +35002,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35074,7 +35083,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR164">
         <v>1.94</v>
@@ -35405,7 +35414,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35486,7 +35495,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ166">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR166">
         <v>1.23</v>
@@ -35689,7 +35698,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ167">
         <v>0.5600000000000001</v>
@@ -36435,7 +36444,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36516,7 +36525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.5</v>
@@ -36641,7 +36650,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37053,7 +37062,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37131,7 +37140,7 @@
         <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37337,7 +37346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP175">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ175">
         <v>0.5600000000000001</v>
@@ -37543,7 +37552,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ176">
         <v>1.11</v>
@@ -37671,7 +37680,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37958,7 +37967,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ178">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR178">
         <v>1.46</v>
@@ -38289,7 +38298,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38573,10 +38582,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38701,7 +38710,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38779,7 +38788,7 @@
         <v>0.75</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ182">
         <v>0.78</v>
@@ -39113,7 +39122,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39397,7 +39406,7 @@
         <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ185">
         <v>0.5600000000000001</v>
@@ -39525,7 +39534,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39606,7 +39615,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ186">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR186">
         <v>1.32</v>
@@ -39809,7 +39818,7 @@
         <v>1.14</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ187">
         <v>0.89</v>
@@ -40143,7 +40152,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40224,7 +40233,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ189">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR189">
         <v>1.01</v>
@@ -40430,7 +40439,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR190">
         <v>1.2</v>
@@ -40636,7 +40645,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ191">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR191">
         <v>1.68</v>
@@ -40761,7 +40770,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41045,7 +41054,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -41173,7 +41182,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42078,7 +42087,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ198">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR198">
         <v>1.53</v>
@@ -42281,7 +42290,7 @@
         <v>1.88</v>
       </c>
       <c r="AP199">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ199">
         <v>1.7</v>
@@ -42487,7 +42496,7 @@
         <v>0.57</v>
       </c>
       <c r="AP200">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ200">
         <v>0.44</v>
@@ -42615,7 +42624,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42902,7 +42911,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43108,7 +43117,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ203">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR203">
         <v>1.33</v>
@@ -43645,7 +43654,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44469,7 +44478,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44881,7 +44890,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45087,7 +45096,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45293,7 +45302,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45499,7 +45508,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45783,10 +45792,10 @@
         <v>1.63</v>
       </c>
       <c r="AP216">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ216">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR216">
         <v>1.41</v>
@@ -45989,7 +45998,7 @@
         <v>0.5</v>
       </c>
       <c r="AP217">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ217">
         <v>0.5600000000000001</v>
@@ -46195,10 +46204,10 @@
         <v>0.67</v>
       </c>
       <c r="AP218">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ218">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR218">
         <v>1.92</v>
@@ -46323,7 +46332,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46401,10 +46410,10 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ219">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46813,10 +46822,10 @@
         <v>1.33</v>
       </c>
       <c r="AP221">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ221">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR221">
         <v>1.32</v>
@@ -47022,7 +47031,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ222">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR222">
         <v>1.71</v>
@@ -47147,7 +47156,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47228,7 +47237,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ223">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR223">
         <v>1.32</v>
@@ -47353,7 +47362,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47431,10 +47440,10 @@
         <v>1.11</v>
       </c>
       <c r="AP224">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ224">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -47559,7 +47568,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47716,6 +47725,1448 @@
       </c>
       <c r="BP225">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7478979</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>93</v>
+      </c>
+      <c r="H226" t="s">
+        <v>89</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>136</v>
+      </c>
+      <c r="P226" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q226">
+        <v>2.5</v>
+      </c>
+      <c r="R226">
+        <v>2.1</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.44</v>
+      </c>
+      <c r="U226">
+        <v>2.63</v>
+      </c>
+      <c r="V226">
+        <v>3.25</v>
+      </c>
+      <c r="W226">
+        <v>1.33</v>
+      </c>
+      <c r="X226">
+        <v>10</v>
+      </c>
+      <c r="Y226">
+        <v>1.06</v>
+      </c>
+      <c r="Z226">
+        <v>1.91</v>
+      </c>
+      <c r="AA226">
+        <v>3.4</v>
+      </c>
+      <c r="AB226">
+        <v>3.8</v>
+      </c>
+      <c r="AC226">
+        <v>1.07</v>
+      </c>
+      <c r="AD226">
+        <v>9</v>
+      </c>
+      <c r="AE226">
+        <v>1.4</v>
+      </c>
+      <c r="AF226">
+        <v>3</v>
+      </c>
+      <c r="AG226">
+        <v>2.1</v>
+      </c>
+      <c r="AH226">
+        <v>1.67</v>
+      </c>
+      <c r="AI226">
+        <v>2</v>
+      </c>
+      <c r="AJ226">
+        <v>1.73</v>
+      </c>
+      <c r="AK226">
+        <v>1.22</v>
+      </c>
+      <c r="AL226">
+        <v>1.28</v>
+      </c>
+      <c r="AM226">
+        <v>1.92</v>
+      </c>
+      <c r="AN226">
+        <v>2.33</v>
+      </c>
+      <c r="AO226">
+        <v>1.2</v>
+      </c>
+      <c r="AP226">
+        <v>2.2</v>
+      </c>
+      <c r="AQ226">
+        <v>1.18</v>
+      </c>
+      <c r="AR226">
+        <v>1.51</v>
+      </c>
+      <c r="AS226">
+        <v>1.31</v>
+      </c>
+      <c r="AT226">
+        <v>2.82</v>
+      </c>
+      <c r="AU226">
+        <v>6</v>
+      </c>
+      <c r="AV226">
+        <v>3</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>1</v>
+      </c>
+      <c r="AY226">
+        <v>22</v>
+      </c>
+      <c r="AZ226">
+        <v>8</v>
+      </c>
+      <c r="BA226">
+        <v>8</v>
+      </c>
+      <c r="BB226">
+        <v>4</v>
+      </c>
+      <c r="BC226">
+        <v>12</v>
+      </c>
+      <c r="BD226">
+        <v>1.64</v>
+      </c>
+      <c r="BE226">
+        <v>8.5</v>
+      </c>
+      <c r="BF226">
+        <v>2.66</v>
+      </c>
+      <c r="BG226">
+        <v>1.2</v>
+      </c>
+      <c r="BH226">
+        <v>4.2</v>
+      </c>
+      <c r="BI226">
+        <v>1.38</v>
+      </c>
+      <c r="BJ226">
+        <v>2.88</v>
+      </c>
+      <c r="BK226">
+        <v>1.63</v>
+      </c>
+      <c r="BL226">
+        <v>2.18</v>
+      </c>
+      <c r="BM226">
+        <v>2.02</v>
+      </c>
+      <c r="BN226">
+        <v>1.74</v>
+      </c>
+      <c r="BO226">
+        <v>2.57</v>
+      </c>
+      <c r="BP226">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7478978</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F227">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>80</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>95</v>
+      </c>
+      <c r="P227" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q227">
+        <v>3</v>
+      </c>
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>3.75</v>
+      </c>
+      <c r="T227">
+        <v>1.44</v>
+      </c>
+      <c r="U227">
+        <v>2.63</v>
+      </c>
+      <c r="V227">
+        <v>3</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>9</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>2.2</v>
+      </c>
+      <c r="AA227">
+        <v>3.3</v>
+      </c>
+      <c r="AB227">
+        <v>3.1</v>
+      </c>
+      <c r="AC227">
+        <v>1.05</v>
+      </c>
+      <c r="AD227">
+        <v>9</v>
+      </c>
+      <c r="AE227">
+        <v>1.3</v>
+      </c>
+      <c r="AF227">
+        <v>3.35</v>
+      </c>
+      <c r="AG227">
+        <v>1.95</v>
+      </c>
+      <c r="AH227">
+        <v>1.75</v>
+      </c>
+      <c r="AI227">
+        <v>1.8</v>
+      </c>
+      <c r="AJ227">
+        <v>1.91</v>
+      </c>
+      <c r="AK227">
+        <v>1.35</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.65</v>
+      </c>
+      <c r="AN227">
+        <v>1.3</v>
+      </c>
+      <c r="AO227">
+        <v>1.33</v>
+      </c>
+      <c r="AP227">
+        <v>1.18</v>
+      </c>
+      <c r="AQ227">
+        <v>1.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.42</v>
+      </c>
+      <c r="AS227">
+        <v>0.98</v>
+      </c>
+      <c r="AT227">
+        <v>2.4</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>5</v>
+      </c>
+      <c r="AW227">
+        <v>9</v>
+      </c>
+      <c r="AX227">
+        <v>3</v>
+      </c>
+      <c r="AY227">
+        <v>18</v>
+      </c>
+      <c r="AZ227">
+        <v>10</v>
+      </c>
+      <c r="BA227">
+        <v>8</v>
+      </c>
+      <c r="BB227">
+        <v>3</v>
+      </c>
+      <c r="BC227">
+        <v>11</v>
+      </c>
+      <c r="BD227">
+        <v>1.41</v>
+      </c>
+      <c r="BE227">
+        <v>9</v>
+      </c>
+      <c r="BF227">
+        <v>3.36</v>
+      </c>
+      <c r="BG227">
+        <v>1.17</v>
+      </c>
+      <c r="BH227">
+        <v>4.7</v>
+      </c>
+      <c r="BI227">
+        <v>1.31</v>
+      </c>
+      <c r="BJ227">
+        <v>3.25</v>
+      </c>
+      <c r="BK227">
+        <v>1.54</v>
+      </c>
+      <c r="BL227">
+        <v>2.38</v>
+      </c>
+      <c r="BM227">
+        <v>1.87</v>
+      </c>
+      <c r="BN227">
+        <v>1.87</v>
+      </c>
+      <c r="BO227">
+        <v>2.35</v>
+      </c>
+      <c r="BP227">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7478977</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>85</v>
+      </c>
+      <c r="H228" t="s">
+        <v>90</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228" t="s">
+        <v>95</v>
+      </c>
+      <c r="P228" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q228">
+        <v>3.75</v>
+      </c>
+      <c r="R228">
+        <v>2.38</v>
+      </c>
+      <c r="S228">
+        <v>2.6</v>
+      </c>
+      <c r="T228">
+        <v>1.3</v>
+      </c>
+      <c r="U228">
+        <v>3.4</v>
+      </c>
+      <c r="V228">
+        <v>2.38</v>
+      </c>
+      <c r="W228">
+        <v>1.53</v>
+      </c>
+      <c r="X228">
+        <v>6</v>
+      </c>
+      <c r="Y228">
+        <v>1.13</v>
+      </c>
+      <c r="Z228">
+        <v>2.9</v>
+      </c>
+      <c r="AA228">
+        <v>3.3</v>
+      </c>
+      <c r="AB228">
+        <v>2.3</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.22</v>
+      </c>
+      <c r="AF228">
+        <v>4.2</v>
+      </c>
+      <c r="AG228">
+        <v>1.73</v>
+      </c>
+      <c r="AH228">
+        <v>2</v>
+      </c>
+      <c r="AI228">
+        <v>1.5</v>
+      </c>
+      <c r="AJ228">
+        <v>2.5</v>
+      </c>
+      <c r="AK228">
+        <v>1.62</v>
+      </c>
+      <c r="AL228">
+        <v>1.25</v>
+      </c>
+      <c r="AM228">
+        <v>1.36</v>
+      </c>
+      <c r="AN228">
+        <v>1.13</v>
+      </c>
+      <c r="AO228">
+        <v>0.9</v>
+      </c>
+      <c r="AP228">
+        <v>1.11</v>
+      </c>
+      <c r="AQ228">
+        <v>0.91</v>
+      </c>
+      <c r="AR228">
+        <v>1.37</v>
+      </c>
+      <c r="AS228">
+        <v>1</v>
+      </c>
+      <c r="AT228">
+        <v>2.37</v>
+      </c>
+      <c r="AU228">
+        <v>2</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>7</v>
+      </c>
+      <c r="AX228">
+        <v>1</v>
+      </c>
+      <c r="AY228">
+        <v>17</v>
+      </c>
+      <c r="AZ228">
+        <v>6</v>
+      </c>
+      <c r="BA228">
+        <v>8</v>
+      </c>
+      <c r="BB228">
+        <v>3</v>
+      </c>
+      <c r="BC228">
+        <v>11</v>
+      </c>
+      <c r="BD228">
+        <v>2.1</v>
+      </c>
+      <c r="BE228">
+        <v>8.5</v>
+      </c>
+      <c r="BF228">
+        <v>1.91</v>
+      </c>
+      <c r="BG228">
+        <v>1.17</v>
+      </c>
+      <c r="BH228">
+        <v>4.7</v>
+      </c>
+      <c r="BI228">
+        <v>1.31</v>
+      </c>
+      <c r="BJ228">
+        <v>3.25</v>
+      </c>
+      <c r="BK228">
+        <v>1.54</v>
+      </c>
+      <c r="BL228">
+        <v>2.38</v>
+      </c>
+      <c r="BM228">
+        <v>1.87</v>
+      </c>
+      <c r="BN228">
+        <v>1.87</v>
+      </c>
+      <c r="BO228">
+        <v>2.35</v>
+      </c>
+      <c r="BP228">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7478976</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>92</v>
+      </c>
+      <c r="H229" t="s">
+        <v>88</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>246</v>
+      </c>
+      <c r="P229" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>2.88</v>
+      </c>
+      <c r="T229">
+        <v>1.44</v>
+      </c>
+      <c r="U229">
+        <v>2.63</v>
+      </c>
+      <c r="V229">
+        <v>3.25</v>
+      </c>
+      <c r="W229">
+        <v>1.33</v>
+      </c>
+      <c r="X229">
+        <v>9</v>
+      </c>
+      <c r="Y229">
+        <v>1.07</v>
+      </c>
+      <c r="Z229">
+        <v>3.75</v>
+      </c>
+      <c r="AA229">
+        <v>3.6</v>
+      </c>
+      <c r="AB229">
+        <v>1.85</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.28</v>
+      </c>
+      <c r="AF229">
+        <v>3.55</v>
+      </c>
+      <c r="AG229">
+        <v>1.73</v>
+      </c>
+      <c r="AH229">
+        <v>2</v>
+      </c>
+      <c r="AI229">
+        <v>1.83</v>
+      </c>
+      <c r="AJ229">
+        <v>1.83</v>
+      </c>
+      <c r="AK229">
+        <v>1.85</v>
+      </c>
+      <c r="AL229">
+        <v>1.22</v>
+      </c>
+      <c r="AM229">
+        <v>1.25</v>
+      </c>
+      <c r="AN229">
+        <v>1.88</v>
+      </c>
+      <c r="AO229">
+        <v>1.1</v>
+      </c>
+      <c r="AP229">
+        <v>1.67</v>
+      </c>
+      <c r="AQ229">
+        <v>1.27</v>
+      </c>
+      <c r="AR229">
+        <v>1.48</v>
+      </c>
+      <c r="AS229">
+        <v>1.11</v>
+      </c>
+      <c r="AT229">
+        <v>2.59</v>
+      </c>
+      <c r="AU229">
+        <v>3</v>
+      </c>
+      <c r="AV229">
+        <v>3</v>
+      </c>
+      <c r="AW229">
+        <v>6</v>
+      </c>
+      <c r="AX229">
+        <v>6</v>
+      </c>
+      <c r="AY229">
+        <v>15</v>
+      </c>
+      <c r="AZ229">
+        <v>11</v>
+      </c>
+      <c r="BA229">
+        <v>6</v>
+      </c>
+      <c r="BB229">
+        <v>3</v>
+      </c>
+      <c r="BC229">
+        <v>9</v>
+      </c>
+      <c r="BD229">
+        <v>2.77</v>
+      </c>
+      <c r="BE229">
+        <v>9</v>
+      </c>
+      <c r="BF229">
+        <v>1.59</v>
+      </c>
+      <c r="BG229">
+        <v>1.14</v>
+      </c>
+      <c r="BH229">
+        <v>5.25</v>
+      </c>
+      <c r="BI229">
+        <v>1.26</v>
+      </c>
+      <c r="BJ229">
+        <v>3.6</v>
+      </c>
+      <c r="BK229">
+        <v>1.46</v>
+      </c>
+      <c r="BL229">
+        <v>2.58</v>
+      </c>
+      <c r="BM229">
+        <v>1.74</v>
+      </c>
+      <c r="BN229">
+        <v>2.02</v>
+      </c>
+      <c r="BO229">
+        <v>2.16</v>
+      </c>
+      <c r="BP229">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7478972</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F230">
+        <v>20</v>
+      </c>
+      <c r="G230" t="s">
+        <v>91</v>
+      </c>
+      <c r="H230" t="s">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230" t="s">
+        <v>95</v>
+      </c>
+      <c r="P230" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q230">
+        <v>2.3</v>
+      </c>
+      <c r="R230">
+        <v>2.1</v>
+      </c>
+      <c r="S230">
+        <v>5.5</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
+        <v>2.63</v>
+      </c>
+      <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>10</v>
+      </c>
+      <c r="Y230">
+        <v>1.06</v>
+      </c>
+      <c r="Z230">
+        <v>1.7</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>5</v>
+      </c>
+      <c r="AC230">
+        <v>1.07</v>
+      </c>
+      <c r="AD230">
+        <v>9</v>
+      </c>
+      <c r="AE230">
+        <v>1.4</v>
+      </c>
+      <c r="AF230">
+        <v>2.95</v>
+      </c>
+      <c r="AG230">
+        <v>2.25</v>
+      </c>
+      <c r="AH230">
+        <v>1.57</v>
+      </c>
+      <c r="AI230">
+        <v>2.1</v>
+      </c>
+      <c r="AJ230">
+        <v>1.67</v>
+      </c>
+      <c r="AK230">
+        <v>1.16</v>
+      </c>
+      <c r="AL230">
+        <v>1.24</v>
+      </c>
+      <c r="AM230">
+        <v>2.25</v>
+      </c>
+      <c r="AN230">
+        <v>2.11</v>
+      </c>
+      <c r="AO230">
+        <v>0.6</v>
+      </c>
+      <c r="AP230">
+        <v>2</v>
+      </c>
+      <c r="AQ230">
+        <v>0.64</v>
+      </c>
+      <c r="AR230">
+        <v>1.4</v>
+      </c>
+      <c r="AS230">
+        <v>0.95</v>
+      </c>
+      <c r="AT230">
+        <v>2.35</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>2</v>
+      </c>
+      <c r="AW230">
+        <v>5</v>
+      </c>
+      <c r="AX230">
+        <v>4</v>
+      </c>
+      <c r="AY230">
+        <v>15</v>
+      </c>
+      <c r="AZ230">
+        <v>7</v>
+      </c>
+      <c r="BA230">
+        <v>6</v>
+      </c>
+      <c r="BB230">
+        <v>2</v>
+      </c>
+      <c r="BC230">
+        <v>8</v>
+      </c>
+      <c r="BD230">
+        <v>1.41</v>
+      </c>
+      <c r="BE230">
+        <v>9</v>
+      </c>
+      <c r="BF230">
+        <v>3.36</v>
+      </c>
+      <c r="BG230">
+        <v>1.18</v>
+      </c>
+      <c r="BH230">
+        <v>4.5</v>
+      </c>
+      <c r="BI230">
+        <v>1.34</v>
+      </c>
+      <c r="BJ230">
+        <v>3.1</v>
+      </c>
+      <c r="BK230">
+        <v>1.58</v>
+      </c>
+      <c r="BL230">
+        <v>2.29</v>
+      </c>
+      <c r="BM230">
+        <v>1.93</v>
+      </c>
+      <c r="BN230">
+        <v>1.82</v>
+      </c>
+      <c r="BO230">
+        <v>2.44</v>
+      </c>
+      <c r="BP230">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7478974</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F231">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s">
+        <v>75</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>247</v>
+      </c>
+      <c r="P231" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q231">
+        <v>2.88</v>
+      </c>
+      <c r="R231">
+        <v>2.1</v>
+      </c>
+      <c r="S231">
+        <v>3.75</v>
+      </c>
+      <c r="T231">
+        <v>1.4</v>
+      </c>
+      <c r="U231">
+        <v>2.75</v>
+      </c>
+      <c r="V231">
+        <v>3</v>
+      </c>
+      <c r="W231">
+        <v>1.36</v>
+      </c>
+      <c r="X231">
+        <v>8</v>
+      </c>
+      <c r="Y231">
+        <v>1.08</v>
+      </c>
+      <c r="Z231">
+        <v>2.05</v>
+      </c>
+      <c r="AA231">
+        <v>3.3</v>
+      </c>
+      <c r="AB231">
+        <v>3.4</v>
+      </c>
+      <c r="AC231">
+        <v>1.05</v>
+      </c>
+      <c r="AD231">
+        <v>11</v>
+      </c>
+      <c r="AE231">
+        <v>1.3</v>
+      </c>
+      <c r="AF231">
+        <v>3.6</v>
+      </c>
+      <c r="AG231">
+        <v>1.8</v>
+      </c>
+      <c r="AH231">
+        <v>1.91</v>
+      </c>
+      <c r="AI231">
+        <v>1.73</v>
+      </c>
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>1.3</v>
+      </c>
+      <c r="AL231">
+        <v>1.28</v>
+      </c>
+      <c r="AM231">
+        <v>1.78</v>
+      </c>
+      <c r="AN231">
+        <v>1.5</v>
+      </c>
+      <c r="AO231">
+        <v>0.89</v>
+      </c>
+      <c r="AP231">
+        <v>1.64</v>
+      </c>
+      <c r="AQ231">
+        <v>0.8</v>
+      </c>
+      <c r="AR231">
+        <v>1.35</v>
+      </c>
+      <c r="AS231">
+        <v>1.1</v>
+      </c>
+      <c r="AT231">
+        <v>2.45</v>
+      </c>
+      <c r="AU231">
+        <v>9</v>
+      </c>
+      <c r="AV231">
+        <v>5</v>
+      </c>
+      <c r="AW231">
+        <v>4</v>
+      </c>
+      <c r="AX231">
+        <v>6</v>
+      </c>
+      <c r="AY231">
+        <v>19</v>
+      </c>
+      <c r="AZ231">
+        <v>16</v>
+      </c>
+      <c r="BA231">
+        <v>10</v>
+      </c>
+      <c r="BB231">
+        <v>4</v>
+      </c>
+      <c r="BC231">
+        <v>14</v>
+      </c>
+      <c r="BD231">
+        <v>1.51</v>
+      </c>
+      <c r="BE231">
+        <v>9</v>
+      </c>
+      <c r="BF231">
+        <v>3.06</v>
+      </c>
+      <c r="BG231">
+        <v>1.15</v>
+      </c>
+      <c r="BH231">
+        <v>4.95</v>
+      </c>
+      <c r="BI231">
+        <v>1.29</v>
+      </c>
+      <c r="BJ231">
+        <v>3.38</v>
+      </c>
+      <c r="BK231">
+        <v>1.51</v>
+      </c>
+      <c r="BL231">
+        <v>2.46</v>
+      </c>
+      <c r="BM231">
+        <v>1.82</v>
+      </c>
+      <c r="BN231">
+        <v>1.93</v>
+      </c>
+      <c r="BO231">
+        <v>2.27</v>
+      </c>
+      <c r="BP231">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7478973</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45636.70833333334</v>
+      </c>
+      <c r="F232">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232" t="s">
+        <v>79</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>4</v>
+      </c>
+      <c r="O232" t="s">
+        <v>248</v>
+      </c>
+      <c r="P232" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q232">
+        <v>2.4</v>
+      </c>
+      <c r="R232">
+        <v>2.3</v>
+      </c>
+      <c r="S232">
+        <v>4.33</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.25</v>
+      </c>
+      <c r="V232">
+        <v>2.63</v>
+      </c>
+      <c r="W232">
+        <v>1.44</v>
+      </c>
+      <c r="X232">
+        <v>6.5</v>
+      </c>
+      <c r="Y232">
+        <v>1.11</v>
+      </c>
+      <c r="Z232">
+        <v>1.85</v>
+      </c>
+      <c r="AA232">
+        <v>3.6</v>
+      </c>
+      <c r="AB232">
+        <v>3.8</v>
+      </c>
+      <c r="AC232">
+        <v>1.04</v>
+      </c>
+      <c r="AD232">
+        <v>13</v>
+      </c>
+      <c r="AE232">
+        <v>1.26</v>
+      </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
+      <c r="AG232">
+        <v>1.75</v>
+      </c>
+      <c r="AH232">
+        <v>1.95</v>
+      </c>
+      <c r="AI232">
+        <v>1.67</v>
+      </c>
+      <c r="AJ232">
+        <v>2.1</v>
+      </c>
+      <c r="AK232">
+        <v>1.22</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>2.05</v>
+      </c>
+      <c r="AN232">
+        <v>2.5</v>
+      </c>
+      <c r="AO232">
+        <v>1.56</v>
+      </c>
+      <c r="AP232">
+        <v>2.55</v>
+      </c>
+      <c r="AQ232">
+        <v>1.4</v>
+      </c>
+      <c r="AR232">
+        <v>1.9</v>
+      </c>
+      <c r="AS232">
+        <v>1.61</v>
+      </c>
+      <c r="AT232">
+        <v>3.51</v>
+      </c>
+      <c r="AU232">
+        <v>6</v>
+      </c>
+      <c r="AV232">
+        <v>3</v>
+      </c>
+      <c r="AW232">
+        <v>6</v>
+      </c>
+      <c r="AX232">
+        <v>2</v>
+      </c>
+      <c r="AY232">
+        <v>18</v>
+      </c>
+      <c r="AZ232">
+        <v>7</v>
+      </c>
+      <c r="BA232">
+        <v>7</v>
+      </c>
+      <c r="BB232">
+        <v>4</v>
+      </c>
+      <c r="BC232">
+        <v>11</v>
+      </c>
+      <c r="BD232">
+        <v>1.55</v>
+      </c>
+      <c r="BE232">
+        <v>8.5</v>
+      </c>
+      <c r="BF232">
+        <v>2.91</v>
+      </c>
+      <c r="BG232">
+        <v>1.2</v>
+      </c>
+      <c r="BH232">
+        <v>4.2</v>
+      </c>
+      <c r="BI232">
+        <v>1.38</v>
+      </c>
+      <c r="BJ232">
+        <v>2.88</v>
+      </c>
+      <c r="BK232">
+        <v>1.63</v>
+      </c>
+      <c r="BL232">
+        <v>2.18</v>
+      </c>
+      <c r="BM232">
+        <v>2.02</v>
+      </c>
+      <c r="BN232">
+        <v>1.74</v>
+      </c>
+      <c r="BO232">
+        <v>2.57</v>
+      </c>
+      <c r="BP232">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,13 +754,19 @@
     <t>['24', '62']</t>
   </si>
   <si>
+    <t>['24', '90']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
-    <t>['24', '90']</t>
+    <t>['14', '74', '90+2']</t>
   </si>
   <si>
-    <t>['14', '74', '90+2']</t>
+    <t>['53', '68']</t>
+  </si>
+  <si>
+    <t>['11', '74']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -1010,6 +1016,9 @@
   </si>
   <si>
     <t>['44', '60']</t>
+  </si>
+  <si>
+    <t>['48', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1639,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1836,7 +1845,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1917,7 +1926,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2042,7 +2051,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.7</v>
@@ -2454,7 +2463,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2532,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2741,7 +2750,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,7 +2875,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3072,7 +3081,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3150,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ9">
         <v>1.18</v>
@@ -3278,7 +3287,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3356,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3896,7 +3905,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4102,7 +4111,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4183,7 +4192,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4386,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4926,7 +4935,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5419,7 +5428,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5544,7 +5553,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5750,7 +5759,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6574,7 +6583,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6858,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7064,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -7273,7 +7282,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7398,7 +7407,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8303,7 +8312,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8428,7 +8437,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8634,7 +8643,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8715,7 +8724,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8840,7 +8849,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9046,7 +9055,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9458,7 +9467,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9536,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9664,7 +9673,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9948,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -10076,7 +10085,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10566,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -11187,7 +11196,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11393,7 +11402,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ49">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11518,7 +11527,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11596,10 +11605,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -12008,7 +12017,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12629,7 +12638,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12754,7 +12763,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12960,7 +12969,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13578,7 +13587,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13659,7 +13668,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ60">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13784,7 +13793,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13990,7 +13999,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14483,7 +14492,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ64">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14686,7 +14695,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14814,7 +14823,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14892,7 +14901,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -15098,7 +15107,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>0.2</v>
@@ -15307,7 +15316,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15432,7 +15441,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15844,7 +15853,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16462,7 +16471,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16874,7 +16883,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17080,7 +17089,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17492,7 +17501,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17904,7 +17913,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17982,10 +17991,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18188,7 +18197,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ82">
         <v>0.5600000000000001</v>
@@ -18397,7 +18406,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18603,7 +18612,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -19218,7 +19227,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19552,7 +19561,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19633,7 +19642,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -20170,7 +20179,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20248,7 +20257,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.89</v>
@@ -20454,7 +20463,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.4</v>
@@ -20869,7 +20878,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -21406,7 +21415,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21693,7 +21702,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ99">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -22105,7 +22114,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22230,7 +22239,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22436,7 +22445,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23338,7 +23347,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23959,7 +23968,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24162,7 +24171,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ111">
         <v>0.2</v>
@@ -24371,7 +24380,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24577,7 +24586,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24908,7 +24917,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25114,7 +25123,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25192,7 +25201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>0.78</v>
@@ -25526,7 +25535,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26016,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ120">
         <v>0.64</v>
@@ -26222,7 +26231,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ121">
         <v>1.5</v>
@@ -26556,7 +26565,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26762,7 +26771,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26968,7 +26977,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27049,7 +27058,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27252,7 +27261,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>0.78</v>
@@ -27664,10 +27673,10 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -27870,7 +27879,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -28204,7 +28213,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28488,7 +28497,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ132">
         <v>0.2</v>
@@ -28697,7 +28706,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ133">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28822,7 +28831,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29234,7 +29243,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29727,7 +29736,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ138">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29930,7 +29939,7 @@
         <v>0.4</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.5600000000000001</v>
@@ -30058,7 +30067,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30264,7 +30273,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30345,7 +30354,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -31088,7 +31097,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31294,7 +31303,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31500,7 +31509,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31706,7 +31715,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31912,7 +31921,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31993,7 +32002,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ149">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32118,7 +32127,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32196,7 +32205,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ150">
         <v>0.78</v>
@@ -32324,7 +32333,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32405,7 +32414,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR151">
         <v>1.84</v>
@@ -32530,7 +32539,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32814,7 +32823,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -32942,7 +32951,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33023,7 +33032,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ154">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR154">
         <v>1.43</v>
@@ -33226,7 +33235,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
         <v>0.91</v>
@@ -33638,7 +33647,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ157">
         <v>1.8</v>
@@ -33766,7 +33775,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33847,7 +33856,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34178,7 +34187,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34256,7 +34265,7 @@
         <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>1.4</v>
@@ -34671,7 +34680,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ162">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -35002,7 +35011,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35286,7 +35295,7 @@
         <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ165">
         <v>1.44</v>
@@ -35414,7 +35423,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36110,7 +36119,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>1.8</v>
@@ -36319,7 +36328,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ170">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36444,7 +36453,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36522,7 +36531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ171">
         <v>1.5</v>
@@ -36650,7 +36659,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37062,7 +37071,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37143,7 +37152,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR174">
         <v>1.34</v>
@@ -37349,7 +37358,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ175">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.24</v>
@@ -37680,7 +37689,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38298,7 +38307,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38376,7 +38385,7 @@
         <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ180">
         <v>1.7</v>
@@ -38710,7 +38719,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38791,7 +38800,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ182">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR182">
         <v>1.52</v>
@@ -39122,7 +39131,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39203,7 +39212,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ184">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -39534,7 +39543,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39612,7 +39621,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
         <v>0.91</v>
@@ -40024,7 +40033,7 @@
         <v>1.75</v>
       </c>
       <c r="AP188">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ188">
         <v>1.5</v>
@@ -40152,7 +40161,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40642,7 +40651,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>0.8</v>
@@ -40770,7 +40779,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41057,7 +41066,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR193">
         <v>1.46</v>
@@ -41182,7 +41191,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41260,7 +41269,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ194">
         <v>1.44</v>
@@ -41675,7 +41684,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ196">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR196">
         <v>1.46</v>
@@ -41881,7 +41890,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ197">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR197">
         <v>1.32</v>
@@ -42624,7 +42633,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42702,7 +42711,7 @@
         <v>0.86</v>
       </c>
       <c r="AP201">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ201">
         <v>1.11</v>
@@ -43654,7 +43663,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44478,7 +44487,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44890,7 +44899,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45096,7 +45105,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45302,7 +45311,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45508,7 +45517,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46001,7 +46010,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ217">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46332,7 +46341,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46616,10 +46625,10 @@
         <v>0.78</v>
       </c>
       <c r="AP220">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ220">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR220">
         <v>1.38</v>
@@ -47028,7 +47037,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
         <v>0.91</v>
@@ -47156,7 +47165,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47234,7 +47243,7 @@
         <v>1.13</v>
       </c>
       <c r="AP223">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AQ223">
         <v>1.5</v>
@@ -47362,7 +47371,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47568,7 +47577,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47646,10 +47655,10 @@
         <v>1.67</v>
       </c>
       <c r="AP225">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -47741,7 +47750,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F226">
         <v>20</v>
@@ -47947,7 +47956,7 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F227">
         <v>20</v>
@@ -47980,7 +47989,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48144,7 +48153,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7478977</v>
+        <v>7478974</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48153,196 +48162,196 @@
         <v>69</v>
       </c>
       <c r="E228" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F228">
         <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H228" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O228" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="P228" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="Q228">
+        <v>2.88</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
         <v>3.75</v>
       </c>
-      <c r="R228">
-        <v>2.38</v>
-      </c>
-      <c r="S228">
-        <v>2.6</v>
-      </c>
       <c r="T228">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U228">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V228">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W228">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X228">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y228">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z228">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="AA228">
         <v>3.3</v>
       </c>
       <c r="AB228">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC228">
         <v>1.05</v>
       </c>
       <c r="AD228">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE228">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF228">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG228">
+        <v>1.8</v>
+      </c>
+      <c r="AH228">
+        <v>1.91</v>
+      </c>
+      <c r="AI228">
         <v>1.73</v>
       </c>
-      <c r="AH228">
-        <v>2</v>
-      </c>
-      <c r="AI228">
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>1.3</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.78</v>
+      </c>
+      <c r="AN228">
         <v>1.5</v>
       </c>
-      <c r="AJ228">
-        <v>2.5</v>
-      </c>
-      <c r="AK228">
-        <v>1.62</v>
-      </c>
-      <c r="AL228">
-        <v>1.25</v>
-      </c>
-      <c r="AM228">
-        <v>1.36</v>
-      </c>
-      <c r="AN228">
-        <v>1.13</v>
-      </c>
       <c r="AO228">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AP228">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="AQ228">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AR228">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS228">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT228">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU228">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV228">
         <v>5</v>
       </c>
       <c r="AW228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX228">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY228">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ228">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA228">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC228">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD228">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="BE228">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF228">
-        <v>1.91</v>
+        <v>3.06</v>
       </c>
       <c r="BG228">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH228">
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
       <c r="BI228">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ228">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="BK228">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BL228">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="BM228">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="BN228">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="BO228">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="BP228">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -48359,7 +48368,7 @@
         <v>69</v>
       </c>
       <c r="E229" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -48389,10 +48398,10 @@
         <v>3</v>
       </c>
       <c r="O229" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48565,7 +48574,7 @@
         <v>69</v>
       </c>
       <c r="E230" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F230">
         <v>20</v>
@@ -48762,7 +48771,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7478974</v>
+        <v>7478977</v>
       </c>
       <c r="C231" t="s">
         <v>68</v>
@@ -48777,190 +48786,190 @@
         <v>20</v>
       </c>
       <c r="G231" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H231" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O231" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="P231" t="s">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="Q231">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R231">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S231">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T231">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U231">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V231">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W231">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X231">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y231">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z231">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AA231">
         <v>3.3</v>
       </c>
       <c r="AB231">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC231">
         <v>1.05</v>
       </c>
       <c r="AD231">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE231">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF231">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AG231">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH231">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AI231">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AJ231">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK231">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AL231">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM231">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="AN231">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO231">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AP231">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="AQ231">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AR231">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS231">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT231">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU231">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV231">
         <v>5</v>
       </c>
       <c r="AW231">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX231">
+        <v>1</v>
+      </c>
+      <c r="AY231">
+        <v>17</v>
+      </c>
+      <c r="AZ231">
         <v>6</v>
       </c>
-      <c r="AY231">
-        <v>19</v>
-      </c>
-      <c r="AZ231">
-        <v>16</v>
-      </c>
       <c r="BA231">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC231">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD231">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE231">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF231">
-        <v>3.06</v>
+        <v>1.91</v>
       </c>
       <c r="BG231">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH231">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="BI231">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ231">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="BK231">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BL231">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="BM231">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BN231">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="BO231">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="BP231">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="232" spans="1:68">
@@ -49167,6 +49176,1036 @@
       </c>
       <c r="BP232">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7478982</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45636.875</v>
+      </c>
+      <c r="F233">
+        <v>20</v>
+      </c>
+      <c r="G233" t="s">
+        <v>72</v>
+      </c>
+      <c r="H233" t="s">
+        <v>73</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>249</v>
+      </c>
+      <c r="P233" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q233">
+        <v>2.88</v>
+      </c>
+      <c r="R233">
+        <v>2.05</v>
+      </c>
+      <c r="S233">
+        <v>4</v>
+      </c>
+      <c r="T233">
+        <v>1.44</v>
+      </c>
+      <c r="U233">
+        <v>2.63</v>
+      </c>
+      <c r="V233">
+        <v>3.25</v>
+      </c>
+      <c r="W233">
+        <v>1.33</v>
+      </c>
+      <c r="X233">
+        <v>10</v>
+      </c>
+      <c r="Y233">
+        <v>1.06</v>
+      </c>
+      <c r="Z233">
+        <v>2.23</v>
+      </c>
+      <c r="AA233">
+        <v>3.65</v>
+      </c>
+      <c r="AB233">
+        <v>3.25</v>
+      </c>
+      <c r="AC233">
+        <v>1.07</v>
+      </c>
+      <c r="AD233">
+        <v>9.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.38</v>
+      </c>
+      <c r="AF233">
+        <v>3.1</v>
+      </c>
+      <c r="AG233">
+        <v>2.09</v>
+      </c>
+      <c r="AH233">
+        <v>1.73</v>
+      </c>
+      <c r="AI233">
+        <v>1.91</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.28</v>
+      </c>
+      <c r="AL233">
+        <v>1.28</v>
+      </c>
+      <c r="AM233">
+        <v>1.78</v>
+      </c>
+      <c r="AN233">
+        <v>0.8</v>
+      </c>
+      <c r="AO233">
+        <v>0.25</v>
+      </c>
+      <c r="AP233">
+        <v>1</v>
+      </c>
+      <c r="AQ233">
+        <v>0.22</v>
+      </c>
+      <c r="AR233">
+        <v>1.67</v>
+      </c>
+      <c r="AS233">
+        <v>1.11</v>
+      </c>
+      <c r="AT233">
+        <v>2.78</v>
+      </c>
+      <c r="AU233">
+        <v>5</v>
+      </c>
+      <c r="AV233">
+        <v>2</v>
+      </c>
+      <c r="AW233">
+        <v>7</v>
+      </c>
+      <c r="AX233">
+        <v>2</v>
+      </c>
+      <c r="AY233">
+        <v>12</v>
+      </c>
+      <c r="AZ233">
+        <v>6</v>
+      </c>
+      <c r="BA233">
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <v>4</v>
+      </c>
+      <c r="BC233">
+        <v>4</v>
+      </c>
+      <c r="BD233">
+        <v>1.45</v>
+      </c>
+      <c r="BE233">
+        <v>9</v>
+      </c>
+      <c r="BF233">
+        <v>3.19</v>
+      </c>
+      <c r="BG233">
+        <v>1.14</v>
+      </c>
+      <c r="BH233">
+        <v>5.25</v>
+      </c>
+      <c r="BI233">
+        <v>1.26</v>
+      </c>
+      <c r="BJ233">
+        <v>3.6</v>
+      </c>
+      <c r="BK233">
+        <v>1.46</v>
+      </c>
+      <c r="BL233">
+        <v>2.58</v>
+      </c>
+      <c r="BM233">
+        <v>1.74</v>
+      </c>
+      <c r="BN233">
+        <v>2.02</v>
+      </c>
+      <c r="BO233">
+        <v>2.16</v>
+      </c>
+      <c r="BP233">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7478975</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45637.69791666666</v>
+      </c>
+      <c r="F234">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s">
+        <v>74</v>
+      </c>
+      <c r="H234" t="s">
+        <v>86</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>95</v>
+      </c>
+      <c r="P234" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q234">
+        <v>3.5</v>
+      </c>
+      <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>3.5</v>
+      </c>
+      <c r="T234">
+        <v>1.53</v>
+      </c>
+      <c r="U234">
+        <v>2.38</v>
+      </c>
+      <c r="V234">
+        <v>3.75</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>2.7</v>
+      </c>
+      <c r="AA234">
+        <v>3.4</v>
+      </c>
+      <c r="AB234">
+        <v>2.7</v>
+      </c>
+      <c r="AC234">
+        <v>1.08</v>
+      </c>
+      <c r="AD234">
+        <v>7.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.48</v>
+      </c>
+      <c r="AF234">
+        <v>2.6</v>
+      </c>
+      <c r="AG234">
+        <v>2.55</v>
+      </c>
+      <c r="AH234">
+        <v>1.52</v>
+      </c>
+      <c r="AI234">
+        <v>2.1</v>
+      </c>
+      <c r="AJ234">
+        <v>1.67</v>
+      </c>
+      <c r="AK234">
+        <v>1.48</v>
+      </c>
+      <c r="AL234">
+        <v>1.28</v>
+      </c>
+      <c r="AM234">
+        <v>1.48</v>
+      </c>
+      <c r="AN234">
+        <v>1.7</v>
+      </c>
+      <c r="AO234">
+        <v>1.6</v>
+      </c>
+      <c r="AP234">
+        <v>1.55</v>
+      </c>
+      <c r="AQ234">
+        <v>1.73</v>
+      </c>
+      <c r="AR234">
+        <v>1.32</v>
+      </c>
+      <c r="AS234">
+        <v>1.28</v>
+      </c>
+      <c r="AT234">
+        <v>2.6</v>
+      </c>
+      <c r="AU234">
+        <v>4</v>
+      </c>
+      <c r="AV234">
+        <v>2</v>
+      </c>
+      <c r="AW234">
+        <v>5</v>
+      </c>
+      <c r="AX234">
+        <v>5</v>
+      </c>
+      <c r="AY234">
+        <v>12</v>
+      </c>
+      <c r="AZ234">
+        <v>10</v>
+      </c>
+      <c r="BA234">
+        <v>7</v>
+      </c>
+      <c r="BB234">
+        <v>3</v>
+      </c>
+      <c r="BC234">
+        <v>10</v>
+      </c>
+      <c r="BD234">
+        <v>1.95</v>
+      </c>
+      <c r="BE234">
+        <v>8.5</v>
+      </c>
+      <c r="BF234">
+        <v>2.1</v>
+      </c>
+      <c r="BG234">
+        <v>1.17</v>
+      </c>
+      <c r="BH234">
+        <v>4.7</v>
+      </c>
+      <c r="BI234">
+        <v>1.31</v>
+      </c>
+      <c r="BJ234">
+        <v>3.25</v>
+      </c>
+      <c r="BK234">
+        <v>1.54</v>
+      </c>
+      <c r="BL234">
+        <v>2.38</v>
+      </c>
+      <c r="BM234">
+        <v>1.87</v>
+      </c>
+      <c r="BN234">
+        <v>1.87</v>
+      </c>
+      <c r="BO234">
+        <v>2.35</v>
+      </c>
+      <c r="BP234">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7478980</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45637.69791666666</v>
+      </c>
+      <c r="F235">
+        <v>20</v>
+      </c>
+      <c r="G235" t="s">
+        <v>78</v>
+      </c>
+      <c r="H235" t="s">
+        <v>71</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>95</v>
+      </c>
+      <c r="P235" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q235">
+        <v>2.88</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>4</v>
+      </c>
+      <c r="T235">
+        <v>1.44</v>
+      </c>
+      <c r="U235">
+        <v>2.63</v>
+      </c>
+      <c r="V235">
+        <v>3.25</v>
+      </c>
+      <c r="W235">
+        <v>1.33</v>
+      </c>
+      <c r="X235">
+        <v>9</v>
+      </c>
+      <c r="Y235">
+        <v>1.07</v>
+      </c>
+      <c r="Z235">
+        <v>2.18</v>
+      </c>
+      <c r="AA235">
+        <v>3.35</v>
+      </c>
+      <c r="AB235">
+        <v>3.7</v>
+      </c>
+      <c r="AC235">
+        <v>1.07</v>
+      </c>
+      <c r="AD235">
+        <v>8</v>
+      </c>
+      <c r="AE235">
+        <v>1.36</v>
+      </c>
+      <c r="AF235">
+        <v>3.1</v>
+      </c>
+      <c r="AG235">
+        <v>2.18</v>
+      </c>
+      <c r="AH235">
+        <v>1.68</v>
+      </c>
+      <c r="AI235">
+        <v>1.83</v>
+      </c>
+      <c r="AJ235">
+        <v>1.83</v>
+      </c>
+      <c r="AK235">
+        <v>1.3</v>
+      </c>
+      <c r="AL235">
+        <v>1.28</v>
+      </c>
+      <c r="AM235">
+        <v>1.7</v>
+      </c>
+      <c r="AN235">
+        <v>1.33</v>
+      </c>
+      <c r="AO235">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP235">
+        <v>1.2</v>
+      </c>
+      <c r="AQ235">
+        <v>0.8</v>
+      </c>
+      <c r="AR235">
+        <v>1.65</v>
+      </c>
+      <c r="AS235">
+        <v>1.09</v>
+      </c>
+      <c r="AT235">
+        <v>2.74</v>
+      </c>
+      <c r="AU235">
+        <v>5</v>
+      </c>
+      <c r="AV235">
+        <v>5</v>
+      </c>
+      <c r="AW235">
+        <v>6</v>
+      </c>
+      <c r="AX235">
+        <v>8</v>
+      </c>
+      <c r="AY235">
+        <v>14</v>
+      </c>
+      <c r="AZ235">
+        <v>15</v>
+      </c>
+      <c r="BA235">
+        <v>7</v>
+      </c>
+      <c r="BB235">
+        <v>2</v>
+      </c>
+      <c r="BC235">
+        <v>9</v>
+      </c>
+      <c r="BD235">
+        <v>1.55</v>
+      </c>
+      <c r="BE235">
+        <v>8</v>
+      </c>
+      <c r="BF235">
+        <v>2.92</v>
+      </c>
+      <c r="BG235">
+        <v>1.32</v>
+      </c>
+      <c r="BH235">
+        <v>3.22</v>
+      </c>
+      <c r="BI235">
+        <v>1.56</v>
+      </c>
+      <c r="BJ235">
+        <v>2.33</v>
+      </c>
+      <c r="BK235">
+        <v>1.93</v>
+      </c>
+      <c r="BL235">
+        <v>1.82</v>
+      </c>
+      <c r="BM235">
+        <v>2.47</v>
+      </c>
+      <c r="BN235">
+        <v>1.51</v>
+      </c>
+      <c r="BO235">
+        <v>3.35</v>
+      </c>
+      <c r="BP235">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7478981</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45637.69791666666</v>
+      </c>
+      <c r="F236">
+        <v>20</v>
+      </c>
+      <c r="G236" t="s">
+        <v>77</v>
+      </c>
+      <c r="H236" t="s">
+        <v>87</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>208</v>
+      </c>
+      <c r="P236" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q236">
+        <v>2.88</v>
+      </c>
+      <c r="R236">
+        <v>2.2</v>
+      </c>
+      <c r="S236">
+        <v>3.6</v>
+      </c>
+      <c r="T236">
+        <v>1.4</v>
+      </c>
+      <c r="U236">
+        <v>2.75</v>
+      </c>
+      <c r="V236">
+        <v>2.75</v>
+      </c>
+      <c r="W236">
+        <v>1.4</v>
+      </c>
+      <c r="X236">
+        <v>8</v>
+      </c>
+      <c r="Y236">
+        <v>1.08</v>
+      </c>
+      <c r="Z236">
+        <v>2.31</v>
+      </c>
+      <c r="AA236">
+        <v>3.5</v>
+      </c>
+      <c r="AB236">
+        <v>3.2</v>
+      </c>
+      <c r="AC236">
+        <v>1.05</v>
+      </c>
+      <c r="AD236">
+        <v>9</v>
+      </c>
+      <c r="AE236">
+        <v>1.3</v>
+      </c>
+      <c r="AF236">
+        <v>3.45</v>
+      </c>
+      <c r="AG236">
+        <v>1.94</v>
+      </c>
+      <c r="AH236">
+        <v>1.94</v>
+      </c>
+      <c r="AI236">
+        <v>1.67</v>
+      </c>
+      <c r="AJ236">
+        <v>2.1</v>
+      </c>
+      <c r="AK236">
+        <v>1.35</v>
+      </c>
+      <c r="AL236">
+        <v>1.28</v>
+      </c>
+      <c r="AM236">
+        <v>1.62</v>
+      </c>
+      <c r="AN236">
+        <v>0.7</v>
+      </c>
+      <c r="AO236">
+        <v>0.78</v>
+      </c>
+      <c r="AP236">
+        <v>0.73</v>
+      </c>
+      <c r="AQ236">
+        <v>0.8</v>
+      </c>
+      <c r="AR236">
+        <v>1.35</v>
+      </c>
+      <c r="AS236">
+        <v>1.14</v>
+      </c>
+      <c r="AT236">
+        <v>2.49</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>4</v>
+      </c>
+      <c r="AX236">
+        <v>6</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>13</v>
+      </c>
+      <c r="BA236">
+        <v>6</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>1.64</v>
+      </c>
+      <c r="BE236">
+        <v>8.5</v>
+      </c>
+      <c r="BF236">
+        <v>2.66</v>
+      </c>
+      <c r="BG236">
+        <v>1.18</v>
+      </c>
+      <c r="BH236">
+        <v>4.5</v>
+      </c>
+      <c r="BI236">
+        <v>1.34</v>
+      </c>
+      <c r="BJ236">
+        <v>3.1</v>
+      </c>
+      <c r="BK236">
+        <v>1.58</v>
+      </c>
+      <c r="BL236">
+        <v>2.29</v>
+      </c>
+      <c r="BM236">
+        <v>1.93</v>
+      </c>
+      <c r="BN236">
+        <v>1.82</v>
+      </c>
+      <c r="BO236">
+        <v>2.44</v>
+      </c>
+      <c r="BP236">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7478983</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45637.70833333334</v>
+      </c>
+      <c r="F237">
+        <v>20</v>
+      </c>
+      <c r="G237" t="s">
+        <v>83</v>
+      </c>
+      <c r="H237" t="s">
+        <v>82</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>250</v>
+      </c>
+      <c r="P237" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q237">
+        <v>3</v>
+      </c>
+      <c r="R237">
+        <v>2.05</v>
+      </c>
+      <c r="S237">
+        <v>4</v>
+      </c>
+      <c r="T237">
+        <v>1.44</v>
+      </c>
+      <c r="U237">
+        <v>2.63</v>
+      </c>
+      <c r="V237">
+        <v>3.25</v>
+      </c>
+      <c r="W237">
+        <v>1.33</v>
+      </c>
+      <c r="X237">
+        <v>10</v>
+      </c>
+      <c r="Y237">
+        <v>1.06</v>
+      </c>
+      <c r="Z237">
+        <v>2.27</v>
+      </c>
+      <c r="AA237">
+        <v>3.45</v>
+      </c>
+      <c r="AB237">
+        <v>3.35</v>
+      </c>
+      <c r="AC237">
+        <v>1.07</v>
+      </c>
+      <c r="AD237">
+        <v>10</v>
+      </c>
+      <c r="AE237">
+        <v>1.36</v>
+      </c>
+      <c r="AF237">
+        <v>3.2</v>
+      </c>
+      <c r="AG237">
+        <v>2.09</v>
+      </c>
+      <c r="AH237">
+        <v>1.73</v>
+      </c>
+      <c r="AI237">
+        <v>1.83</v>
+      </c>
+      <c r="AJ237">
+        <v>1.83</v>
+      </c>
+      <c r="AK237">
+        <v>1.35</v>
+      </c>
+      <c r="AL237">
+        <v>1.28</v>
+      </c>
+      <c r="AM237">
+        <v>1.68</v>
+      </c>
+      <c r="AN237">
+        <v>1.33</v>
+      </c>
+      <c r="AO237">
+        <v>1</v>
+      </c>
+      <c r="AP237">
+        <v>1.5</v>
+      </c>
+      <c r="AQ237">
+        <v>0.91</v>
+      </c>
+      <c r="AR237">
+        <v>1.38</v>
+      </c>
+      <c r="AS237">
+        <v>1.04</v>
+      </c>
+      <c r="AT237">
+        <v>2.42</v>
+      </c>
+      <c r="AU237">
+        <v>3</v>
+      </c>
+      <c r="AV237">
+        <v>5</v>
+      </c>
+      <c r="AW237">
+        <v>4</v>
+      </c>
+      <c r="AX237">
+        <v>6</v>
+      </c>
+      <c r="AY237">
+        <v>11</v>
+      </c>
+      <c r="AZ237">
+        <v>18</v>
+      </c>
+      <c r="BA237">
+        <v>9</v>
+      </c>
+      <c r="BB237">
+        <v>9</v>
+      </c>
+      <c r="BC237">
+        <v>18</v>
+      </c>
+      <c r="BD237">
+        <v>1.91</v>
+      </c>
+      <c r="BE237">
+        <v>8.5</v>
+      </c>
+      <c r="BF237">
+        <v>2.2</v>
+      </c>
+      <c r="BG237">
+        <v>1.14</v>
+      </c>
+      <c r="BH237">
+        <v>5.25</v>
+      </c>
+      <c r="BI237">
+        <v>1.26</v>
+      </c>
+      <c r="BJ237">
+        <v>3.6</v>
+      </c>
+      <c r="BK237">
+        <v>1.46</v>
+      </c>
+      <c r="BL237">
+        <v>2.58</v>
+      </c>
+      <c r="BM237">
+        <v>1.74</v>
+      </c>
+      <c r="BN237">
+        <v>2.02</v>
+      </c>
+      <c r="BO237">
+        <v>2.16</v>
+      </c>
+      <c r="BP237">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,10 +754,10 @@
     <t>['24', '62']</t>
   </si>
   <si>
-    <t>['24', '90']</t>
+    <t>['79']</t>
   </si>
   <si>
-    <t>['79']</t>
+    <t>['24', '90']</t>
   </si>
   <si>
     <t>['14', '74', '90+2']</t>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>['11', '74']</t>
+  </si>
+  <si>
+    <t>['8', '23', '29', '65']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -1380,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP237"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1642,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1845,7 +1848,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2051,7 +2054,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2463,7 +2466,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2875,7 +2878,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2956,7 +2959,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3081,7 +3084,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3287,7 +3290,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3905,7 +3908,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4111,7 +4114,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4601,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16">
         <v>1.4</v>
@@ -4935,7 +4938,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5553,7 +5556,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5759,7 +5762,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6583,7 +6586,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7407,7 +7410,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7488,7 +7491,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -8437,7 +8440,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8643,7 +8646,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8849,7 +8852,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -9055,7 +9058,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9467,7 +9470,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9673,7 +9676,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10085,7 +10088,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10987,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47">
         <v>1.18</v>
@@ -11527,7 +11530,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12429,7 +12432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -12763,7 +12766,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12969,7 +12972,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13587,7 +13590,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13793,7 +13796,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13999,7 +14002,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14823,7 +14826,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15441,7 +15444,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15522,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15853,7 +15856,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16471,7 +16474,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16883,7 +16886,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16961,7 +16964,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ76">
         <v>0.91</v>
@@ -17089,7 +17092,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17501,7 +17504,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17913,7 +17916,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -19561,7 +19564,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20179,7 +20182,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21084,7 +21087,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21415,7 +21418,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22239,7 +22242,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22445,7 +22448,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23553,7 +23556,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ108">
         <v>1.11</v>
@@ -24917,7 +24920,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25123,7 +25126,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25204,7 +25207,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25535,7 +25538,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26565,7 +26568,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26771,7 +26774,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26977,7 +26980,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27264,7 +27267,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -28213,7 +28216,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28831,7 +28834,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29243,7 +29246,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -30067,7 +30070,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30273,7 +30276,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30763,7 +30766,7 @@
         <v>1.4</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ143">
         <v>0.89</v>
@@ -31097,7 +31100,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31303,7 +31306,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31509,7 +31512,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31715,7 +31718,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31921,7 +31924,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32127,7 +32130,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32208,7 +32211,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ150">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32333,7 +32336,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32539,7 +32542,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32951,7 +32954,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33775,7 +33778,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34187,7 +34190,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34886,7 +34889,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ163">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR163">
         <v>1.59</v>
@@ -35011,7 +35014,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35423,7 +35426,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36453,7 +36456,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36659,7 +36662,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37071,7 +37074,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37689,7 +37692,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37767,7 +37770,7 @@
         <v>0.14</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
         <v>0.2</v>
@@ -38307,7 +38310,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38719,7 +38722,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39131,7 +39134,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39543,7 +39546,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -40161,7 +40164,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40779,7 +40782,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41191,7 +41194,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42633,7 +42636,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43123,7 +43126,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ203">
         <v>1.27</v>
@@ -43663,7 +43666,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44487,7 +44490,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44899,7 +44902,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -45105,7 +45108,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45311,7 +45314,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45392,7 +45395,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ214">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR214">
         <v>1.34</v>
@@ -45517,7 +45520,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45595,7 +45598,7 @@
         <v>1.25</v>
       </c>
       <c r="AP215">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ215">
         <v>1.44</v>
@@ -46341,7 +46344,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -47165,7 +47168,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47371,7 +47374,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47577,7 +47580,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47750,7 +47753,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F226">
         <v>20</v>
@@ -47879,16 +47882,16 @@
         <v>6</v>
       </c>
       <c r="AV226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW226">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ226">
         <v>8</v>
@@ -47956,10 +47959,10 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F227">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G227" t="s">
         <v>80</v>
@@ -47989,7 +47992,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48082,22 +48085,22 @@
         <v>2.4</v>
       </c>
       <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>13</v>
+      </c>
+      <c r="AX227">
         <v>5</v>
       </c>
-      <c r="AV227">
-        <v>5</v>
-      </c>
-      <c r="AW227">
+      <c r="AY227">
+        <v>17</v>
+      </c>
+      <c r="AZ227">
         <v>9</v>
-      </c>
-      <c r="AX227">
-        <v>3</v>
-      </c>
-      <c r="AY227">
-        <v>18</v>
-      </c>
-      <c r="AZ227">
-        <v>10</v>
       </c>
       <c r="BA227">
         <v>8</v>
@@ -48153,7 +48156,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7478974</v>
+        <v>7478977</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48162,196 +48165,196 @@
         <v>69</v>
       </c>
       <c r="E228" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F228">
         <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H228" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O228" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="Q228">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S228">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T228">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U228">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V228">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W228">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X228">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y228">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z228">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AA228">
         <v>3.3</v>
       </c>
       <c r="AB228">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC228">
         <v>1.05</v>
       </c>
       <c r="AD228">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE228">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF228">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AG228">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH228">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AI228">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AJ228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK228">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AL228">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM228">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="AN228">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO228">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AP228">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="AQ228">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AR228">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS228">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT228">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU228">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV228">
         <v>5</v>
       </c>
       <c r="AW228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX228">
+        <v>1</v>
+      </c>
+      <c r="AY228">
+        <v>17</v>
+      </c>
+      <c r="AZ228">
         <v>6</v>
       </c>
-      <c r="AY228">
-        <v>19</v>
-      </c>
-      <c r="AZ228">
-        <v>16</v>
-      </c>
       <c r="BA228">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC228">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD228">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE228">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF228">
-        <v>3.06</v>
+        <v>1.91</v>
       </c>
       <c r="BG228">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH228">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="BI228">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ228">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="BK228">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BL228">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="BM228">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BN228">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="BO228">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="BP228">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -48368,10 +48371,10 @@
         <v>69</v>
       </c>
       <c r="E229" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G229" t="s">
         <v>92</v>
@@ -48398,10 +48401,10 @@
         <v>3</v>
       </c>
       <c r="O229" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48500,13 +48503,13 @@
         <v>3</v>
       </c>
       <c r="AW229">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AX229">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY229">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ229">
         <v>11</v>
@@ -48574,7 +48577,7 @@
         <v>69</v>
       </c>
       <c r="E230" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F230">
         <v>20</v>
@@ -48700,19 +48703,19 @@
         <v>2.35</v>
       </c>
       <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>2</v>
+      </c>
+      <c r="AW230">
+        <v>12</v>
+      </c>
+      <c r="AX230">
         <v>5</v>
       </c>
-      <c r="AV230">
-        <v>2</v>
-      </c>
-      <c r="AW230">
-        <v>5</v>
-      </c>
-      <c r="AX230">
-        <v>4</v>
-      </c>
       <c r="AY230">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ230">
         <v>7</v>
@@ -48771,7 +48774,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7478977</v>
+        <v>7478974</v>
       </c>
       <c r="C231" t="s">
         <v>68</v>
@@ -48786,190 +48789,190 @@
         <v>20</v>
       </c>
       <c r="G231" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H231" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O231" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="P231" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="Q231">
+        <v>2.88</v>
+      </c>
+      <c r="R231">
+        <v>2.1</v>
+      </c>
+      <c r="S231">
         <v>3.75</v>
       </c>
-      <c r="R231">
-        <v>2.38</v>
-      </c>
-      <c r="S231">
-        <v>2.6</v>
-      </c>
       <c r="T231">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U231">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V231">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W231">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X231">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y231">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z231">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="AA231">
         <v>3.3</v>
       </c>
       <c r="AB231">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC231">
         <v>1.05</v>
       </c>
       <c r="AD231">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE231">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF231">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG231">
+        <v>1.8</v>
+      </c>
+      <c r="AH231">
+        <v>1.91</v>
+      </c>
+      <c r="AI231">
         <v>1.73</v>
       </c>
-      <c r="AH231">
-        <v>2</v>
-      </c>
-      <c r="AI231">
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>1.3</v>
+      </c>
+      <c r="AL231">
+        <v>1.28</v>
+      </c>
+      <c r="AM231">
+        <v>1.78</v>
+      </c>
+      <c r="AN231">
         <v>1.5</v>
       </c>
-      <c r="AJ231">
-        <v>2.5</v>
-      </c>
-      <c r="AK231">
-        <v>1.62</v>
-      </c>
-      <c r="AL231">
-        <v>1.25</v>
-      </c>
-      <c r="AM231">
-        <v>1.36</v>
-      </c>
-      <c r="AN231">
-        <v>1.13</v>
-      </c>
       <c r="AO231">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AP231">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="AQ231">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AR231">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS231">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT231">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU231">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV231">
         <v>5</v>
       </c>
       <c r="AW231">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX231">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY231">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ231">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA231">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC231">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD231">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="BE231">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF231">
-        <v>1.91</v>
+        <v>3.06</v>
       </c>
       <c r="BG231">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH231">
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
       <c r="BI231">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ231">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="BK231">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BL231">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="BM231">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="BN231">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="BO231">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="BP231">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="232" spans="1:68">
@@ -49183,7 +49186,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7478982</v>
+        <v>7478975</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49192,196 +49195,196 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45636.875</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="F233">
         <v>20</v>
       </c>
       <c r="G233" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H233" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O233" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="Q233">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T233">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U233">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V233">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W233">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y233">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z233">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="AA233">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AB233">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AC233">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD233">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE233">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AF233">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AG233">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="AH233">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AI233">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ233">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK233">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AL233">
         <v>1.28</v>
       </c>
       <c r="AM233">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="AN233">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AO233">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP233">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ233">
-        <v>0.22</v>
+        <v>1.73</v>
       </c>
       <c r="AR233">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="AS233">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AT233">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU233">
+        <v>4</v>
+      </c>
+      <c r="AV233">
+        <v>2</v>
+      </c>
+      <c r="AW233">
         <v>5</v>
       </c>
-      <c r="AV233">
-        <v>2</v>
-      </c>
-      <c r="AW233">
-        <v>7</v>
-      </c>
       <c r="AX233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY233">
         <v>12</v>
       </c>
       <c r="AZ233">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA233">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC233">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD233">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="BE233">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF233">
-        <v>3.19</v>
+        <v>2.1</v>
       </c>
       <c r="BG233">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH233">
-        <v>5.25</v>
+        <v>4.7</v>
       </c>
       <c r="BI233">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BJ233">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="BK233">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BL233">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BM233">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BN233">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BO233">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="BP233">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="234" spans="1:68">
@@ -49389,7 +49392,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7478975</v>
+        <v>7478980</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49404,190 +49407,190 @@
         <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H234" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
       <c r="M234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O234" t="s">
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="Q234">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R234">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S234">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T234">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U234">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V234">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W234">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X234">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y234">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z234">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="AA234">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AB234">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AC234">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD234">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE234">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AF234">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AG234">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="AH234">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AI234">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AJ234">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AK234">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AL234">
         <v>1.28</v>
       </c>
       <c r="AM234">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AN234">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="AO234">
-        <v>1.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP234">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AQ234">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR234">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AS234">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AT234">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="AU234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW234">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX234">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY234">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ234">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA234">
         <v>7</v>
       </c>
       <c r="BB234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC234">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD234">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="BE234">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF234">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="BG234">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="BH234">
-        <v>4.7</v>
+        <v>3.22</v>
       </c>
       <c r="BI234">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="BJ234">
-        <v>3.25</v>
+        <v>2.33</v>
       </c>
       <c r="BK234">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="BL234">
-        <v>2.38</v>
+        <v>1.82</v>
       </c>
       <c r="BM234">
-        <v>1.87</v>
+        <v>2.47</v>
       </c>
       <c r="BN234">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="BO234">
-        <v>2.35</v>
+        <v>3.35</v>
       </c>
       <c r="BP234">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -49595,7 +49598,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7478980</v>
+        <v>7478981</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49610,10 +49613,10 @@
         <v>20</v>
       </c>
       <c r="G235" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H235" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -49625,175 +49628,175 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N235">
         <v>2</v>
       </c>
       <c r="O235" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="P235" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
       </c>
       <c r="R235">
+        <v>2.2</v>
+      </c>
+      <c r="S235">
+        <v>3.6</v>
+      </c>
+      <c r="T235">
+        <v>1.4</v>
+      </c>
+      <c r="U235">
+        <v>2.75</v>
+      </c>
+      <c r="V235">
+        <v>2.75</v>
+      </c>
+      <c r="W235">
+        <v>1.4</v>
+      </c>
+      <c r="X235">
+        <v>8</v>
+      </c>
+      <c r="Y235">
+        <v>1.08</v>
+      </c>
+      <c r="Z235">
+        <v>2.31</v>
+      </c>
+      <c r="AA235">
+        <v>3.5</v>
+      </c>
+      <c r="AB235">
+        <v>3.2</v>
+      </c>
+      <c r="AC235">
+        <v>1.05</v>
+      </c>
+      <c r="AD235">
+        <v>9</v>
+      </c>
+      <c r="AE235">
+        <v>1.3</v>
+      </c>
+      <c r="AF235">
+        <v>3.45</v>
+      </c>
+      <c r="AG235">
+        <v>1.94</v>
+      </c>
+      <c r="AH235">
+        <v>1.94</v>
+      </c>
+      <c r="AI235">
+        <v>1.67</v>
+      </c>
+      <c r="AJ235">
         <v>2.1</v>
       </c>
-      <c r="S235">
-        <v>4</v>
-      </c>
-      <c r="T235">
-        <v>1.44</v>
-      </c>
-      <c r="U235">
-        <v>2.63</v>
-      </c>
-      <c r="V235">
-        <v>3.25</v>
-      </c>
-      <c r="W235">
-        <v>1.33</v>
-      </c>
-      <c r="X235">
-        <v>9</v>
-      </c>
-      <c r="Y235">
-        <v>1.07</v>
-      </c>
-      <c r="Z235">
-        <v>2.18</v>
-      </c>
-      <c r="AA235">
-        <v>3.35</v>
-      </c>
-      <c r="AB235">
-        <v>3.7</v>
-      </c>
-      <c r="AC235">
-        <v>1.07</v>
-      </c>
-      <c r="AD235">
-        <v>8</v>
-      </c>
-      <c r="AE235">
-        <v>1.36</v>
-      </c>
-      <c r="AF235">
-        <v>3.1</v>
-      </c>
-      <c r="AG235">
-        <v>2.18</v>
-      </c>
-      <c r="AH235">
-        <v>1.68</v>
-      </c>
-      <c r="AI235">
-        <v>1.83</v>
-      </c>
-      <c r="AJ235">
-        <v>1.83</v>
-      </c>
       <c r="AK235">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AL235">
         <v>1.28</v>
       </c>
       <c r="AM235">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AN235">
-        <v>1.33</v>
+        <v>0.7</v>
       </c>
       <c r="AO235">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AP235">
-        <v>1.2</v>
+        <v>0.73</v>
       </c>
       <c r="AQ235">
         <v>0.8</v>
       </c>
       <c r="AR235">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AS235">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AT235">
-        <v>2.74</v>
+        <v>2.49</v>
       </c>
       <c r="AU235">
         <v>5</v>
       </c>
       <c r="AV235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW235">
+        <v>4</v>
+      </c>
+      <c r="AX235">
         <v>6</v>
-      </c>
-      <c r="AX235">
-        <v>8</v>
       </c>
       <c r="AY235">
         <v>14</v>
       </c>
       <c r="AZ235">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB235">
         <v>2</v>
       </c>
       <c r="BC235">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD235">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="BE235">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF235">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="BG235">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="BH235">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="BI235">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="BJ235">
-        <v>2.33</v>
+        <v>3.1</v>
       </c>
       <c r="BK235">
+        <v>1.58</v>
+      </c>
+      <c r="BL235">
+        <v>2.29</v>
+      </c>
+      <c r="BM235">
         <v>1.93</v>
       </c>
-      <c r="BL235">
+      <c r="BN235">
         <v>1.82</v>
       </c>
-      <c r="BM235">
-        <v>2.47</v>
-      </c>
-      <c r="BN235">
-        <v>1.51</v>
-      </c>
       <c r="BO235">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="BP235">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -49801,7 +49804,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7478981</v>
+        <v>7478982</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -49813,13 +49816,13 @@
         <v>45637.69791666666</v>
       </c>
       <c r="F236">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H236" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -49831,175 +49834,175 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236">
         <v>2</v>
       </c>
       <c r="O236" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
       </c>
       <c r="R236">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S236">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T236">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U236">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V236">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W236">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X236">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y236">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z236">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="AA236">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AB236">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD236">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE236">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AF236">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="AG236">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AH236">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="AI236">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ236">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AK236">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AL236">
         <v>1.28</v>
       </c>
       <c r="AM236">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AN236">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AO236">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="AP236">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AQ236">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="AR236">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="AS236">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT236">
-        <v>2.49</v>
+        <v>2.78</v>
       </c>
       <c r="AU236">
         <v>5</v>
       </c>
       <c r="AV236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
+        <v>2</v>
+      </c>
+      <c r="AY236">
+        <v>12</v>
+      </c>
+      <c r="AZ236">
+        <v>6</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
         <v>4</v>
       </c>
-      <c r="AX236">
-        <v>6</v>
-      </c>
-      <c r="AY236">
-        <v>14</v>
-      </c>
-      <c r="AZ236">
-        <v>13</v>
-      </c>
-      <c r="BA236">
-        <v>6</v>
-      </c>
-      <c r="BB236">
-        <v>2</v>
-      </c>
       <c r="BC236">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD236">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BE236">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF236">
-        <v>2.66</v>
+        <v>3.19</v>
       </c>
       <c r="BG236">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="BH236">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="BI236">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="BJ236">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="BK236">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="BL236">
-        <v>2.29</v>
+        <v>2.58</v>
       </c>
       <c r="BM236">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BN236">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="BO236">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="BP236">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -50206,6 +50209,212 @@
       </c>
       <c r="BP237">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7478987</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45639.70833333334</v>
+      </c>
+      <c r="F238">
+        <v>21</v>
+      </c>
+      <c r="G238" t="s">
+        <v>84</v>
+      </c>
+      <c r="H238" t="s">
+        <v>85</v>
+      </c>
+      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>251</v>
+      </c>
+      <c r="P238" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q238">
+        <v>2.6</v>
+      </c>
+      <c r="R238">
+        <v>2.1</v>
+      </c>
+      <c r="S238">
+        <v>4.5</v>
+      </c>
+      <c r="T238">
+        <v>1.44</v>
+      </c>
+      <c r="U238">
+        <v>2.63</v>
+      </c>
+      <c r="V238">
+        <v>3</v>
+      </c>
+      <c r="W238">
+        <v>1.36</v>
+      </c>
+      <c r="X238">
+        <v>9</v>
+      </c>
+      <c r="Y238">
+        <v>1.07</v>
+      </c>
+      <c r="Z238">
+        <v>1.91</v>
+      </c>
+      <c r="AA238">
+        <v>3.4</v>
+      </c>
+      <c r="AB238">
+        <v>4.2</v>
+      </c>
+      <c r="AC238">
+        <v>1.06</v>
+      </c>
+      <c r="AD238">
+        <v>10</v>
+      </c>
+      <c r="AE238">
+        <v>1.35</v>
+      </c>
+      <c r="AF238">
+        <v>3.25</v>
+      </c>
+      <c r="AG238">
+        <v>1.95</v>
+      </c>
+      <c r="AH238">
+        <v>1.8</v>
+      </c>
+      <c r="AI238">
+        <v>1.83</v>
+      </c>
+      <c r="AJ238">
+        <v>1.83</v>
+      </c>
+      <c r="AK238">
+        <v>1.26</v>
+      </c>
+      <c r="AL238">
+        <v>1.26</v>
+      </c>
+      <c r="AM238">
+        <v>1.88</v>
+      </c>
+      <c r="AN238">
+        <v>1.56</v>
+      </c>
+      <c r="AO238">
+        <v>0.78</v>
+      </c>
+      <c r="AP238">
+        <v>1.7</v>
+      </c>
+      <c r="AQ238">
+        <v>0.7</v>
+      </c>
+      <c r="AR238">
+        <v>1.39</v>
+      </c>
+      <c r="AS238">
+        <v>1</v>
+      </c>
+      <c r="AT238">
+        <v>2.39</v>
+      </c>
+      <c r="AU238">
+        <v>8</v>
+      </c>
+      <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>5</v>
+      </c>
+      <c r="AX238">
+        <v>2</v>
+      </c>
+      <c r="AY238">
+        <v>18</v>
+      </c>
+      <c r="AZ238">
+        <v>5</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>8</v>
+      </c>
+      <c r="BD238">
+        <v>1.79</v>
+      </c>
+      <c r="BE238">
+        <v>6.75</v>
+      </c>
+      <c r="BF238">
+        <v>2.23</v>
+      </c>
+      <c r="BG238">
+        <v>1.05</v>
+      </c>
+      <c r="BH238">
+        <v>6.94</v>
+      </c>
+      <c r="BI238">
+        <v>1.18</v>
+      </c>
+      <c r="BJ238">
+        <v>4.3</v>
+      </c>
+      <c r="BK238">
+        <v>1.36</v>
+      </c>
+      <c r="BL238">
+        <v>2.97</v>
+      </c>
+      <c r="BM238">
+        <v>1.63</v>
+      </c>
+      <c r="BN238">
+        <v>2.25</v>
+      </c>
+      <c r="BO238">
+        <v>2</v>
+      </c>
+      <c r="BP238">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,21 @@
     <t>['8', '23', '29', '65']</t>
   </si>
   <si>
+    <t>['52', '72']</t>
+  </si>
+  <si>
+    <t>['5', '17']</t>
+  </si>
+  <si>
+    <t>['17', '90+5']</t>
+  </si>
+  <si>
+    <t>['19', '88']</t>
+  </si>
+  <si>
+    <t>['32', '40']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1022,6 +1037,15 @@
   </si>
   <si>
     <t>['48', '90+3']</t>
+  </si>
+  <si>
+    <t>['28', '73', '75']</t>
+  </si>
+  <si>
+    <t>['32', '72']</t>
+  </si>
+  <si>
+    <t>['28', '49', '61']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1666,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1720,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>0.64</v>
@@ -1848,7 +1872,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1926,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -2054,7 +2078,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2338,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ5">
         <v>0.91</v>
@@ -2466,7 +2490,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2750,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
         <v>0.91</v>
@@ -2878,7 +2902,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3084,7 +3108,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3290,7 +3314,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3371,7 +3395,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3574,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ11">
         <v>1.27</v>
@@ -3783,7 +3807,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3908,7 +3932,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4114,7 +4138,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4192,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>0.22</v>
@@ -4401,7 +4425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4813,7 +4837,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4938,7 +4962,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5016,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ18">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5428,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5556,7 +5580,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5634,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5762,7 +5786,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6049,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6255,7 +6279,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6461,7 +6485,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6586,7 +6610,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6667,7 +6691,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6873,7 +6897,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7079,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7282,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.91</v>
@@ -7410,7 +7434,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7488,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30">
         <v>0.7</v>
@@ -8106,10 +8130,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ33">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8312,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>0.22</v>
@@ -8440,7 +8464,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8518,7 +8542,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35">
         <v>1.7</v>
@@ -8646,7 +8670,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8930,10 +8954,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9058,7 +9082,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9139,7 +9163,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ38">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -9470,7 +9494,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9676,7 +9700,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9754,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.91</v>
@@ -10088,7 +10112,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10169,7 +10193,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10581,7 +10605,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10787,7 +10811,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ46">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11196,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11402,7 +11426,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11530,7 +11554,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12023,7 +12047,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ52">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12226,7 +12250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -12435,7 +12459,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ54">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12766,7 +12790,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12847,7 +12871,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12972,7 +12996,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13053,7 +13077,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -13256,7 +13280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
         <v>0.91</v>
@@ -13462,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
         <v>1.18</v>
@@ -13590,7 +13614,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13668,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -13796,7 +13820,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14002,7 +14026,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14080,10 +14104,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ62">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14701,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>2.07</v>
@@ -14826,7 +14850,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14907,7 +14931,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15113,7 +15137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15316,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>0.22</v>
@@ -15444,7 +15468,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15731,7 +15755,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15856,7 +15880,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15934,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
         <v>1.27</v>
@@ -16140,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ72">
         <v>0.64</v>
@@ -16346,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16474,7 +16498,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16555,7 +16579,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16758,10 +16782,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ75">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR75">
         <v>1.35</v>
@@ -16886,7 +16910,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17092,7 +17116,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17376,7 +17400,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78">
         <v>1.8</v>
@@ -17504,7 +17528,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17585,7 +17609,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17788,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ80">
         <v>0.8</v>
@@ -17916,7 +17940,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18203,7 +18227,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18818,7 +18842,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ85">
         <v>1.18</v>
@@ -19027,7 +19051,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19233,7 +19257,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.02</v>
@@ -19436,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19564,7 +19588,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20057,7 +20081,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20182,7 +20206,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20263,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20672,7 +20696,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20878,7 +20902,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>0.8</v>
@@ -21084,7 +21108,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ96">
         <v>0.7</v>
@@ -21290,10 +21314,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21418,7 +21442,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21499,7 +21523,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ98">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21911,7 +21935,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22242,7 +22266,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22320,10 +22344,10 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22448,7 +22472,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22732,10 +22756,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22938,7 +22962,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ105">
         <v>0.8</v>
@@ -23353,7 +23377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23559,7 +23583,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23762,10 +23786,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24177,7 +24201,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ111">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24586,7 +24610,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ113">
         <v>0.91</v>
@@ -24792,7 +24816,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114">
         <v>1.7</v>
@@ -24920,7 +24944,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25126,7 +25150,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25410,7 +25434,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117">
         <v>0.91</v>
@@ -25538,7 +25562,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25616,7 +25640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ118">
         <v>1.18</v>
@@ -25822,7 +25846,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ119">
         <v>1.27</v>
@@ -26237,7 +26261,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26568,7 +26592,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26646,7 +26670,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123">
         <v>0.91</v>
@@ -26774,7 +26798,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26852,7 +26876,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124">
         <v>1.18</v>
@@ -26980,7 +27004,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27470,7 +27494,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ127">
         <v>0.64</v>
@@ -28088,7 +28112,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ130">
         <v>1.7</v>
@@ -28216,7 +28240,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28297,7 +28321,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28503,7 +28527,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ132">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28706,7 +28730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ133">
         <v>1.73</v>
@@ -28834,7 +28858,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28915,7 +28939,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ134">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29118,10 +29142,10 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29246,7 +29270,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29324,10 +29348,10 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -29945,7 +29969,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -30070,7 +30094,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30148,10 +30172,10 @@
         <v>0.6</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30276,7 +30300,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30563,7 +30587,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30769,7 +30793,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -30972,7 +30996,7 @@
         <v>0.8</v>
       </c>
       <c r="AP144">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ144">
         <v>0.8</v>
@@ -31100,7 +31124,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31306,7 +31330,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31512,7 +31536,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31590,7 +31614,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ147">
         <v>0.64</v>
@@ -31718,7 +31742,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31796,7 +31820,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ148">
         <v>1.27</v>
@@ -31924,7 +31948,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32002,7 +32026,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ149">
         <v>1.73</v>
@@ -32130,7 +32154,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32336,7 +32360,7 @@
         <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32414,7 +32438,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ151">
         <v>0.91</v>
@@ -32542,7 +32566,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32620,7 +32644,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ152">
         <v>1.18</v>
@@ -32829,7 +32853,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -32954,7 +32978,7 @@
         <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33447,7 +33471,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ156">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR156">
         <v>1.82</v>
@@ -33778,7 +33802,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33856,7 +33880,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ158">
         <v>1.73</v>
@@ -34062,10 +34086,10 @@
         <v>1.33</v>
       </c>
       <c r="AP159">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ159">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -34190,7 +34214,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q160">
         <v>4.75</v>
@@ -34680,7 +34704,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ162">
         <v>0.8</v>
@@ -35014,7 +35038,7 @@
         <v>209</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35092,7 +35116,7 @@
         <v>0.29</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ164">
         <v>0.64</v>
@@ -35301,7 +35325,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR165">
         <v>1.43</v>
@@ -35426,7 +35450,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35504,7 +35528,7 @@
         <v>0.67</v>
       </c>
       <c r="AP166">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ166">
         <v>0.8</v>
@@ -35713,7 +35737,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ167">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR167">
         <v>1.4</v>
@@ -35916,10 +35940,10 @@
         <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -36456,7 +36480,7 @@
         <v>172</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36662,7 +36686,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36740,10 +36764,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36946,10 +36970,10 @@
         <v>0.67</v>
       </c>
       <c r="AP173">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR173">
         <v>1.68</v>
@@ -37074,7 +37098,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37567,7 +37591,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ176">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37692,7 +37716,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37773,7 +37797,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR177">
         <v>1.3</v>
@@ -38182,10 +38206,10 @@
         <v>1.17</v>
       </c>
       <c r="AP179">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR179">
         <v>1.59</v>
@@ -38310,7 +38334,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38722,7 +38746,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39006,7 +39030,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ183">
         <v>1.8</v>
@@ -39134,7 +39158,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39212,7 +39236,7 @@
         <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ184">
         <v>1.73</v>
@@ -39421,7 +39445,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ185">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR185">
         <v>1.45</v>
@@ -39546,7 +39570,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39833,7 +39857,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ187">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR187">
         <v>1.39</v>
@@ -40039,7 +40063,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR188">
         <v>1.36</v>
@@ -40164,7 +40188,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>5.5</v>
@@ -40242,7 +40266,7 @@
         <v>1.43</v>
       </c>
       <c r="AP189">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ189">
         <v>1.4</v>
@@ -40448,7 +40472,7 @@
         <v>0.63</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ190">
         <v>0.64</v>
@@ -40782,7 +40806,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -40860,10 +40884,10 @@
         <v>1.43</v>
       </c>
       <c r="AP192">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ192">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -41194,7 +41218,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41275,7 +41299,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ194">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR194">
         <v>1.31</v>
@@ -41481,7 +41505,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ195">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR195">
         <v>1.39</v>
@@ -41684,7 +41708,7 @@
         <v>0.29</v>
       </c>
       <c r="AP196">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ196">
         <v>0.22</v>
@@ -41890,7 +41914,7 @@
         <v>0.43</v>
       </c>
       <c r="AP197">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ197">
         <v>0.8</v>
@@ -42511,7 +42535,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ200">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR200">
         <v>1.86</v>
@@ -42636,7 +42660,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42717,7 +42741,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ201">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR201">
         <v>1.58</v>
@@ -42920,7 +42944,7 @@
         <v>0.86</v>
       </c>
       <c r="AP202">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ202">
         <v>1.5</v>
@@ -43332,10 +43356,10 @@
         <v>1.67</v>
       </c>
       <c r="AP204">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ204">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -43541,7 +43565,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ205">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR205">
         <v>1.43</v>
@@ -43666,7 +43690,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -43744,10 +43768,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ206">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR206">
         <v>1.61</v>
@@ -43950,10 +43974,10 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR207">
         <v>1.07</v>
@@ -44156,10 +44180,10 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ208">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR208">
         <v>1.36</v>
@@ -44362,10 +44386,10 @@
         <v>0.22</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ209">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR209">
         <v>1.27</v>
@@ -44490,7 +44514,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44571,7 +44595,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ210">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44774,7 +44798,7 @@
         <v>1.78</v>
       </c>
       <c r="AP211">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ211">
         <v>1.7</v>
@@ -44902,7 +44926,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q212">
         <v>2.38</v>
@@ -44980,10 +45004,10 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ212">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR212">
         <v>1.94</v>
@@ -45108,7 +45132,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45186,7 +45210,7 @@
         <v>1.67</v>
       </c>
       <c r="AP213">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ213">
         <v>1.8</v>
@@ -45314,7 +45338,7 @@
         <v>237</v>
       </c>
       <c r="P214" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45392,7 +45416,7 @@
         <v>0.75</v>
       </c>
       <c r="AP214">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ214">
         <v>0.7</v>
@@ -45520,7 +45544,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45601,7 +45625,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ215">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR215">
         <v>1.4</v>
@@ -46344,7 +46368,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -47168,7 +47192,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47374,7 +47398,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47580,7 +47604,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47992,7 +48016,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48404,7 +48428,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48816,7 +48840,7 @@
         <v>247</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49228,7 +49252,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49434,7 +49458,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50415,6 +50439,1860 @@
       </c>
       <c r="BP238">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7478985</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>89</v>
+      </c>
+      <c r="H239" t="s">
+        <v>72</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>197</v>
+      </c>
+      <c r="P239" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q239">
+        <v>2.5</v>
+      </c>
+      <c r="R239">
+        <v>2.1</v>
+      </c>
+      <c r="S239">
+        <v>4.75</v>
+      </c>
+      <c r="T239">
+        <v>1.44</v>
+      </c>
+      <c r="U239">
+        <v>2.63</v>
+      </c>
+      <c r="V239">
+        <v>3.25</v>
+      </c>
+      <c r="W239">
+        <v>1.33</v>
+      </c>
+      <c r="X239">
+        <v>9</v>
+      </c>
+      <c r="Y239">
+        <v>1.07</v>
+      </c>
+      <c r="Z239">
+        <v>1.8</v>
+      </c>
+      <c r="AA239">
+        <v>3.5</v>
+      </c>
+      <c r="AB239">
+        <v>4.33</v>
+      </c>
+      <c r="AC239">
+        <v>1.06</v>
+      </c>
+      <c r="AD239">
+        <v>10</v>
+      </c>
+      <c r="AE239">
+        <v>1.36</v>
+      </c>
+      <c r="AF239">
+        <v>3.2</v>
+      </c>
+      <c r="AG239">
+        <v>2</v>
+      </c>
+      <c r="AH239">
+        <v>1.71</v>
+      </c>
+      <c r="AI239">
+        <v>1.91</v>
+      </c>
+      <c r="AJ239">
+        <v>1.8</v>
+      </c>
+      <c r="AK239">
+        <v>1.22</v>
+      </c>
+      <c r="AL239">
+        <v>1.25</v>
+      </c>
+      <c r="AM239">
+        <v>2</v>
+      </c>
+      <c r="AN239">
+        <v>1.44</v>
+      </c>
+      <c r="AO239">
+        <v>1.11</v>
+      </c>
+      <c r="AP239">
+        <v>1.4</v>
+      </c>
+      <c r="AQ239">
+        <v>1.1</v>
+      </c>
+      <c r="AR239">
+        <v>1.43</v>
+      </c>
+      <c r="AS239">
+        <v>0.86</v>
+      </c>
+      <c r="AT239">
+        <v>2.29</v>
+      </c>
+      <c r="AU239">
+        <v>6</v>
+      </c>
+      <c r="AV239">
+        <v>3</v>
+      </c>
+      <c r="AW239">
+        <v>7</v>
+      </c>
+      <c r="AX239">
+        <v>2</v>
+      </c>
+      <c r="AY239">
+        <v>18</v>
+      </c>
+      <c r="AZ239">
+        <v>6</v>
+      </c>
+      <c r="BA239">
+        <v>10</v>
+      </c>
+      <c r="BB239">
+        <v>3</v>
+      </c>
+      <c r="BC239">
+        <v>13</v>
+      </c>
+      <c r="BD239">
+        <v>1.47</v>
+      </c>
+      <c r="BE239">
+        <v>7.5</v>
+      </c>
+      <c r="BF239">
+        <v>2.95</v>
+      </c>
+      <c r="BG239">
+        <v>1.1</v>
+      </c>
+      <c r="BH239">
+        <v>5.65</v>
+      </c>
+      <c r="BI239">
+        <v>1.25</v>
+      </c>
+      <c r="BJ239">
+        <v>3.63</v>
+      </c>
+      <c r="BK239">
+        <v>1.47</v>
+      </c>
+      <c r="BL239">
+        <v>2.6</v>
+      </c>
+      <c r="BM239">
+        <v>1.79</v>
+      </c>
+      <c r="BN239">
+        <v>2.02</v>
+      </c>
+      <c r="BO239">
+        <v>2.21</v>
+      </c>
+      <c r="BP239">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7478986</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>82</v>
+      </c>
+      <c r="H240" t="s">
+        <v>77</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>252</v>
+      </c>
+      <c r="P240" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q240">
+        <v>2.5</v>
+      </c>
+      <c r="R240">
+        <v>2.2</v>
+      </c>
+      <c r="S240">
+        <v>4.5</v>
+      </c>
+      <c r="T240">
+        <v>1.36</v>
+      </c>
+      <c r="U240">
+        <v>3</v>
+      </c>
+      <c r="V240">
+        <v>2.75</v>
+      </c>
+      <c r="W240">
+        <v>1.4</v>
+      </c>
+      <c r="X240">
+        <v>7</v>
+      </c>
+      <c r="Y240">
+        <v>1.1</v>
+      </c>
+      <c r="Z240">
+        <v>1.8</v>
+      </c>
+      <c r="AA240">
+        <v>3.5</v>
+      </c>
+      <c r="AB240">
+        <v>4.33</v>
+      </c>
+      <c r="AC240">
+        <v>1.05</v>
+      </c>
+      <c r="AD240">
+        <v>9</v>
+      </c>
+      <c r="AE240">
+        <v>1.28</v>
+      </c>
+      <c r="AF240">
+        <v>3.5</v>
+      </c>
+      <c r="AG240">
+        <v>1.81</v>
+      </c>
+      <c r="AH240">
+        <v>2.01</v>
+      </c>
+      <c r="AI240">
+        <v>1.73</v>
+      </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
+      <c r="AK240">
+        <v>1.2</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>1.93</v>
+      </c>
+      <c r="AN240">
+        <v>1.22</v>
+      </c>
+      <c r="AO240">
+        <v>0.89</v>
+      </c>
+      <c r="AP240">
+        <v>1.4</v>
+      </c>
+      <c r="AQ240">
+        <v>0.8</v>
+      </c>
+      <c r="AR240">
+        <v>1.9</v>
+      </c>
+      <c r="AS240">
+        <v>1.36</v>
+      </c>
+      <c r="AT240">
+        <v>3.26</v>
+      </c>
+      <c r="AU240">
+        <v>8</v>
+      </c>
+      <c r="AV240">
+        <v>5</v>
+      </c>
+      <c r="AW240">
+        <v>6</v>
+      </c>
+      <c r="AX240">
+        <v>6</v>
+      </c>
+      <c r="AY240">
+        <v>20</v>
+      </c>
+      <c r="AZ240">
+        <v>11</v>
+      </c>
+      <c r="BA240">
+        <v>10</v>
+      </c>
+      <c r="BB240">
+        <v>2</v>
+      </c>
+      <c r="BC240">
+        <v>12</v>
+      </c>
+      <c r="BD240">
+        <v>1.65</v>
+      </c>
+      <c r="BE240">
+        <v>7</v>
+      </c>
+      <c r="BF240">
+        <v>2.43</v>
+      </c>
+      <c r="BG240">
+        <v>1.08</v>
+      </c>
+      <c r="BH240">
+        <v>5.88</v>
+      </c>
+      <c r="BI240">
+        <v>1.23</v>
+      </c>
+      <c r="BJ240">
+        <v>3.76</v>
+      </c>
+      <c r="BK240">
+        <v>1.45</v>
+      </c>
+      <c r="BL240">
+        <v>2.67</v>
+      </c>
+      <c r="BM240">
+        <v>1.76</v>
+      </c>
+      <c r="BN240">
+        <v>2.07</v>
+      </c>
+      <c r="BO240">
+        <v>2.16</v>
+      </c>
+      <c r="BP240">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7478991</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" t="s">
+        <v>225</v>
+      </c>
+      <c r="P241" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q241">
+        <v>5.5</v>
+      </c>
+      <c r="R241">
+        <v>2.2</v>
+      </c>
+      <c r="S241">
+        <v>2.25</v>
+      </c>
+      <c r="T241">
+        <v>1.4</v>
+      </c>
+      <c r="U241">
+        <v>2.75</v>
+      </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
+      <c r="W241">
+        <v>1.36</v>
+      </c>
+      <c r="X241">
+        <v>8</v>
+      </c>
+      <c r="Y241">
+        <v>1.08</v>
+      </c>
+      <c r="Z241">
+        <v>5</v>
+      </c>
+      <c r="AA241">
+        <v>4</v>
+      </c>
+      <c r="AB241">
+        <v>1.6</v>
+      </c>
+      <c r="AC241">
+        <v>1.05</v>
+      </c>
+      <c r="AD241">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <v>1.33</v>
+      </c>
+      <c r="AF241">
+        <v>3.4</v>
+      </c>
+      <c r="AG241">
+        <v>2</v>
+      </c>
+      <c r="AH241">
+        <v>1.85</v>
+      </c>
+      <c r="AI241">
+        <v>1.91</v>
+      </c>
+      <c r="AJ241">
+        <v>1.8</v>
+      </c>
+      <c r="AK241">
+        <v>2.35</v>
+      </c>
+      <c r="AL241">
+        <v>1.2</v>
+      </c>
+      <c r="AM241">
+        <v>1.15</v>
+      </c>
+      <c r="AN241">
+        <v>1.4</v>
+      </c>
+      <c r="AO241">
+        <v>1.44</v>
+      </c>
+      <c r="AP241">
+        <v>1.36</v>
+      </c>
+      <c r="AQ241">
+        <v>1.4</v>
+      </c>
+      <c r="AR241">
+        <v>1.26</v>
+      </c>
+      <c r="AS241">
+        <v>1.47</v>
+      </c>
+      <c r="AT241">
+        <v>2.73</v>
+      </c>
+      <c r="AU241">
+        <v>3</v>
+      </c>
+      <c r="AV241">
+        <v>5</v>
+      </c>
+      <c r="AW241">
+        <v>2</v>
+      </c>
+      <c r="AX241">
+        <v>5</v>
+      </c>
+      <c r="AY241">
+        <v>6</v>
+      </c>
+      <c r="AZ241">
+        <v>19</v>
+      </c>
+      <c r="BA241">
+        <v>2</v>
+      </c>
+      <c r="BB241">
+        <v>8</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>2.95</v>
+      </c>
+      <c r="BE241">
+        <v>6.75</v>
+      </c>
+      <c r="BF241">
+        <v>1.47</v>
+      </c>
+      <c r="BG241">
+        <v>1.25</v>
+      </c>
+      <c r="BH241">
+        <v>3.6</v>
+      </c>
+      <c r="BI241">
+        <v>1.5</v>
+      </c>
+      <c r="BJ241">
+        <v>2.54</v>
+      </c>
+      <c r="BK241">
+        <v>1.82</v>
+      </c>
+      <c r="BL241">
+        <v>1.98</v>
+      </c>
+      <c r="BM241">
+        <v>2.31</v>
+      </c>
+      <c r="BN241">
+        <v>1.6</v>
+      </c>
+      <c r="BO241">
+        <v>3.07</v>
+      </c>
+      <c r="BP241">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7478994</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F242">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>88</v>
+      </c>
+      <c r="H242" t="s">
+        <v>93</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>3</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>3</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242" t="s">
+        <v>253</v>
+      </c>
+      <c r="P242" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q242">
+        <v>3.5</v>
+      </c>
+      <c r="R242">
+        <v>2.05</v>
+      </c>
+      <c r="S242">
+        <v>3.4</v>
+      </c>
+      <c r="T242">
+        <v>1.5</v>
+      </c>
+      <c r="U242">
+        <v>2.5</v>
+      </c>
+      <c r="V242">
+        <v>3.4</v>
+      </c>
+      <c r="W242">
+        <v>1.3</v>
+      </c>
+      <c r="X242">
+        <v>10</v>
+      </c>
+      <c r="Y242">
+        <v>1.06</v>
+      </c>
+      <c r="Z242">
+        <v>2.62</v>
+      </c>
+      <c r="AA242">
+        <v>3.1</v>
+      </c>
+      <c r="AB242">
+        <v>2.7</v>
+      </c>
+      <c r="AC242">
+        <v>1.08</v>
+      </c>
+      <c r="AD242">
+        <v>8.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.42</v>
+      </c>
+      <c r="AF242">
+        <v>2.9</v>
+      </c>
+      <c r="AG242">
+        <v>2.15</v>
+      </c>
+      <c r="AH242">
+        <v>1.62</v>
+      </c>
+      <c r="AI242">
+        <v>1.83</v>
+      </c>
+      <c r="AJ242">
+        <v>1.83</v>
+      </c>
+      <c r="AK242">
+        <v>1.48</v>
+      </c>
+      <c r="AL242">
+        <v>1.3</v>
+      </c>
+      <c r="AM242">
+        <v>1.5</v>
+      </c>
+      <c r="AN242">
+        <v>1.44</v>
+      </c>
+      <c r="AO242">
+        <v>1.5</v>
+      </c>
+      <c r="AP242">
+        <v>1.3</v>
+      </c>
+      <c r="AQ242">
+        <v>1.64</v>
+      </c>
+      <c r="AR242">
+        <v>1.43</v>
+      </c>
+      <c r="AS242">
+        <v>1.23</v>
+      </c>
+      <c r="AT242">
+        <v>2.66</v>
+      </c>
+      <c r="AU242">
+        <v>5</v>
+      </c>
+      <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>2</v>
+      </c>
+      <c r="AX242">
+        <v>6</v>
+      </c>
+      <c r="AY242">
+        <v>10</v>
+      </c>
+      <c r="AZ242">
+        <v>14</v>
+      </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>4</v>
+      </c>
+      <c r="BC242">
+        <v>6</v>
+      </c>
+      <c r="BD242">
+        <v>2.07</v>
+      </c>
+      <c r="BE242">
+        <v>6.75</v>
+      </c>
+      <c r="BF242">
+        <v>1.9</v>
+      </c>
+      <c r="BG242">
+        <v>1.22</v>
+      </c>
+      <c r="BH242">
+        <v>3.65</v>
+      </c>
+      <c r="BI242">
+        <v>1.4</v>
+      </c>
+      <c r="BJ242">
+        <v>2.65</v>
+      </c>
+      <c r="BK242">
+        <v>1.65</v>
+      </c>
+      <c r="BL242">
+        <v>2.07</v>
+      </c>
+      <c r="BM242">
+        <v>2.02</v>
+      </c>
+      <c r="BN242">
+        <v>1.68</v>
+      </c>
+      <c r="BO242">
+        <v>2.55</v>
+      </c>
+      <c r="BP242">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7478993</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F243">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>75</v>
+      </c>
+      <c r="H243" t="s">
+        <v>78</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>4</v>
+      </c>
+      <c r="O243" t="s">
+        <v>254</v>
+      </c>
+      <c r="P243" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q243">
+        <v>3.1</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
+        <v>3.75</v>
+      </c>
+      <c r="T243">
+        <v>1.44</v>
+      </c>
+      <c r="U243">
+        <v>2.63</v>
+      </c>
+      <c r="V243">
+        <v>3.25</v>
+      </c>
+      <c r="W243">
+        <v>1.33</v>
+      </c>
+      <c r="X243">
+        <v>10</v>
+      </c>
+      <c r="Y243">
+        <v>1.06</v>
+      </c>
+      <c r="Z243">
+        <v>2.25</v>
+      </c>
+      <c r="AA243">
+        <v>3.4</v>
+      </c>
+      <c r="AB243">
+        <v>3</v>
+      </c>
+      <c r="AC243">
+        <v>1.07</v>
+      </c>
+      <c r="AD243">
+        <v>10</v>
+      </c>
+      <c r="AE243">
+        <v>1.38</v>
+      </c>
+      <c r="AF243">
+        <v>3.1</v>
+      </c>
+      <c r="AG243">
+        <v>1.93</v>
+      </c>
+      <c r="AH243">
+        <v>1.87</v>
+      </c>
+      <c r="AI243">
+        <v>1.83</v>
+      </c>
+      <c r="AJ243">
+        <v>1.83</v>
+      </c>
+      <c r="AK243">
+        <v>1.38</v>
+      </c>
+      <c r="AL243">
+        <v>1.28</v>
+      </c>
+      <c r="AM243">
+        <v>1.63</v>
+      </c>
+      <c r="AN243">
+        <v>1.3</v>
+      </c>
+      <c r="AO243">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP243">
+        <v>1.27</v>
+      </c>
+      <c r="AQ243">
+        <v>0.6</v>
+      </c>
+      <c r="AR243">
+        <v>1.27</v>
+      </c>
+      <c r="AS243">
+        <v>1.1</v>
+      </c>
+      <c r="AT243">
+        <v>2.37</v>
+      </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
+      <c r="AV243">
+        <v>5</v>
+      </c>
+      <c r="AW243">
+        <v>4</v>
+      </c>
+      <c r="AX243">
+        <v>6</v>
+      </c>
+      <c r="AY243">
+        <v>15</v>
+      </c>
+      <c r="AZ243">
+        <v>20</v>
+      </c>
+      <c r="BA243">
+        <v>4</v>
+      </c>
+      <c r="BB243">
+        <v>4</v>
+      </c>
+      <c r="BC243">
+        <v>8</v>
+      </c>
+      <c r="BD243">
+        <v>1.56</v>
+      </c>
+      <c r="BE243">
+        <v>7</v>
+      </c>
+      <c r="BF243">
+        <v>2.65</v>
+      </c>
+      <c r="BG243">
+        <v>1.18</v>
+      </c>
+      <c r="BH243">
+        <v>4.1</v>
+      </c>
+      <c r="BI243">
+        <v>1.32</v>
+      </c>
+      <c r="BJ243">
+        <v>3.05</v>
+      </c>
+      <c r="BK243">
+        <v>1.53</v>
+      </c>
+      <c r="BL243">
+        <v>2.32</v>
+      </c>
+      <c r="BM243">
+        <v>1.83</v>
+      </c>
+      <c r="BN243">
+        <v>1.85</v>
+      </c>
+      <c r="BO243">
+        <v>2.28</v>
+      </c>
+      <c r="BP243">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7478992</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>86</v>
+      </c>
+      <c r="H244" t="s">
+        <v>92</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>255</v>
+      </c>
+      <c r="P244" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q244">
+        <v>1.91</v>
+      </c>
+      <c r="R244">
+        <v>2.3</v>
+      </c>
+      <c r="S244">
+        <v>8.5</v>
+      </c>
+      <c r="T244">
+        <v>1.4</v>
+      </c>
+      <c r="U244">
+        <v>2.75</v>
+      </c>
+      <c r="V244">
+        <v>3</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>8</v>
+      </c>
+      <c r="Y244">
+        <v>1.08</v>
+      </c>
+      <c r="Z244">
+        <v>1.3</v>
+      </c>
+      <c r="AA244">
+        <v>4.8</v>
+      </c>
+      <c r="AB244">
+        <v>9</v>
+      </c>
+      <c r="AC244">
+        <v>1.05</v>
+      </c>
+      <c r="AD244">
+        <v>11</v>
+      </c>
+      <c r="AE244">
+        <v>1.32</v>
+      </c>
+      <c r="AF244">
+        <v>3.4</v>
+      </c>
+      <c r="AG244">
+        <v>1.86</v>
+      </c>
+      <c r="AH244">
+        <v>1.94</v>
+      </c>
+      <c r="AI244">
+        <v>2.38</v>
+      </c>
+      <c r="AJ244">
+        <v>1.53</v>
+      </c>
+      <c r="AK244">
+        <v>1.05</v>
+      </c>
+      <c r="AL244">
+        <v>1.16</v>
+      </c>
+      <c r="AM244">
+        <v>3.1</v>
+      </c>
+      <c r="AN244">
+        <v>2.78</v>
+      </c>
+      <c r="AO244">
+        <v>0.2</v>
+      </c>
+      <c r="AP244">
+        <v>2.8</v>
+      </c>
+      <c r="AQ244">
+        <v>0.18</v>
+      </c>
+      <c r="AR244">
+        <v>1.5</v>
+      </c>
+      <c r="AS244">
+        <v>0.73</v>
+      </c>
+      <c r="AT244">
+        <v>2.23</v>
+      </c>
+      <c r="AU244">
+        <v>4</v>
+      </c>
+      <c r="AV244">
+        <v>5</v>
+      </c>
+      <c r="AW244">
+        <v>4</v>
+      </c>
+      <c r="AX244">
+        <v>5</v>
+      </c>
+      <c r="AY244">
+        <v>11</v>
+      </c>
+      <c r="AZ244">
+        <v>13</v>
+      </c>
+      <c r="BA244">
+        <v>2</v>
+      </c>
+      <c r="BB244">
+        <v>3</v>
+      </c>
+      <c r="BC244">
+        <v>5</v>
+      </c>
+      <c r="BD244">
+        <v>1.24</v>
+      </c>
+      <c r="BE244">
+        <v>8.5</v>
+      </c>
+      <c r="BF244">
+        <v>4.35</v>
+      </c>
+      <c r="BG244">
+        <v>1.04</v>
+      </c>
+      <c r="BH244">
+        <v>7.48</v>
+      </c>
+      <c r="BI244">
+        <v>1.15</v>
+      </c>
+      <c r="BJ244">
+        <v>4.58</v>
+      </c>
+      <c r="BK244">
+        <v>1.33</v>
+      </c>
+      <c r="BL244">
+        <v>3.12</v>
+      </c>
+      <c r="BM244">
+        <v>1.58</v>
+      </c>
+      <c r="BN244">
+        <v>2.34</v>
+      </c>
+      <c r="BO244">
+        <v>1.92</v>
+      </c>
+      <c r="BP244">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7478988</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F245">
+        <v>21</v>
+      </c>
+      <c r="G245" t="s">
+        <v>79</v>
+      </c>
+      <c r="H245" t="s">
+        <v>74</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>124</v>
+      </c>
+      <c r="P245" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q245">
+        <v>2.25</v>
+      </c>
+      <c r="R245">
+        <v>2.2</v>
+      </c>
+      <c r="S245">
+        <v>6</v>
+      </c>
+      <c r="T245">
+        <v>1.44</v>
+      </c>
+      <c r="U245">
+        <v>2.63</v>
+      </c>
+      <c r="V245">
+        <v>3.25</v>
+      </c>
+      <c r="W245">
+        <v>1.33</v>
+      </c>
+      <c r="X245">
+        <v>9</v>
+      </c>
+      <c r="Y245">
+        <v>1.07</v>
+      </c>
+      <c r="Z245">
+        <v>1.6</v>
+      </c>
+      <c r="AA245">
+        <v>4</v>
+      </c>
+      <c r="AB245">
+        <v>5</v>
+      </c>
+      <c r="AC245">
+        <v>1.05</v>
+      </c>
+      <c r="AD245">
+        <v>9</v>
+      </c>
+      <c r="AE245">
+        <v>1.35</v>
+      </c>
+      <c r="AF245">
+        <v>3.1</v>
+      </c>
+      <c r="AG245">
+        <v>2</v>
+      </c>
+      <c r="AH245">
+        <v>1.7</v>
+      </c>
+      <c r="AI245">
+        <v>2.1</v>
+      </c>
+      <c r="AJ245">
+        <v>1.67</v>
+      </c>
+      <c r="AK245">
+        <v>1.15</v>
+      </c>
+      <c r="AL245">
+        <v>1.18</v>
+      </c>
+      <c r="AM245">
+        <v>2.25</v>
+      </c>
+      <c r="AN245">
+        <v>1.7</v>
+      </c>
+      <c r="AO245">
+        <v>1</v>
+      </c>
+      <c r="AP245">
+        <v>1.82</v>
+      </c>
+      <c r="AQ245">
+        <v>0.89</v>
+      </c>
+      <c r="AR245">
+        <v>1.65</v>
+      </c>
+      <c r="AS245">
+        <v>1.18</v>
+      </c>
+      <c r="AT245">
+        <v>2.83</v>
+      </c>
+      <c r="AU245">
+        <v>3</v>
+      </c>
+      <c r="AV245">
+        <v>5</v>
+      </c>
+      <c r="AW245">
+        <v>6</v>
+      </c>
+      <c r="AX245">
+        <v>2</v>
+      </c>
+      <c r="AY245">
+        <v>12</v>
+      </c>
+      <c r="AZ245">
+        <v>13</v>
+      </c>
+      <c r="BA245">
+        <v>3</v>
+      </c>
+      <c r="BB245">
+        <v>4</v>
+      </c>
+      <c r="BC245">
+        <v>7</v>
+      </c>
+      <c r="BD245">
+        <v>1.33</v>
+      </c>
+      <c r="BE245">
+        <v>7.5</v>
+      </c>
+      <c r="BF245">
+        <v>3.55</v>
+      </c>
+      <c r="BG245">
+        <v>1.14</v>
+      </c>
+      <c r="BH245">
+        <v>4.78</v>
+      </c>
+      <c r="BI245">
+        <v>1.32</v>
+      </c>
+      <c r="BJ245">
+        <v>3.17</v>
+      </c>
+      <c r="BK245">
+        <v>1.59</v>
+      </c>
+      <c r="BL245">
+        <v>2.34</v>
+      </c>
+      <c r="BM245">
+        <v>1.95</v>
+      </c>
+      <c r="BN245">
+        <v>1.85</v>
+      </c>
+      <c r="BO245">
+        <v>2.45</v>
+      </c>
+      <c r="BP245">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7478984</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F246">
+        <v>21</v>
+      </c>
+      <c r="G246" t="s">
+        <v>70</v>
+      </c>
+      <c r="H246" t="s">
+        <v>81</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>256</v>
+      </c>
+      <c r="P246" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q246">
+        <v>3</v>
+      </c>
+      <c r="R246">
+        <v>2.05</v>
+      </c>
+      <c r="S246">
+        <v>3.75</v>
+      </c>
+      <c r="T246">
+        <v>1.44</v>
+      </c>
+      <c r="U246">
+        <v>2.63</v>
+      </c>
+      <c r="V246">
+        <v>3.4</v>
+      </c>
+      <c r="W246">
+        <v>1.3</v>
+      </c>
+      <c r="X246">
+        <v>10</v>
+      </c>
+      <c r="Y246">
+        <v>1.06</v>
+      </c>
+      <c r="Z246">
+        <v>2.2</v>
+      </c>
+      <c r="AA246">
+        <v>3.25</v>
+      </c>
+      <c r="AB246">
+        <v>3.3</v>
+      </c>
+      <c r="AC246">
+        <v>1.07</v>
+      </c>
+      <c r="AD246">
+        <v>9.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.4</v>
+      </c>
+      <c r="AF246">
+        <v>3</v>
+      </c>
+      <c r="AG246">
+        <v>2.1</v>
+      </c>
+      <c r="AH246">
+        <v>1.63</v>
+      </c>
+      <c r="AI246">
+        <v>1.91</v>
+      </c>
+      <c r="AJ246">
+        <v>1.8</v>
+      </c>
+      <c r="AK246">
+        <v>1.38</v>
+      </c>
+      <c r="AL246">
+        <v>1.28</v>
+      </c>
+      <c r="AM246">
+        <v>1.63</v>
+      </c>
+      <c r="AN246">
+        <v>2.11</v>
+      </c>
+      <c r="AO246">
+        <v>0.44</v>
+      </c>
+      <c r="AP246">
+        <v>2.2</v>
+      </c>
+      <c r="AQ246">
+        <v>0.4</v>
+      </c>
+      <c r="AR246">
+        <v>1.31</v>
+      </c>
+      <c r="AS246">
+        <v>1.16</v>
+      </c>
+      <c r="AT246">
+        <v>2.47</v>
+      </c>
+      <c r="AU246">
+        <v>7</v>
+      </c>
+      <c r="AV246">
+        <v>5</v>
+      </c>
+      <c r="AW246">
+        <v>3</v>
+      </c>
+      <c r="AX246">
+        <v>3</v>
+      </c>
+      <c r="AY246">
+        <v>13</v>
+      </c>
+      <c r="AZ246">
+        <v>11</v>
+      </c>
+      <c r="BA246">
+        <v>4</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>8</v>
+      </c>
+      <c r="BD246">
+        <v>2.38</v>
+      </c>
+      <c r="BE246">
+        <v>7</v>
+      </c>
+      <c r="BF246">
+        <v>1.68</v>
+      </c>
+      <c r="BG246">
+        <v>1.11</v>
+      </c>
+      <c r="BH246">
+        <v>5.33</v>
+      </c>
+      <c r="BI246">
+        <v>1.27</v>
+      </c>
+      <c r="BJ246">
+        <v>3.46</v>
+      </c>
+      <c r="BK246">
+        <v>1.51</v>
+      </c>
+      <c r="BL246">
+        <v>2.5</v>
+      </c>
+      <c r="BM246">
+        <v>1.82</v>
+      </c>
+      <c r="BN246">
+        <v>1.98</v>
+      </c>
+      <c r="BO246">
+        <v>2.29</v>
+      </c>
+      <c r="BP246">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7478990</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>73</v>
+      </c>
+      <c r="H247" t="s">
+        <v>80</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>3</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>244</v>
+      </c>
+      <c r="P247" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q247">
+        <v>3.6</v>
+      </c>
+      <c r="R247">
+        <v>2.2</v>
+      </c>
+      <c r="S247">
+        <v>3</v>
+      </c>
+      <c r="T247">
+        <v>1.4</v>
+      </c>
+      <c r="U247">
+        <v>2.75</v>
+      </c>
+      <c r="V247">
+        <v>2.75</v>
+      </c>
+      <c r="W247">
+        <v>1.4</v>
+      </c>
+      <c r="X247">
+        <v>8</v>
+      </c>
+      <c r="Y247">
+        <v>1.08</v>
+      </c>
+      <c r="Z247">
+        <v>3</v>
+      </c>
+      <c r="AA247">
+        <v>3.25</v>
+      </c>
+      <c r="AB247">
+        <v>2.3</v>
+      </c>
+      <c r="AC247">
+        <v>1.05</v>
+      </c>
+      <c r="AD247">
+        <v>12</v>
+      </c>
+      <c r="AE247">
+        <v>1.3</v>
+      </c>
+      <c r="AF247">
+        <v>3.6</v>
+      </c>
+      <c r="AG247">
+        <v>1.99</v>
+      </c>
+      <c r="AH247">
+        <v>1.81</v>
+      </c>
+      <c r="AI247">
+        <v>1.67</v>
+      </c>
+      <c r="AJ247">
+        <v>2.1</v>
+      </c>
+      <c r="AK247">
+        <v>1.53</v>
+      </c>
+      <c r="AL247">
+        <v>1.28</v>
+      </c>
+      <c r="AM247">
+        <v>1.48</v>
+      </c>
+      <c r="AN247">
+        <v>1.6</v>
+      </c>
+      <c r="AO247">
+        <v>1.44</v>
+      </c>
+      <c r="AP247">
+        <v>1.45</v>
+      </c>
+      <c r="AQ247">
+        <v>1.6</v>
+      </c>
+      <c r="AR247">
+        <v>1.05</v>
+      </c>
+      <c r="AS247">
+        <v>1.08</v>
+      </c>
+      <c r="AT247">
+        <v>2.13</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>10</v>
+      </c>
+      <c r="AW247">
+        <v>1</v>
+      </c>
+      <c r="AX247">
+        <v>4</v>
+      </c>
+      <c r="AY247">
+        <v>12</v>
+      </c>
+      <c r="AZ247">
+        <v>16</v>
+      </c>
+      <c r="BA247">
+        <v>7</v>
+      </c>
+      <c r="BB247">
+        <v>11</v>
+      </c>
+      <c r="BC247">
+        <v>18</v>
+      </c>
+      <c r="BD247">
+        <v>2.48</v>
+      </c>
+      <c r="BE247">
+        <v>7</v>
+      </c>
+      <c r="BF247">
+        <v>1.64</v>
+      </c>
+      <c r="BG247">
+        <v>1.13</v>
+      </c>
+      <c r="BH247">
+        <v>4.88</v>
+      </c>
+      <c r="BI247">
+        <v>1.31</v>
+      </c>
+      <c r="BJ247">
+        <v>3.22</v>
+      </c>
+      <c r="BK247">
+        <v>1.57</v>
+      </c>
+      <c r="BL247">
+        <v>2.37</v>
+      </c>
+      <c r="BM247">
+        <v>1.92</v>
+      </c>
+      <c r="BN247">
+        <v>1.88</v>
+      </c>
+      <c r="BO247">
+        <v>2.42</v>
+      </c>
+      <c r="BP247">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -52315,7 +52315,7 @@
         <v>69</v>
       </c>
       <c r="E248" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -52450,13 +52450,13 @@
         <v>3</v>
       </c>
       <c r="AX248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY248">
         <v>15</v>
       </c>
       <c r="AZ248">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA248">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['35', '50']</t>
   </si>
   <si>
+    <t>['89', '90+2']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1675,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1753,7 +1756,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1878,7 +1881,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2084,7 +2087,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2496,7 +2499,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2908,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3114,7 +3117,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3320,7 +3323,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3938,7 +3941,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4016,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.91</v>
@@ -4144,7 +4147,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4968,7 +4971,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5586,7 +5589,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5792,7 +5795,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6616,7 +6619,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7440,7 +7443,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7727,7 +7730,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -8470,7 +8473,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8676,7 +8679,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9088,7 +9091,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9166,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.1</v>
@@ -9500,7 +9503,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9706,7 +9709,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10118,7 +10121,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11560,7 +11563,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12796,7 +12799,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -13002,7 +13005,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13620,7 +13623,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13826,7 +13829,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14032,7 +14035,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14856,7 +14859,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15474,7 +15477,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15758,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>1.6</v>
@@ -15886,7 +15889,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16173,7 +16176,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16504,7 +16507,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16916,7 +16919,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17122,7 +17125,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17534,7 +17537,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17946,7 +17949,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -19594,7 +19597,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19672,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>0.22</v>
@@ -19881,7 +19884,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20212,7 +20215,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21448,7 +21451,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22272,7 +22275,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22478,7 +22481,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -24410,7 +24413,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
         <v>0.8</v>
@@ -24950,7 +24953,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25156,7 +25159,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25568,7 +25571,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26061,7 +26064,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ120">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26598,7 +26601,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26804,7 +26807,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -27010,7 +27013,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27503,7 +27506,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ127">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -28246,7 +28249,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28324,7 +28327,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>1.64</v>
@@ -28864,7 +28867,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29276,7 +29279,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29688,7 +29691,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -30512,7 +30515,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -31130,7 +31133,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31336,7 +31339,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31414,7 +31417,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146">
         <v>1.55</v>
@@ -31542,7 +31545,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31748,7 +31751,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31829,7 +31832,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ148">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -31954,7 +31957,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32160,7 +32163,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32572,7 +32575,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32984,7 +32987,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33396,7 +33399,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33808,7 +33811,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34426,7 +34429,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -35250,7 +35253,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35456,7 +35459,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35537,7 +35540,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR166">
         <v>1.94</v>
@@ -35740,7 +35743,7 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ167">
         <v>0.6</v>
@@ -36692,7 +36695,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36898,7 +36901,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37310,7 +37313,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37722,7 +37725,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38340,7 +38343,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38752,7 +38755,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39164,7 +39167,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39654,7 +39657,7 @@
         <v>1.14</v>
       </c>
       <c r="AP186">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186">
         <v>0.8</v>
@@ -39988,7 +39991,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40275,7 +40278,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ189">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR189">
         <v>1.2</v>
@@ -40606,7 +40609,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40812,7 +40815,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41636,7 +41639,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42666,7 +42669,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43902,7 +43905,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44520,7 +44523,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44726,7 +44729,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -45138,7 +45141,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45344,7 +45347,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45550,7 +45553,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46043,7 +46046,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ217">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR217">
         <v>1.92</v>
@@ -46374,7 +46377,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46580,7 +46583,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -47404,7 +47407,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47482,7 +47485,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ224">
         <v>1.27</v>
@@ -47610,7 +47613,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -48022,7 +48025,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48434,7 +48437,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48640,7 +48643,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -48718,7 +48721,7 @@
         <v>0.89</v>
       </c>
       <c r="AP230">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ230">
         <v>0.8</v>
@@ -48927,7 +48930,7 @@
         <v>2</v>
       </c>
       <c r="AQ231">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR231">
         <v>1.4</v>
@@ -49258,7 +49261,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49464,7 +49467,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50700,7 +50703,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51318,7 +51321,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51524,7 +51527,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51936,7 +51939,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52554,7 +52557,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52711,6 +52714,212 @@
       </c>
       <c r="BP249">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7479000</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45646.70833333334</v>
+      </c>
+      <c r="F250">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>81</v>
+      </c>
+      <c r="H250" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>258</v>
+      </c>
+      <c r="P250" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q250">
+        <v>2.88</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>4</v>
+      </c>
+      <c r="T250">
+        <v>1.44</v>
+      </c>
+      <c r="U250">
+        <v>2.63</v>
+      </c>
+      <c r="V250">
+        <v>3.25</v>
+      </c>
+      <c r="W250">
+        <v>1.33</v>
+      </c>
+      <c r="X250">
+        <v>10</v>
+      </c>
+      <c r="Y250">
+        <v>1.06</v>
+      </c>
+      <c r="Z250">
+        <v>2</v>
+      </c>
+      <c r="AA250">
+        <v>3.6</v>
+      </c>
+      <c r="AB250">
+        <v>3.6</v>
+      </c>
+      <c r="AC250">
+        <v>1.07</v>
+      </c>
+      <c r="AD250">
+        <v>8</v>
+      </c>
+      <c r="AE250">
+        <v>1.36</v>
+      </c>
+      <c r="AF250">
+        <v>3.1</v>
+      </c>
+      <c r="AG250">
+        <v>1.75</v>
+      </c>
+      <c r="AH250">
+        <v>1.95</v>
+      </c>
+      <c r="AI250">
+        <v>1.83</v>
+      </c>
+      <c r="AJ250">
+        <v>1.83</v>
+      </c>
+      <c r="AK250">
+        <v>1.28</v>
+      </c>
+      <c r="AL250">
+        <v>1.28</v>
+      </c>
+      <c r="AM250">
+        <v>1.7</v>
+      </c>
+      <c r="AN250">
+        <v>1.64</v>
+      </c>
+      <c r="AO250">
+        <v>0.64</v>
+      </c>
+      <c r="AP250">
+        <v>1.75</v>
+      </c>
+      <c r="AQ250">
+        <v>0.58</v>
+      </c>
+      <c r="AR250">
+        <v>1.41</v>
+      </c>
+      <c r="AS250">
+        <v>0.93</v>
+      </c>
+      <c r="AT250">
+        <v>2.34</v>
+      </c>
+      <c r="AU250">
+        <v>6</v>
+      </c>
+      <c r="AV250">
+        <v>4</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>3</v>
+      </c>
+      <c r="AY250">
+        <v>19</v>
+      </c>
+      <c r="AZ250">
+        <v>11</v>
+      </c>
+      <c r="BA250">
+        <v>7</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>10</v>
+      </c>
+      <c r="BD250">
+        <v>1.45</v>
+      </c>
+      <c r="BE250">
+        <v>7.5</v>
+      </c>
+      <c r="BF250">
+        <v>3.05</v>
+      </c>
+      <c r="BG250">
+        <v>1.12</v>
+      </c>
+      <c r="BH250">
+        <v>5.1</v>
+      </c>
+      <c r="BI250">
+        <v>1.24</v>
+      </c>
+      <c r="BJ250">
+        <v>3.55</v>
+      </c>
+      <c r="BK250">
+        <v>1.41</v>
+      </c>
+      <c r="BL250">
+        <v>2.65</v>
+      </c>
+      <c r="BM250">
+        <v>1.65</v>
+      </c>
+      <c r="BN250">
+        <v>2.08</v>
+      </c>
+      <c r="BO250">
+        <v>1.98</v>
+      </c>
+      <c r="BP250">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,33 @@
     <t>['89', '90+2']</t>
   </si>
   <si>
+    <t>['52', '76']</t>
+  </si>
+  <si>
+    <t>['34', '80']</t>
+  </si>
+  <si>
+    <t>['14', '43', '48', '55']</t>
+  </si>
+  <si>
+    <t>['47', '72']</t>
+  </si>
+  <si>
+    <t>['9', '62']</t>
+  </si>
+  <si>
+    <t>['9', '57', '67', '73']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['38', '72', '81']</t>
+  </si>
+  <si>
+    <t>['50', '89']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -857,9 +884,6 @@
   </si>
   <si>
     <t>['24', '86']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
   </si>
   <si>
     <t>['43']</t>
@@ -1055,6 +1079,12 @@
   </si>
   <si>
     <t>['68', '76']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['50', '77', '84']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1705,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1881,7 +1911,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1962,7 +1992,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ3">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2087,7 +2117,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2165,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>1.55</v>
@@ -2374,7 +2404,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ5">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2499,7 +2529,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2577,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2786,7 +2816,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2911,7 +2941,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2989,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ8">
         <v>0.7</v>
@@ -3117,7 +3147,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3195,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ9">
         <v>1.18</v>
@@ -3323,7 +3353,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3401,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ10">
         <v>1.64</v>
@@ -3610,7 +3640,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ11">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3813,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.18</v>
@@ -3941,7 +3971,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4147,7 +4177,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4228,7 +4258,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4640,7 +4670,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4843,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
         <v>0.4</v>
@@ -4971,7 +5001,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5258,7 +5288,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5464,7 +5494,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5589,7 +5619,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5795,7 +5825,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5876,7 +5906,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6079,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ23">
         <v>0.6</v>
@@ -6285,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -6491,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ25">
         <v>1.6</v>
@@ -6619,7 +6649,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6697,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6903,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -7109,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
         <v>0.18</v>
@@ -7318,7 +7348,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7443,7 +7473,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7933,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ32">
         <v>1.91</v>
@@ -8348,7 +8378,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ34">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8473,7 +8503,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8679,7 +8709,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8760,7 +8790,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -9091,7 +9121,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9375,10 +9405,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9503,7 +9533,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9581,10 +9611,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9709,7 +9739,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9790,7 +9820,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9996,7 +10026,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -10121,7 +10151,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10199,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43">
         <v>1.64</v>
@@ -10405,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10611,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10817,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -11232,7 +11262,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11438,7 +11468,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11563,7 +11593,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11641,10 +11671,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ50">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11847,7 +11877,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ51">
         <v>1.91</v>
@@ -12053,7 +12083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.4</v>
@@ -12262,7 +12292,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12674,7 +12704,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12799,7 +12829,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12877,7 +12907,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.64</v>
@@ -13005,7 +13035,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13083,7 +13113,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1.1</v>
@@ -13292,7 +13322,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13623,7 +13653,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13704,7 +13734,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13829,7 +13859,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13907,7 +13937,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
         <v>1.55</v>
@@ -14035,7 +14065,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14319,10 +14349,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14528,7 +14558,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14731,7 +14761,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14859,7 +14889,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14937,7 +14967,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -15352,7 +15382,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15477,7 +15507,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15555,7 +15585,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ69">
         <v>0.7</v>
@@ -15889,7 +15919,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15970,7 +16000,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -16382,7 +16412,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16507,7 +16537,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16585,7 +16615,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>0.4</v>
@@ -16919,7 +16949,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17000,7 +17030,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -17125,7 +17155,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17203,7 +17233,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.55</v>
@@ -17537,7 +17567,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17824,7 +17854,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17949,7 +17979,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18027,10 +18057,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18233,7 +18263,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82">
         <v>0.6</v>
@@ -18439,10 +18469,10 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18645,10 +18675,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -19057,7 +19087,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
         <v>0.18</v>
@@ -19263,7 +19293,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ87">
         <v>0.89</v>
@@ -19472,7 +19502,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19597,7 +19627,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19678,7 +19708,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -19881,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ90">
         <v>0.58</v>
@@ -20215,7 +20245,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20293,7 +20323,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
         <v>0.8</v>
@@ -20502,7 +20532,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20708,7 +20738,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20914,7 +20944,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -21451,7 +21481,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21529,7 +21559,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ98">
         <v>1.4</v>
@@ -21735,10 +21765,10 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ99">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -22147,10 +22177,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ101">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22275,7 +22305,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22481,7 +22511,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22559,10 +22589,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22974,7 +23004,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR105">
         <v>1.25</v>
@@ -23180,7 +23210,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -24001,10 +24031,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ110">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24207,7 +24237,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ111">
         <v>0.18</v>
@@ -24416,7 +24446,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24622,7 +24652,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ113">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24953,7 +24983,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25031,7 +25061,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>1.91</v>
@@ -25159,7 +25189,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25237,7 +25267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ116">
         <v>0.7</v>
@@ -25446,7 +25476,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25571,7 +25601,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25858,7 +25888,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -26061,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120">
         <v>0.58</v>
@@ -26267,7 +26297,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
         <v>1.64</v>
@@ -26473,10 +26503,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26601,7 +26631,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26682,7 +26712,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ123">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26807,7 +26837,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -27013,7 +27043,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27091,10 +27121,10 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27297,7 +27327,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ126">
         <v>0.7</v>
@@ -27709,10 +27739,10 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ128">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -27915,7 +27945,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ129">
         <v>1.91</v>
@@ -28249,7 +28279,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28533,7 +28563,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>0.18</v>
@@ -28742,7 +28772,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ133">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28867,7 +28897,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28945,7 +28975,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ134">
         <v>1.6</v>
@@ -29279,7 +29309,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29566,7 +29596,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29691,7 +29721,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -30181,10 +30211,10 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ140">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR140">
         <v>1.3</v>
@@ -30390,7 +30420,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR141">
         <v>1.59</v>
@@ -30515,7 +30545,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -30593,10 +30623,10 @@
         <v>0.4</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ142">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -31005,7 +31035,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ144">
         <v>1.1</v>
@@ -31133,7 +31163,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31214,7 +31244,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31339,7 +31369,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31545,7 +31575,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31626,7 +31656,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR147">
         <v>1.08</v>
@@ -31751,7 +31781,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31957,7 +31987,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32038,7 +32068,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ149">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32163,7 +32193,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32241,7 +32271,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ150">
         <v>0.7</v>
@@ -32447,10 +32477,10 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ151">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32575,7 +32605,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32859,7 +32889,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153">
         <v>1.64</v>
@@ -32987,7 +33017,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33065,10 +33095,10 @@
         <v>0.5</v>
       </c>
       <c r="AP154">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR154">
         <v>1.43</v>
@@ -33271,7 +33301,7 @@
         <v>0.17</v>
       </c>
       <c r="AP155">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ155">
         <v>0.18</v>
@@ -33399,7 +33429,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33480,7 +33510,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ156">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR156">
         <v>1.84</v>
@@ -33683,7 +33713,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ157">
         <v>1.91</v>
@@ -33811,7 +33841,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33889,10 +33919,10 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -34095,10 +34125,10 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.46</v>
@@ -34429,7 +34459,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -34510,7 +34540,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -34716,7 +34746,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34919,7 +34949,7 @@
         <v>0.86</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163">
         <v>0.7</v>
@@ -35125,7 +35155,7 @@
         <v>1.67</v>
       </c>
       <c r="AP164">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ164">
         <v>1.4</v>
@@ -35253,7 +35283,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35334,7 +35364,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ165">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -35459,7 +35489,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36364,7 +36394,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ170">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36695,7 +36725,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36901,7 +36931,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36979,10 +37009,10 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -37185,7 +37215,7 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ174">
         <v>1.1</v>
@@ -37313,7 +37343,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37391,10 +37421,10 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37597,10 +37627,10 @@
         <v>0.5</v>
       </c>
       <c r="AP176">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR176">
         <v>1.24</v>
@@ -37725,7 +37755,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38343,7 +38373,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38421,7 +38451,7 @@
         <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
         <v>1.55</v>
@@ -38627,10 +38657,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ181">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38755,7 +38785,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38833,10 +38863,10 @@
         <v>0.75</v>
       </c>
       <c r="AP182">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ182">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR182">
         <v>1.52</v>
@@ -39167,7 +39197,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39248,7 +39278,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ184">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -39451,7 +39481,7 @@
         <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
         <v>0.6</v>
@@ -39863,7 +39893,7 @@
         <v>1.75</v>
       </c>
       <c r="AP187">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ187">
         <v>1.64</v>
@@ -39991,7 +40021,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40072,7 +40102,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ188">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.01</v>
@@ -40481,10 +40511,10 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ190">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR190">
         <v>1.68</v>
@@ -40609,7 +40639,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40690,7 +40720,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR191">
         <v>1.32</v>
@@ -40815,7 +40845,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41308,7 +41338,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ194">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR194">
         <v>1.32</v>
@@ -41514,7 +41544,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ195">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41639,7 +41669,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -41717,7 +41747,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ196">
         <v>1.6</v>
@@ -41923,10 +41953,10 @@
         <v>0.88</v>
       </c>
       <c r="AP197">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ197">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR197">
         <v>1.46</v>
@@ -42335,7 +42365,7 @@
         <v>1.88</v>
       </c>
       <c r="AP199">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ199">
         <v>1.55</v>
@@ -42541,7 +42571,7 @@
         <v>0.57</v>
       </c>
       <c r="AP200">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ200">
         <v>0.4</v>
@@ -42669,7 +42699,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42747,7 +42777,7 @@
         <v>0.86</v>
       </c>
       <c r="AP201">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ201">
         <v>1.1</v>
@@ -42956,7 +42986,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ202">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43162,7 +43192,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ203">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR203">
         <v>1.33</v>
@@ -43905,7 +43935,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44523,7 +44553,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44729,7 +44759,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -45141,7 +45171,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45347,7 +45377,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45553,7 +45583,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45837,10 +45867,10 @@
         <v>1.63</v>
       </c>
       <c r="AP216">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ216">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR216">
         <v>1.41</v>
@@ -46043,7 +46073,7 @@
         <v>0.67</v>
       </c>
       <c r="AP217">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ217">
         <v>0.58</v>
@@ -46249,10 +46279,10 @@
         <v>0.5</v>
       </c>
       <c r="AP218">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ218">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR218">
         <v>1.44</v>
@@ -46377,7 +46407,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46455,10 +46485,10 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ219">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46583,7 +46613,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -46661,10 +46691,10 @@
         <v>1.13</v>
       </c>
       <c r="AP220">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR220">
         <v>1.32</v>
@@ -46867,10 +46897,10 @@
         <v>0.78</v>
       </c>
       <c r="AP221">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ221">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR221">
         <v>1.38</v>
@@ -47073,7 +47103,7 @@
         <v>1.33</v>
       </c>
       <c r="AP222">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ222">
         <v>1.18</v>
@@ -47279,10 +47309,10 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ223">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR223">
         <v>1.71</v>
@@ -47407,7 +47437,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47488,7 +47518,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ224">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -47613,7 +47643,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47694,7 +47724,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -47897,7 +47927,7 @@
         <v>1.2</v>
       </c>
       <c r="AP226">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ226">
         <v>1.18</v>
@@ -48025,7 +48055,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48103,10 +48133,10 @@
         <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ227">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR227">
         <v>1.42</v>
@@ -48309,10 +48339,10 @@
         <v>0.9</v>
       </c>
       <c r="AP228">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ228">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR228">
         <v>1.37</v>
@@ -48437,7 +48467,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48515,10 +48545,10 @@
         <v>1.1</v>
       </c>
       <c r="AP229">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ229">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -48643,7 +48673,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -48724,7 +48754,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ230">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR230">
         <v>1.35</v>
@@ -48927,7 +48957,7 @@
         <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ231">
         <v>0.58</v>
@@ -49133,10 +49163,10 @@
         <v>1.56</v>
       </c>
       <c r="AP232">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ232">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR232">
         <v>1.9</v>
@@ -49261,7 +49291,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49339,10 +49369,10 @@
         <v>1.6</v>
       </c>
       <c r="AP233">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ233">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -49467,7 +49497,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49545,10 +49575,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP234">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ234">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR234">
         <v>1.65</v>
@@ -49751,10 +49781,10 @@
         <v>0.78</v>
       </c>
       <c r="AP235">
+        <v>0.92</v>
+      </c>
+      <c r="AQ235">
         <v>0.73</v>
-      </c>
-      <c r="AQ235">
-        <v>0.8</v>
       </c>
       <c r="AR235">
         <v>1.35</v>
@@ -49957,10 +49987,10 @@
         <v>0.25</v>
       </c>
       <c r="AP236">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ236">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR236">
         <v>1.67</v>
@@ -50166,7 +50196,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR237">
         <v>1.38</v>
@@ -50703,7 +50733,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51321,7 +51351,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51527,7 +51557,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51939,7 +51969,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52557,7 +52587,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52920,6 +52950,2066 @@
       </c>
       <c r="BP250">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7479005</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F251">
+        <v>22</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>75</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>259</v>
+      </c>
+      <c r="P251" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q251">
+        <v>2.5</v>
+      </c>
+      <c r="R251">
+        <v>2.2</v>
+      </c>
+      <c r="S251">
+        <v>4.33</v>
+      </c>
+      <c r="T251">
+        <v>1.4</v>
+      </c>
+      <c r="U251">
+        <v>2.75</v>
+      </c>
+      <c r="V251">
+        <v>2.75</v>
+      </c>
+      <c r="W251">
+        <v>1.4</v>
+      </c>
+      <c r="X251">
+        <v>8</v>
+      </c>
+      <c r="Y251">
+        <v>1.08</v>
+      </c>
+      <c r="Z251">
+        <v>1.92</v>
+      </c>
+      <c r="AA251">
+        <v>3.62</v>
+      </c>
+      <c r="AB251">
+        <v>3.88</v>
+      </c>
+      <c r="AC251">
+        <v>1.05</v>
+      </c>
+      <c r="AD251">
+        <v>9</v>
+      </c>
+      <c r="AE251">
+        <v>1.3</v>
+      </c>
+      <c r="AF251">
+        <v>3.45</v>
+      </c>
+      <c r="AG251">
+        <v>1.95</v>
+      </c>
+      <c r="AH251">
+        <v>1.91</v>
+      </c>
+      <c r="AI251">
+        <v>1.73</v>
+      </c>
+      <c r="AJ251">
+        <v>2</v>
+      </c>
+      <c r="AK251">
+        <v>1.22</v>
+      </c>
+      <c r="AL251">
+        <v>1.25</v>
+      </c>
+      <c r="AM251">
+        <v>1.85</v>
+      </c>
+      <c r="AN251">
+        <v>1.18</v>
+      </c>
+      <c r="AO251">
+        <v>0.8</v>
+      </c>
+      <c r="AP251">
+        <v>1.33</v>
+      </c>
+      <c r="AQ251">
+        <v>0.73</v>
+      </c>
+      <c r="AR251">
+        <v>1.45</v>
+      </c>
+      <c r="AS251">
+        <v>1.17</v>
+      </c>
+      <c r="AT251">
+        <v>2.62</v>
+      </c>
+      <c r="AU251">
+        <v>5</v>
+      </c>
+      <c r="AV251">
+        <v>5</v>
+      </c>
+      <c r="AW251">
+        <v>0</v>
+      </c>
+      <c r="AX251">
+        <v>5</v>
+      </c>
+      <c r="AY251">
+        <v>7</v>
+      </c>
+      <c r="AZ251">
+        <v>16</v>
+      </c>
+      <c r="BA251">
+        <v>6</v>
+      </c>
+      <c r="BB251">
+        <v>6</v>
+      </c>
+      <c r="BC251">
+        <v>12</v>
+      </c>
+      <c r="BD251">
+        <v>1.42</v>
+      </c>
+      <c r="BE251">
+        <v>7.5</v>
+      </c>
+      <c r="BF251">
+        <v>3.15</v>
+      </c>
+      <c r="BG251">
+        <v>1.13</v>
+      </c>
+      <c r="BH251">
+        <v>4.99</v>
+      </c>
+      <c r="BI251">
+        <v>1.3</v>
+      </c>
+      <c r="BJ251">
+        <v>3.28</v>
+      </c>
+      <c r="BK251">
+        <v>1.55</v>
+      </c>
+      <c r="BL251">
+        <v>2.4</v>
+      </c>
+      <c r="BM251">
+        <v>1.9</v>
+      </c>
+      <c r="BN251">
+        <v>1.9</v>
+      </c>
+      <c r="BO251">
+        <v>2.38</v>
+      </c>
+      <c r="BP251">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7478998</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F252">
+        <v>22</v>
+      </c>
+      <c r="G252" t="s">
+        <v>77</v>
+      </c>
+      <c r="H252" t="s">
+        <v>88</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>3</v>
+      </c>
+      <c r="O252" t="s">
+        <v>260</v>
+      </c>
+      <c r="P252" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q252">
+        <v>3.2</v>
+      </c>
+      <c r="R252">
+        <v>2.1</v>
+      </c>
+      <c r="S252">
+        <v>3.4</v>
+      </c>
+      <c r="T252">
+        <v>1.4</v>
+      </c>
+      <c r="U252">
+        <v>2.75</v>
+      </c>
+      <c r="V252">
+        <v>3</v>
+      </c>
+      <c r="W252">
+        <v>1.36</v>
+      </c>
+      <c r="X252">
+        <v>8</v>
+      </c>
+      <c r="Y252">
+        <v>1.08</v>
+      </c>
+      <c r="Z252">
+        <v>2.54</v>
+      </c>
+      <c r="AA252">
+        <v>3.35</v>
+      </c>
+      <c r="AB252">
+        <v>2.75</v>
+      </c>
+      <c r="AC252">
+        <v>1.06</v>
+      </c>
+      <c r="AD252">
+        <v>8.5</v>
+      </c>
+      <c r="AE252">
+        <v>1.33</v>
+      </c>
+      <c r="AF252">
+        <v>3.25</v>
+      </c>
+      <c r="AG252">
+        <v>2</v>
+      </c>
+      <c r="AH252">
+        <v>1.86</v>
+      </c>
+      <c r="AI252">
+        <v>1.73</v>
+      </c>
+      <c r="AJ252">
+        <v>2</v>
+      </c>
+      <c r="AK252">
+        <v>1.42</v>
+      </c>
+      <c r="AL252">
+        <v>1.28</v>
+      </c>
+      <c r="AM252">
+        <v>1.5</v>
+      </c>
+      <c r="AN252">
+        <v>0.73</v>
+      </c>
+      <c r="AO252">
+        <v>1.27</v>
+      </c>
+      <c r="AP252">
+        <v>0.92</v>
+      </c>
+      <c r="AQ252">
+        <v>1.17</v>
+      </c>
+      <c r="AR252">
+        <v>1.34</v>
+      </c>
+      <c r="AS252">
+        <v>1.11</v>
+      </c>
+      <c r="AT252">
+        <v>2.45</v>
+      </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
+      <c r="AV252">
+        <v>3</v>
+      </c>
+      <c r="AW252">
+        <v>4</v>
+      </c>
+      <c r="AX252">
+        <v>4</v>
+      </c>
+      <c r="AY252">
+        <v>13</v>
+      </c>
+      <c r="AZ252">
+        <v>10</v>
+      </c>
+      <c r="BA252">
+        <v>3</v>
+      </c>
+      <c r="BB252">
+        <v>5</v>
+      </c>
+      <c r="BC252">
+        <v>8</v>
+      </c>
+      <c r="BD252">
+        <v>1.74</v>
+      </c>
+      <c r="BE252">
+        <v>6.75</v>
+      </c>
+      <c r="BF252">
+        <v>2.3</v>
+      </c>
+      <c r="BG252">
+        <v>1.14</v>
+      </c>
+      <c r="BH252">
+        <v>4.78</v>
+      </c>
+      <c r="BI252">
+        <v>1.32</v>
+      </c>
+      <c r="BJ252">
+        <v>3.17</v>
+      </c>
+      <c r="BK252">
+        <v>1.59</v>
+      </c>
+      <c r="BL252">
+        <v>2.34</v>
+      </c>
+      <c r="BM252">
+        <v>1.95</v>
+      </c>
+      <c r="BN252">
+        <v>1.85</v>
+      </c>
+      <c r="BO252">
+        <v>2.45</v>
+      </c>
+      <c r="BP252">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7479003</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F253">
+        <v>22</v>
+      </c>
+      <c r="G253" t="s">
+        <v>85</v>
+      </c>
+      <c r="H253" t="s">
+        <v>82</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
+      <c r="L253">
+        <v>4</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>5</v>
+      </c>
+      <c r="O253" t="s">
+        <v>261</v>
+      </c>
+      <c r="P253" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q253">
+        <v>4.33</v>
+      </c>
+      <c r="R253">
+        <v>2.25</v>
+      </c>
+      <c r="S253">
+        <v>2.5</v>
+      </c>
+      <c r="T253">
+        <v>1.36</v>
+      </c>
+      <c r="U253">
+        <v>3</v>
+      </c>
+      <c r="V253">
+        <v>2.63</v>
+      </c>
+      <c r="W253">
+        <v>1.44</v>
+      </c>
+      <c r="X253">
+        <v>7</v>
+      </c>
+      <c r="Y253">
+        <v>1.1</v>
+      </c>
+      <c r="Z253">
+        <v>3.74</v>
+      </c>
+      <c r="AA253">
+        <v>3.74</v>
+      </c>
+      <c r="AB253">
+        <v>1.92</v>
+      </c>
+      <c r="AC253">
+        <v>1.05</v>
+      </c>
+      <c r="AD253">
+        <v>12</v>
+      </c>
+      <c r="AE253">
+        <v>1.3</v>
+      </c>
+      <c r="AF253">
+        <v>3.6</v>
+      </c>
+      <c r="AG253">
+        <v>1.91</v>
+      </c>
+      <c r="AH253">
+        <v>1.95</v>
+      </c>
+      <c r="AI253">
+        <v>1.73</v>
+      </c>
+      <c r="AJ253">
+        <v>2</v>
+      </c>
+      <c r="AK253">
+        <v>1.9</v>
+      </c>
+      <c r="AL253">
+        <v>1.25</v>
+      </c>
+      <c r="AM253">
+        <v>1.26</v>
+      </c>
+      <c r="AN253">
+        <v>1.11</v>
+      </c>
+      <c r="AO253">
+        <v>0.91</v>
+      </c>
+      <c r="AP253">
+        <v>1.3</v>
+      </c>
+      <c r="AQ253">
+        <v>0.83</v>
+      </c>
+      <c r="AR253">
+        <v>1.35</v>
+      </c>
+      <c r="AS253">
+        <v>1.07</v>
+      </c>
+      <c r="AT253">
+        <v>2.42</v>
+      </c>
+      <c r="AU253">
+        <v>8</v>
+      </c>
+      <c r="AV253">
+        <v>4</v>
+      </c>
+      <c r="AW253">
+        <v>2</v>
+      </c>
+      <c r="AX253">
+        <v>3</v>
+      </c>
+      <c r="AY253">
+        <v>13</v>
+      </c>
+      <c r="AZ253">
+        <v>8</v>
+      </c>
+      <c r="BA253">
+        <v>10</v>
+      </c>
+      <c r="BB253">
+        <v>2</v>
+      </c>
+      <c r="BC253">
+        <v>12</v>
+      </c>
+      <c r="BD253">
+        <v>2.07</v>
+      </c>
+      <c r="BE253">
+        <v>6.75</v>
+      </c>
+      <c r="BF253">
+        <v>1.9</v>
+      </c>
+      <c r="BG253">
+        <v>1.07</v>
+      </c>
+      <c r="BH253">
+        <v>6.27</v>
+      </c>
+      <c r="BI253">
+        <v>1.21</v>
+      </c>
+      <c r="BJ253">
+        <v>3.96</v>
+      </c>
+      <c r="BK253">
+        <v>1.41</v>
+      </c>
+      <c r="BL253">
+        <v>2.78</v>
+      </c>
+      <c r="BM253">
+        <v>1.71</v>
+      </c>
+      <c r="BN253">
+        <v>2.14</v>
+      </c>
+      <c r="BO253">
+        <v>2.09</v>
+      </c>
+      <c r="BP253">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7479006</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F254">
+        <v>22</v>
+      </c>
+      <c r="G254" t="s">
+        <v>93</v>
+      </c>
+      <c r="H254" t="s">
+        <v>90</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>3</v>
+      </c>
+      <c r="O254" t="s">
+        <v>262</v>
+      </c>
+      <c r="P254" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q254">
+        <v>2.5</v>
+      </c>
+      <c r="R254">
+        <v>2.2</v>
+      </c>
+      <c r="S254">
+        <v>4.33</v>
+      </c>
+      <c r="T254">
+        <v>1.36</v>
+      </c>
+      <c r="U254">
+        <v>3</v>
+      </c>
+      <c r="V254">
+        <v>2.75</v>
+      </c>
+      <c r="W254">
+        <v>1.4</v>
+      </c>
+      <c r="X254">
+        <v>8</v>
+      </c>
+      <c r="Y254">
+        <v>1.08</v>
+      </c>
+      <c r="Z254">
+        <v>2.02</v>
+      </c>
+      <c r="AA254">
+        <v>2.67</v>
+      </c>
+      <c r="AB254">
+        <v>4.21</v>
+      </c>
+      <c r="AC254">
+        <v>1.05</v>
+      </c>
+      <c r="AD254">
+        <v>9</v>
+      </c>
+      <c r="AE254">
+        <v>1.3</v>
+      </c>
+      <c r="AF254">
+        <v>3.45</v>
+      </c>
+      <c r="AG254">
+        <v>1.8</v>
+      </c>
+      <c r="AH254">
+        <v>1.91</v>
+      </c>
+      <c r="AI254">
+        <v>1.73</v>
+      </c>
+      <c r="AJ254">
+        <v>2</v>
+      </c>
+      <c r="AK254">
+        <v>1.22</v>
+      </c>
+      <c r="AL254">
+        <v>1.25</v>
+      </c>
+      <c r="AM254">
+        <v>1.9</v>
+      </c>
+      <c r="AN254">
+        <v>2.2</v>
+      </c>
+      <c r="AO254">
+        <v>0.91</v>
+      </c>
+      <c r="AP254">
+        <v>2.27</v>
+      </c>
+      <c r="AQ254">
+        <v>0.83</v>
+      </c>
+      <c r="AR254">
+        <v>1.59</v>
+      </c>
+      <c r="AS254">
+        <v>1</v>
+      </c>
+      <c r="AT254">
+        <v>2.59</v>
+      </c>
+      <c r="AU254">
+        <v>5</v>
+      </c>
+      <c r="AV254">
+        <v>5</v>
+      </c>
+      <c r="AW254">
+        <v>2</v>
+      </c>
+      <c r="AX254">
+        <v>3</v>
+      </c>
+      <c r="AY254">
+        <v>8</v>
+      </c>
+      <c r="AZ254">
+        <v>8</v>
+      </c>
+      <c r="BA254">
+        <v>4</v>
+      </c>
+      <c r="BB254">
+        <v>2</v>
+      </c>
+      <c r="BC254">
+        <v>6</v>
+      </c>
+      <c r="BD254">
+        <v>1.55</v>
+      </c>
+      <c r="BE254">
+        <v>6.75</v>
+      </c>
+      <c r="BF254">
+        <v>2.65</v>
+      </c>
+      <c r="BG254">
+        <v>1.18</v>
+      </c>
+      <c r="BH254">
+        <v>4.24</v>
+      </c>
+      <c r="BI254">
+        <v>1.38</v>
+      </c>
+      <c r="BJ254">
+        <v>2.88</v>
+      </c>
+      <c r="BK254">
+        <v>1.68</v>
+      </c>
+      <c r="BL254">
+        <v>2.17</v>
+      </c>
+      <c r="BM254">
+        <v>2.08</v>
+      </c>
+      <c r="BN254">
+        <v>1.75</v>
+      </c>
+      <c r="BO254">
+        <v>2.67</v>
+      </c>
+      <c r="BP254">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7478996</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F255">
+        <v>22</v>
+      </c>
+      <c r="G255" t="s">
+        <v>91</v>
+      </c>
+      <c r="H255" t="s">
+        <v>87</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>263</v>
+      </c>
+      <c r="P255" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q255">
+        <v>2.3</v>
+      </c>
+      <c r="R255">
+        <v>2.1</v>
+      </c>
+      <c r="S255">
+        <v>5.5</v>
+      </c>
+      <c r="T255">
+        <v>1.44</v>
+      </c>
+      <c r="U255">
+        <v>2.63</v>
+      </c>
+      <c r="V255">
+        <v>3.25</v>
+      </c>
+      <c r="W255">
+        <v>1.33</v>
+      </c>
+      <c r="X255">
+        <v>9</v>
+      </c>
+      <c r="Y255">
+        <v>1.07</v>
+      </c>
+      <c r="Z255">
+        <v>1.81</v>
+      </c>
+      <c r="AA255">
+        <v>2.77</v>
+      </c>
+      <c r="AB255">
+        <v>5.13</v>
+      </c>
+      <c r="AC255">
+        <v>1.05</v>
+      </c>
+      <c r="AD255">
+        <v>9</v>
+      </c>
+      <c r="AE255">
+        <v>1.35</v>
+      </c>
+      <c r="AF255">
+        <v>3.1</v>
+      </c>
+      <c r="AG255">
+        <v>2.11</v>
+      </c>
+      <c r="AH255">
+        <v>1.62</v>
+      </c>
+      <c r="AI255">
+        <v>2</v>
+      </c>
+      <c r="AJ255">
+        <v>1.73</v>
+      </c>
+      <c r="AK255">
+        <v>1.15</v>
+      </c>
+      <c r="AL255">
+        <v>1.2</v>
+      </c>
+      <c r="AM255">
+        <v>2.15</v>
+      </c>
+      <c r="AN255">
+        <v>2</v>
+      </c>
+      <c r="AO255">
+        <v>0.8</v>
+      </c>
+      <c r="AP255">
+        <v>2.09</v>
+      </c>
+      <c r="AQ255">
+        <v>0.73</v>
+      </c>
+      <c r="AR255">
+        <v>1.44</v>
+      </c>
+      <c r="AS255">
+        <v>1.13</v>
+      </c>
+      <c r="AT255">
+        <v>2.57</v>
+      </c>
+      <c r="AU255">
+        <v>6</v>
+      </c>
+      <c r="AV255">
+        <v>3</v>
+      </c>
+      <c r="AW255">
+        <v>5</v>
+      </c>
+      <c r="AX255">
+        <v>4</v>
+      </c>
+      <c r="AY255">
+        <v>16</v>
+      </c>
+      <c r="AZ255">
+        <v>10</v>
+      </c>
+      <c r="BA255">
+        <v>7</v>
+      </c>
+      <c r="BB255">
+        <v>3</v>
+      </c>
+      <c r="BC255">
+        <v>10</v>
+      </c>
+      <c r="BD255">
+        <v>1.3</v>
+      </c>
+      <c r="BE255">
+        <v>7.5</v>
+      </c>
+      <c r="BF255">
+        <v>3.9</v>
+      </c>
+      <c r="BG255">
+        <v>1.21</v>
+      </c>
+      <c r="BH255">
+        <v>3.92</v>
+      </c>
+      <c r="BI255">
+        <v>1.44</v>
+      </c>
+      <c r="BJ255">
+        <v>2.71</v>
+      </c>
+      <c r="BK255">
+        <v>1.76</v>
+      </c>
+      <c r="BL255">
+        <v>2.07</v>
+      </c>
+      <c r="BM255">
+        <v>2.19</v>
+      </c>
+      <c r="BN255">
+        <v>1.67</v>
+      </c>
+      <c r="BO255">
+        <v>2.85</v>
+      </c>
+      <c r="BP255">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7478997</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F256">
+        <v>22</v>
+      </c>
+      <c r="G256" t="s">
+        <v>78</v>
+      </c>
+      <c r="H256" t="s">
+        <v>86</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>95</v>
+      </c>
+      <c r="P256" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q256">
+        <v>4.33</v>
+      </c>
+      <c r="R256">
+        <v>2.1</v>
+      </c>
+      <c r="S256">
+        <v>2.75</v>
+      </c>
+      <c r="T256">
+        <v>1.44</v>
+      </c>
+      <c r="U256">
+        <v>2.63</v>
+      </c>
+      <c r="V256">
+        <v>3</v>
+      </c>
+      <c r="W256">
+        <v>1.36</v>
+      </c>
+      <c r="X256">
+        <v>9</v>
+      </c>
+      <c r="Y256">
+        <v>1.07</v>
+      </c>
+      <c r="Z256">
+        <v>3.55</v>
+      </c>
+      <c r="AA256">
+        <v>2.59</v>
+      </c>
+      <c r="AB256">
+        <v>2.27</v>
+      </c>
+      <c r="AC256">
+        <v>1.06</v>
+      </c>
+      <c r="AD256">
+        <v>10</v>
+      </c>
+      <c r="AE256">
+        <v>1.33</v>
+      </c>
+      <c r="AF256">
+        <v>3.3</v>
+      </c>
+      <c r="AG256">
+        <v>2</v>
+      </c>
+      <c r="AH256">
+        <v>1.73</v>
+      </c>
+      <c r="AI256">
+        <v>1.83</v>
+      </c>
+      <c r="AJ256">
+        <v>1.83</v>
+      </c>
+      <c r="AK256">
+        <v>1.78</v>
+      </c>
+      <c r="AL256">
+        <v>1.28</v>
+      </c>
+      <c r="AM256">
+        <v>1.3</v>
+      </c>
+      <c r="AN256">
+        <v>1.2</v>
+      </c>
+      <c r="AO256">
+        <v>1.73</v>
+      </c>
+      <c r="AP256">
+        <v>1.09</v>
+      </c>
+      <c r="AQ256">
+        <v>1.83</v>
+      </c>
+      <c r="AR256">
+        <v>1.63</v>
+      </c>
+      <c r="AS256">
+        <v>1.23</v>
+      </c>
+      <c r="AT256">
+        <v>2.86</v>
+      </c>
+      <c r="AU256">
+        <v>4</v>
+      </c>
+      <c r="AV256">
+        <v>6</v>
+      </c>
+      <c r="AW256">
+        <v>5</v>
+      </c>
+      <c r="AX256">
+        <v>4</v>
+      </c>
+      <c r="AY256">
+        <v>10</v>
+      </c>
+      <c r="AZ256">
+        <v>13</v>
+      </c>
+      <c r="BA256">
+        <v>3</v>
+      </c>
+      <c r="BB256">
+        <v>5</v>
+      </c>
+      <c r="BC256">
+        <v>8</v>
+      </c>
+      <c r="BD256">
+        <v>1.89</v>
+      </c>
+      <c r="BE256">
+        <v>6.75</v>
+      </c>
+      <c r="BF256">
+        <v>2.08</v>
+      </c>
+      <c r="BG256">
+        <v>1.19</v>
+      </c>
+      <c r="BH256">
+        <v>4.16</v>
+      </c>
+      <c r="BI256">
+        <v>1.4</v>
+      </c>
+      <c r="BJ256">
+        <v>2.85</v>
+      </c>
+      <c r="BK256">
+        <v>1.7</v>
+      </c>
+      <c r="BL256">
+        <v>2.15</v>
+      </c>
+      <c r="BM256">
+        <v>2.1</v>
+      </c>
+      <c r="BN256">
+        <v>1.73</v>
+      </c>
+      <c r="BO256">
+        <v>2.71</v>
+      </c>
+      <c r="BP256">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7478999</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F257">
+        <v>22</v>
+      </c>
+      <c r="G257" t="s">
+        <v>76</v>
+      </c>
+      <c r="H257" t="s">
+        <v>73</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>4</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>264</v>
+      </c>
+      <c r="P257" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q257">
+        <v>1.53</v>
+      </c>
+      <c r="R257">
+        <v>2.88</v>
+      </c>
+      <c r="S257">
+        <v>13</v>
+      </c>
+      <c r="T257">
+        <v>1.29</v>
+      </c>
+      <c r="U257">
+        <v>3.5</v>
+      </c>
+      <c r="V257">
+        <v>2.25</v>
+      </c>
+      <c r="W257">
+        <v>1.57</v>
+      </c>
+      <c r="X257">
+        <v>5.5</v>
+      </c>
+      <c r="Y257">
+        <v>1.14</v>
+      </c>
+      <c r="Z257">
+        <v>1.1</v>
+      </c>
+      <c r="AA257">
+        <v>6.75</v>
+      </c>
+      <c r="AB257">
+        <v>26.7</v>
+      </c>
+      <c r="AC257">
+        <v>1.03</v>
+      </c>
+      <c r="AD257">
+        <v>11</v>
+      </c>
+      <c r="AE257">
+        <v>1.18</v>
+      </c>
+      <c r="AF257">
+        <v>4.75</v>
+      </c>
+      <c r="AG257">
+        <v>1.76</v>
+      </c>
+      <c r="AH257">
+        <v>1.95</v>
+      </c>
+      <c r="AI257">
+        <v>2.5</v>
+      </c>
+      <c r="AJ257">
+        <v>1.5</v>
+      </c>
+      <c r="AK257">
+        <v>1.02</v>
+      </c>
+      <c r="AL257">
+        <v>1.07</v>
+      </c>
+      <c r="AM257">
+        <v>5.25</v>
+      </c>
+      <c r="AN257">
+        <v>2.55</v>
+      </c>
+      <c r="AO257">
+        <v>0.22</v>
+      </c>
+      <c r="AP257">
+        <v>2.58</v>
+      </c>
+      <c r="AQ257">
+        <v>0.2</v>
+      </c>
+      <c r="AR257">
+        <v>1.86</v>
+      </c>
+      <c r="AS257">
+        <v>1.07</v>
+      </c>
+      <c r="AT257">
+        <v>2.93</v>
+      </c>
+      <c r="AU257">
+        <v>10</v>
+      </c>
+      <c r="AV257">
+        <v>0</v>
+      </c>
+      <c r="AW257">
+        <v>9</v>
+      </c>
+      <c r="AX257">
+        <v>5</v>
+      </c>
+      <c r="AY257">
+        <v>24</v>
+      </c>
+      <c r="AZ257">
+        <v>7</v>
+      </c>
+      <c r="BA257">
+        <v>5</v>
+      </c>
+      <c r="BB257">
+        <v>0</v>
+      </c>
+      <c r="BC257">
+        <v>5</v>
+      </c>
+      <c r="BD257">
+        <v>1.04</v>
+      </c>
+      <c r="BE257">
+        <v>17</v>
+      </c>
+      <c r="BF257">
+        <v>13</v>
+      </c>
+      <c r="BG257">
+        <v>1.17</v>
+      </c>
+      <c r="BH257">
+        <v>4.7</v>
+      </c>
+      <c r="BI257">
+        <v>1.31</v>
+      </c>
+      <c r="BJ257">
+        <v>3.25</v>
+      </c>
+      <c r="BK257">
+        <v>1.54</v>
+      </c>
+      <c r="BL257">
+        <v>2.38</v>
+      </c>
+      <c r="BM257">
+        <v>1.87</v>
+      </c>
+      <c r="BN257">
+        <v>1.87</v>
+      </c>
+      <c r="BO257">
+        <v>2.35</v>
+      </c>
+      <c r="BP257">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7479001</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F258">
+        <v>22</v>
+      </c>
+      <c r="G258" t="s">
+        <v>74</v>
+      </c>
+      <c r="H258" t="s">
+        <v>70</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
+        <v>265</v>
+      </c>
+      <c r="P258" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q258">
+        <v>3</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
+        <v>4</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>2.5</v>
+      </c>
+      <c r="V258">
+        <v>3.5</v>
+      </c>
+      <c r="W258">
+        <v>1.29</v>
+      </c>
+      <c r="X258">
+        <v>11</v>
+      </c>
+      <c r="Y258">
+        <v>1.05</v>
+      </c>
+      <c r="Z258">
+        <v>2.41</v>
+      </c>
+      <c r="AA258">
+        <v>2.5</v>
+      </c>
+      <c r="AB258">
+        <v>3.41</v>
+      </c>
+      <c r="AC258">
+        <v>1.08</v>
+      </c>
+      <c r="AD258">
+        <v>7.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.42</v>
+      </c>
+      <c r="AF258">
+        <v>2.8</v>
+      </c>
+      <c r="AG258">
+        <v>2.25</v>
+      </c>
+      <c r="AH258">
+        <v>1.57</v>
+      </c>
+      <c r="AI258">
+        <v>2</v>
+      </c>
+      <c r="AJ258">
+        <v>1.73</v>
+      </c>
+      <c r="AK258">
+        <v>1.33</v>
+      </c>
+      <c r="AL258">
+        <v>1.28</v>
+      </c>
+      <c r="AM258">
+        <v>1.62</v>
+      </c>
+      <c r="AN258">
+        <v>1.55</v>
+      </c>
+      <c r="AO258">
+        <v>1.5</v>
+      </c>
+      <c r="AP258">
+        <v>1.67</v>
+      </c>
+      <c r="AQ258">
+        <v>1.36</v>
+      </c>
+      <c r="AR258">
+        <v>1.31</v>
+      </c>
+      <c r="AS258">
+        <v>0.99</v>
+      </c>
+      <c r="AT258">
+        <v>2.3</v>
+      </c>
+      <c r="AU258">
+        <v>5</v>
+      </c>
+      <c r="AV258">
+        <v>2</v>
+      </c>
+      <c r="AW258">
+        <v>5</v>
+      </c>
+      <c r="AX258">
+        <v>2</v>
+      </c>
+      <c r="AY258">
+        <v>18</v>
+      </c>
+      <c r="AZ258">
+        <v>8</v>
+      </c>
+      <c r="BA258">
+        <v>6</v>
+      </c>
+      <c r="BB258">
+        <v>4</v>
+      </c>
+      <c r="BC258">
+        <v>10</v>
+      </c>
+      <c r="BD258">
+        <v>1.58</v>
+      </c>
+      <c r="BE258">
+        <v>6.75</v>
+      </c>
+      <c r="BF258">
+        <v>2.63</v>
+      </c>
+      <c r="BG258">
+        <v>1.18</v>
+      </c>
+      <c r="BH258">
+        <v>4.5</v>
+      </c>
+      <c r="BI258">
+        <v>1.34</v>
+      </c>
+      <c r="BJ258">
+        <v>3.1</v>
+      </c>
+      <c r="BK258">
+        <v>1.58</v>
+      </c>
+      <c r="BL258">
+        <v>2.29</v>
+      </c>
+      <c r="BM258">
+        <v>1.93</v>
+      </c>
+      <c r="BN258">
+        <v>1.82</v>
+      </c>
+      <c r="BO258">
+        <v>2.44</v>
+      </c>
+      <c r="BP258">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7479002</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F259">
+        <v>22</v>
+      </c>
+      <c r="G259" t="s">
+        <v>92</v>
+      </c>
+      <c r="H259" t="s">
+        <v>79</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259">
+        <v>3</v>
+      </c>
+      <c r="N259">
+        <v>6</v>
+      </c>
+      <c r="O259" t="s">
+        <v>266</v>
+      </c>
+      <c r="P259" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q259">
+        <v>5.5</v>
+      </c>
+      <c r="R259">
+        <v>2.5</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
+        <v>1.29</v>
+      </c>
+      <c r="U259">
+        <v>3.5</v>
+      </c>
+      <c r="V259">
+        <v>2.25</v>
+      </c>
+      <c r="W259">
+        <v>1.57</v>
+      </c>
+      <c r="X259">
+        <v>5.5</v>
+      </c>
+      <c r="Y259">
+        <v>1.14</v>
+      </c>
+      <c r="Z259">
+        <v>5.33</v>
+      </c>
+      <c r="AA259">
+        <v>3.24</v>
+      </c>
+      <c r="AB259">
+        <v>1.63</v>
+      </c>
+      <c r="AC259">
+        <v>1.01</v>
+      </c>
+      <c r="AD259">
+        <v>13</v>
+      </c>
+      <c r="AE259">
+        <v>1.18</v>
+      </c>
+      <c r="AF259">
+        <v>4.75</v>
+      </c>
+      <c r="AG259">
+        <v>1.55</v>
+      </c>
+      <c r="AH259">
+        <v>2.3</v>
+      </c>
+      <c r="AI259">
+        <v>1.67</v>
+      </c>
+      <c r="AJ259">
+        <v>2.1</v>
+      </c>
+      <c r="AK259">
+        <v>2.6</v>
+      </c>
+      <c r="AL259">
+        <v>1.15</v>
+      </c>
+      <c r="AM259">
+        <v>1.11</v>
+      </c>
+      <c r="AN259">
+        <v>1.67</v>
+      </c>
+      <c r="AO259">
+        <v>1.4</v>
+      </c>
+      <c r="AP259">
+        <v>1.6</v>
+      </c>
+      <c r="AQ259">
+        <v>1.36</v>
+      </c>
+      <c r="AR259">
+        <v>1.48</v>
+      </c>
+      <c r="AS259">
+        <v>1.53</v>
+      </c>
+      <c r="AT259">
+        <v>3.01</v>
+      </c>
+      <c r="AU259">
+        <v>6</v>
+      </c>
+      <c r="AV259">
+        <v>7</v>
+      </c>
+      <c r="AW259">
+        <v>6</v>
+      </c>
+      <c r="AX259">
+        <v>6</v>
+      </c>
+      <c r="AY259">
+        <v>13</v>
+      </c>
+      <c r="AZ259">
+        <v>18</v>
+      </c>
+      <c r="BA259">
+        <v>3</v>
+      </c>
+      <c r="BB259">
+        <v>6</v>
+      </c>
+      <c r="BC259">
+        <v>9</v>
+      </c>
+      <c r="BD259">
+        <v>2.55</v>
+      </c>
+      <c r="BE259">
+        <v>7</v>
+      </c>
+      <c r="BF259">
+        <v>1.58</v>
+      </c>
+      <c r="BG259">
+        <v>1.1</v>
+      </c>
+      <c r="BH259">
+        <v>5.65</v>
+      </c>
+      <c r="BI259">
+        <v>1.25</v>
+      </c>
+      <c r="BJ259">
+        <v>3.63</v>
+      </c>
+      <c r="BK259">
+        <v>1.47</v>
+      </c>
+      <c r="BL259">
+        <v>2.6</v>
+      </c>
+      <c r="BM259">
+        <v>1.79</v>
+      </c>
+      <c r="BN259">
+        <v>2.02</v>
+      </c>
+      <c r="BO259">
+        <v>2.21</v>
+      </c>
+      <c r="BP259">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7479004</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F260">
+        <v>22</v>
+      </c>
+      <c r="G260" t="s">
+        <v>72</v>
+      </c>
+      <c r="H260" t="s">
+        <v>71</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>267</v>
+      </c>
+      <c r="P260" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q260">
+        <v>3.25</v>
+      </c>
+      <c r="R260">
+        <v>1.95</v>
+      </c>
+      <c r="S260">
+        <v>3.75</v>
+      </c>
+      <c r="T260">
+        <v>1.53</v>
+      </c>
+      <c r="U260">
+        <v>2.38</v>
+      </c>
+      <c r="V260">
+        <v>3.75</v>
+      </c>
+      <c r="W260">
+        <v>1.25</v>
+      </c>
+      <c r="X260">
+        <v>11</v>
+      </c>
+      <c r="Y260">
+        <v>1.05</v>
+      </c>
+      <c r="Z260">
+        <v>2.71</v>
+      </c>
+      <c r="AA260">
+        <v>2.36</v>
+      </c>
+      <c r="AB260">
+        <v>3.18</v>
+      </c>
+      <c r="AC260">
+        <v>1.09</v>
+      </c>
+      <c r="AD260">
+        <v>8</v>
+      </c>
+      <c r="AE260">
+        <v>1.47</v>
+      </c>
+      <c r="AF260">
+        <v>2.75</v>
+      </c>
+      <c r="AG260">
+        <v>2.4</v>
+      </c>
+      <c r="AH260">
+        <v>1.5</v>
+      </c>
+      <c r="AI260">
+        <v>2.1</v>
+      </c>
+      <c r="AJ260">
+        <v>1.67</v>
+      </c>
+      <c r="AK260">
+        <v>1.42</v>
+      </c>
+      <c r="AL260">
+        <v>1.32</v>
+      </c>
+      <c r="AM260">
+        <v>1.55</v>
+      </c>
+      <c r="AN260">
+        <v>1</v>
+      </c>
+      <c r="AO260">
+        <v>0.8</v>
+      </c>
+      <c r="AP260">
+        <v>1.17</v>
+      </c>
+      <c r="AQ260">
+        <v>0.73</v>
+      </c>
+      <c r="AR260">
+        <v>1.65</v>
+      </c>
+      <c r="AS260">
+        <v>1.12</v>
+      </c>
+      <c r="AT260">
+        <v>2.77</v>
+      </c>
+      <c r="AU260">
+        <v>5</v>
+      </c>
+      <c r="AV260">
+        <v>3</v>
+      </c>
+      <c r="AW260">
+        <v>8</v>
+      </c>
+      <c r="AX260">
+        <v>0</v>
+      </c>
+      <c r="AY260">
+        <v>17</v>
+      </c>
+      <c r="AZ260">
+        <v>3</v>
+      </c>
+      <c r="BA260">
+        <v>5</v>
+      </c>
+      <c r="BB260">
+        <v>1</v>
+      </c>
+      <c r="BC260">
+        <v>6</v>
+      </c>
+      <c r="BD260">
+        <v>1.67</v>
+      </c>
+      <c r="BE260">
+        <v>6.5</v>
+      </c>
+      <c r="BF260">
+        <v>2.43</v>
+      </c>
+      <c r="BG260">
+        <v>1.19</v>
+      </c>
+      <c r="BH260">
+        <v>4.09</v>
+      </c>
+      <c r="BI260">
+        <v>1.41</v>
+      </c>
+      <c r="BJ260">
+        <v>2.8</v>
+      </c>
+      <c r="BK260">
+        <v>1.72</v>
+      </c>
+      <c r="BL260">
+        <v>2.13</v>
+      </c>
+      <c r="BM260">
+        <v>2.13</v>
+      </c>
+      <c r="BN260">
+        <v>1.72</v>
+      </c>
+      <c r="BO260">
+        <v>2.75</v>
+      </c>
+      <c r="BP260">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,9 @@
     <t>['50', '89']</t>
   </si>
   <si>
+    <t>['34', '43']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1446,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1708,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1911,7 +1914,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2117,7 +2120,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2529,7 +2532,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2941,7 +2944,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3147,7 +3150,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3228,7 +3231,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ9">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3353,7 +3356,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3971,7 +3974,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4177,7 +4180,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4461,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -5001,7 +5004,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5619,7 +5622,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5825,7 +5828,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6649,7 +6652,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7473,7 +7476,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8503,7 +8506,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8709,7 +8712,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9121,7 +9124,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9533,7 +9536,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9739,7 +9742,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10023,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -10151,7 +10154,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11056,7 +11059,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -11593,7 +11596,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12829,7 +12832,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -13528,7 +13531,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13653,7 +13656,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13859,7 +13862,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14065,7 +14068,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14889,7 +14892,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15173,7 +15176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67">
         <v>0.18</v>
@@ -15507,7 +15510,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15919,7 +15922,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16537,7 +16540,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16949,7 +16952,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17155,7 +17158,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17567,7 +17570,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17979,7 +17982,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18884,7 +18887,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -19627,7 +19630,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20245,7 +20248,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20529,7 +20532,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93">
         <v>1.36</v>
@@ -21481,7 +21484,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22305,7 +22308,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22511,7 +22514,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23413,7 +23416,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ107">
         <v>0.89</v>
@@ -24983,7 +24986,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25189,7 +25192,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25601,7 +25604,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25682,7 +25685,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ118">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -26631,7 +26634,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26837,7 +26840,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26918,7 +26921,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -27043,7 +27046,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -28279,7 +28282,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28897,7 +28900,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29309,7 +29312,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29721,7 +29724,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -30005,7 +30008,7 @@
         <v>0.4</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ139">
         <v>0.6</v>
@@ -30545,7 +30548,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -31163,7 +31166,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31369,7 +31372,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31575,7 +31578,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31781,7 +31784,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31987,7 +31990,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32193,7 +32196,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32605,7 +32608,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32686,7 +32689,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ152">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR152">
         <v>1.21</v>
@@ -33017,7 +33020,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33429,7 +33432,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33841,7 +33844,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34459,7 +34462,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -35283,7 +35286,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35489,7 +35492,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36185,7 +36188,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ169">
         <v>1.91</v>
@@ -36725,7 +36728,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36931,7 +36934,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37343,7 +37346,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37755,7 +37758,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38042,7 +38045,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ178">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR178">
         <v>1.46</v>
@@ -38373,7 +38376,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38785,7 +38788,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39197,7 +39200,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -40021,7 +40024,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40639,7 +40642,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40717,7 +40720,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ191">
         <v>0.83</v>
@@ -40845,7 +40848,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41132,7 +41135,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ193">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR193">
         <v>1.53</v>
@@ -41669,7 +41672,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42699,7 +42702,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43935,7 +43938,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44553,7 +44556,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44759,7 +44762,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -45171,7 +45174,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45377,7 +45380,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45583,7 +45586,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46407,7 +46410,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46613,7 +46616,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -47106,7 +47109,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ222">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR222">
         <v>1.32</v>
@@ -47437,7 +47440,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47643,7 +47646,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47721,7 +47724,7 @@
         <v>1.67</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ225">
         <v>1.83</v>
@@ -47930,7 +47933,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ226">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR226">
         <v>1.51</v>
@@ -48055,7 +48058,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48467,7 +48470,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48673,7 +48676,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49291,7 +49294,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49497,7 +49500,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50193,7 +50196,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ237">
         <v>0.83</v>
@@ -50733,7 +50736,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51351,7 +51354,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51557,7 +51560,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51969,7 +51972,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52587,7 +52590,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52966,7 +52969,7 @@
         <v>69</v>
       </c>
       <c r="E251" s="2">
-        <v>45646.875</v>
+        <v>45647.39583333334</v>
       </c>
       <c r="F251">
         <v>22</v>
@@ -53205,7 +53208,7 @@
         <v>260</v>
       </c>
       <c r="P252" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53617,7 +53620,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -54647,7 +54650,7 @@
         <v>266</v>
       </c>
       <c r="P259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>5.5</v>
@@ -54853,7 +54856,7 @@
         <v>267</v>
       </c>
       <c r="P260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -54946,7 +54949,7 @@
         <v>2.77</v>
       </c>
       <c r="AU260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV260">
         <v>3</v>
@@ -54958,7 +54961,7 @@
         <v>0</v>
       </c>
       <c r="AY260">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ260">
         <v>3</v>
@@ -55010,6 +55013,212 @@
       </c>
       <c r="BP260">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7479007</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45648.5</v>
+      </c>
+      <c r="F261">
+        <v>22</v>
+      </c>
+      <c r="G261" t="s">
+        <v>83</v>
+      </c>
+      <c r="H261" t="s">
+        <v>89</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>268</v>
+      </c>
+      <c r="P261" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q261">
+        <v>2.75</v>
+      </c>
+      <c r="R261">
+        <v>2.05</v>
+      </c>
+      <c r="S261">
+        <v>4.33</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3.25</v>
+      </c>
+      <c r="W261">
+        <v>1.33</v>
+      </c>
+      <c r="X261">
+        <v>10</v>
+      </c>
+      <c r="Y261">
+        <v>1.06</v>
+      </c>
+      <c r="Z261">
+        <v>1.96</v>
+      </c>
+      <c r="AA261">
+        <v>3.5</v>
+      </c>
+      <c r="AB261">
+        <v>4.2</v>
+      </c>
+      <c r="AC261">
+        <v>1.07</v>
+      </c>
+      <c r="AD261">
+        <v>9.5</v>
+      </c>
+      <c r="AE261">
+        <v>1.38</v>
+      </c>
+      <c r="AF261">
+        <v>3.1</v>
+      </c>
+      <c r="AG261">
+        <v>1.95</v>
+      </c>
+      <c r="AH261">
+        <v>1.75</v>
+      </c>
+      <c r="AI261">
+        <v>1.83</v>
+      </c>
+      <c r="AJ261">
+        <v>1.83</v>
+      </c>
+      <c r="AK261">
+        <v>1.26</v>
+      </c>
+      <c r="AL261">
+        <v>1.28</v>
+      </c>
+      <c r="AM261">
+        <v>1.83</v>
+      </c>
+      <c r="AN261">
+        <v>1.5</v>
+      </c>
+      <c r="AO261">
+        <v>1.18</v>
+      </c>
+      <c r="AP261">
+        <v>1.64</v>
+      </c>
+      <c r="AQ261">
+        <v>1.08</v>
+      </c>
+      <c r="AR261">
+        <v>1.34</v>
+      </c>
+      <c r="AS261">
+        <v>1.28</v>
+      </c>
+      <c r="AT261">
+        <v>2.62</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>3</v>
+      </c>
+      <c r="AW261">
+        <v>5</v>
+      </c>
+      <c r="AX261">
+        <v>1</v>
+      </c>
+      <c r="AY261">
+        <v>18</v>
+      </c>
+      <c r="AZ261">
+        <v>9</v>
+      </c>
+      <c r="BA261">
+        <v>6</v>
+      </c>
+      <c r="BB261">
+        <v>1</v>
+      </c>
+      <c r="BC261">
+        <v>7</v>
+      </c>
+      <c r="BD261">
+        <v>1.98</v>
+      </c>
+      <c r="BE261">
+        <v>6.5</v>
+      </c>
+      <c r="BF261">
+        <v>1.98</v>
+      </c>
+      <c r="BG261">
+        <v>1.23</v>
+      </c>
+      <c r="BH261">
+        <v>3.65</v>
+      </c>
+      <c r="BI261">
+        <v>1.41</v>
+      </c>
+      <c r="BJ261">
+        <v>2.65</v>
+      </c>
+      <c r="BK261">
+        <v>1.66</v>
+      </c>
+      <c r="BL261">
+        <v>2.06</v>
+      </c>
+      <c r="BM261">
+        <v>2.04</v>
+      </c>
+      <c r="BN261">
+        <v>1.68</v>
+      </c>
+      <c r="BO261">
+        <v>2.55</v>
+      </c>
+      <c r="BP261">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -55029,7 +55029,7 @@
         <v>69</v>
       </c>
       <c r="E261" s="2">
-        <v>45648.5</v>
+        <v>45647.875</v>
       </c>
       <c r="F261">
         <v>22</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -55029,7 +55029,7 @@
         <v>69</v>
       </c>
       <c r="E261" s="2">
-        <v>45647.875</v>
+        <v>45648.5</v>
       </c>
       <c r="F261">
         <v>22</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,24 @@
     <t>['28', '68']</t>
   </si>
   <si>
+    <t>['29', '64', '79']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['38', '90+1']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['14', '61']</t>
+  </si>
+  <si>
+    <t>['15', '32', '35']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1130,6 +1148,15 @@
   </si>
   <si>
     <t>['42', '63']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['1', '42']</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1777,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1828,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ2">
         <v>0.58</v>
@@ -1956,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2034,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ3">
         <v>1.83</v>
@@ -2162,7 +2189,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2243,7 +2270,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2446,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2574,7 +2601,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2858,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2986,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3067,7 +3094,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ8">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3192,7 +3219,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3398,7 +3425,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3479,7 +3506,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ10">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3682,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3891,7 +3918,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4016,7 +4043,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4097,7 +4124,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4222,7 +4249,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4300,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.2</v>
@@ -4509,7 +4536,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4712,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>1.36</v>
@@ -4921,7 +4948,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5046,7 +5073,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5124,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5330,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ19">
         <v>0.73</v>
@@ -5536,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ20">
         <v>0.73</v>
@@ -5664,7 +5691,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5742,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5870,7 +5897,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5948,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>1.36</v>
@@ -6157,7 +6184,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ23">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6363,7 +6390,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6569,7 +6596,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ25">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6694,7 +6721,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6775,7 +6802,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6981,7 +7008,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7187,7 +7214,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7390,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -7518,7 +7545,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7596,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7802,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ31">
         <v>0.58</v>
@@ -8011,7 +8038,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8214,10 +8241,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ33">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8420,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -8548,7 +8575,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8626,10 +8653,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8754,7 +8781,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8832,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.83</v>
@@ -9038,10 +9065,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9166,7 +9193,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9578,7 +9605,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9784,7 +9811,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9862,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -10196,7 +10223,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10277,7 +10304,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ43">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10689,7 +10716,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10895,7 +10922,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11098,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.08</v>
@@ -11304,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48">
         <v>0.73</v>
@@ -11510,7 +11537,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
         <v>0.73</v>
@@ -11638,7 +11665,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11925,7 +11952,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -12131,7 +12158,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12334,7 +12361,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ53">
         <v>0.73</v>
@@ -12540,10 +12567,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12746,7 +12773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12874,7 +12901,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12955,7 +12982,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ56">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -13364,7 +13391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ58">
         <v>0.83</v>
@@ -13570,7 +13597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13698,7 +13725,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13776,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ60">
         <v>0.73</v>
@@ -13904,7 +13931,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13985,7 +14012,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -14110,7 +14137,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14188,10 +14215,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14600,7 +14627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.73</v>
@@ -14809,7 +14836,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
         <v>2.07</v>
@@ -14934,7 +14961,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15015,7 +15042,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ66">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15221,7 +15248,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15424,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.2</v>
@@ -15552,7 +15579,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15633,7 +15660,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15839,7 +15866,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15964,7 +15991,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16042,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.17</v>
@@ -16248,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ72">
         <v>0.58</v>
@@ -16454,7 +16481,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ73">
         <v>1.36</v>
@@ -16582,7 +16609,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16663,7 +16690,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16866,7 +16893,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16994,7 +17021,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17072,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -17200,7 +17227,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17281,7 +17308,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17484,10 +17511,10 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17612,7 +17639,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17690,10 +17717,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ79">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17896,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ80">
         <v>0.73</v>
@@ -18024,7 +18051,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18311,7 +18338,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ82">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18926,7 +18953,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -19135,7 +19162,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ86">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19341,7 +19368,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.02</v>
@@ -19544,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.36</v>
@@ -19672,7 +19699,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20162,10 +20189,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20290,7 +20317,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20371,7 +20398,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20780,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20986,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ95">
         <v>0.73</v>
@@ -21192,10 +21219,10 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21398,10 +21425,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21526,7 +21553,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21607,7 +21634,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ98">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -22016,10 +22043,10 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22350,7 +22377,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22428,10 +22455,10 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22556,7 +22583,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22840,10 +22867,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ104">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23046,7 +23073,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105">
         <v>0.73</v>
@@ -23252,7 +23279,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ106">
         <v>1.36</v>
@@ -23461,7 +23488,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ107">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23664,7 +23691,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23870,10 +23897,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24285,7 +24312,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ111">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24694,7 +24721,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ113">
         <v>0.83</v>
@@ -24900,10 +24927,10 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -25028,7 +25055,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25109,7 +25136,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25234,7 +25261,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25315,7 +25342,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ116">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25518,7 +25545,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ117">
         <v>0.83</v>
@@ -25646,7 +25673,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25724,7 +25751,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118">
         <v>1.08</v>
@@ -25930,7 +25957,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ119">
         <v>1.17</v>
@@ -26345,7 +26372,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26676,7 +26703,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26754,7 +26781,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
         <v>0.83</v>
@@ -26882,7 +26909,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26960,7 +26987,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
         <v>1.08</v>
@@ -27375,7 +27402,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ126">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -27578,7 +27605,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127">
         <v>0.58</v>
@@ -27993,7 +28020,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ129">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28196,10 +28223,10 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ130">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28324,7 +28351,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28405,7 +28432,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28611,7 +28638,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28814,7 +28841,7 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
         <v>1.83</v>
@@ -28942,7 +28969,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29023,7 +29050,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ134">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29226,10 +29253,10 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29354,7 +29381,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29432,10 +29459,10 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -29638,7 +29665,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ137">
         <v>1.36</v>
@@ -29766,7 +29793,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -29844,10 +29871,10 @@
         <v>0.6</v>
       </c>
       <c r="AP138">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR138">
         <v>1.35</v>
@@ -30053,7 +30080,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ139">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -30462,7 +30489,7 @@
         <v>0.8</v>
       </c>
       <c r="AP141">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ141">
         <v>0.73</v>
@@ -30590,7 +30617,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -30874,10 +30901,10 @@
         <v>1.4</v>
       </c>
       <c r="AP143">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -31208,7 +31235,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31286,7 +31313,7 @@
         <v>1.2</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ145">
         <v>1.36</v>
@@ -31414,7 +31441,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31495,7 +31522,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31620,7 +31647,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31698,7 +31725,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
         <v>1.17</v>
@@ -31826,7 +31853,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31904,7 +31931,7 @@
         <v>0.33</v>
       </c>
       <c r="AP148">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ148">
         <v>0.58</v>
@@ -32032,7 +32059,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32110,7 +32137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ149">
         <v>1.83</v>
@@ -32238,7 +32265,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32319,7 +32346,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ150">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32650,7 +32677,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32728,7 +32755,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ152">
         <v>1.08</v>
@@ -32937,7 +32964,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ153">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -33062,7 +33089,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33349,7 +33376,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ155">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR155">
         <v>1.82</v>
@@ -33474,7 +33501,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33552,7 +33579,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156">
         <v>0.83</v>
@@ -33761,7 +33788,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ157">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR157">
         <v>1.46</v>
@@ -33886,7 +33913,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34376,10 +34403,10 @@
         <v>1.33</v>
       </c>
       <c r="AP160">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ160">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR160">
         <v>1.05</v>
@@ -34504,7 +34531,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -34582,7 +34609,7 @@
         <v>1.57</v>
       </c>
       <c r="AP161">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
         <v>1.83</v>
@@ -34788,7 +34815,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
         <v>0.73</v>
@@ -34997,7 +35024,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ163">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR163">
         <v>1.59</v>
@@ -35203,7 +35230,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ164">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35328,7 +35355,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35406,7 +35433,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ165">
         <v>0.73</v>
@@ -35534,7 +35561,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35612,7 +35639,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
         <v>0.58</v>
@@ -35821,7 +35848,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ167">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR167">
         <v>1.4</v>
@@ -36024,10 +36051,10 @@
         <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ168">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -36233,7 +36260,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ169">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36436,7 +36463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP170">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ170">
         <v>0.2</v>
@@ -36642,10 +36669,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ171">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36770,7 +36797,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36848,10 +36875,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ172">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36976,7 +37003,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37388,7 +37415,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37800,7 +37827,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37878,10 +37905,10 @@
         <v>0.14</v>
       </c>
       <c r="AP177">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR177">
         <v>1.3</v>
@@ -38084,7 +38111,7 @@
         <v>1.29</v>
       </c>
       <c r="AP178">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178">
         <v>1.08</v>
@@ -38290,10 +38317,10 @@
         <v>1.17</v>
       </c>
       <c r="AP179">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ179">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR179">
         <v>1.59</v>
@@ -38418,7 +38445,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38499,7 +38526,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ180">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38830,7 +38857,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39114,10 +39141,10 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39242,7 +39269,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39320,7 +39347,7 @@
         <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ184">
         <v>1.83</v>
@@ -39529,7 +39556,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR185">
         <v>1.45</v>
@@ -39735,7 +39762,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ186">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR186">
         <v>1.39</v>
@@ -39941,7 +39968,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ187">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -40066,7 +40093,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40144,7 +40171,7 @@
         <v>1.43</v>
       </c>
       <c r="AP188">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ188">
         <v>1.36</v>
@@ -40350,7 +40377,7 @@
         <v>0.63</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189">
         <v>0.58</v>
@@ -40684,7 +40711,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40890,7 +40917,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -40968,10 +40995,10 @@
         <v>1.43</v>
       </c>
       <c r="AP192">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ192">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -41174,7 +41201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ193">
         <v>1.08</v>
@@ -41380,7 +41407,7 @@
         <v>0.43</v>
       </c>
       <c r="AP194">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ194">
         <v>0.73</v>
@@ -41586,7 +41613,7 @@
         <v>0.29</v>
       </c>
       <c r="AP195">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ195">
         <v>0.2</v>
@@ -41714,7 +41741,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -41795,7 +41822,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ196">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR196">
         <v>1.31</v>
@@ -42204,10 +42231,10 @@
         <v>0.25</v>
       </c>
       <c r="AP198">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ198">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR198">
         <v>1.39</v>
@@ -42413,7 +42440,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ199">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42619,7 +42646,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ200">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR200">
         <v>1.86</v>
@@ -42744,7 +42771,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43028,7 +43055,7 @@
         <v>0.86</v>
       </c>
       <c r="AP202">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ202">
         <v>1.36</v>
@@ -43234,7 +43261,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ203">
         <v>1.17</v>
@@ -43440,10 +43467,10 @@
         <v>1.67</v>
       </c>
       <c r="AP204">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ204">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -43646,7 +43673,7 @@
         <v>1.13</v>
       </c>
       <c r="AP205">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43852,10 +43879,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ206">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -43980,7 +44007,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44058,10 +44085,10 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ207">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR207">
         <v>1.61</v>
@@ -44264,10 +44291,10 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ208">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR208">
         <v>1.36</v>
@@ -44470,10 +44497,10 @@
         <v>1.78</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ209">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR209">
         <v>1.21</v>
@@ -44598,7 +44625,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44676,10 +44703,10 @@
         <v>0.5</v>
       </c>
       <c r="AP210">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ210">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44804,7 +44831,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -44882,10 +44909,10 @@
         <v>0.5</v>
       </c>
       <c r="AP211">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR211">
         <v>1.94</v>
@@ -45088,10 +45115,10 @@
         <v>0.22</v>
       </c>
       <c r="AP212">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ212">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45216,7 +45243,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45294,10 +45321,10 @@
         <v>0.75</v>
       </c>
       <c r="AP213">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ213">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
         <v>1.34</v>
@@ -45422,7 +45449,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45500,10 +45527,10 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ214">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR214">
         <v>1.26</v>
@@ -45628,7 +45655,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45706,10 +45733,10 @@
         <v>1.25</v>
       </c>
       <c r="AP215">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ215">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR215">
         <v>1.4</v>
@@ -46452,7 +46479,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>2.38</v>
@@ -46658,7 +46685,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -47482,7 +47509,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47688,7 +47715,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -48100,7 +48127,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48512,7 +48539,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -48718,7 +48745,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49336,7 +49363,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49542,7 +49569,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50444,10 +50471,10 @@
         <v>0.78</v>
       </c>
       <c r="AP238">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ238">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR238">
         <v>1.39</v>
@@ -50650,10 +50677,10 @@
         <v>1.44</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ239">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR239">
         <v>1.26</v>
@@ -50778,7 +50805,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -50856,10 +50883,10 @@
         <v>0.89</v>
       </c>
       <c r="AP240">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR240">
         <v>1.9</v>
@@ -51062,7 +51089,7 @@
         <v>1.11</v>
       </c>
       <c r="AP241">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ241">
         <v>1</v>
@@ -51268,10 +51295,10 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ242">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51396,7 +51423,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51474,10 +51501,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP243">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ243">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR243">
         <v>1.27</v>
@@ -51602,7 +51629,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51680,10 +51707,10 @@
         <v>1.5</v>
       </c>
       <c r="AP244">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ244">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR244">
         <v>1.43</v>
@@ -51886,10 +51913,10 @@
         <v>0.2</v>
       </c>
       <c r="AP245">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ245">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR245">
         <v>1.5</v>
@@ -52014,7 +52041,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52092,10 +52119,10 @@
         <v>1.44</v>
       </c>
       <c r="AP246">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ246">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR246">
         <v>1.05</v>
@@ -52298,10 +52325,10 @@
         <v>0.44</v>
       </c>
       <c r="AP247">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ247">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR247">
         <v>1.31</v>
@@ -52504,10 +52531,10 @@
         <v>1.7</v>
       </c>
       <c r="AP248">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ248">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR248">
         <v>1.45</v>
@@ -52632,7 +52659,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52710,10 +52737,10 @@
         <v>1.8</v>
       </c>
       <c r="AP249">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ249">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR249">
         <v>1.47</v>
@@ -53250,7 +53277,7 @@
         <v>260</v>
       </c>
       <c r="P252" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53662,7 +53689,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -54692,7 +54719,7 @@
         <v>266</v>
       </c>
       <c r="P259" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q259">
         <v>5.5</v>
@@ -54898,7 +54925,7 @@
         <v>267</v>
       </c>
       <c r="P260" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -55310,7 +55337,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -55388,10 +55415,10 @@
         <v>0.6</v>
       </c>
       <c r="AP262">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ262">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR262">
         <v>1.06</v>
@@ -55594,10 +55621,10 @@
         <v>0.8</v>
       </c>
       <c r="AP263">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ263">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR263">
         <v>1.21</v>
@@ -55800,10 +55827,10 @@
         <v>0.89</v>
       </c>
       <c r="AP264">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ264">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR264">
         <v>1.47</v>
@@ -55928,7 +55955,7 @@
         <v>95</v>
       </c>
       <c r="P265" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56006,10 +56033,10 @@
         <v>1.91</v>
       </c>
       <c r="AP265">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ265">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR265">
         <v>1.46</v>
@@ -56134,7 +56161,7 @@
         <v>271</v>
       </c>
       <c r="P266" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56212,10 +56239,10 @@
         <v>1.6</v>
       </c>
       <c r="AP266">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ266">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR266">
         <v>1.6</v>
@@ -56418,7 +56445,7 @@
         <v>1.1</v>
       </c>
       <c r="AP267">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -56624,10 +56651,10 @@
         <v>0.4</v>
       </c>
       <c r="AP268">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ268">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR268">
         <v>1.48</v>
@@ -56752,7 +56779,7 @@
         <v>274</v>
       </c>
       <c r="P269" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q269">
         <v>3.5</v>
@@ -56830,10 +56857,10 @@
         <v>1.64</v>
       </c>
       <c r="AP269">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ269">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR269">
         <v>1.31</v>
@@ -57036,10 +57063,10 @@
         <v>0.7</v>
       </c>
       <c r="AP270">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ270">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR270">
         <v>1.47</v>
@@ -57242,10 +57269,10 @@
         <v>0.18</v>
       </c>
       <c r="AP271">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ271">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR271">
         <v>1.9</v>
@@ -57370,7 +57397,7 @@
         <v>277</v>
       </c>
       <c r="P272" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57448,10 +57475,10 @@
         <v>1.55</v>
       </c>
       <c r="AP272">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ272">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR272">
         <v>1.43</v>
@@ -57576,7 +57603,7 @@
         <v>95</v>
       </c>
       <c r="P273" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -57654,10 +57681,10 @@
         <v>1.4</v>
       </c>
       <c r="AP273">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ273">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR273">
         <v>1.28</v>
@@ -57733,6 +57760,2478 @@
       </c>
       <c r="BP273">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7479028</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F274">
+        <v>24</v>
+      </c>
+      <c r="G274" t="s">
+        <v>86</v>
+      </c>
+      <c r="H274" t="s">
+        <v>83</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>224</v>
+      </c>
+      <c r="P274" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q274">
+        <v>2.75</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>4.75</v>
+      </c>
+      <c r="T274">
+        <v>1.53</v>
+      </c>
+      <c r="U274">
+        <v>2.38</v>
+      </c>
+      <c r="V274">
+        <v>3.5</v>
+      </c>
+      <c r="W274">
+        <v>1.29</v>
+      </c>
+      <c r="X274">
+        <v>11</v>
+      </c>
+      <c r="Y274">
+        <v>1.05</v>
+      </c>
+      <c r="Z274">
+        <v>1.97</v>
+      </c>
+      <c r="AA274">
+        <v>3.14</v>
+      </c>
+      <c r="AB274">
+        <v>3.92</v>
+      </c>
+      <c r="AC274">
+        <v>1.09</v>
+      </c>
+      <c r="AD274">
+        <v>7</v>
+      </c>
+      <c r="AE274">
+        <v>1.45</v>
+      </c>
+      <c r="AF274">
+        <v>2.7</v>
+      </c>
+      <c r="AG274">
+        <v>2.38</v>
+      </c>
+      <c r="AH274">
+        <v>1.57</v>
+      </c>
+      <c r="AI274">
+        <v>2.1</v>
+      </c>
+      <c r="AJ274">
+        <v>1.67</v>
+      </c>
+      <c r="AK274">
+        <v>1.25</v>
+      </c>
+      <c r="AL274">
+        <v>1.28</v>
+      </c>
+      <c r="AM274">
+        <v>1.77</v>
+      </c>
+      <c r="AN274">
+        <v>2.55</v>
+      </c>
+      <c r="AO274">
+        <v>1.42</v>
+      </c>
+      <c r="AP274">
+        <v>2.42</v>
+      </c>
+      <c r="AQ274">
+        <v>1.38</v>
+      </c>
+      <c r="AR274">
+        <v>1.41</v>
+      </c>
+      <c r="AS274">
+        <v>1.12</v>
+      </c>
+      <c r="AT274">
+        <v>2.53</v>
+      </c>
+      <c r="AU274">
+        <v>3</v>
+      </c>
+      <c r="AV274">
+        <v>7</v>
+      </c>
+      <c r="AW274">
+        <v>8</v>
+      </c>
+      <c r="AX274">
+        <v>2</v>
+      </c>
+      <c r="AY274">
+        <v>15</v>
+      </c>
+      <c r="AZ274">
+        <v>11</v>
+      </c>
+      <c r="BA274">
+        <v>2</v>
+      </c>
+      <c r="BB274">
+        <v>2</v>
+      </c>
+      <c r="BC274">
+        <v>4</v>
+      </c>
+      <c r="BD274">
+        <v>1.7</v>
+      </c>
+      <c r="BE274">
+        <v>7</v>
+      </c>
+      <c r="BF274">
+        <v>2.35</v>
+      </c>
+      <c r="BG274">
+        <v>1.15</v>
+      </c>
+      <c r="BH274">
+        <v>4.6</v>
+      </c>
+      <c r="BI274">
+        <v>1.27</v>
+      </c>
+      <c r="BJ274">
+        <v>3.3</v>
+      </c>
+      <c r="BK274">
+        <v>1.47</v>
+      </c>
+      <c r="BL274">
+        <v>2.48</v>
+      </c>
+      <c r="BM274">
+        <v>1.72</v>
+      </c>
+      <c r="BN274">
+        <v>1.97</v>
+      </c>
+      <c r="BO274">
+        <v>2.1</v>
+      </c>
+      <c r="BP274">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7479027</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F275">
+        <v>24</v>
+      </c>
+      <c r="G275" t="s">
+        <v>71</v>
+      </c>
+      <c r="H275" t="s">
+        <v>80</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275" t="s">
+        <v>278</v>
+      </c>
+      <c r="P275" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q275">
+        <v>3.2</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>3.6</v>
+      </c>
+      <c r="T275">
+        <v>1.44</v>
+      </c>
+      <c r="U275">
+        <v>2.63</v>
+      </c>
+      <c r="V275">
+        <v>3.25</v>
+      </c>
+      <c r="W275">
+        <v>1.33</v>
+      </c>
+      <c r="X275">
+        <v>10</v>
+      </c>
+      <c r="Y275">
+        <v>1.06</v>
+      </c>
+      <c r="Z275">
+        <v>2.43</v>
+      </c>
+      <c r="AA275">
+        <v>2.91</v>
+      </c>
+      <c r="AB275">
+        <v>2.91</v>
+      </c>
+      <c r="AC275">
+        <v>1.08</v>
+      </c>
+      <c r="AD275">
+        <v>9</v>
+      </c>
+      <c r="AE275">
+        <v>1.36</v>
+      </c>
+      <c r="AF275">
+        <v>3.2</v>
+      </c>
+      <c r="AG275">
+        <v>2.1</v>
+      </c>
+      <c r="AH275">
+        <v>1.67</v>
+      </c>
+      <c r="AI275">
+        <v>1.8</v>
+      </c>
+      <c r="AJ275">
+        <v>1.91</v>
+      </c>
+      <c r="AK275">
+        <v>1.42</v>
+      </c>
+      <c r="AL275">
+        <v>1.32</v>
+      </c>
+      <c r="AM275">
+        <v>1.55</v>
+      </c>
+      <c r="AN275">
+        <v>1.5</v>
+      </c>
+      <c r="AO275">
+        <v>1.55</v>
+      </c>
+      <c r="AP275">
+        <v>1.62</v>
+      </c>
+      <c r="AQ275">
+        <v>1.42</v>
+      </c>
+      <c r="AR275">
+        <v>1.19</v>
+      </c>
+      <c r="AS275">
+        <v>1.2</v>
+      </c>
+      <c r="AT275">
+        <v>2.39</v>
+      </c>
+      <c r="AU275">
+        <v>8</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>2</v>
+      </c>
+      <c r="AX275">
+        <v>6</v>
+      </c>
+      <c r="AY275">
+        <v>15</v>
+      </c>
+      <c r="AZ275">
+        <v>19</v>
+      </c>
+      <c r="BA275">
+        <v>3</v>
+      </c>
+      <c r="BB275">
+        <v>6</v>
+      </c>
+      <c r="BC275">
+        <v>9</v>
+      </c>
+      <c r="BD275">
+        <v>2.3</v>
+      </c>
+      <c r="BE275">
+        <v>6.75</v>
+      </c>
+      <c r="BF275">
+        <v>1.74</v>
+      </c>
+      <c r="BG275">
+        <v>1.19</v>
+      </c>
+      <c r="BH275">
+        <v>4.1</v>
+      </c>
+      <c r="BI275">
+        <v>1.34</v>
+      </c>
+      <c r="BJ275">
+        <v>2.9</v>
+      </c>
+      <c r="BK275">
+        <v>1.56</v>
+      </c>
+      <c r="BL275">
+        <v>2.23</v>
+      </c>
+      <c r="BM275">
+        <v>1.88</v>
+      </c>
+      <c r="BN275">
+        <v>1.81</v>
+      </c>
+      <c r="BO275">
+        <v>2.3</v>
+      </c>
+      <c r="BP275">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7479025</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
+      </c>
+      <c r="G276" t="s">
+        <v>90</v>
+      </c>
+      <c r="H276" t="s">
+        <v>72</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>279</v>
+      </c>
+      <c r="P276" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q276">
+        <v>2.5</v>
+      </c>
+      <c r="R276">
+        <v>2.2</v>
+      </c>
+      <c r="S276">
+        <v>4.33</v>
+      </c>
+      <c r="T276">
+        <v>1.36</v>
+      </c>
+      <c r="U276">
+        <v>3</v>
+      </c>
+      <c r="V276">
+        <v>2.75</v>
+      </c>
+      <c r="W276">
+        <v>1.4</v>
+      </c>
+      <c r="X276">
+        <v>7</v>
+      </c>
+      <c r="Y276">
+        <v>1.1</v>
+      </c>
+      <c r="Z276">
+        <v>1.81</v>
+      </c>
+      <c r="AA276">
+        <v>3.57</v>
+      </c>
+      <c r="AB276">
+        <v>3.76</v>
+      </c>
+      <c r="AC276">
+        <v>1.04</v>
+      </c>
+      <c r="AD276">
+        <v>13</v>
+      </c>
+      <c r="AE276">
+        <v>1.26</v>
+      </c>
+      <c r="AF276">
+        <v>4</v>
+      </c>
+      <c r="AG276">
+        <v>1.76</v>
+      </c>
+      <c r="AH276">
+        <v>1.95</v>
+      </c>
+      <c r="AI276">
+        <v>1.73</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>1.24</v>
+      </c>
+      <c r="AL276">
+        <v>1.22</v>
+      </c>
+      <c r="AM276">
+        <v>2</v>
+      </c>
+      <c r="AN276">
+        <v>1.73</v>
+      </c>
+      <c r="AO276">
+        <v>1</v>
+      </c>
+      <c r="AP276">
+        <v>1.67</v>
+      </c>
+      <c r="AQ276">
+        <v>1</v>
+      </c>
+      <c r="AR276">
+        <v>1.44</v>
+      </c>
+      <c r="AS276">
+        <v>0.8</v>
+      </c>
+      <c r="AT276">
+        <v>2.24</v>
+      </c>
+      <c r="AU276">
+        <v>5</v>
+      </c>
+      <c r="AV276">
+        <v>0</v>
+      </c>
+      <c r="AW276">
+        <v>9</v>
+      </c>
+      <c r="AX276">
+        <v>3</v>
+      </c>
+      <c r="AY276">
+        <v>20</v>
+      </c>
+      <c r="AZ276">
+        <v>5</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>4</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>1.57</v>
+      </c>
+      <c r="BE276">
+        <v>6.75</v>
+      </c>
+      <c r="BF276">
+        <v>2.65</v>
+      </c>
+      <c r="BG276">
+        <v>1.15</v>
+      </c>
+      <c r="BH276">
+        <v>4.6</v>
+      </c>
+      <c r="BI276">
+        <v>1.28</v>
+      </c>
+      <c r="BJ276">
+        <v>3.2</v>
+      </c>
+      <c r="BK276">
+        <v>1.47</v>
+      </c>
+      <c r="BL276">
+        <v>2.48</v>
+      </c>
+      <c r="BM276">
+        <v>1.74</v>
+      </c>
+      <c r="BN276">
+        <v>1.96</v>
+      </c>
+      <c r="BO276">
+        <v>2.14</v>
+      </c>
+      <c r="BP276">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7479030</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F277">
+        <v>24</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277" t="s">
+        <v>81</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>3</v>
+      </c>
+      <c r="O277" t="s">
+        <v>280</v>
+      </c>
+      <c r="P277" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q277">
+        <v>3.2</v>
+      </c>
+      <c r="R277">
+        <v>2.05</v>
+      </c>
+      <c r="S277">
+        <v>3.6</v>
+      </c>
+      <c r="T277">
+        <v>1.44</v>
+      </c>
+      <c r="U277">
+        <v>2.63</v>
+      </c>
+      <c r="V277">
+        <v>3.25</v>
+      </c>
+      <c r="W277">
+        <v>1.33</v>
+      </c>
+      <c r="X277">
+        <v>10</v>
+      </c>
+      <c r="Y277">
+        <v>1.06</v>
+      </c>
+      <c r="Z277">
+        <v>2.17</v>
+      </c>
+      <c r="AA277">
+        <v>3.53</v>
+      </c>
+      <c r="AB277">
+        <v>3.24</v>
+      </c>
+      <c r="AC277">
+        <v>1.06</v>
+      </c>
+      <c r="AD277">
+        <v>10</v>
+      </c>
+      <c r="AE277">
+        <v>1.33</v>
+      </c>
+      <c r="AF277">
+        <v>3.3</v>
+      </c>
+      <c r="AG277">
+        <v>2</v>
+      </c>
+      <c r="AH277">
+        <v>1.8</v>
+      </c>
+      <c r="AI277">
+        <v>1.83</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>1.35</v>
+      </c>
+      <c r="AL277">
+        <v>1.31</v>
+      </c>
+      <c r="AM277">
+        <v>1.61</v>
+      </c>
+      <c r="AN277">
+        <v>1.45</v>
+      </c>
+      <c r="AO277">
+        <v>0.36</v>
+      </c>
+      <c r="AP277">
+        <v>1.58</v>
+      </c>
+      <c r="AQ277">
+        <v>0.33</v>
+      </c>
+      <c r="AR277">
+        <v>1.4</v>
+      </c>
+      <c r="AS277">
+        <v>1.15</v>
+      </c>
+      <c r="AT277">
+        <v>2.55</v>
+      </c>
+      <c r="AU277">
+        <v>10</v>
+      </c>
+      <c r="AV277">
+        <v>2</v>
+      </c>
+      <c r="AW277">
+        <v>7</v>
+      </c>
+      <c r="AX277">
+        <v>1</v>
+      </c>
+      <c r="AY277">
+        <v>23</v>
+      </c>
+      <c r="AZ277">
+        <v>5</v>
+      </c>
+      <c r="BA277">
+        <v>8</v>
+      </c>
+      <c r="BB277">
+        <v>1</v>
+      </c>
+      <c r="BC277">
+        <v>9</v>
+      </c>
+      <c r="BD277">
+        <v>2.03</v>
+      </c>
+      <c r="BE277">
+        <v>6.75</v>
+      </c>
+      <c r="BF277">
+        <v>2.21</v>
+      </c>
+      <c r="BG277">
+        <v>1.12</v>
+      </c>
+      <c r="BH277">
+        <v>4.7</v>
+      </c>
+      <c r="BI277">
+        <v>1.27</v>
+      </c>
+      <c r="BJ277">
+        <v>3.14</v>
+      </c>
+      <c r="BK277">
+        <v>1.5</v>
+      </c>
+      <c r="BL277">
+        <v>2.35</v>
+      </c>
+      <c r="BM277">
+        <v>1.85</v>
+      </c>
+      <c r="BN277">
+        <v>1.85</v>
+      </c>
+      <c r="BO277">
+        <v>2.38</v>
+      </c>
+      <c r="BP277">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7479031</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F278">
+        <v>24</v>
+      </c>
+      <c r="G278" t="s">
+        <v>87</v>
+      </c>
+      <c r="H278" t="s">
+        <v>78</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>2</v>
+      </c>
+      <c r="K278">
+        <v>3</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>281</v>
+      </c>
+      <c r="P278" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q278">
+        <v>2.6</v>
+      </c>
+      <c r="R278">
+        <v>2.2</v>
+      </c>
+      <c r="S278">
+        <v>4</v>
+      </c>
+      <c r="T278">
+        <v>1.36</v>
+      </c>
+      <c r="U278">
+        <v>3</v>
+      </c>
+      <c r="V278">
+        <v>2.75</v>
+      </c>
+      <c r="W278">
+        <v>1.4</v>
+      </c>
+      <c r="X278">
+        <v>7</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>1.99</v>
+      </c>
+      <c r="AA278">
+        <v>3.57</v>
+      </c>
+      <c r="AB278">
+        <v>3.72</v>
+      </c>
+      <c r="AC278">
+        <v>1.05</v>
+      </c>
+      <c r="AD278">
+        <v>11</v>
+      </c>
+      <c r="AE278">
+        <v>1.3</v>
+      </c>
+      <c r="AF278">
+        <v>3.6</v>
+      </c>
+      <c r="AG278">
+        <v>1.92</v>
+      </c>
+      <c r="AH278">
+        <v>1.88</v>
+      </c>
+      <c r="AI278">
+        <v>1.67</v>
+      </c>
+      <c r="AJ278">
+        <v>2.1</v>
+      </c>
+      <c r="AK278">
+        <v>1.28</v>
+      </c>
+      <c r="AL278">
+        <v>1.29</v>
+      </c>
+      <c r="AM278">
+        <v>1.77</v>
+      </c>
+      <c r="AN278">
+        <v>2.64</v>
+      </c>
+      <c r="AO278">
+        <v>0.55</v>
+      </c>
+      <c r="AP278">
+        <v>2.42</v>
+      </c>
+      <c r="AQ278">
+        <v>0.75</v>
+      </c>
+      <c r="AR278">
+        <v>1.47</v>
+      </c>
+      <c r="AS278">
+        <v>1.12</v>
+      </c>
+      <c r="AT278">
+        <v>2.59</v>
+      </c>
+      <c r="AU278">
+        <v>3</v>
+      </c>
+      <c r="AV278">
+        <v>4</v>
+      </c>
+      <c r="AW278">
+        <v>5</v>
+      </c>
+      <c r="AX278">
+        <v>5</v>
+      </c>
+      <c r="AY278">
+        <v>11</v>
+      </c>
+      <c r="AZ278">
+        <v>10</v>
+      </c>
+      <c r="BA278">
+        <v>4</v>
+      </c>
+      <c r="BB278">
+        <v>2</v>
+      </c>
+      <c r="BC278">
+        <v>6</v>
+      </c>
+      <c r="BD278">
+        <v>1.62</v>
+      </c>
+      <c r="BE278">
+        <v>8.9</v>
+      </c>
+      <c r="BF278">
+        <v>2.76</v>
+      </c>
+      <c r="BG278">
+        <v>1.21</v>
+      </c>
+      <c r="BH278">
+        <v>3.58</v>
+      </c>
+      <c r="BI278">
+        <v>1.42</v>
+      </c>
+      <c r="BJ278">
+        <v>2.57</v>
+      </c>
+      <c r="BK278">
+        <v>1.8</v>
+      </c>
+      <c r="BL278">
+        <v>1.91</v>
+      </c>
+      <c r="BM278">
+        <v>2.19</v>
+      </c>
+      <c r="BN278">
+        <v>1.57</v>
+      </c>
+      <c r="BO278">
+        <v>2.88</v>
+      </c>
+      <c r="BP278">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7479029</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F279">
+        <v>24</v>
+      </c>
+      <c r="G279" t="s">
+        <v>75</v>
+      </c>
+      <c r="H279" t="s">
+        <v>93</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
+        <v>177</v>
+      </c>
+      <c r="P279" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q279">
+        <v>3.75</v>
+      </c>
+      <c r="R279">
+        <v>2.05</v>
+      </c>
+      <c r="S279">
+        <v>3.1</v>
+      </c>
+      <c r="T279">
+        <v>1.44</v>
+      </c>
+      <c r="U279">
+        <v>2.63</v>
+      </c>
+      <c r="V279">
+        <v>3.25</v>
+      </c>
+      <c r="W279">
+        <v>1.33</v>
+      </c>
+      <c r="X279">
+        <v>10</v>
+      </c>
+      <c r="Y279">
+        <v>1.06</v>
+      </c>
+      <c r="Z279">
+        <v>3.2</v>
+      </c>
+      <c r="AA279">
+        <v>3.45</v>
+      </c>
+      <c r="AB279">
+        <v>2.22</v>
+      </c>
+      <c r="AC279">
+        <v>1.06</v>
+      </c>
+      <c r="AD279">
+        <v>10</v>
+      </c>
+      <c r="AE279">
+        <v>1.38</v>
+      </c>
+      <c r="AF279">
+        <v>3.1</v>
+      </c>
+      <c r="AG279">
+        <v>2</v>
+      </c>
+      <c r="AH279">
+        <v>1.8</v>
+      </c>
+      <c r="AI279">
+        <v>1.83</v>
+      </c>
+      <c r="AJ279">
+        <v>1.83</v>
+      </c>
+      <c r="AK279">
+        <v>1.6</v>
+      </c>
+      <c r="AL279">
+        <v>1.28</v>
+      </c>
+      <c r="AM279">
+        <v>1.4</v>
+      </c>
+      <c r="AN279">
+        <v>1.17</v>
+      </c>
+      <c r="AO279">
+        <v>1.58</v>
+      </c>
+      <c r="AP279">
+        <v>1.31</v>
+      </c>
+      <c r="AQ279">
+        <v>1.46</v>
+      </c>
+      <c r="AR279">
+        <v>1.22</v>
+      </c>
+      <c r="AS279">
+        <v>1.29</v>
+      </c>
+      <c r="AT279">
+        <v>2.51</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>8</v>
+      </c>
+      <c r="AW279">
+        <v>5</v>
+      </c>
+      <c r="AX279">
+        <v>7</v>
+      </c>
+      <c r="AY279">
+        <v>12</v>
+      </c>
+      <c r="AZ279">
+        <v>23</v>
+      </c>
+      <c r="BA279">
+        <v>4</v>
+      </c>
+      <c r="BB279">
+        <v>12</v>
+      </c>
+      <c r="BC279">
+        <v>16</v>
+      </c>
+      <c r="BD279">
+        <v>2.1</v>
+      </c>
+      <c r="BE279">
+        <v>6.5</v>
+      </c>
+      <c r="BF279">
+        <v>1.88</v>
+      </c>
+      <c r="BG279">
+        <v>1.18</v>
+      </c>
+      <c r="BH279">
+        <v>4.24</v>
+      </c>
+      <c r="BI279">
+        <v>1.38</v>
+      </c>
+      <c r="BJ279">
+        <v>2.88</v>
+      </c>
+      <c r="BK279">
+        <v>1.68</v>
+      </c>
+      <c r="BL279">
+        <v>2.17</v>
+      </c>
+      <c r="BM279">
+        <v>2.08</v>
+      </c>
+      <c r="BN279">
+        <v>1.75</v>
+      </c>
+      <c r="BO279">
+        <v>2.67</v>
+      </c>
+      <c r="BP279">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7479026</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F280">
+        <v>24</v>
+      </c>
+      <c r="G280" t="s">
+        <v>73</v>
+      </c>
+      <c r="H280" t="s">
+        <v>92</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" t="s">
+        <v>282</v>
+      </c>
+      <c r="P280" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q280">
+        <v>2.6</v>
+      </c>
+      <c r="R280">
+        <v>2.3</v>
+      </c>
+      <c r="S280">
+        <v>3.75</v>
+      </c>
+      <c r="T280">
+        <v>1.33</v>
+      </c>
+      <c r="U280">
+        <v>3.25</v>
+      </c>
+      <c r="V280">
+        <v>2.63</v>
+      </c>
+      <c r="W280">
+        <v>1.44</v>
+      </c>
+      <c r="X280">
+        <v>6.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.11</v>
+      </c>
+      <c r="Z280">
+        <v>1.9</v>
+      </c>
+      <c r="AA280">
+        <v>3.69</v>
+      </c>
+      <c r="AB280">
+        <v>3.93</v>
+      </c>
+      <c r="AC280">
+        <v>1.04</v>
+      </c>
+      <c r="AD280">
+        <v>13</v>
+      </c>
+      <c r="AE280">
+        <v>1.24</v>
+      </c>
+      <c r="AF280">
+        <v>4.2</v>
+      </c>
+      <c r="AG280">
+        <v>1.85</v>
+      </c>
+      <c r="AH280">
+        <v>1.96</v>
+      </c>
+      <c r="AI280">
+        <v>1.57</v>
+      </c>
+      <c r="AJ280">
+        <v>2.25</v>
+      </c>
+      <c r="AK280">
+        <v>1.32</v>
+      </c>
+      <c r="AL280">
+        <v>1.25</v>
+      </c>
+      <c r="AM280">
+        <v>1.8</v>
+      </c>
+      <c r="AN280">
+        <v>1.58</v>
+      </c>
+      <c r="AO280">
+        <v>0.17</v>
+      </c>
+      <c r="AP280">
+        <v>1.69</v>
+      </c>
+      <c r="AQ280">
+        <v>0.15</v>
+      </c>
+      <c r="AR280">
+        <v>1.09</v>
+      </c>
+      <c r="AS280">
+        <v>0.77</v>
+      </c>
+      <c r="AT280">
+        <v>1.86</v>
+      </c>
+      <c r="AU280">
+        <v>6</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>2</v>
+      </c>
+      <c r="AX280">
+        <v>2</v>
+      </c>
+      <c r="AY280">
+        <v>15</v>
+      </c>
+      <c r="AZ280">
+        <v>12</v>
+      </c>
+      <c r="BA280">
+        <v>9</v>
+      </c>
+      <c r="BB280">
+        <v>6</v>
+      </c>
+      <c r="BC280">
+        <v>15</v>
+      </c>
+      <c r="BD280">
+        <v>1.86</v>
+      </c>
+      <c r="BE280">
+        <v>6.75</v>
+      </c>
+      <c r="BF280">
+        <v>2.12</v>
+      </c>
+      <c r="BG280">
+        <v>1.1</v>
+      </c>
+      <c r="BH280">
+        <v>5.65</v>
+      </c>
+      <c r="BI280">
+        <v>1.25</v>
+      </c>
+      <c r="BJ280">
+        <v>3.63</v>
+      </c>
+      <c r="BK280">
+        <v>1.47</v>
+      </c>
+      <c r="BL280">
+        <v>2.6</v>
+      </c>
+      <c r="BM280">
+        <v>1.79</v>
+      </c>
+      <c r="BN280">
+        <v>2.02</v>
+      </c>
+      <c r="BO280">
+        <v>2.21</v>
+      </c>
+      <c r="BP280">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7479020</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F281">
+        <v>24</v>
+      </c>
+      <c r="G281" t="s">
+        <v>70</v>
+      </c>
+      <c r="H281" t="s">
+        <v>77</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>95</v>
+      </c>
+      <c r="P281" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q281">
+        <v>2.63</v>
+      </c>
+      <c r="R281">
+        <v>2</v>
+      </c>
+      <c r="S281">
+        <v>4.75</v>
+      </c>
+      <c r="T281">
+        <v>1.5</v>
+      </c>
+      <c r="U281">
+        <v>2.5</v>
+      </c>
+      <c r="V281">
+        <v>3.5</v>
+      </c>
+      <c r="W281">
+        <v>1.29</v>
+      </c>
+      <c r="X281">
+        <v>11</v>
+      </c>
+      <c r="Y281">
+        <v>1.05</v>
+      </c>
+      <c r="Z281">
+        <v>2.03</v>
+      </c>
+      <c r="AA281">
+        <v>3.45</v>
+      </c>
+      <c r="AB281">
+        <v>3.7</v>
+      </c>
+      <c r="AC281">
+        <v>1.08</v>
+      </c>
+      <c r="AD281">
+        <v>8.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.44</v>
+      </c>
+      <c r="AF281">
+        <v>2.8</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.75</v>
+      </c>
+      <c r="AI281">
+        <v>2.1</v>
+      </c>
+      <c r="AJ281">
+        <v>1.67</v>
+      </c>
+      <c r="AK281">
+        <v>1.25</v>
+      </c>
+      <c r="AL281">
+        <v>1.28</v>
+      </c>
+      <c r="AM281">
+        <v>1.88</v>
+      </c>
+      <c r="AN281">
+        <v>2.09</v>
+      </c>
+      <c r="AO281">
+        <v>0.73</v>
+      </c>
+      <c r="AP281">
+        <v>1.92</v>
+      </c>
+      <c r="AQ281">
+        <v>0.92</v>
+      </c>
+      <c r="AR281">
+        <v>1.28</v>
+      </c>
+      <c r="AS281">
+        <v>1.32</v>
+      </c>
+      <c r="AT281">
+        <v>2.6</v>
+      </c>
+      <c r="AU281">
+        <v>3</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>8</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>15</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
+        <v>8</v>
+      </c>
+      <c r="BB281">
+        <v>3</v>
+      </c>
+      <c r="BC281">
+        <v>11</v>
+      </c>
+      <c r="BD281">
+        <v>1.79</v>
+      </c>
+      <c r="BE281">
+        <v>6.75</v>
+      </c>
+      <c r="BF281">
+        <v>2.18</v>
+      </c>
+      <c r="BG281">
+        <v>1.15</v>
+      </c>
+      <c r="BH281">
+        <v>4.58</v>
+      </c>
+      <c r="BI281">
+        <v>1.34</v>
+      </c>
+      <c r="BJ281">
+        <v>3.06</v>
+      </c>
+      <c r="BK281">
+        <v>1.62</v>
+      </c>
+      <c r="BL281">
+        <v>2.28</v>
+      </c>
+      <c r="BM281">
+        <v>2</v>
+      </c>
+      <c r="BN281">
+        <v>1.8</v>
+      </c>
+      <c r="BO281">
+        <v>2.52</v>
+      </c>
+      <c r="BP281">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7479022</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F282">
+        <v>24</v>
+      </c>
+      <c r="G282" t="s">
+        <v>82</v>
+      </c>
+      <c r="H282" t="s">
+        <v>74</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282" t="s">
+        <v>95</v>
+      </c>
+      <c r="P282" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q282">
+        <v>2.5</v>
+      </c>
+      <c r="R282">
+        <v>2.05</v>
+      </c>
+      <c r="S282">
+        <v>5</v>
+      </c>
+      <c r="T282">
+        <v>1.5</v>
+      </c>
+      <c r="U282">
+        <v>2.5</v>
+      </c>
+      <c r="V282">
+        <v>3.5</v>
+      </c>
+      <c r="W282">
+        <v>1.29</v>
+      </c>
+      <c r="X282">
+        <v>11</v>
+      </c>
+      <c r="Y282">
+        <v>1.05</v>
+      </c>
+      <c r="Z282">
+        <v>1.8</v>
+      </c>
+      <c r="AA282">
+        <v>3.53</v>
+      </c>
+      <c r="AB282">
+        <v>4.65</v>
+      </c>
+      <c r="AC282">
+        <v>1.08</v>
+      </c>
+      <c r="AD282">
+        <v>9</v>
+      </c>
+      <c r="AE282">
+        <v>1.44</v>
+      </c>
+      <c r="AF282">
+        <v>2.8</v>
+      </c>
+      <c r="AG282">
+        <v>2.25</v>
+      </c>
+      <c r="AH282">
+        <v>1.66</v>
+      </c>
+      <c r="AI282">
+        <v>2.1</v>
+      </c>
+      <c r="AJ282">
+        <v>1.67</v>
+      </c>
+      <c r="AK282">
+        <v>1.2</v>
+      </c>
+      <c r="AL282">
+        <v>1.25</v>
+      </c>
+      <c r="AM282">
+        <v>2</v>
+      </c>
+      <c r="AN282">
+        <v>1.55</v>
+      </c>
+      <c r="AO282">
+        <v>0.8</v>
+      </c>
+      <c r="AP282">
+        <v>1.5</v>
+      </c>
+      <c r="AQ282">
+        <v>0.82</v>
+      </c>
+      <c r="AR282">
+        <v>1.92</v>
+      </c>
+      <c r="AS282">
+        <v>1.15</v>
+      </c>
+      <c r="AT282">
+        <v>3.07</v>
+      </c>
+      <c r="AU282">
+        <v>2</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>4</v>
+      </c>
+      <c r="AY282">
+        <v>7</v>
+      </c>
+      <c r="AZ282">
+        <v>11</v>
+      </c>
+      <c r="BA282">
+        <v>5</v>
+      </c>
+      <c r="BB282">
+        <v>5</v>
+      </c>
+      <c r="BC282">
+        <v>10</v>
+      </c>
+      <c r="BD282">
+        <v>1.55</v>
+      </c>
+      <c r="BE282">
+        <v>7</v>
+      </c>
+      <c r="BF282">
+        <v>2.65</v>
+      </c>
+      <c r="BG282">
+        <v>1.07</v>
+      </c>
+      <c r="BH282">
+        <v>6.27</v>
+      </c>
+      <c r="BI282">
+        <v>1.21</v>
+      </c>
+      <c r="BJ282">
+        <v>3.96</v>
+      </c>
+      <c r="BK282">
+        <v>1.41</v>
+      </c>
+      <c r="BL282">
+        <v>2.78</v>
+      </c>
+      <c r="BM282">
+        <v>1.71</v>
+      </c>
+      <c r="BN282">
+        <v>2.14</v>
+      </c>
+      <c r="BO282">
+        <v>2.09</v>
+      </c>
+      <c r="BP282">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7479021</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F283">
+        <v>24</v>
+      </c>
+      <c r="G283" t="s">
+        <v>89</v>
+      </c>
+      <c r="H283" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283">
+        <v>3</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>283</v>
+      </c>
+      <c r="P283" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q283">
+        <v>2.3</v>
+      </c>
+      <c r="R283">
+        <v>2.25</v>
+      </c>
+      <c r="S283">
+        <v>4.75</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>2.63</v>
+      </c>
+      <c r="W283">
+        <v>1.44</v>
+      </c>
+      <c r="X283">
+        <v>7</v>
+      </c>
+      <c r="Y283">
+        <v>1.1</v>
+      </c>
+      <c r="Z283">
+        <v>1.71</v>
+      </c>
+      <c r="AA283">
+        <v>3.95</v>
+      </c>
+      <c r="AB283">
+        <v>4.69</v>
+      </c>
+      <c r="AC283">
+        <v>1.04</v>
+      </c>
+      <c r="AD283">
+        <v>13</v>
+      </c>
+      <c r="AE283">
+        <v>1.26</v>
+      </c>
+      <c r="AF283">
+        <v>4</v>
+      </c>
+      <c r="AG283">
+        <v>1.88</v>
+      </c>
+      <c r="AH283">
+        <v>1.92</v>
+      </c>
+      <c r="AI283">
+        <v>1.73</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>1.2</v>
+      </c>
+      <c r="AL283">
+        <v>1.22</v>
+      </c>
+      <c r="AM283">
+        <v>2.15</v>
+      </c>
+      <c r="AN283">
+        <v>1.55</v>
+      </c>
+      <c r="AO283">
+        <v>0.64</v>
+      </c>
+      <c r="AP283">
+        <v>1.67</v>
+      </c>
+      <c r="AQ283">
+        <v>0.58</v>
+      </c>
+      <c r="AR283">
+        <v>1.45</v>
+      </c>
+      <c r="AS283">
+        <v>0.95</v>
+      </c>
+      <c r="AT283">
+        <v>2.4</v>
+      </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>7</v>
+      </c>
+      <c r="AX283">
+        <v>2</v>
+      </c>
+      <c r="AY283">
+        <v>21</v>
+      </c>
+      <c r="AZ283">
+        <v>7</v>
+      </c>
+      <c r="BA283">
+        <v>10</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>14</v>
+      </c>
+      <c r="BD283">
+        <v>1.38</v>
+      </c>
+      <c r="BE283">
+        <v>7</v>
+      </c>
+      <c r="BF283">
+        <v>3.4</v>
+      </c>
+      <c r="BG283">
+        <v>1.1</v>
+      </c>
+      <c r="BH283">
+        <v>5.65</v>
+      </c>
+      <c r="BI283">
+        <v>1.25</v>
+      </c>
+      <c r="BJ283">
+        <v>3.63</v>
+      </c>
+      <c r="BK283">
+        <v>1.47</v>
+      </c>
+      <c r="BL283">
+        <v>2.6</v>
+      </c>
+      <c r="BM283">
+        <v>1.79</v>
+      </c>
+      <c r="BN283">
+        <v>2.02</v>
+      </c>
+      <c r="BO283">
+        <v>2.21</v>
+      </c>
+      <c r="BP283">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7479023</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45655.61458333334</v>
+      </c>
+      <c r="F284">
+        <v>24</v>
+      </c>
+      <c r="G284" t="s">
+        <v>84</v>
+      </c>
+      <c r="H284" t="s">
+        <v>76</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>95</v>
+      </c>
+      <c r="P284" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q284">
+        <v>6.5</v>
+      </c>
+      <c r="R284">
+        <v>2.25</v>
+      </c>
+      <c r="S284">
+        <v>2.1</v>
+      </c>
+      <c r="T284">
+        <v>1.4</v>
+      </c>
+      <c r="U284">
+        <v>2.75</v>
+      </c>
+      <c r="V284">
+        <v>2.75</v>
+      </c>
+      <c r="W284">
+        <v>1.4</v>
+      </c>
+      <c r="X284">
+        <v>8</v>
+      </c>
+      <c r="Y284">
+        <v>1.08</v>
+      </c>
+      <c r="Z284">
+        <v>6.1</v>
+      </c>
+      <c r="AA284">
+        <v>4.1</v>
+      </c>
+      <c r="AB284">
+        <v>1.52</v>
+      </c>
+      <c r="AC284">
+        <v>1.05</v>
+      </c>
+      <c r="AD284">
+        <v>11</v>
+      </c>
+      <c r="AE284">
+        <v>1.33</v>
+      </c>
+      <c r="AF284">
+        <v>3.4</v>
+      </c>
+      <c r="AG284">
+        <v>1.9</v>
+      </c>
+      <c r="AH284">
+        <v>1.87</v>
+      </c>
+      <c r="AI284">
+        <v>2.1</v>
+      </c>
+      <c r="AJ284">
+        <v>1.67</v>
+      </c>
+      <c r="AK284">
+        <v>2.3</v>
+      </c>
+      <c r="AL284">
+        <v>1.24</v>
+      </c>
+      <c r="AM284">
+        <v>1.14</v>
+      </c>
+      <c r="AN284">
+        <v>1.82</v>
+      </c>
+      <c r="AO284">
+        <v>1.55</v>
+      </c>
+      <c r="AP284">
+        <v>1.67</v>
+      </c>
+      <c r="AQ284">
+        <v>1.67</v>
+      </c>
+      <c r="AR284">
+        <v>1.42</v>
+      </c>
+      <c r="AS284">
+        <v>1.52</v>
+      </c>
+      <c r="AT284">
+        <v>2.94</v>
+      </c>
+      <c r="AU284">
+        <v>2</v>
+      </c>
+      <c r="AV284">
+        <v>7</v>
+      </c>
+      <c r="AW284">
+        <v>1</v>
+      </c>
+      <c r="AX284">
+        <v>5</v>
+      </c>
+      <c r="AY284">
+        <v>5</v>
+      </c>
+      <c r="AZ284">
+        <v>18</v>
+      </c>
+      <c r="BA284">
+        <v>2</v>
+      </c>
+      <c r="BB284">
+        <v>9</v>
+      </c>
+      <c r="BC284">
+        <v>11</v>
+      </c>
+      <c r="BD284">
+        <v>3.4</v>
+      </c>
+      <c r="BE284">
+        <v>9.5</v>
+      </c>
+      <c r="BF284">
+        <v>1.44</v>
+      </c>
+      <c r="BG284">
+        <v>1.14</v>
+      </c>
+      <c r="BH284">
+        <v>4.4</v>
+      </c>
+      <c r="BI284">
+        <v>1.3</v>
+      </c>
+      <c r="BJ284">
+        <v>2.97</v>
+      </c>
+      <c r="BK284">
+        <v>1.56</v>
+      </c>
+      <c r="BL284">
+        <v>2.21</v>
+      </c>
+      <c r="BM284">
+        <v>1.91</v>
+      </c>
+      <c r="BN284">
+        <v>1.8</v>
+      </c>
+      <c r="BO284">
+        <v>2.51</v>
+      </c>
+      <c r="BP284">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7479024</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45655.70833333334</v>
+      </c>
+      <c r="F285">
+        <v>24</v>
+      </c>
+      <c r="G285" t="s">
+        <v>79</v>
+      </c>
+      <c r="H285" t="s">
+        <v>91</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>95</v>
+      </c>
+      <c r="P285" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q285">
+        <v>2.88</v>
+      </c>
+      <c r="R285">
+        <v>2.1</v>
+      </c>
+      <c r="S285">
+        <v>4</v>
+      </c>
+      <c r="T285">
+        <v>1.44</v>
+      </c>
+      <c r="U285">
+        <v>2.63</v>
+      </c>
+      <c r="V285">
+        <v>3.25</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>9</v>
+      </c>
+      <c r="Y285">
+        <v>1.07</v>
+      </c>
+      <c r="Z285">
+        <v>2.2</v>
+      </c>
+      <c r="AA285">
+        <v>3.3</v>
+      </c>
+      <c r="AB285">
+        <v>3.25</v>
+      </c>
+      <c r="AC285">
+        <v>1.06</v>
+      </c>
+      <c r="AD285">
+        <v>10</v>
+      </c>
+      <c r="AE285">
+        <v>1.36</v>
+      </c>
+      <c r="AF285">
+        <v>3.2</v>
+      </c>
+      <c r="AG285">
+        <v>2.12</v>
+      </c>
+      <c r="AH285">
+        <v>1.68</v>
+      </c>
+      <c r="AI285">
+        <v>1.83</v>
+      </c>
+      <c r="AJ285">
+        <v>1.83</v>
+      </c>
+      <c r="AK285">
+        <v>1.36</v>
+      </c>
+      <c r="AL285">
+        <v>1.31</v>
+      </c>
+      <c r="AM285">
+        <v>1.58</v>
+      </c>
+      <c r="AN285">
+        <v>1.75</v>
+      </c>
+      <c r="AO285">
+        <v>2</v>
+      </c>
+      <c r="AP285">
+        <v>1.69</v>
+      </c>
+      <c r="AQ285">
+        <v>1.92</v>
+      </c>
+      <c r="AR285">
+        <v>1.55</v>
+      </c>
+      <c r="AS285">
+        <v>1.24</v>
+      </c>
+      <c r="AT285">
+        <v>2.79</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>3</v>
+      </c>
+      <c r="AX285">
+        <v>6</v>
+      </c>
+      <c r="AY285">
+        <v>9</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
+        <v>4</v>
+      </c>
+      <c r="BC285">
+        <v>5</v>
+      </c>
+      <c r="BD285">
+        <v>1.78</v>
+      </c>
+      <c r="BE285">
+        <v>6.75</v>
+      </c>
+      <c r="BF285">
+        <v>2.61</v>
+      </c>
+      <c r="BG285">
+        <v>1.17</v>
+      </c>
+      <c r="BH285">
+        <v>4.05</v>
+      </c>
+      <c r="BI285">
+        <v>1.35</v>
+      </c>
+      <c r="BJ285">
+        <v>2.74</v>
+      </c>
+      <c r="BK285">
+        <v>1.73</v>
+      </c>
+      <c r="BL285">
+        <v>2</v>
+      </c>
+      <c r="BM285">
+        <v>2.07</v>
+      </c>
+      <c r="BN285">
+        <v>1.67</v>
+      </c>
+      <c r="BO285">
+        <v>2.67</v>
+      </c>
+      <c r="BP285">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -59356,7 +59356,7 @@
         <v>3</v>
       </c>
       <c r="AY281">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ281">
         <v>9</v>
@@ -60189,10 +60189,10 @@
         <v>1</v>
       </c>
       <c r="BB285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC285">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD285">
         <v>1.78</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="390">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['27', '35']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1178,6 +1181,9 @@
   </si>
   <si>
     <t>['68', '90+1']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1804,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -2004,7 +2010,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2085,7 +2091,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ3">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2210,7 +2216,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2622,7 +2628,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3034,7 +3040,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3240,7 +3246,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3446,7 +3452,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -4064,7 +4070,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4270,7 +4276,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -5094,7 +5100,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5712,7 +5718,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5918,7 +5924,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6614,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1.42</v>
@@ -6742,7 +6748,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7566,7 +7572,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8056,7 +8062,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>1.92</v>
@@ -8596,7 +8602,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8802,7 +8808,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8883,7 +8889,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -9214,7 +9220,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9626,7 +9632,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9832,7 +9838,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10244,7 +10250,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11686,7 +11692,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11767,7 +11773,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -12922,7 +12928,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -13746,7 +13752,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13952,7 +13958,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14158,7 +14164,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14442,7 +14448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14982,7 +14988,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15600,7 +15606,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -16012,7 +16018,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16630,7 +16636,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -17042,7 +17048,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17248,7 +17254,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17660,7 +17666,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18072,7 +18078,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18565,7 +18571,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -19720,7 +19726,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20004,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
         <v>0.54</v>
@@ -20338,7 +20344,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21574,7 +21580,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21652,7 +21658,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -22398,7 +22404,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22604,7 +22610,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -24127,7 +24133,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ110">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -25076,7 +25082,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25282,7 +25288,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25694,7 +25700,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26724,7 +26730,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26930,7 +26936,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -28372,7 +28378,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28865,7 +28871,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28990,7 +28996,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29402,7 +29408,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29814,7 +29820,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -30304,7 +30310,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.45</v>
@@ -30638,7 +30644,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -31256,7 +31262,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31462,7 +31468,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31668,7 +31674,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31874,7 +31880,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32080,7 +32086,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32161,7 +32167,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ149">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32286,7 +32292,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32698,7 +32704,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33110,7 +33116,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33522,7 +33528,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33934,7 +33940,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34552,7 +34558,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -34633,7 +34639,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ161">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -35376,7 +35382,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35582,7 +35588,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36818,7 +36824,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37024,7 +37030,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37436,7 +37442,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37514,7 +37520,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ175">
         <v>0.85</v>
@@ -37848,7 +37854,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38466,7 +38472,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38878,7 +38884,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39290,7 +39296,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39371,7 +39377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ184">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -40114,7 +40120,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40732,7 +40738,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40938,7 +40944,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41762,7 +41768,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42458,7 +42464,7 @@
         <v>1.88</v>
       </c>
       <c r="AP199">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ199">
         <v>1.38</v>
@@ -42792,7 +42798,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -44028,7 +44034,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44646,7 +44652,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44852,7 +44858,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -45264,7 +45270,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45470,7 +45476,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45676,7 +45682,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46578,7 +46584,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ219">
         <v>0.75</v>
@@ -46706,7 +46712,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -47530,7 +47536,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47736,7 +47742,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47817,7 +47823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ225">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -48020,7 +48026,7 @@
         <v>1.2</v>
       </c>
       <c r="AP226">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ226">
         <v>1.08</v>
@@ -48148,7 +48154,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48560,7 +48566,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49384,7 +49390,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49465,7 +49471,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ233">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -49590,7 +49596,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50826,7 +50832,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51444,7 +51450,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51650,7 +51656,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -52062,7 +52068,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52680,7 +52686,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53298,7 +53304,7 @@
         <v>260</v>
       </c>
       <c r="P252" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53710,7 +53716,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -53788,7 +53794,7 @@
         <v>0.91</v>
       </c>
       <c r="AP254">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ254">
         <v>1</v>
@@ -54203,7 +54209,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ256">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54740,7 +54746,7 @@
         <v>266</v>
       </c>
       <c r="P259" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q259">
         <v>5.5</v>
@@ -54946,7 +54952,7 @@
         <v>267</v>
       </c>
       <c r="P260" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -55358,7 +55364,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -55976,7 +55982,7 @@
         <v>95</v>
       </c>
       <c r="P265" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56182,7 +56188,7 @@
         <v>271</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56800,7 +56806,7 @@
         <v>274</v>
       </c>
       <c r="P269" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q269">
         <v>3.5</v>
@@ -57418,7 +57424,7 @@
         <v>277</v>
       </c>
       <c r="P272" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57624,7 +57630,7 @@
         <v>95</v>
       </c>
       <c r="P273" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -58036,7 +58042,7 @@
         <v>278</v>
       </c>
       <c r="P275" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58242,7 +58248,7 @@
         <v>279</v>
       </c>
       <c r="P276" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q276">
         <v>2.5</v>
@@ -58448,7 +58454,7 @@
         <v>280</v>
       </c>
       <c r="P277" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -58654,7 +58660,7 @@
         <v>281</v>
       </c>
       <c r="P278" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q278">
         <v>2.6</v>
@@ -60508,7 +60514,7 @@
         <v>285</v>
       </c>
       <c r="P287" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q287">
         <v>3.75</v>
@@ -60920,7 +60926,7 @@
         <v>286</v>
       </c>
       <c r="P289" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q289">
         <v>2.38</v>
@@ -61126,7 +61132,7 @@
         <v>287</v>
       </c>
       <c r="P290" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61744,7 +61750,7 @@
         <v>198</v>
       </c>
       <c r="P293" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q293">
         <v>1.95</v>
@@ -61950,7 +61956,7 @@
         <v>289</v>
       </c>
       <c r="P294" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q294">
         <v>3.4</v>
@@ -62249,7 +62255,7 @@
         <v>2.62</v>
       </c>
       <c r="AU295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV295">
         <v>4</v>
@@ -62261,7 +62267,7 @@
         <v>6</v>
       </c>
       <c r="AY295">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ295">
         <v>15</v>
@@ -62519,6 +62525,212 @@
       </c>
       <c r="BP296">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7479042</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45658.70833333334</v>
+      </c>
+      <c r="F297">
+        <v>25</v>
+      </c>
+      <c r="G297" t="s">
+        <v>93</v>
+      </c>
+      <c r="H297" t="s">
+        <v>86</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>3</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>290</v>
+      </c>
+      <c r="P297" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q297">
+        <v>3.25</v>
+      </c>
+      <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>3.6</v>
+      </c>
+      <c r="T297">
+        <v>1.5</v>
+      </c>
+      <c r="U297">
+        <v>2.5</v>
+      </c>
+      <c r="V297">
+        <v>3.5</v>
+      </c>
+      <c r="W297">
+        <v>1.29</v>
+      </c>
+      <c r="X297">
+        <v>10</v>
+      </c>
+      <c r="Y297">
+        <v>1.06</v>
+      </c>
+      <c r="Z297">
+        <v>2.35</v>
+      </c>
+      <c r="AA297">
+        <v>3.5</v>
+      </c>
+      <c r="AB297">
+        <v>2.62</v>
+      </c>
+      <c r="AC297">
+        <v>1.07</v>
+      </c>
+      <c r="AD297">
+        <v>9.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.4</v>
+      </c>
+      <c r="AF297">
+        <v>3</v>
+      </c>
+      <c r="AG297">
+        <v>2.28</v>
+      </c>
+      <c r="AH297">
+        <v>1.6</v>
+      </c>
+      <c r="AI297">
+        <v>2</v>
+      </c>
+      <c r="AJ297">
+        <v>1.73</v>
+      </c>
+      <c r="AK297">
+        <v>1.36</v>
+      </c>
+      <c r="AL297">
+        <v>1.32</v>
+      </c>
+      <c r="AM297">
+        <v>1.58</v>
+      </c>
+      <c r="AN297">
+        <v>2.27</v>
+      </c>
+      <c r="AO297">
+        <v>1.83</v>
+      </c>
+      <c r="AP297">
+        <v>2.33</v>
+      </c>
+      <c r="AQ297">
+        <v>1.69</v>
+      </c>
+      <c r="AR297">
+        <v>1.55</v>
+      </c>
+      <c r="AS297">
+        <v>1.25</v>
+      </c>
+      <c r="AT297">
+        <v>2.8</v>
+      </c>
+      <c r="AU297">
+        <v>7</v>
+      </c>
+      <c r="AV297">
+        <v>4</v>
+      </c>
+      <c r="AW297">
+        <v>5</v>
+      </c>
+      <c r="AX297">
+        <v>3</v>
+      </c>
+      <c r="AY297">
+        <v>15</v>
+      </c>
+      <c r="AZ297">
+        <v>17</v>
+      </c>
+      <c r="BA297">
+        <v>4</v>
+      </c>
+      <c r="BB297">
+        <v>10</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.54</v>
+      </c>
+      <c r="BE297">
+        <v>7</v>
+      </c>
+      <c r="BF297">
+        <v>2.65</v>
+      </c>
+      <c r="BG297">
+        <v>1.15</v>
+      </c>
+      <c r="BH297">
+        <v>4.6</v>
+      </c>
+      <c r="BI297">
+        <v>1.27</v>
+      </c>
+      <c r="BJ297">
+        <v>3.3</v>
+      </c>
+      <c r="BK297">
+        <v>1.46</v>
+      </c>
+      <c r="BL297">
+        <v>2.5</v>
+      </c>
+      <c r="BM297">
+        <v>1.72</v>
+      </c>
+      <c r="BN297">
+        <v>1.98</v>
+      </c>
+      <c r="BO297">
+        <v>2.08</v>
+      </c>
+      <c r="BP297">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,6 +889,21 @@
     <t>['27', '35']</t>
   </si>
   <si>
+    <t>['6', '85']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['5', '81', '89']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1117,9 +1132,6 @@
     <t>['64', '90+4']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1184,6 +1196,15 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
+    <t>['13', '53']</t>
+  </si>
+  <si>
+    <t>['46', '62', '72']</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1825,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1882,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ2">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2010,7 +2031,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2088,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2216,7 +2237,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2297,7 +2318,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2628,7 +2649,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2912,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3246,7 +3267,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3324,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ9">
         <v>1.08</v>
@@ -3452,7 +3473,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3736,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11">
         <v>1.08</v>
@@ -3942,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4070,7 +4091,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4151,7 +4172,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ13">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4276,7 +4297,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4357,7 +4378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4563,7 +4584,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5100,7 +5121,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5384,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5590,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5718,7 +5739,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5796,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ21">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5924,7 +5945,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6002,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -6211,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6748,7 +6769,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6826,10 +6847,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -7032,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7241,7 +7262,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7444,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7572,7 +7593,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7650,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
         <v>0.58</v>
@@ -7856,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ31">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -8065,7 +8086,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8268,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -8474,10 +8495,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ34">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8602,7 +8623,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8680,10 +8701,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8808,7 +8829,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8886,10 +8907,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ36">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -9092,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9220,7 +9241,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9632,7 +9653,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9838,7 +9859,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10250,7 +10271,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11692,7 +11713,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11770,10 +11791,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11979,7 +12000,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ51">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -12597,7 +12618,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12800,10 +12821,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ55">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12928,7 +12949,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -13212,7 +13233,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13418,7 +13439,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13624,7 +13645,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13752,7 +13773,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13830,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13958,7 +13979,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14039,7 +14060,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -14164,7 +14185,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14242,7 +14263,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>0.92</v>
@@ -14654,7 +14675,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14863,7 +14884,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>2.07</v>
@@ -14988,7 +15009,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15069,7 +15090,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15275,7 +15296,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15478,10 +15499,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ68">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15606,7 +15627,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -16018,7 +16039,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16305,7 +16326,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ72">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16508,7 +16529,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16636,7 +16657,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16920,7 +16941,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17048,7 +17069,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17254,7 +17275,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17332,10 +17353,10 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17541,7 +17562,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ78">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17666,7 +17687,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17744,7 +17765,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ79">
         <v>1.46</v>
@@ -17950,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -18078,7 +18099,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18362,10 +18383,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18571,7 +18592,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ83">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18777,7 +18798,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ84">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18980,7 +19001,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -19189,7 +19210,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19395,7 +19416,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.02</v>
@@ -19726,7 +19747,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19807,7 +19828,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ89">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -20013,7 +20034,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20216,10 +20237,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20344,7 +20365,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21040,7 +21061,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -21246,7 +21267,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
         <v>0.58</v>
@@ -21452,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ97">
         <v>1.42</v>
@@ -21580,7 +21601,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21661,7 +21682,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21867,7 +21888,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -22070,7 +22091,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ100">
         <v>0.92</v>
@@ -22404,7 +22425,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22610,7 +22631,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23100,7 +23121,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -23306,7 +23327,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23515,7 +23536,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23924,10 +23945,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24133,7 +24154,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24339,7 +24360,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ111">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24748,10 +24769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24957,7 +24978,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ114">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -25082,7 +25103,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25160,10 +25181,10 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25288,7 +25309,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25572,7 +25593,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25700,7 +25721,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25778,7 +25799,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118">
         <v>1.08</v>
@@ -25984,7 +26005,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ119">
         <v>1.08</v>
@@ -26193,7 +26214,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ120">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26396,7 +26417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
         <v>1.46</v>
@@ -26602,7 +26623,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
         <v>1.08</v>
@@ -26730,7 +26751,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26808,7 +26829,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26936,7 +26957,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -27014,7 +27035,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ124">
         <v>1.08</v>
@@ -27635,7 +27656,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ127">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27841,7 +27862,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -28044,10 +28065,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ129">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28250,10 +28271,10 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28378,7 +28399,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28665,7 +28686,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ132">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28868,10 +28889,10 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ133">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28996,7 +29017,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29280,10 +29301,10 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ135">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29408,7 +29429,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29692,7 +29713,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29820,7 +29841,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -29898,10 +29919,10 @@
         <v>0.6</v>
       </c>
       <c r="AP138">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ138">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR138">
         <v>1.35</v>
@@ -30107,7 +30128,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ139">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -30313,7 +30334,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR140">
         <v>1.3</v>
@@ -30644,7 +30665,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -31262,7 +31283,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31340,7 +31361,7 @@
         <v>1.2</v>
       </c>
       <c r="AP145">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ145">
         <v>1.5</v>
@@ -31468,7 +31489,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31549,7 +31570,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31674,7 +31695,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31880,7 +31901,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31958,10 +31979,10 @@
         <v>0.33</v>
       </c>
       <c r="AP148">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32086,7 +32107,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32164,10 +32185,10 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ149">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32292,7 +32313,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32370,7 +32391,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ150">
         <v>0.58</v>
@@ -32704,7 +32725,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32782,7 +32803,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ152">
         <v>1.08</v>
@@ -33116,7 +33137,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33194,7 +33215,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ154">
         <v>0.67</v>
@@ -33403,7 +33424,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ155">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR155">
         <v>1.82</v>
@@ -33528,7 +33549,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33606,10 +33627,10 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ156">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR156">
         <v>1.84</v>
@@ -33815,7 +33836,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ157">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR157">
         <v>1.46</v>
@@ -33940,7 +33961,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34224,7 +34245,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34558,7 +34579,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -34636,10 +34657,10 @@
         <v>1.57</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ161">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -34842,7 +34863,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ162">
         <v>0.67</v>
@@ -35257,7 +35278,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ164">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35382,7 +35403,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35460,7 +35481,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ165">
         <v>0.75</v>
@@ -35588,7 +35609,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35669,7 +35690,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR166">
         <v>1.94</v>
@@ -35875,7 +35896,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ167">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR167">
         <v>1.4</v>
@@ -36078,7 +36099,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ168">
         <v>1.46</v>
@@ -36287,7 +36308,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ169">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36490,10 +36511,10 @@
         <v>0.33</v>
       </c>
       <c r="AP170">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ170">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36696,7 +36717,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ171">
         <v>0.33</v>
@@ -36824,7 +36845,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36902,10 +36923,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -37030,7 +37051,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37442,7 +37463,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37523,7 +37544,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ175">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37854,7 +37875,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37935,7 +37956,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR177">
         <v>1.3</v>
@@ -38138,7 +38159,7 @@
         <v>1.29</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ178">
         <v>1.08</v>
@@ -38472,7 +38493,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38550,10 +38571,10 @@
         <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ180">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38884,7 +38905,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39168,10 +39189,10 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ183">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39296,7 +39317,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39377,7 +39398,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ184">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -39580,10 +39601,10 @@
         <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ185">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR185">
         <v>1.45</v>
@@ -40120,7 +40141,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40404,10 +40425,10 @@
         <v>0.63</v>
       </c>
       <c r="AP189">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ189">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR189">
         <v>1.2</v>
@@ -40738,7 +40759,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40944,7 +40965,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41022,10 +41043,10 @@
         <v>1.43</v>
       </c>
       <c r="AP192">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ192">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -41228,7 +41249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ193">
         <v>1.08</v>
@@ -41434,7 +41455,7 @@
         <v>0.43</v>
       </c>
       <c r="AP194">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ194">
         <v>0.67</v>
@@ -41643,7 +41664,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ195">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41768,7 +41789,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -41846,7 +41867,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ196">
         <v>1.42</v>
@@ -42055,7 +42076,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR197">
         <v>1.46</v>
@@ -42258,10 +42279,10 @@
         <v>0.25</v>
       </c>
       <c r="AP198">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ198">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR198">
         <v>1.39</v>
@@ -42467,7 +42488,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ199">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42798,7 +42819,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43082,7 +43103,7 @@
         <v>0.86</v>
       </c>
       <c r="AP202">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ202">
         <v>1.33</v>
@@ -43700,7 +43721,7 @@
         <v>1.13</v>
       </c>
       <c r="AP205">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43909,7 +43930,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ206">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -44034,7 +44055,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44112,7 +44133,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ207">
         <v>0.92</v>
@@ -44318,10 +44339,10 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ208">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR208">
         <v>1.36</v>
@@ -44524,10 +44545,10 @@
         <v>1.78</v>
       </c>
       <c r="AP209">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ209">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR209">
         <v>1.21</v>
@@ -44652,7 +44673,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44730,7 +44751,7 @@
         <v>0.5</v>
       </c>
       <c r="AP210">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ210">
         <v>0.33</v>
@@ -44858,7 +44879,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -44939,7 +44960,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR211">
         <v>1.94</v>
@@ -45142,10 +45163,10 @@
         <v>0.22</v>
       </c>
       <c r="AP212">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ212">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45270,7 +45291,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45348,7 +45369,7 @@
         <v>0.75</v>
       </c>
       <c r="AP213">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ213">
         <v>0.58</v>
@@ -45476,7 +45497,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45554,10 +45575,10 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ214">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR214">
         <v>1.26</v>
@@ -45682,7 +45703,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46175,7 +46196,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ217">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR217">
         <v>1.92</v>
@@ -46378,7 +46399,7 @@
         <v>0.5</v>
       </c>
       <c r="AP218">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ218">
         <v>0.67</v>
@@ -46712,7 +46733,7 @@
         <v>95</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="Q220">
         <v>3.25</v>
@@ -46790,7 +46811,7 @@
         <v>1.13</v>
       </c>
       <c r="AP220">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ220">
         <v>1.33</v>
@@ -46999,7 +47020,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ221">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR221">
         <v>1.38</v>
@@ -47536,7 +47557,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47742,7 +47763,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -47823,7 +47844,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ225">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -48154,7 +48175,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48232,7 +48253,7 @@
         <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ227">
         <v>1.33</v>
@@ -48566,7 +48587,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49059,7 +49080,7 @@
         <v>2</v>
       </c>
       <c r="AQ231">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR231">
         <v>1.4</v>
@@ -49390,7 +49411,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49471,7 +49492,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ233">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -49596,7 +49617,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49880,7 +49901,7 @@
         <v>0.78</v>
       </c>
       <c r="AP235">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ235">
         <v>0.67</v>
@@ -50089,7 +50110,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ236">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR236">
         <v>1.67</v>
@@ -50295,7 +50316,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ237">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR237">
         <v>1.38</v>
@@ -50704,10 +50725,10 @@
         <v>1.44</v>
       </c>
       <c r="AP239">
+        <v>1.57</v>
+      </c>
+      <c r="AQ239">
         <v>1.62</v>
-      </c>
-      <c r="AQ239">
-        <v>1.67</v>
       </c>
       <c r="AR239">
         <v>1.26</v>
@@ -50832,7 +50853,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51116,7 +51137,7 @@
         <v>1.11</v>
       </c>
       <c r="AP241">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ241">
         <v>1</v>
@@ -51322,10 +51343,10 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ242">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51450,7 +51471,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51528,10 +51549,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP243">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ243">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR243">
         <v>1.27</v>
@@ -51656,7 +51677,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51734,7 +51755,7 @@
         <v>1.5</v>
       </c>
       <c r="AP244">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ244">
         <v>1.46</v>
@@ -51943,7 +51964,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ245">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR245">
         <v>1.5</v>
@@ -52068,7 +52089,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52352,7 +52373,7 @@
         <v>0.44</v>
       </c>
       <c r="AP247">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ247">
         <v>0.33</v>
@@ -52558,10 +52579,10 @@
         <v>1.7</v>
       </c>
       <c r="AP248">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ248">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR248">
         <v>1.45</v>
@@ -52686,7 +52707,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52764,10 +52785,10 @@
         <v>1.8</v>
       </c>
       <c r="AP249">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ249">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR249">
         <v>1.47</v>
@@ -52973,7 +52994,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ250">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR250">
         <v>1.41</v>
@@ -53176,7 +53197,7 @@
         <v>0.8</v>
       </c>
       <c r="AP251">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ251">
         <v>0.75</v>
@@ -53304,7 +53325,7 @@
         <v>260</v>
       </c>
       <c r="P252" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53382,7 +53403,7 @@
         <v>1.27</v>
       </c>
       <c r="AP252">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ252">
         <v>1.08</v>
@@ -53591,7 +53612,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ253">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR253">
         <v>1.35</v>
@@ -53716,7 +53737,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -54209,7 +54230,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ256">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54415,7 +54436,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ257">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR257">
         <v>1.86</v>
@@ -54746,7 +54767,7 @@
         <v>266</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>5.5</v>
@@ -54952,7 +54973,7 @@
         <v>267</v>
       </c>
       <c r="P260" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -55364,7 +55385,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -55445,7 +55466,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ262">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR262">
         <v>1.06</v>
@@ -55648,7 +55669,7 @@
         <v>0.8</v>
       </c>
       <c r="AP263">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ263">
         <v>0.92</v>
@@ -55854,10 +55875,10 @@
         <v>0.89</v>
       </c>
       <c r="AP264">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ264">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR264">
         <v>1.47</v>
@@ -55982,7 +56003,7 @@
         <v>95</v>
       </c>
       <c r="P265" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56063,7 +56084,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ265">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR265">
         <v>1.46</v>
@@ -56188,7 +56209,7 @@
         <v>271</v>
       </c>
       <c r="P266" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56266,7 +56287,7 @@
         <v>1.6</v>
       </c>
       <c r="AP266">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ266">
         <v>1.42</v>
@@ -56472,7 +56493,7 @@
         <v>1.1</v>
       </c>
       <c r="AP267">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -56678,7 +56699,7 @@
         <v>0.4</v>
       </c>
       <c r="AP268">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ268">
         <v>0.33</v>
@@ -56806,7 +56827,7 @@
         <v>274</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q269">
         <v>3.5</v>
@@ -56884,7 +56905,7 @@
         <v>1.64</v>
       </c>
       <c r="AP269">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ269">
         <v>1.46</v>
@@ -57090,7 +57111,7 @@
         <v>0.7</v>
       </c>
       <c r="AP270">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ270">
         <v>0.58</v>
@@ -57299,7 +57320,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ271">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR271">
         <v>1.9</v>
@@ -57424,7 +57445,7 @@
         <v>277</v>
       </c>
       <c r="P272" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57505,7 +57526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ272">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR272">
         <v>1.43</v>
@@ -57630,7 +57651,7 @@
         <v>95</v>
       </c>
       <c r="P273" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -57708,10 +57729,10 @@
         <v>1.4</v>
       </c>
       <c r="AP273">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ273">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR273">
         <v>1.28</v>
@@ -57917,7 +57938,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ274">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR274">
         <v>1.41</v>
@@ -58042,7 +58063,7 @@
         <v>278</v>
       </c>
       <c r="P275" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58120,7 +58141,7 @@
         <v>1.55</v>
       </c>
       <c r="AP275">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ275">
         <v>1.42</v>
@@ -58248,7 +58269,7 @@
         <v>279</v>
       </c>
       <c r="P276" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q276">
         <v>2.5</v>
@@ -58326,7 +58347,7 @@
         <v>1</v>
       </c>
       <c r="AP276">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ276">
         <v>1</v>
@@ -58454,7 +58475,7 @@
         <v>280</v>
       </c>
       <c r="P277" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -58532,7 +58553,7 @@
         <v>0.36</v>
       </c>
       <c r="AP277">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ277">
         <v>0.33</v>
@@ -58660,7 +58681,7 @@
         <v>281</v>
       </c>
       <c r="P278" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q278">
         <v>2.6</v>
@@ -58738,10 +58759,10 @@
         <v>0.55</v>
       </c>
       <c r="AP278">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ278">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR278">
         <v>1.47</v>
@@ -58944,7 +58965,7 @@
         <v>1.58</v>
       </c>
       <c r="AP279">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ279">
         <v>1.46</v>
@@ -59153,7 +59174,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ280">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR280">
         <v>1.09</v>
@@ -59356,7 +59377,7 @@
         <v>0.73</v>
       </c>
       <c r="AP281">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ281">
         <v>0.92</v>
@@ -59565,7 +59586,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ282">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR282">
         <v>1.92</v>
@@ -59768,7 +59789,7 @@
         <v>0.64</v>
       </c>
       <c r="AP283">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ283">
         <v>0.58</v>
@@ -59977,7 +59998,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ284">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR284">
         <v>1.42</v>
@@ -60180,10 +60201,10 @@
         <v>2</v>
       </c>
       <c r="AP285">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ285">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR285">
         <v>1.55</v>
@@ -60514,7 +60535,7 @@
         <v>285</v>
       </c>
       <c r="P287" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q287">
         <v>3.75</v>
@@ -60801,7 +60822,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ288">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR288">
         <v>1.32</v>
@@ -60926,7 +60947,7 @@
         <v>286</v>
       </c>
       <c r="P289" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q289">
         <v>2.38</v>
@@ -61132,7 +61153,7 @@
         <v>287</v>
       </c>
       <c r="P290" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61210,10 +61231,10 @@
         <v>0.58</v>
       </c>
       <c r="AP290">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ290">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR290">
         <v>1.4</v>
@@ -61750,7 +61771,7 @@
         <v>198</v>
       </c>
       <c r="P293" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q293">
         <v>1.95</v>
@@ -61956,7 +61977,7 @@
         <v>289</v>
       </c>
       <c r="P294" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q294">
         <v>3.4</v>
@@ -62037,7 +62058,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ294">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR294">
         <v>1.58</v>
@@ -62446,7 +62467,7 @@
         <v>1.36</v>
       </c>
       <c r="AP296">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ296">
         <v>1.5</v>
@@ -62574,7 +62595,7 @@
         <v>290</v>
       </c>
       <c r="P297" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q297">
         <v>3.25</v>
@@ -62655,7 +62676,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ297">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR297">
         <v>1.55</v>
@@ -62731,6 +62752,2066 @@
       </c>
       <c r="BP297">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7479052</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F298">
+        <v>26</v>
+      </c>
+      <c r="G298" t="s">
+        <v>75</v>
+      </c>
+      <c r="H298" t="s">
+        <v>92</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298" t="s">
+        <v>95</v>
+      </c>
+      <c r="P298" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q298">
+        <v>2.1</v>
+      </c>
+      <c r="R298">
+        <v>2.38</v>
+      </c>
+      <c r="S298">
+        <v>5.5</v>
+      </c>
+      <c r="T298">
+        <v>1.33</v>
+      </c>
+      <c r="U298">
+        <v>3.25</v>
+      </c>
+      <c r="V298">
+        <v>2.5</v>
+      </c>
+      <c r="W298">
+        <v>1.5</v>
+      </c>
+      <c r="X298">
+        <v>6.5</v>
+      </c>
+      <c r="Y298">
+        <v>1.11</v>
+      </c>
+      <c r="Z298">
+        <v>1.65</v>
+      </c>
+      <c r="AA298">
+        <v>4.2</v>
+      </c>
+      <c r="AB298">
+        <v>4.5</v>
+      </c>
+      <c r="AC298">
+        <v>1.04</v>
+      </c>
+      <c r="AD298">
+        <v>10</v>
+      </c>
+      <c r="AE298">
+        <v>1.22</v>
+      </c>
+      <c r="AF298">
+        <v>4</v>
+      </c>
+      <c r="AG298">
+        <v>1.79</v>
+      </c>
+      <c r="AH298">
+        <v>1.99</v>
+      </c>
+      <c r="AI298">
+        <v>1.8</v>
+      </c>
+      <c r="AJ298">
+        <v>1.91</v>
+      </c>
+      <c r="AK298">
+        <v>1.14</v>
+      </c>
+      <c r="AL298">
+        <v>1.22</v>
+      </c>
+      <c r="AM298">
+        <v>2.37</v>
+      </c>
+      <c r="AN298">
+        <v>1.31</v>
+      </c>
+      <c r="AO298">
+        <v>0.15</v>
+      </c>
+      <c r="AP298">
+        <v>1.29</v>
+      </c>
+      <c r="AQ298">
+        <v>0.21</v>
+      </c>
+      <c r="AR298">
+        <v>1.23</v>
+      </c>
+      <c r="AS298">
+        <v>0.77</v>
+      </c>
+      <c r="AT298">
+        <v>2</v>
+      </c>
+      <c r="AU298">
+        <v>4</v>
+      </c>
+      <c r="AV298">
+        <v>2</v>
+      </c>
+      <c r="AW298">
+        <v>8</v>
+      </c>
+      <c r="AX298">
+        <v>1</v>
+      </c>
+      <c r="AY298">
+        <v>19</v>
+      </c>
+      <c r="AZ298">
+        <v>3</v>
+      </c>
+      <c r="BA298">
+        <v>6</v>
+      </c>
+      <c r="BB298">
+        <v>3</v>
+      </c>
+      <c r="BC298">
+        <v>9</v>
+      </c>
+      <c r="BD298">
+        <v>1.4</v>
+      </c>
+      <c r="BE298">
+        <v>7.5</v>
+      </c>
+      <c r="BF298">
+        <v>3.2</v>
+      </c>
+      <c r="BG298">
+        <v>1.09</v>
+      </c>
+      <c r="BH298">
+        <v>5.76</v>
+      </c>
+      <c r="BI298">
+        <v>1.24</v>
+      </c>
+      <c r="BJ298">
+        <v>3.69</v>
+      </c>
+      <c r="BK298">
+        <v>1.46</v>
+      </c>
+      <c r="BL298">
+        <v>2.63</v>
+      </c>
+      <c r="BM298">
+        <v>1.77</v>
+      </c>
+      <c r="BN298">
+        <v>2.05</v>
+      </c>
+      <c r="BO298">
+        <v>2.19</v>
+      </c>
+      <c r="BP298">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7479054</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F299">
+        <v>26</v>
+      </c>
+      <c r="G299" t="s">
+        <v>88</v>
+      </c>
+      <c r="H299" t="s">
+        <v>83</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>177</v>
+      </c>
+      <c r="P299" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q299">
+        <v>3.25</v>
+      </c>
+      <c r="R299">
+        <v>2</v>
+      </c>
+      <c r="S299">
+        <v>3.75</v>
+      </c>
+      <c r="T299">
+        <v>1.5</v>
+      </c>
+      <c r="U299">
+        <v>2.5</v>
+      </c>
+      <c r="V299">
+        <v>3.5</v>
+      </c>
+      <c r="W299">
+        <v>1.29</v>
+      </c>
+      <c r="X299">
+        <v>11</v>
+      </c>
+      <c r="Y299">
+        <v>1.05</v>
+      </c>
+      <c r="Z299">
+        <v>2.55</v>
+      </c>
+      <c r="AA299">
+        <v>3.25</v>
+      </c>
+      <c r="AB299">
+        <v>2.75</v>
+      </c>
+      <c r="AC299">
+        <v>1.07</v>
+      </c>
+      <c r="AD299">
+        <v>8</v>
+      </c>
+      <c r="AE299">
+        <v>1.42</v>
+      </c>
+      <c r="AF299">
+        <v>2.8</v>
+      </c>
+      <c r="AG299">
+        <v>2</v>
+      </c>
+      <c r="AH299">
+        <v>1.75</v>
+      </c>
+      <c r="AI299">
+        <v>2</v>
+      </c>
+      <c r="AJ299">
+        <v>1.73</v>
+      </c>
+      <c r="AK299">
+        <v>1.42</v>
+      </c>
+      <c r="AL299">
+        <v>1.33</v>
+      </c>
+      <c r="AM299">
+        <v>1.49</v>
+      </c>
+      <c r="AN299">
+        <v>1.58</v>
+      </c>
+      <c r="AO299">
+        <v>1.38</v>
+      </c>
+      <c r="AP299">
+        <v>1.54</v>
+      </c>
+      <c r="AQ299">
+        <v>1.36</v>
+      </c>
+      <c r="AR299">
+        <v>1.49</v>
+      </c>
+      <c r="AS299">
+        <v>1.14</v>
+      </c>
+      <c r="AT299">
+        <v>2.63</v>
+      </c>
+      <c r="AU299">
+        <v>3</v>
+      </c>
+      <c r="AV299">
+        <v>5</v>
+      </c>
+      <c r="AW299">
+        <v>4</v>
+      </c>
+      <c r="AX299">
+        <v>5</v>
+      </c>
+      <c r="AY299">
+        <v>12</v>
+      </c>
+      <c r="AZ299">
+        <v>17</v>
+      </c>
+      <c r="BA299">
+        <v>5</v>
+      </c>
+      <c r="BB299">
+        <v>6</v>
+      </c>
+      <c r="BC299">
+        <v>11</v>
+      </c>
+      <c r="BD299">
+        <v>1.76</v>
+      </c>
+      <c r="BE299">
+        <v>6.5</v>
+      </c>
+      <c r="BF299">
+        <v>2.25</v>
+      </c>
+      <c r="BG299">
+        <v>1.15</v>
+      </c>
+      <c r="BH299">
+        <v>4.58</v>
+      </c>
+      <c r="BI299">
+        <v>1.34</v>
+      </c>
+      <c r="BJ299">
+        <v>3.06</v>
+      </c>
+      <c r="BK299">
+        <v>1.62</v>
+      </c>
+      <c r="BL299">
+        <v>2.28</v>
+      </c>
+      <c r="BM299">
+        <v>2</v>
+      </c>
+      <c r="BN299">
+        <v>1.8</v>
+      </c>
+      <c r="BO299">
+        <v>2.52</v>
+      </c>
+      <c r="BP299">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7479044</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F300">
+        <v>26</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>91</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
+        <v>95</v>
+      </c>
+      <c r="P300" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q300">
+        <v>4</v>
+      </c>
+      <c r="R300">
+        <v>1.95</v>
+      </c>
+      <c r="S300">
+        <v>3.1</v>
+      </c>
+      <c r="T300">
+        <v>1.53</v>
+      </c>
+      <c r="U300">
+        <v>2.38</v>
+      </c>
+      <c r="V300">
+        <v>3.5</v>
+      </c>
+      <c r="W300">
+        <v>1.29</v>
+      </c>
+      <c r="X300">
+        <v>11</v>
+      </c>
+      <c r="Y300">
+        <v>1.05</v>
+      </c>
+      <c r="Z300">
+        <v>3.35</v>
+      </c>
+      <c r="AA300">
+        <v>3.1</v>
+      </c>
+      <c r="AB300">
+        <v>2.25</v>
+      </c>
+      <c r="AC300">
+        <v>1.07</v>
+      </c>
+      <c r="AD300">
+        <v>8</v>
+      </c>
+      <c r="AE300">
+        <v>1.45</v>
+      </c>
+      <c r="AF300">
+        <v>2.7</v>
+      </c>
+      <c r="AG300">
+        <v>2.25</v>
+      </c>
+      <c r="AH300">
+        <v>1.57</v>
+      </c>
+      <c r="AI300">
+        <v>2.1</v>
+      </c>
+      <c r="AJ300">
+        <v>1.67</v>
+      </c>
+      <c r="AK300">
+        <v>1.6</v>
+      </c>
+      <c r="AL300">
+        <v>1.32</v>
+      </c>
+      <c r="AM300">
+        <v>1.35</v>
+      </c>
+      <c r="AN300">
+        <v>1.92</v>
+      </c>
+      <c r="AO300">
+        <v>1.92</v>
+      </c>
+      <c r="AP300">
+        <v>1.77</v>
+      </c>
+      <c r="AQ300">
+        <v>2</v>
+      </c>
+      <c r="AR300">
+        <v>1.28</v>
+      </c>
+      <c r="AS300">
+        <v>1.21</v>
+      </c>
+      <c r="AT300">
+        <v>2.49</v>
+      </c>
+      <c r="AU300">
+        <v>2</v>
+      </c>
+      <c r="AV300">
+        <v>3</v>
+      </c>
+      <c r="AW300">
+        <v>5</v>
+      </c>
+      <c r="AX300">
+        <v>0</v>
+      </c>
+      <c r="AY300">
+        <v>12</v>
+      </c>
+      <c r="AZ300">
+        <v>6</v>
+      </c>
+      <c r="BA300">
+        <v>10</v>
+      </c>
+      <c r="BB300">
+        <v>0</v>
+      </c>
+      <c r="BC300">
+        <v>10</v>
+      </c>
+      <c r="BD300">
+        <v>2.38</v>
+      </c>
+      <c r="BE300">
+        <v>6.75</v>
+      </c>
+      <c r="BF300">
+        <v>1.7</v>
+      </c>
+      <c r="BG300">
+        <v>1.15</v>
+      </c>
+      <c r="BH300">
+        <v>4.58</v>
+      </c>
+      <c r="BI300">
+        <v>1.34</v>
+      </c>
+      <c r="BJ300">
+        <v>3.06</v>
+      </c>
+      <c r="BK300">
+        <v>1.62</v>
+      </c>
+      <c r="BL300">
+        <v>2.28</v>
+      </c>
+      <c r="BM300">
+        <v>2</v>
+      </c>
+      <c r="BN300">
+        <v>1.8</v>
+      </c>
+      <c r="BO300">
+        <v>2.52</v>
+      </c>
+      <c r="BP300">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7479051</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F301">
+        <v>26</v>
+      </c>
+      <c r="G301" t="s">
+        <v>80</v>
+      </c>
+      <c r="H301" t="s">
+        <v>74</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>291</v>
+      </c>
+      <c r="P301" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q301">
+        <v>3</v>
+      </c>
+      <c r="R301">
+        <v>2</v>
+      </c>
+      <c r="S301">
+        <v>4</v>
+      </c>
+      <c r="T301">
+        <v>1.5</v>
+      </c>
+      <c r="U301">
+        <v>2.5</v>
+      </c>
+      <c r="V301">
+        <v>3.5</v>
+      </c>
+      <c r="W301">
+        <v>1.29</v>
+      </c>
+      <c r="X301">
+        <v>11</v>
+      </c>
+      <c r="Y301">
+        <v>1.05</v>
+      </c>
+      <c r="Z301">
+        <v>2.15</v>
+      </c>
+      <c r="AA301">
+        <v>3.1</v>
+      </c>
+      <c r="AB301">
+        <v>3.4</v>
+      </c>
+      <c r="AC301">
+        <v>1.07</v>
+      </c>
+      <c r="AD301">
+        <v>8</v>
+      </c>
+      <c r="AE301">
+        <v>1.42</v>
+      </c>
+      <c r="AF301">
+        <v>2.8</v>
+      </c>
+      <c r="AG301">
+        <v>2.4</v>
+      </c>
+      <c r="AH301">
+        <v>1.5</v>
+      </c>
+      <c r="AI301">
+        <v>2</v>
+      </c>
+      <c r="AJ301">
+        <v>1.73</v>
+      </c>
+      <c r="AK301">
+        <v>1.34</v>
+      </c>
+      <c r="AL301">
+        <v>1.31</v>
+      </c>
+      <c r="AM301">
+        <v>1.63</v>
+      </c>
+      <c r="AN301">
+        <v>1.46</v>
+      </c>
+      <c r="AO301">
+        <v>0.82</v>
+      </c>
+      <c r="AP301">
+        <v>1.43</v>
+      </c>
+      <c r="AQ301">
+        <v>0.83</v>
+      </c>
+      <c r="AR301">
+        <v>1.41</v>
+      </c>
+      <c r="AS301">
+        <v>1.12</v>
+      </c>
+      <c r="AT301">
+        <v>2.53</v>
+      </c>
+      <c r="AU301">
+        <v>3</v>
+      </c>
+      <c r="AV301">
+        <v>7</v>
+      </c>
+      <c r="AW301">
+        <v>7</v>
+      </c>
+      <c r="AX301">
+        <v>5</v>
+      </c>
+      <c r="AY301">
+        <v>15</v>
+      </c>
+      <c r="AZ301">
+        <v>15</v>
+      </c>
+      <c r="BA301">
+        <v>4</v>
+      </c>
+      <c r="BB301">
+        <v>2</v>
+      </c>
+      <c r="BC301">
+        <v>6</v>
+      </c>
+      <c r="BD301">
+        <v>1.43</v>
+      </c>
+      <c r="BE301">
+        <v>7</v>
+      </c>
+      <c r="BF301">
+        <v>3.05</v>
+      </c>
+      <c r="BG301">
+        <v>1.13</v>
+      </c>
+      <c r="BH301">
+        <v>4.88</v>
+      </c>
+      <c r="BI301">
+        <v>1.31</v>
+      </c>
+      <c r="BJ301">
+        <v>3.22</v>
+      </c>
+      <c r="BK301">
+        <v>1.57</v>
+      </c>
+      <c r="BL301">
+        <v>2.37</v>
+      </c>
+      <c r="BM301">
+        <v>1.92</v>
+      </c>
+      <c r="BN301">
+        <v>1.88</v>
+      </c>
+      <c r="BO301">
+        <v>2.42</v>
+      </c>
+      <c r="BP301">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7479049</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F302">
+        <v>26</v>
+      </c>
+      <c r="G302" t="s">
+        <v>71</v>
+      </c>
+      <c r="H302" t="s">
+        <v>73</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302" t="s">
+        <v>204</v>
+      </c>
+      <c r="P302" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q302">
+        <v>2.5</v>
+      </c>
+      <c r="R302">
+        <v>2.1</v>
+      </c>
+      <c r="S302">
+        <v>4.75</v>
+      </c>
+      <c r="T302">
+        <v>1.44</v>
+      </c>
+      <c r="U302">
+        <v>2.63</v>
+      </c>
+      <c r="V302">
+        <v>3</v>
+      </c>
+      <c r="W302">
+        <v>1.36</v>
+      </c>
+      <c r="X302">
+        <v>9</v>
+      </c>
+      <c r="Y302">
+        <v>1.07</v>
+      </c>
+      <c r="Z302">
+        <v>1.83</v>
+      </c>
+      <c r="AA302">
+        <v>3.5</v>
+      </c>
+      <c r="AB302">
+        <v>4</v>
+      </c>
+      <c r="AC302">
+        <v>1.06</v>
+      </c>
+      <c r="AD302">
+        <v>8.5</v>
+      </c>
+      <c r="AE302">
+        <v>1.33</v>
+      </c>
+      <c r="AF302">
+        <v>3.3</v>
+      </c>
+      <c r="AG302">
+        <v>2.1</v>
+      </c>
+      <c r="AH302">
+        <v>1.65</v>
+      </c>
+      <c r="AI302">
+        <v>1.83</v>
+      </c>
+      <c r="AJ302">
+        <v>1.83</v>
+      </c>
+      <c r="AK302">
+        <v>1.21</v>
+      </c>
+      <c r="AL302">
+        <v>1.28</v>
+      </c>
+      <c r="AM302">
+        <v>1.95</v>
+      </c>
+      <c r="AN302">
+        <v>1.62</v>
+      </c>
+      <c r="AO302">
+        <v>0.45</v>
+      </c>
+      <c r="AP302">
+        <v>1.57</v>
+      </c>
+      <c r="AQ302">
+        <v>0.5</v>
+      </c>
+      <c r="AR302">
+        <v>1.22</v>
+      </c>
+      <c r="AS302">
+        <v>0.98</v>
+      </c>
+      <c r="AT302">
+        <v>2.2</v>
+      </c>
+      <c r="AU302">
+        <v>6</v>
+      </c>
+      <c r="AV302">
+        <v>4</v>
+      </c>
+      <c r="AW302">
+        <v>9</v>
+      </c>
+      <c r="AX302">
+        <v>0</v>
+      </c>
+      <c r="AY302">
+        <v>20</v>
+      </c>
+      <c r="AZ302">
+        <v>6</v>
+      </c>
+      <c r="BA302">
+        <v>4</v>
+      </c>
+      <c r="BB302">
+        <v>2</v>
+      </c>
+      <c r="BC302">
+        <v>6</v>
+      </c>
+      <c r="BD302">
+        <v>1.44</v>
+      </c>
+      <c r="BE302">
+        <v>7</v>
+      </c>
+      <c r="BF302">
+        <v>3.05</v>
+      </c>
+      <c r="BG302">
+        <v>1.15</v>
+      </c>
+      <c r="BH302">
+        <v>4.68</v>
+      </c>
+      <c r="BI302">
+        <v>1.33</v>
+      </c>
+      <c r="BJ302">
+        <v>3.12</v>
+      </c>
+      <c r="BK302">
+        <v>1.6</v>
+      </c>
+      <c r="BL302">
+        <v>2.31</v>
+      </c>
+      <c r="BM302">
+        <v>1.98</v>
+      </c>
+      <c r="BN302">
+        <v>1.82</v>
+      </c>
+      <c r="BO302">
+        <v>2.49</v>
+      </c>
+      <c r="BP302">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7479048</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F303">
+        <v>26</v>
+      </c>
+      <c r="G303" t="s">
+        <v>90</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>292</v>
+      </c>
+      <c r="P303" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q303">
+        <v>3</v>
+      </c>
+      <c r="R303">
+        <v>2.25</v>
+      </c>
+      <c r="S303">
+        <v>3.25</v>
+      </c>
+      <c r="T303">
+        <v>1.33</v>
+      </c>
+      <c r="U303">
+        <v>3.25</v>
+      </c>
+      <c r="V303">
+        <v>2.63</v>
+      </c>
+      <c r="W303">
+        <v>1.44</v>
+      </c>
+      <c r="X303">
+        <v>6.5</v>
+      </c>
+      <c r="Y303">
+        <v>1.11</v>
+      </c>
+      <c r="Z303">
+        <v>2.38</v>
+      </c>
+      <c r="AA303">
+        <v>3.3</v>
+      </c>
+      <c r="AB303">
+        <v>2.8</v>
+      </c>
+      <c r="AC303">
+        <v>1.05</v>
+      </c>
+      <c r="AD303">
+        <v>9.5</v>
+      </c>
+      <c r="AE303">
+        <v>1.25</v>
+      </c>
+      <c r="AF303">
+        <v>3.95</v>
+      </c>
+      <c r="AG303">
+        <v>1.8</v>
+      </c>
+      <c r="AH303">
+        <v>1.91</v>
+      </c>
+      <c r="AI303">
+        <v>1.57</v>
+      </c>
+      <c r="AJ303">
+        <v>2.25</v>
+      </c>
+      <c r="AK303">
+        <v>1.42</v>
+      </c>
+      <c r="AL303">
+        <v>1.29</v>
+      </c>
+      <c r="AM303">
+        <v>1.55</v>
+      </c>
+      <c r="AN303">
+        <v>1.67</v>
+      </c>
+      <c r="AO303">
+        <v>0.85</v>
+      </c>
+      <c r="AP303">
+        <v>1.77</v>
+      </c>
+      <c r="AQ303">
+        <v>0.79</v>
+      </c>
+      <c r="AR303">
+        <v>1.45</v>
+      </c>
+      <c r="AS303">
+        <v>1.11</v>
+      </c>
+      <c r="AT303">
+        <v>2.56</v>
+      </c>
+      <c r="AU303">
+        <v>10</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>9</v>
+      </c>
+      <c r="AX303">
+        <v>4</v>
+      </c>
+      <c r="AY303">
+        <v>25</v>
+      </c>
+      <c r="AZ303">
+        <v>7</v>
+      </c>
+      <c r="BA303">
+        <v>9</v>
+      </c>
+      <c r="BB303">
+        <v>1</v>
+      </c>
+      <c r="BC303">
+        <v>10</v>
+      </c>
+      <c r="BD303">
+        <v>1.95</v>
+      </c>
+      <c r="BE303">
+        <v>6.75</v>
+      </c>
+      <c r="BF303">
+        <v>2.02</v>
+      </c>
+      <c r="BG303">
+        <v>1.1</v>
+      </c>
+      <c r="BH303">
+        <v>5.45</v>
+      </c>
+      <c r="BI303">
+        <v>1.26</v>
+      </c>
+      <c r="BJ303">
+        <v>3.52</v>
+      </c>
+      <c r="BK303">
+        <v>1.5</v>
+      </c>
+      <c r="BL303">
+        <v>2.54</v>
+      </c>
+      <c r="BM303">
+        <v>1.8</v>
+      </c>
+      <c r="BN303">
+        <v>2</v>
+      </c>
+      <c r="BO303">
+        <v>2.26</v>
+      </c>
+      <c r="BP303">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7479055</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F304">
+        <v>26</v>
+      </c>
+      <c r="G304" t="s">
+        <v>87</v>
+      </c>
+      <c r="H304" t="s">
+        <v>86</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="s">
+        <v>293</v>
+      </c>
+      <c r="P304" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q304">
+        <v>3.75</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>3.1</v>
+      </c>
+      <c r="T304">
+        <v>1.5</v>
+      </c>
+      <c r="U304">
+        <v>2.5</v>
+      </c>
+      <c r="V304">
+        <v>3.4</v>
+      </c>
+      <c r="W304">
+        <v>1.3</v>
+      </c>
+      <c r="X304">
+        <v>10</v>
+      </c>
+      <c r="Y304">
+        <v>1.06</v>
+      </c>
+      <c r="Z304">
+        <v>2.8</v>
+      </c>
+      <c r="AA304">
+        <v>3.25</v>
+      </c>
+      <c r="AB304">
+        <v>2.4</v>
+      </c>
+      <c r="AC304">
+        <v>1.07</v>
+      </c>
+      <c r="AD304">
+        <v>9.5</v>
+      </c>
+      <c r="AE304">
+        <v>1.38</v>
+      </c>
+      <c r="AF304">
+        <v>3.1</v>
+      </c>
+      <c r="AG304">
+        <v>1.95</v>
+      </c>
+      <c r="AH304">
+        <v>1.75</v>
+      </c>
+      <c r="AI304">
+        <v>1.91</v>
+      </c>
+      <c r="AJ304">
+        <v>1.8</v>
+      </c>
+      <c r="AK304">
+        <v>1.52</v>
+      </c>
+      <c r="AL304">
+        <v>1.33</v>
+      </c>
+      <c r="AM304">
+        <v>1.4</v>
+      </c>
+      <c r="AN304">
+        <v>2.42</v>
+      </c>
+      <c r="AO304">
+        <v>1.69</v>
+      </c>
+      <c r="AP304">
+        <v>2.23</v>
+      </c>
+      <c r="AQ304">
+        <v>1.79</v>
+      </c>
+      <c r="AR304">
+        <v>1.45</v>
+      </c>
+      <c r="AS304">
+        <v>1.25</v>
+      </c>
+      <c r="AT304">
+        <v>2.7</v>
+      </c>
+      <c r="AU304">
+        <v>5</v>
+      </c>
+      <c r="AV304">
+        <v>7</v>
+      </c>
+      <c r="AW304">
+        <v>3</v>
+      </c>
+      <c r="AX304">
+        <v>1</v>
+      </c>
+      <c r="AY304">
+        <v>8</v>
+      </c>
+      <c r="AZ304">
+        <v>8</v>
+      </c>
+      <c r="BA304">
+        <v>4</v>
+      </c>
+      <c r="BB304">
+        <v>0</v>
+      </c>
+      <c r="BC304">
+        <v>4</v>
+      </c>
+      <c r="BD304">
+        <v>1.9</v>
+      </c>
+      <c r="BE304">
+        <v>6.7</v>
+      </c>
+      <c r="BF304">
+        <v>2.39</v>
+      </c>
+      <c r="BG304">
+        <v>1.13</v>
+      </c>
+      <c r="BH304">
+        <v>5.25</v>
+      </c>
+      <c r="BI304">
+        <v>1.25</v>
+      </c>
+      <c r="BJ304">
+        <v>3.4</v>
+      </c>
+      <c r="BK304">
+        <v>1.46</v>
+      </c>
+      <c r="BL304">
+        <v>2.45</v>
+      </c>
+      <c r="BM304">
+        <v>1.8</v>
+      </c>
+      <c r="BN304">
+        <v>1.85</v>
+      </c>
+      <c r="BO304">
+        <v>2.3</v>
+      </c>
+      <c r="BP304">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7479046</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F305">
+        <v>26</v>
+      </c>
+      <c r="G305" t="s">
+        <v>77</v>
+      </c>
+      <c r="H305" t="s">
+        <v>76</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>3</v>
+      </c>
+      <c r="M305">
+        <v>3</v>
+      </c>
+      <c r="N305">
+        <v>6</v>
+      </c>
+      <c r="O305" t="s">
+        <v>294</v>
+      </c>
+      <c r="P305" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q305">
+        <v>6.5</v>
+      </c>
+      <c r="R305">
+        <v>2.2</v>
+      </c>
+      <c r="S305">
+        <v>2.1</v>
+      </c>
+      <c r="T305">
+        <v>1.4</v>
+      </c>
+      <c r="U305">
+        <v>2.75</v>
+      </c>
+      <c r="V305">
+        <v>3</v>
+      </c>
+      <c r="W305">
+        <v>1.36</v>
+      </c>
+      <c r="X305">
+        <v>9</v>
+      </c>
+      <c r="Y305">
+        <v>1.07</v>
+      </c>
+      <c r="Z305">
+        <v>5.5</v>
+      </c>
+      <c r="AA305">
+        <v>3.8</v>
+      </c>
+      <c r="AB305">
+        <v>1.57</v>
+      </c>
+      <c r="AC305">
+        <v>1.05</v>
+      </c>
+      <c r="AD305">
+        <v>9.5</v>
+      </c>
+      <c r="AE305">
+        <v>1.33</v>
+      </c>
+      <c r="AF305">
+        <v>3.3</v>
+      </c>
+      <c r="AG305">
+        <v>1.8</v>
+      </c>
+      <c r="AH305">
+        <v>1.91</v>
+      </c>
+      <c r="AI305">
+        <v>2.1</v>
+      </c>
+      <c r="AJ305">
+        <v>1.67</v>
+      </c>
+      <c r="AK305">
+        <v>2.4</v>
+      </c>
+      <c r="AL305">
+        <v>1.23</v>
+      </c>
+      <c r="AM305">
+        <v>1.13</v>
+      </c>
+      <c r="AN305">
+        <v>0.85</v>
+      </c>
+      <c r="AO305">
+        <v>1.67</v>
+      </c>
+      <c r="AP305">
+        <v>0.86</v>
+      </c>
+      <c r="AQ305">
+        <v>1.62</v>
+      </c>
+      <c r="AR305">
+        <v>1.29</v>
+      </c>
+      <c r="AS305">
+        <v>1.52</v>
+      </c>
+      <c r="AT305">
+        <v>2.81</v>
+      </c>
+      <c r="AU305">
+        <v>7</v>
+      </c>
+      <c r="AV305">
+        <v>10</v>
+      </c>
+      <c r="AW305">
+        <v>5</v>
+      </c>
+      <c r="AX305">
+        <v>4</v>
+      </c>
+      <c r="AY305">
+        <v>16</v>
+      </c>
+      <c r="AZ305">
+        <v>18</v>
+      </c>
+      <c r="BA305">
+        <v>5</v>
+      </c>
+      <c r="BB305">
+        <v>7</v>
+      </c>
+      <c r="BC305">
+        <v>12</v>
+      </c>
+      <c r="BD305">
+        <v>2.32</v>
+      </c>
+      <c r="BE305">
+        <v>6.75</v>
+      </c>
+      <c r="BF305">
+        <v>1.74</v>
+      </c>
+      <c r="BG305">
+        <v>1.13</v>
+      </c>
+      <c r="BH305">
+        <v>4.99</v>
+      </c>
+      <c r="BI305">
+        <v>1.3</v>
+      </c>
+      <c r="BJ305">
+        <v>3.28</v>
+      </c>
+      <c r="BK305">
+        <v>1.55</v>
+      </c>
+      <c r="BL305">
+        <v>2.4</v>
+      </c>
+      <c r="BM305">
+        <v>1.9</v>
+      </c>
+      <c r="BN305">
+        <v>1.9</v>
+      </c>
+      <c r="BO305">
+        <v>2.38</v>
+      </c>
+      <c r="BP305">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7479045</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F306">
+        <v>26</v>
+      </c>
+      <c r="G306" t="s">
+        <v>89</v>
+      </c>
+      <c r="H306" t="s">
+        <v>84</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>295</v>
+      </c>
+      <c r="P306" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q306">
+        <v>2.75</v>
+      </c>
+      <c r="R306">
+        <v>2.05</v>
+      </c>
+      <c r="S306">
+        <v>4.33</v>
+      </c>
+      <c r="T306">
+        <v>1.5</v>
+      </c>
+      <c r="U306">
+        <v>2.5</v>
+      </c>
+      <c r="V306">
+        <v>3.4</v>
+      </c>
+      <c r="W306">
+        <v>1.3</v>
+      </c>
+      <c r="X306">
+        <v>10</v>
+      </c>
+      <c r="Y306">
+        <v>1.06</v>
+      </c>
+      <c r="Z306">
+        <v>1.91</v>
+      </c>
+      <c r="AA306">
+        <v>3.25</v>
+      </c>
+      <c r="AB306">
+        <v>4</v>
+      </c>
+      <c r="AC306">
+        <v>1.08</v>
+      </c>
+      <c r="AD306">
+        <v>7.5</v>
+      </c>
+      <c r="AE306">
+        <v>1.4</v>
+      </c>
+      <c r="AF306">
+        <v>2.88</v>
+      </c>
+      <c r="AG306">
+        <v>2.25</v>
+      </c>
+      <c r="AH306">
+        <v>1.57</v>
+      </c>
+      <c r="AI306">
+        <v>1.91</v>
+      </c>
+      <c r="AJ306">
+        <v>1.8</v>
+      </c>
+      <c r="AK306">
+        <v>1.26</v>
+      </c>
+      <c r="AL306">
+        <v>1.33</v>
+      </c>
+      <c r="AM306">
+        <v>1.73</v>
+      </c>
+      <c r="AN306">
+        <v>1.67</v>
+      </c>
+      <c r="AO306">
+        <v>0.54</v>
+      </c>
+      <c r="AP306">
+        <v>1.77</v>
+      </c>
+      <c r="AQ306">
+        <v>0.5</v>
+      </c>
+      <c r="AR306">
+        <v>1.49</v>
+      </c>
+      <c r="AS306">
+        <v>1.03</v>
+      </c>
+      <c r="AT306">
+        <v>2.52</v>
+      </c>
+      <c r="AU306">
+        <v>3</v>
+      </c>
+      <c r="AV306">
+        <v>4</v>
+      </c>
+      <c r="AW306">
+        <v>5</v>
+      </c>
+      <c r="AX306">
+        <v>3</v>
+      </c>
+      <c r="AY306">
+        <v>12</v>
+      </c>
+      <c r="AZ306">
+        <v>10</v>
+      </c>
+      <c r="BA306">
+        <v>6</v>
+      </c>
+      <c r="BB306">
+        <v>7</v>
+      </c>
+      <c r="BC306">
+        <v>13</v>
+      </c>
+      <c r="BD306">
+        <v>1.52</v>
+      </c>
+      <c r="BE306">
+        <v>6.75</v>
+      </c>
+      <c r="BF306">
+        <v>2.8</v>
+      </c>
+      <c r="BG306">
+        <v>1.11</v>
+      </c>
+      <c r="BH306">
+        <v>5.33</v>
+      </c>
+      <c r="BI306">
+        <v>1.27</v>
+      </c>
+      <c r="BJ306">
+        <v>3.46</v>
+      </c>
+      <c r="BK306">
+        <v>1.51</v>
+      </c>
+      <c r="BL306">
+        <v>2.5</v>
+      </c>
+      <c r="BM306">
+        <v>1.82</v>
+      </c>
+      <c r="BN306">
+        <v>1.98</v>
+      </c>
+      <c r="BO306">
+        <v>2.29</v>
+      </c>
+      <c r="BP306">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7479047</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F307">
+        <v>26</v>
+      </c>
+      <c r="G307" t="s">
+        <v>79</v>
+      </c>
+      <c r="H307" t="s">
+        <v>78</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" t="s">
+        <v>186</v>
+      </c>
+      <c r="P307" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q307">
+        <v>2.2</v>
+      </c>
+      <c r="R307">
+        <v>2.38</v>
+      </c>
+      <c r="S307">
+        <v>5</v>
+      </c>
+      <c r="T307">
+        <v>1.33</v>
+      </c>
+      <c r="U307">
+        <v>3.25</v>
+      </c>
+      <c r="V307">
+        <v>2.5</v>
+      </c>
+      <c r="W307">
+        <v>1.5</v>
+      </c>
+      <c r="X307">
+        <v>6.5</v>
+      </c>
+      <c r="Y307">
+        <v>1.11</v>
+      </c>
+      <c r="Z307">
+        <v>1.55</v>
+      </c>
+      <c r="AA307">
+        <v>4.2</v>
+      </c>
+      <c r="AB307">
+        <v>5</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>15</v>
+      </c>
+      <c r="AE307">
+        <v>1.22</v>
+      </c>
+      <c r="AF307">
+        <v>4.33</v>
+      </c>
+      <c r="AG307">
+        <v>1.65</v>
+      </c>
+      <c r="AH307">
+        <v>2.1</v>
+      </c>
+      <c r="AI307">
+        <v>1.73</v>
+      </c>
+      <c r="AJ307">
+        <v>2</v>
+      </c>
+      <c r="AK307">
+        <v>1.16</v>
+      </c>
+      <c r="AL307">
+        <v>1.23</v>
+      </c>
+      <c r="AM307">
+        <v>2.25</v>
+      </c>
+      <c r="AN307">
+        <v>1.69</v>
+      </c>
+      <c r="AO307">
+        <v>0.75</v>
+      </c>
+      <c r="AP307">
+        <v>1.64</v>
+      </c>
+      <c r="AQ307">
+        <v>0.77</v>
+      </c>
+      <c r="AR307">
+        <v>1.51</v>
+      </c>
+      <c r="AS307">
+        <v>1.12</v>
+      </c>
+      <c r="AT307">
+        <v>2.63</v>
+      </c>
+      <c r="AU307">
+        <v>4</v>
+      </c>
+      <c r="AV307">
+        <v>3</v>
+      </c>
+      <c r="AW307">
+        <v>2</v>
+      </c>
+      <c r="AX307">
+        <v>4</v>
+      </c>
+      <c r="AY307">
+        <v>10</v>
+      </c>
+      <c r="AZ307">
+        <v>10</v>
+      </c>
+      <c r="BA307">
+        <v>4</v>
+      </c>
+      <c r="BB307">
+        <v>4</v>
+      </c>
+      <c r="BC307">
+        <v>8</v>
+      </c>
+      <c r="BD307">
+        <v>1.39</v>
+      </c>
+      <c r="BE307">
+        <v>9.9</v>
+      </c>
+      <c r="BF307">
+        <v>3.66</v>
+      </c>
+      <c r="BG307">
+        <v>1.15</v>
+      </c>
+      <c r="BH307">
+        <v>4.75</v>
+      </c>
+      <c r="BI307">
+        <v>1.28</v>
+      </c>
+      <c r="BJ307">
+        <v>3.2</v>
+      </c>
+      <c r="BK307">
+        <v>1.52</v>
+      </c>
+      <c r="BL307">
+        <v>2.3</v>
+      </c>
+      <c r="BM307">
+        <v>1.88</v>
+      </c>
+      <c r="BN307">
+        <v>1.77</v>
+      </c>
+      <c r="BO307">
+        <v>2.45</v>
+      </c>
+      <c r="BP307">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -904,6 +904,9 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1566,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1828,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -2031,7 +2034,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2237,7 +2240,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2649,7 +2652,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3061,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -3142,7 +3145,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ8">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3267,7 +3270,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3473,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -4091,7 +4094,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4297,7 +4300,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -5121,7 +5124,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5739,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5945,7 +5948,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6641,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
         <v>1.42</v>
@@ -6769,7 +6772,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7593,7 +7596,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7674,7 +7677,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -8083,7 +8086,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -8623,7 +8626,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8829,7 +8832,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9241,7 +9244,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9653,7 +9656,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9859,7 +9862,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -10271,7 +10274,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -11713,7 +11716,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12949,7 +12952,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -13773,7 +13776,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13979,7 +13982,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14185,7 +14188,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14469,7 +14472,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -15009,7 +15012,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15627,7 +15630,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15708,7 +15711,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -16039,7 +16042,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16657,7 +16660,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -17069,7 +17072,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17275,7 +17278,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17687,7 +17690,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18099,7 +18102,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -19747,7 +19750,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20031,7 +20034,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90">
         <v>0.5</v>
@@ -20365,7 +20368,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21270,7 +21273,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21601,7 +21604,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21679,7 +21682,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ98">
         <v>1.62</v>
@@ -22425,7 +22428,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22631,7 +22634,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -25103,7 +25106,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25309,7 +25312,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25390,7 +25393,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25721,7 +25724,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26751,7 +26754,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26957,7 +26960,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -27450,7 +27453,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -28399,7 +28402,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -29017,7 +29020,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29429,7 +29432,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29841,7 +29844,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q138">
         <v>3.25</v>
@@ -30331,7 +30334,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ140">
         <v>0.5</v>
@@ -30665,7 +30668,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q142">
         <v>3.25</v>
@@ -31283,7 +31286,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31489,7 +31492,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31695,7 +31698,7 @@
         <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31901,7 +31904,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32107,7 +32110,7 @@
         <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32313,7 +32316,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>2.25</v>
@@ -32394,7 +32397,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ150">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32725,7 +32728,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33137,7 +33140,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33549,7 +33552,7 @@
         <v>95</v>
       </c>
       <c r="P156" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33961,7 +33964,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -34579,7 +34582,7 @@
         <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -35072,7 +35075,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ163">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR163">
         <v>1.59</v>
@@ -35403,7 +35406,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35609,7 +35612,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36845,7 +36848,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37051,7 +37054,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37463,7 +37466,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37541,7 +37544,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ175">
         <v>0.79</v>
@@ -37875,7 +37878,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38493,7 +38496,7 @@
         <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38905,7 +38908,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -39317,7 +39320,7 @@
         <v>220</v>
       </c>
       <c r="P184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -40141,7 +40144,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q188">
         <v>5.5</v>
@@ -40759,7 +40762,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40965,7 +40968,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -41789,7 +41792,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42485,7 +42488,7 @@
         <v>1.88</v>
       </c>
       <c r="AP199">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ199">
         <v>1.36</v>
@@ -42819,7 +42822,7 @@
         <v>95</v>
       </c>
       <c r="P201" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -44055,7 +44058,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44673,7 +44676,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44879,7 +44882,7 @@
         <v>235</v>
       </c>
       <c r="P211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q211">
         <v>2.38</v>
@@ -45291,7 +45294,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q213">
         <v>2.4</v>
@@ -45372,7 +45375,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ213">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR213">
         <v>1.34</v>
@@ -45497,7 +45500,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q214">
         <v>3.75</v>
@@ -45703,7 +45706,7 @@
         <v>178</v>
       </c>
       <c r="P215" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -46605,7 +46608,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ219">
         <v>0.75</v>
@@ -47557,7 +47560,7 @@
         <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47763,7 +47766,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q225">
         <v>3.2</v>
@@ -48047,7 +48050,7 @@
         <v>1.2</v>
       </c>
       <c r="AP226">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ226">
         <v>1.08</v>
@@ -48175,7 +48178,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48587,7 +48590,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -49411,7 +49414,7 @@
         <v>95</v>
       </c>
       <c r="P233" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49617,7 +49620,7 @@
         <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50522,7 +50525,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ238">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR238">
         <v>1.39</v>
@@ -50853,7 +50856,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q240">
         <v>2.5</v>
@@ -51471,7 +51474,7 @@
         <v>253</v>
       </c>
       <c r="P243" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51677,7 +51680,7 @@
         <v>254</v>
       </c>
       <c r="P244" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -52089,7 +52092,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52707,7 +52710,7 @@
         <v>131</v>
       </c>
       <c r="P249" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53325,7 +53328,7 @@
         <v>260</v>
       </c>
       <c r="P252" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53737,7 +53740,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -53815,7 +53818,7 @@
         <v>0.91</v>
       </c>
       <c r="AP254">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ254">
         <v>1</v>
@@ -54767,7 +54770,7 @@
         <v>266</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>5.5</v>
@@ -54973,7 +54976,7 @@
         <v>267</v>
       </c>
       <c r="P260" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -55385,7 +55388,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -56003,7 +56006,7 @@
         <v>95</v>
       </c>
       <c r="P265" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56209,7 +56212,7 @@
         <v>271</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56827,7 +56830,7 @@
         <v>274</v>
       </c>
       <c r="P269" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q269">
         <v>3.5</v>
@@ -57114,7 +57117,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ270">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR270">
         <v>1.47</v>
@@ -57445,7 +57448,7 @@
         <v>277</v>
       </c>
       <c r="P272" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57651,7 +57654,7 @@
         <v>95</v>
       </c>
       <c r="P273" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -58063,7 +58066,7 @@
         <v>278</v>
       </c>
       <c r="P275" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58269,7 +58272,7 @@
         <v>279</v>
       </c>
       <c r="P276" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q276">
         <v>2.5</v>
@@ -58475,7 +58478,7 @@
         <v>280</v>
       </c>
       <c r="P277" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -58681,7 +58684,7 @@
         <v>281</v>
       </c>
       <c r="P278" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q278">
         <v>2.6</v>
@@ -59792,7 +59795,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ283">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR283">
         <v>1.45</v>
@@ -60535,7 +60538,7 @@
         <v>285</v>
       </c>
       <c r="P287" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q287">
         <v>3.75</v>
@@ -60947,7 +60950,7 @@
         <v>286</v>
       </c>
       <c r="P289" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q289">
         <v>2.38</v>
@@ -61153,7 +61156,7 @@
         <v>287</v>
       </c>
       <c r="P290" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61771,7 +61774,7 @@
         <v>198</v>
       </c>
       <c r="P293" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q293">
         <v>1.95</v>
@@ -61977,7 +61980,7 @@
         <v>289</v>
       </c>
       <c r="P294" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q294">
         <v>3.4</v>
@@ -62595,7 +62598,7 @@
         <v>290</v>
       </c>
       <c r="P297" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q297">
         <v>3.25</v>
@@ -62673,7 +62676,7 @@
         <v>1.83</v>
       </c>
       <c r="AP297">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ297">
         <v>1.79</v>
@@ -63419,7 +63422,7 @@
         <v>291</v>
       </c>
       <c r="P301" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q301">
         <v>3</v>
@@ -63625,7 +63628,7 @@
         <v>204</v>
       </c>
       <c r="P302" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -64037,7 +64040,7 @@
         <v>293</v>
       </c>
       <c r="P304" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q304">
         <v>3.75</v>
@@ -64243,7 +64246,7 @@
         <v>294</v>
       </c>
       <c r="P305" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q305">
         <v>6.5</v>
@@ -64652,10 +64655,10 @@
         <v>2</v>
       </c>
       <c r="O307" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P307" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q307">
         <v>2.2</v>
@@ -64812,6 +64815,212 @@
       </c>
       <c r="BP307">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7479053</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F308">
+        <v>26</v>
+      </c>
+      <c r="G308" t="s">
+        <v>93</v>
+      </c>
+      <c r="H308" t="s">
+        <v>85</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>296</v>
+      </c>
+      <c r="P308" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q308">
+        <v>2</v>
+      </c>
+      <c r="R308">
+        <v>2.3</v>
+      </c>
+      <c r="S308">
+        <v>6.5</v>
+      </c>
+      <c r="T308">
+        <v>1.36</v>
+      </c>
+      <c r="U308">
+        <v>3</v>
+      </c>
+      <c r="V308">
+        <v>2.75</v>
+      </c>
+      <c r="W308">
+        <v>1.4</v>
+      </c>
+      <c r="X308">
+        <v>7</v>
+      </c>
+      <c r="Y308">
+        <v>1.1</v>
+      </c>
+      <c r="Z308">
+        <v>1.48</v>
+      </c>
+      <c r="AA308">
+        <v>4.5</v>
+      </c>
+      <c r="AB308">
+        <v>6.37</v>
+      </c>
+      <c r="AC308">
+        <v>1.04</v>
+      </c>
+      <c r="AD308">
+        <v>12</v>
+      </c>
+      <c r="AE308">
+        <v>1.28</v>
+      </c>
+      <c r="AF308">
+        <v>3.75</v>
+      </c>
+      <c r="AG308">
+        <v>1.77</v>
+      </c>
+      <c r="AH308">
+        <v>1.98</v>
+      </c>
+      <c r="AI308">
+        <v>2</v>
+      </c>
+      <c r="AJ308">
+        <v>1.73</v>
+      </c>
+      <c r="AK308">
+        <v>1.1</v>
+      </c>
+      <c r="AL308">
+        <v>1.18</v>
+      </c>
+      <c r="AM308">
+        <v>2.7</v>
+      </c>
+      <c r="AN308">
+        <v>2.33</v>
+      </c>
+      <c r="AO308">
+        <v>0.58</v>
+      </c>
+      <c r="AP308">
+        <v>2.38</v>
+      </c>
+      <c r="AQ308">
+        <v>0.54</v>
+      </c>
+      <c r="AR308">
+        <v>1.55</v>
+      </c>
+      <c r="AS308">
+        <v>0.95</v>
+      </c>
+      <c r="AT308">
+        <v>2.5</v>
+      </c>
+      <c r="AU308">
+        <v>9</v>
+      </c>
+      <c r="AV308">
+        <v>2</v>
+      </c>
+      <c r="AW308">
+        <v>8</v>
+      </c>
+      <c r="AX308">
+        <v>4</v>
+      </c>
+      <c r="AY308">
+        <v>26</v>
+      </c>
+      <c r="AZ308">
+        <v>7</v>
+      </c>
+      <c r="BA308">
+        <v>7</v>
+      </c>
+      <c r="BB308">
+        <v>3</v>
+      </c>
+      <c r="BC308">
+        <v>10</v>
+      </c>
+      <c r="BD308">
+        <v>1.35</v>
+      </c>
+      <c r="BE308">
+        <v>10.5</v>
+      </c>
+      <c r="BF308">
+        <v>3.9</v>
+      </c>
+      <c r="BG308">
+        <v>1.12</v>
+      </c>
+      <c r="BH308">
+        <v>4.7</v>
+      </c>
+      <c r="BI308">
+        <v>1.26</v>
+      </c>
+      <c r="BJ308">
+        <v>3.22</v>
+      </c>
+      <c r="BK308">
+        <v>1.73</v>
+      </c>
+      <c r="BL308">
+        <v>2</v>
+      </c>
+      <c r="BM308">
+        <v>1.85</v>
+      </c>
+      <c r="BN308">
+        <v>1.85</v>
+      </c>
+      <c r="BO308">
+        <v>2.34</v>
+      </c>
+      <c r="BP308">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -64563,13 +64563,13 @@
         <v>10</v>
       </c>
       <c r="BA306">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB306">
         <v>7</v>
       </c>
       <c r="BC306">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD306">
         <v>1.52</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1569,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP308"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>1.36</v>
@@ -4999,7 +4999,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>0.21</v>
@@ -8295,7 +8295,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -14884,7 +14884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -16741,7 +16741,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -20446,7 +20446,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>0.92</v>
@@ -22921,7 +22921,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ104">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -25390,7 +25390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>0.54</v>
@@ -27862,7 +27862,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>0.79</v>
@@ -29513,7 +29513,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -33012,7 +33012,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ153">
         <v>1.46</v>
@@ -34042,7 +34042,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ158">
         <v>1.5</v>
@@ -36723,7 +36723,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ171">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -40634,7 +40634,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ190">
         <v>0.75</v>
@@ -42697,7 +42697,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ200">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR200">
         <v>1.86</v>
@@ -44757,7 +44757,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ210">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -47432,7 +47432,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ223">
         <v>1</v>
@@ -50110,7 +50110,7 @@
         <v>0.25</v>
       </c>
       <c r="AP236">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ236">
         <v>0.5</v>
@@ -52379,7 +52379,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ247">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR247">
         <v>1.31</v>
@@ -55054,7 +55054,7 @@
         <v>0.8</v>
       </c>
       <c r="AP260">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ260">
         <v>0.67</v>
@@ -56705,7 +56705,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ268">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR268">
         <v>1.48</v>
@@ -58559,7 +58559,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ277">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR277">
         <v>1.4</v>
@@ -60410,7 +60410,7 @@
         <v>0.73</v>
       </c>
       <c r="AP286">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ286">
         <v>0.67</v>
@@ -64563,13 +64563,13 @@
         <v>10</v>
       </c>
       <c r="BA306">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB306">
         <v>7</v>
       </c>
       <c r="BC306">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD306">
         <v>1.52</v>
@@ -65021,6 +65021,212 @@
       </c>
       <c r="BP308">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7479050</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45663.70833333334</v>
+      </c>
+      <c r="F309">
+        <v>26</v>
+      </c>
+      <c r="G309" t="s">
+        <v>72</v>
+      </c>
+      <c r="H309" t="s">
+        <v>81</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309">
+        <v>2</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>3</v>
+      </c>
+      <c r="O309" t="s">
+        <v>245</v>
+      </c>
+      <c r="P309" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q309">
+        <v>3.2</v>
+      </c>
+      <c r="R309">
+        <v>2</v>
+      </c>
+      <c r="S309">
+        <v>3.75</v>
+      </c>
+      <c r="T309">
+        <v>1.5</v>
+      </c>
+      <c r="U309">
+        <v>2.5</v>
+      </c>
+      <c r="V309">
+        <v>3.4</v>
+      </c>
+      <c r="W309">
+        <v>1.3</v>
+      </c>
+      <c r="X309">
+        <v>10</v>
+      </c>
+      <c r="Y309">
+        <v>1.06</v>
+      </c>
+      <c r="Z309">
+        <v>2.34</v>
+      </c>
+      <c r="AA309">
+        <v>3.19</v>
+      </c>
+      <c r="AB309">
+        <v>2.79</v>
+      </c>
+      <c r="AC309">
+        <v>1.08</v>
+      </c>
+      <c r="AD309">
+        <v>9</v>
+      </c>
+      <c r="AE309">
+        <v>1.4</v>
+      </c>
+      <c r="AF309">
+        <v>3</v>
+      </c>
+      <c r="AG309">
+        <v>2</v>
+      </c>
+      <c r="AH309">
+        <v>1.7</v>
+      </c>
+      <c r="AI309">
+        <v>1.83</v>
+      </c>
+      <c r="AJ309">
+        <v>1.83</v>
+      </c>
+      <c r="AK309">
+        <v>1.4</v>
+      </c>
+      <c r="AL309">
+        <v>1.34</v>
+      </c>
+      <c r="AM309">
+        <v>1.51</v>
+      </c>
+      <c r="AN309">
+        <v>1.31</v>
+      </c>
+      <c r="AO309">
+        <v>0.33</v>
+      </c>
+      <c r="AP309">
+        <v>1.43</v>
+      </c>
+      <c r="AQ309">
+        <v>0.31</v>
+      </c>
+      <c r="AR309">
+        <v>1.61</v>
+      </c>
+      <c r="AS309">
+        <v>1.1</v>
+      </c>
+      <c r="AT309">
+        <v>2.71</v>
+      </c>
+      <c r="AU309">
+        <v>7</v>
+      </c>
+      <c r="AV309">
+        <v>5</v>
+      </c>
+      <c r="AW309">
+        <v>5</v>
+      </c>
+      <c r="AX309">
+        <v>8</v>
+      </c>
+      <c r="AY309">
+        <v>16</v>
+      </c>
+      <c r="AZ309">
+        <v>19</v>
+      </c>
+      <c r="BA309">
+        <v>3</v>
+      </c>
+      <c r="BB309">
+        <v>4</v>
+      </c>
+      <c r="BC309">
+        <v>7</v>
+      </c>
+      <c r="BD309">
+        <v>2.2</v>
+      </c>
+      <c r="BE309">
+        <v>6.85</v>
+      </c>
+      <c r="BF309">
+        <v>2.03</v>
+      </c>
+      <c r="BG309">
+        <v>1.09</v>
+      </c>
+      <c r="BH309">
+        <v>5.3</v>
+      </c>
+      <c r="BI309">
+        <v>1.22</v>
+      </c>
+      <c r="BJ309">
+        <v>3.5</v>
+      </c>
+      <c r="BK309">
+        <v>1.42</v>
+      </c>
+      <c r="BL309">
+        <v>2.57</v>
+      </c>
+      <c r="BM309">
+        <v>1.74</v>
+      </c>
+      <c r="BN309">
+        <v>1.98</v>
+      </c>
+      <c r="BO309">
+        <v>2.15</v>
+      </c>
+      <c r="BP309">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>
